--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -12901,11 +12901,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -12920,8 +12920,24 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12934,23 +12950,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12964,15 +13018,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12988,71 +13035,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13064,10 +13057,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13128,31 +13121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13164,25 +13133,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13200,7 +13163,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13212,19 +13205,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13236,61 +13283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13302,13 +13295,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13319,15 +13312,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -13358,8 +13342,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13374,21 +13358,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -13411,6 +13380,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -13422,148 +13415,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13660,7 +13653,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="7381875"/>
+          <a:off x="2713990" y="2619375"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13693,44 +13686,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>301355</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>720240</xdr:colOff>
-      <xdr:row>1025</xdr:row>
-      <xdr:rowOff>59840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9986010" y="18573750"/>
-          <a:ext cx="7663815" cy="2377440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13995,8 +13950,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -14005,7 +13960,7 @@
     <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.8296296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14024,7 +13979,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -14047,9 +14002,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="37.5" spans="1:4">
+    <row r="4" ht="37.5" hidden="1" spans="1:4">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -14061,9 +14016,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" hidden="1" spans="1:4">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -14086,9 +14041,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="37.5" spans="1:4">
+    <row r="7" ht="37.5" hidden="1" spans="1:4">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -14100,9 +14055,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" hidden="1" spans="1:4">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -14114,9 +14069,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" hidden="1" spans="1:4">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -14128,9 +14083,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" hidden="1" spans="1:4">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -14166,7 +14121,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
@@ -14178,9 +14133,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" hidden="1" spans="1:4">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>40</v>
@@ -14192,9 +14147,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="56.25" spans="1:4">
+    <row r="15" ht="56.25" hidden="1" spans="1:4">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>43</v>
@@ -14217,9 +14172,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" hidden="1" spans="1:4">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>49</v>
@@ -14253,9 +14208,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -14280,7 +14235,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
@@ -14292,9 +14247,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" hidden="1" spans="1:4">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>67</v>
@@ -14306,9 +14261,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="37.5" spans="1:4">
+    <row r="24" ht="37.5" hidden="1" spans="1:4">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -14322,7 +14277,7 @@
     </row>
     <row r="25" ht="37.5" spans="1:4">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
@@ -14334,9 +14289,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" hidden="1" spans="1:4">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>76</v>
@@ -14350,7 +14305,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>79</v>
@@ -14397,7 +14352,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>91</v>
@@ -14411,7 +14366,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>94</v>
@@ -14425,7 +14380,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>97</v>
@@ -14461,7 +14416,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>106</v>
@@ -14473,9 +14428,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>109</v>
@@ -14487,9 +14442,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>112</v>
@@ -14501,9 +14456,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" hidden="1" spans="1:4">
       <c r="A39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>115</v>
@@ -14517,7 +14472,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>118</v>
@@ -14529,9 +14484,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>121</v>
@@ -14543,9 +14498,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" hidden="1" spans="1:4">
       <c r="A42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>124</v>
@@ -14559,7 +14514,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>127</v>
@@ -14584,7 +14539,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
@@ -14598,7 +14553,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>136</v>
@@ -14610,9 +14565,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>139</v>
@@ -14637,7 +14592,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>145</v>
@@ -14663,9 +14618,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" hidden="1" spans="1:4">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>151</v>
@@ -14679,7 +14634,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>154</v>
@@ -14691,9 +14646,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" hidden="1" spans="1:4">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>157</v>
@@ -14718,7 +14673,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>163</v>
@@ -14743,7 +14698,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>169</v>
@@ -14779,7 +14734,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>178</v>
@@ -14804,7 +14759,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>184</v>
@@ -14818,7 +14773,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>187</v>
@@ -14830,9 +14785,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>190</v>
@@ -14880,9 +14835,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" hidden="1" spans="1:4">
       <c r="A68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>202</v>
@@ -14894,9 +14849,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>205</v>
@@ -14908,9 +14863,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>208</v>
@@ -14922,9 +14877,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>211</v>
@@ -14936,9 +14891,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" hidden="1" spans="1:4">
       <c r="A72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>214</v>
@@ -14952,7 +14907,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>217</v>
@@ -14966,7 +14921,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>220</v>
@@ -14978,9 +14933,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>223</v>
@@ -14992,9 +14947,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" hidden="1" spans="1:4">
       <c r="A76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>226</v>
@@ -15006,9 +14961,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" hidden="1" spans="1:4">
       <c r="A77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>229</v>
@@ -15034,9 +14989,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" hidden="1" spans="1:4">
       <c r="A79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>235</v>
@@ -15048,9 +15003,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>238</v>
@@ -15062,9 +15017,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" hidden="1" spans="1:4">
       <c r="A81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>241</v>
@@ -15076,9 +15031,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>244</v>
@@ -15090,9 +15045,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>247</v>
@@ -15139,7 +15094,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>259</v>
@@ -15162,9 +15117,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" hidden="1" spans="1:4">
       <c r="A89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>265</v>
@@ -15178,7 +15133,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>268</v>
@@ -15190,9 +15145,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>271</v>
@@ -15204,9 +15159,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" hidden="1" spans="1:4">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>274</v>
@@ -15231,7 +15186,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>280</v>
@@ -15243,9 +15198,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" hidden="1" spans="1:4">
       <c r="A95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>283</v>
@@ -15259,7 +15214,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>286</v>
@@ -15284,7 +15239,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>292</v>
@@ -15296,9 +15251,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" hidden="1" spans="1:4">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>295</v>
@@ -15310,9 +15265,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" hidden="1" spans="1:4">
       <c r="A100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>298</v>
@@ -25383,6 +25338,7 @@
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="equal" val="1"/>
+        <customFilter operator="equal" val="2"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowWidth="13545" windowHeight="5880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -12900,10 +12900,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -12920,24 +12920,24 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12951,30 +12951,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12989,22 +12982,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13034,18 +13013,32 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13056,9 +13049,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13121,19 +13121,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13151,13 +13175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13169,7 +13187,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13181,19 +13253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13205,13 +13265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13223,43 +13283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13271,37 +13301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13312,6 +13312,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -13339,15 +13348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13363,6 +13363,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -13374,15 +13385,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13404,159 +13406,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13950,8 +13950,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -13979,7 +13979,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -14121,7 +14121,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
@@ -14235,7 +14235,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
@@ -14277,7 +14277,7 @@
     </row>
     <row r="25" ht="37.5" spans="1:4">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
@@ -14305,7 +14305,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>79</v>
@@ -14352,7 +14352,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>91</v>
@@ -14366,7 +14366,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>94</v>
@@ -14380,7 +14380,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>97</v>
@@ -14416,7 +14416,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>106</v>
@@ -14472,7 +14472,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>118</v>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>127</v>
@@ -14539,7 +14539,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
@@ -14553,7 +14553,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>136</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>145</v>
@@ -14634,7 +14634,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>154</v>
@@ -14673,7 +14673,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>163</v>
@@ -14698,7 +14698,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>169</v>
@@ -14734,7 +14734,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>178</v>
@@ -14759,7 +14759,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>184</v>
@@ -14773,7 +14773,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>187</v>
@@ -14977,7 +14977,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>232</v>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="5880" tabRatio="500"/>
+    <workbookView windowWidth="13545" windowHeight="6525" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
     <t>[inəd'vɜ:tnt]</t>
   </si>
   <si>
-    <t>a.粗心大意的，疏忽的</t>
+    <t>a.粗心大意的，疏忽的，advertent 注意的</t>
   </si>
   <si>
     <t>monotonous</t>
@@ -1074,13 +1074,57 @@
   </si>
   <si>
     <r>
+      <t>un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>bias</t>
+    </r>
+    <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>un</t>
+      <t>ed</t>
+    </r>
+  </si>
+  <si>
+    <t>[ʌnˈbaiəst]</t>
+  </si>
+  <si>
+    <t>a.公正的，bias 偏见 偏爱 倾斜的</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>['klæsikəl]</t>
+  </si>
+  <si>
+    <t>a.古典的</t>
+  </si>
+  <si>
+    <t>deliberate *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dɪˈlɪbərət] </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">a.故意的 </t>
     </r>
     <r>
       <rPr>
@@ -1089,8 +1133,100 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>bias</t>
-    </r>
+      <t>v.认真考虑</t>
+    </r>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>[wiəd]</t>
+  </si>
+  <si>
+    <t>a.怪异的，不可思议的</t>
+  </si>
+  <si>
+    <t>regulatory</t>
+  </si>
+  <si>
+    <t>'regjulətəri</t>
+  </si>
+  <si>
+    <t>a.管理的</t>
+  </si>
+  <si>
+    <t>overgrazing</t>
+  </si>
+  <si>
+    <t>[ˌəuvə'greiz]</t>
+  </si>
+  <si>
+    <t>a.过度放牧</t>
+  </si>
+  <si>
+    <t>archaic</t>
+  </si>
+  <si>
+    <t>[ɑr'keɪk]</t>
+  </si>
+  <si>
+    <t>a.过时的</t>
+  </si>
+  <si>
+    <t>offshore</t>
+  </si>
+  <si>
+    <t>['ɔf'ʃɔ:]</t>
+  </si>
+  <si>
+    <t>a.海上的; 近海的</t>
+  </si>
+  <si>
+    <t>compositional</t>
+  </si>
+  <si>
+    <t>[ˌkɔmpə'ziʃənəl]</t>
+  </si>
+  <si>
+    <t>a.合成的，组成的</t>
+  </si>
+  <si>
+    <t>applicable</t>
+  </si>
+  <si>
+    <t>['æplikəbl]</t>
+  </si>
+  <si>
+    <t>a.合适的，适用的, application 适用，应用</t>
+  </si>
+  <si>
+    <t>compatible</t>
+  </si>
+  <si>
+    <t>[kəm'pætəbl]</t>
+  </si>
+  <si>
+    <t>a.和谐的;一致的</t>
+  </si>
+  <si>
+    <t>floral</t>
+  </si>
+  <si>
+    <t>['flɔ:rəl]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.花的；植物的，植物群的 </t>
+  </si>
+  <si>
+    <t>slippery</t>
+  </si>
+  <si>
+    <t>['slipəri]</t>
+  </si>
+  <si>
+    <t>a.滑的，光滑的，靠不住的</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -1098,31 +1234,17 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>ed</t>
-    </r>
-  </si>
-  <si>
-    <t>[ʌnˈbaiəst]</t>
-  </si>
-  <si>
-    <t>a.公正的</t>
-  </si>
-  <si>
-    <t>classical</t>
-  </si>
-  <si>
-    <t>['klæsikəl]</t>
-  </si>
-  <si>
-    <t>a.古典的</t>
-  </si>
-  <si>
-    <t>deliberate *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[dɪˈlɪbərət] </t>
-  </si>
-  <si>
+      <t>de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>sol</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
@@ -1130,7 +1252,815 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">a.故意的 </t>
+      <t>ate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>['des</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">ələt] </t>
+    </r>
+  </si>
+  <si>
+    <t>a.荒凉的</t>
+  </si>
+  <si>
+    <t>automated</t>
+  </si>
+  <si>
+    <t>[ɔ:təumeitid]</t>
+  </si>
+  <si>
+    <t>a.机械化的</t>
+  </si>
+  <si>
+    <t>mechanical</t>
+  </si>
+  <si>
+    <t>[mi'kænikəl]</t>
+  </si>
+  <si>
+    <t>a.机械性的</t>
+  </si>
+  <si>
+    <t>muscular</t>
+  </si>
+  <si>
+    <t>['mʌskjulə]</t>
+  </si>
+  <si>
+    <t>a.肌肉的；强健的</t>
+  </si>
+  <si>
+    <t>drastic</t>
+  </si>
+  <si>
+    <t>['dræstik]</t>
+  </si>
+  <si>
+    <t>a.激烈的，极端的</t>
+  </si>
+  <si>
+    <t>fictitious</t>
+  </si>
+  <si>
+    <t>[fikˈtiʃəs]</t>
+  </si>
+  <si>
+    <t>a.假的，虚构的</t>
+  </si>
+  <si>
+    <t>hypothetical</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ˌhaipəˈθetikəl]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.假说的</t>
+  </si>
+  <si>
+    <t>interactive</t>
+  </si>
+  <si>
+    <t>[ˌintərˈæktiv]</t>
+  </si>
+  <si>
+    <t>a.交互式的，相互作用的</t>
+  </si>
+  <si>
+    <t>successional</t>
+  </si>
+  <si>
+    <t>[sək'sεʃənl]</t>
+  </si>
+  <si>
+    <t>a.接连着的，连续性的</t>
+  </si>
+  <si>
+    <t>packed</t>
+  </si>
+  <si>
+    <t>[pækt]</t>
+  </si>
+  <si>
+    <t>a.紧密的，塞满的</t>
+  </si>
+  <si>
+    <t>prohibitive</t>
+  </si>
+  <si>
+    <t>prəu'hibitiv</t>
+  </si>
+  <si>
+    <t>a.禁止的；抑制的</t>
+  </si>
+  <si>
+    <t>vigorous</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>['vig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ərəs]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.精力充沛的，有力的</t>
+  </si>
+  <si>
+    <r>
+      <t>psycho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>dynamic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[saik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>əudai'næmik]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.精神动力的</t>
+  </si>
+  <si>
+    <t>proficient</t>
+  </si>
+  <si>
+    <t>[prəˈfiʃənt]</t>
+  </si>
+  <si>
+    <t>a.精通的</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈlɝt] </t>
+  </si>
+  <si>
+    <t>a.警觉的，警惕的，alter改变</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>['stætik]</t>
+  </si>
+  <si>
+    <t>a.静态的，静止的</t>
+  </si>
+  <si>
+    <t>depressed</t>
+  </si>
+  <si>
+    <t>[di'prest]</t>
+  </si>
+  <si>
+    <t>a.沮丧的</t>
+  </si>
+  <si>
+    <t>colossal</t>
+  </si>
+  <si>
+    <t>[kə'lɑsl]</t>
+  </si>
+  <si>
+    <t>a.巨大的</t>
+  </si>
+  <si>
+    <t>recognizable</t>
+  </si>
+  <si>
+    <t>[ˈrekəgnaizəbl]</t>
+  </si>
+  <si>
+    <t>a.可辩认的，可认识的</t>
+  </si>
+  <si>
+    <t>measurable</t>
+  </si>
+  <si>
+    <t>[ˈmeʒərəbl]</t>
+  </si>
+  <si>
+    <t>a.可测量的</t>
+  </si>
+  <si>
+    <t>perceptible</t>
+  </si>
+  <si>
+    <t>[pə'septəbl]</t>
+  </si>
+  <si>
+    <t>a.可察觉的，perception知觉</t>
+  </si>
+  <si>
+    <t>appreciable</t>
+  </si>
+  <si>
+    <t>[ə'pri:ʃəbl]</t>
+  </si>
+  <si>
+    <t>a.可感知的, appreciate 欣赏;感激</t>
+  </si>
+  <si>
+    <t>comprehensible</t>
+  </si>
+  <si>
+    <t>[kɔmpriˈhensəbl]</t>
+  </si>
+  <si>
+    <t>a.可理解的</t>
+  </si>
+  <si>
+    <t>weighable</t>
+  </si>
+  <si>
+    <t>['weiəbl]</t>
+  </si>
+  <si>
+    <t>a.可量重的，可称的</t>
+  </si>
+  <si>
+    <t>conceivable</t>
+  </si>
+  <si>
+    <t>[kənˈsi:vəbl]</t>
+  </si>
+  <si>
+    <t>a.可能的，想得到的，conceive构思，设想</t>
+  </si>
+  <si>
+    <t>combustible</t>
+  </si>
+  <si>
+    <t>[kəm'bʌstəbl]</t>
+  </si>
+  <si>
+    <t>a.可燃的, combust 消耗，燃烧</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>solu</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ble</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ˈsɔljubl]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.可溶解的; 可解决的</t>
+  </si>
+  <si>
+    <t>suspicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[səs'piʃəs] </t>
+  </si>
+  <si>
+    <t>a.可疑的，多疑的</t>
+  </si>
+  <si>
+    <t>negligible</t>
+  </si>
+  <si>
+    <t>['neglidʒəbl]</t>
+  </si>
+  <si>
+    <t>a.可以忽略的，不予重视的</t>
+  </si>
+  <si>
+    <t>avid</t>
+  </si>
+  <si>
+    <t>['ævid]</t>
+  </si>
+  <si>
+    <t>a.渴望的,贪婪的,热心的</t>
+  </si>
+  <si>
+    <t>impersonal</t>
+  </si>
+  <si>
+    <t>[imˈpə:sənəl]</t>
+  </si>
+  <si>
+    <t>a.客观的；没有人情味的；没有个人色彩的</t>
+  </si>
+  <si>
+    <t>spacious</t>
+  </si>
+  <si>
+    <t>[speiʃəs]</t>
+  </si>
+  <si>
+    <t>a.宽敞的,广阔的</t>
+  </si>
+  <si>
+    <t>furious</t>
+  </si>
+  <si>
+    <t>['fjuəriəs]</t>
+  </si>
+  <si>
+    <t>a.狂怒的，暴怒的</t>
+  </si>
+  <si>
+    <t>analogous</t>
+  </si>
+  <si>
+    <t>[ə'næləgəs]</t>
+  </si>
+  <si>
+    <t>a.类似的</t>
+  </si>
+  <si>
+    <t>cumulative</t>
+  </si>
+  <si>
+    <t>['kju:mjuˌləitiv]</t>
+  </si>
+  <si>
+    <t>a.累积的</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>[aiˈrɔnik]</t>
+  </si>
+  <si>
+    <t>a.冷嘲的，挖苦的</t>
+  </si>
+  <si>
+    <t>rational</t>
+  </si>
+  <si>
+    <t>['ræʃənl]</t>
+  </si>
+  <si>
+    <t>a.理性的，合理的</t>
+  </si>
+  <si>
+    <t>cubic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈkjubɪk] </t>
+  </si>
+  <si>
+    <t>a.立方体的，立方形的</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ik'sepʃənəl] </t>
+  </si>
+  <si>
+    <t>a.例外的，独特的；优越的</t>
+  </si>
+  <si>
+    <t>consecutive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kən'sekjətiv] </t>
+  </si>
+  <si>
+    <t>a.连贯的，连续不断的</t>
+  </si>
+  <si>
+    <t>successive</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>əkˈsesiv]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.连续的</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>['pəulə]</t>
+  </si>
+  <si>
+    <t>a.两极的</t>
+  </si>
+  <si>
+    <t>clinical</t>
+  </si>
+  <si>
+    <t>['klinikəl]</t>
+  </si>
+  <si>
+    <t>a.临床的</t>
+  </si>
+  <si>
+    <t>territorial</t>
+  </si>
+  <si>
+    <t>[ˌterəˈtɔ:riəl]</t>
+  </si>
+  <si>
+    <t>a.领土的，土地的，类地的</t>
+  </si>
+  <si>
+    <t>thrilling</t>
+  </si>
+  <si>
+    <t>[ˈθriliŋ]</t>
+  </si>
+  <si>
+    <t>a.令人兴奋的，毛骨悚然的</t>
+  </si>
+  <si>
+    <t>inflowing</t>
+  </si>
+  <si>
+    <t>['infləuiŋ]</t>
+  </si>
+  <si>
+    <t>a.流入的</t>
+  </si>
+  <si>
+    <t>ethical</t>
+  </si>
+  <si>
+    <t>[ˈeθikəl]</t>
+  </si>
+  <si>
+    <t>a.伦理的，道德的</t>
+  </si>
+  <si>
+    <t>candid</t>
+  </si>
+  <si>
+    <t>[ˈkændid]</t>
+  </si>
+  <si>
+    <t>a.率真的，坦诚的</t>
+  </si>
+  <si>
+    <t>ambivalent</t>
+  </si>
+  <si>
+    <t>[æm'bivələnt</t>
+  </si>
+  <si>
+    <t>a.矛盾的,摇摆不定的</t>
+  </si>
+  <si>
+    <t>mercantile</t>
+  </si>
+  <si>
+    <t>[ˈmə:kəntail]</t>
+  </si>
+  <si>
+    <t>a.贸易的，商业的</t>
+  </si>
+  <si>
+    <t>undisturbed</t>
+  </si>
+  <si>
+    <t>['ʌndis'tə:bd</t>
+  </si>
+  <si>
+    <t>a.没受到干扰的</t>
+  </si>
+  <si>
+    <t>responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[rɪˈspɑnsɪv] </t>
+  </si>
+  <si>
+    <t>a.敏感的；反应灵敏的</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>[ik'splisit]</t>
+  </si>
+  <si>
+    <t>a.明确的，清晰的，直率的</t>
+  </si>
+  <si>
+    <t>indistinct</t>
+  </si>
+  <si>
+    <t>[ˌindi'stiŋkt]</t>
+  </si>
+  <si>
+    <t>a.模糊的</t>
+  </si>
+  <si>
+    <t>inaccessible</t>
+  </si>
+  <si>
+    <t>ˌinæk'sesəbl</t>
+  </si>
+  <si>
+    <t>a.难接近的</t>
+  </si>
+  <si>
+    <t>transient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['trænziənt] </t>
+  </si>
+  <si>
+    <t>a.片刻的，转瞬即逝的</t>
+  </si>
+  <si>
+    <t>meager</t>
+  </si>
+  <si>
+    <t>['mi:gə]</t>
+  </si>
+  <si>
+    <t>a.贫乏的；瘦的</t>
+  </si>
+  <si>
+    <t>commonplace</t>
+  </si>
+  <si>
+    <t>['kɔmənpleis]</t>
+  </si>
+  <si>
+    <t>a.平凡的</t>
+  </si>
+  <si>
+    <t>mediocre</t>
+  </si>
+  <si>
+    <t>[ˌmi:diˈəukə]</t>
+  </si>
+  <si>
+    <t>a.平庸的，平凡的</t>
+  </si>
+  <si>
+    <t>prevalent</t>
+  </si>
+  <si>
+    <t>['prevələnt]</t>
+  </si>
+  <si>
+    <t>a.普遍的</t>
+  </si>
+  <si>
+    <t>spectral</t>
+  </si>
+  <si>
+    <t>[ˈspektrəl]</t>
+  </si>
+  <si>
+    <t>a.谱的，光谱的</t>
+  </si>
+  <si>
+    <t>longawaited</t>
+  </si>
+  <si>
+    <t>['lɔŋəˌweitid]</t>
+  </si>
+  <si>
+    <t>a.期待已久的</t>
+  </si>
+  <si>
+    <t>gaseous</t>
+  </si>
+  <si>
+    <t>['gæsiəs,'geizjəs]</t>
+  </si>
+  <si>
+    <t>a.气体的，气态的，无实质的</t>
+  </si>
+  <si>
+    <t>millennia</t>
+  </si>
+  <si>
+    <t>[mi'leniə]</t>
+  </si>
+  <si>
+    <t>a.千禧年的</t>
+  </si>
+  <si>
+    <t>migratory</t>
+  </si>
+  <si>
+    <t>['maigrətəri]</t>
+  </si>
+  <si>
+    <t>a.迁移的</t>
+  </si>
+  <si>
+    <t>compulsory</t>
+  </si>
+  <si>
+    <t>[kəm'pʌlsəri]</t>
+  </si>
+  <si>
+    <t>a.强迫的，义务的</t>
+  </si>
+  <si>
+    <t>sloping</t>
+  </si>
+  <si>
+    <t>'sləupiŋ</t>
+  </si>
+  <si>
+    <t>a.倾斜的；有坡度的；成斜坡的</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>[di'stiŋkt]</t>
+  </si>
+  <si>
+    <t>a.清楚的;明显的</t>
+  </si>
+  <si>
+    <t>submissive</t>
+  </si>
+  <si>
+    <t>[sʌb'mɪsɪv]</t>
+  </si>
+  <si>
+    <t>a.屈服的；胆怯的</t>
+  </si>
+  <si>
+    <t>receptive</t>
+  </si>
+  <si>
+    <t>[ri'septiv]</t>
+  </si>
+  <si>
+    <t>a.善于接受的，能容纳的</t>
+  </si>
+  <si>
+    <t>ascending</t>
+  </si>
+  <si>
+    <t>[ə'sendiŋ]</t>
+  </si>
+  <si>
+    <t>a.上升的</t>
+  </si>
+  <si>
+    <t>biblical</t>
+  </si>
+  <si>
+    <t>[biblikəl]</t>
+  </si>
+  <si>
+    <t>a.圣经的</t>
+  </si>
+  <si>
+    <t>prevailing</t>
+  </si>
+  <si>
+    <t>[pri'veiliŋ]</t>
+  </si>
+  <si>
+    <t>a.盛行很广的</t>
+  </si>
+  <si>
+    <t>residual</t>
+  </si>
+  <si>
+    <t>[riˈzidjuəl]</t>
+  </si>
+  <si>
+    <t>a.剩余的，残留的</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>['və:tʃuəl]</t>
+  </si>
+  <si>
+    <t>a.实质的，有效的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>as</t>
     </r>
     <r>
       <rPr>
@@ -1139,100 +2069,8 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>v.认真考虑</t>
-    </r>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>[wiəd]</t>
-  </si>
-  <si>
-    <t>a.怪异的，不可思议的</t>
-  </si>
-  <si>
-    <t>regulatory</t>
-  </si>
-  <si>
-    <t>'regjulətəri</t>
-  </si>
-  <si>
-    <t>a.管理的</t>
-  </si>
-  <si>
-    <t>overgrazing</t>
-  </si>
-  <si>
-    <t>[ˌəuvə'greiz]</t>
-  </si>
-  <si>
-    <t>a.过度放牧</t>
-  </si>
-  <si>
-    <t>archaic</t>
-  </si>
-  <si>
-    <t>[ɑr'keɪk]</t>
-  </si>
-  <si>
-    <t>a.过时的</t>
-  </si>
-  <si>
-    <t>offshore</t>
-  </si>
-  <si>
-    <t>['ɔf'ʃɔ:]</t>
-  </si>
-  <si>
-    <t>a.海上的; 近海的</t>
-  </si>
-  <si>
-    <t>compositional</t>
-  </si>
-  <si>
-    <t>[ˌkɔmpə'ziʃənəl]</t>
-  </si>
-  <si>
-    <t>a.合成的，组成的</t>
-  </si>
-  <si>
-    <t>applicable</t>
-  </si>
-  <si>
-    <t>['æplikəbl]</t>
-  </si>
-  <si>
-    <t>a.合适的，适用的</t>
-  </si>
-  <si>
-    <t>compatible</t>
-  </si>
-  <si>
-    <t>[kəm'pætəbl]</t>
-  </si>
-  <si>
-    <t>a.和谐的;一致的</t>
-  </si>
-  <si>
-    <t>floral</t>
-  </si>
-  <si>
-    <t>['flɔ:rəl]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.花的；植物的，植物群的 </t>
-  </si>
-  <si>
-    <t>slippery</t>
-  </si>
-  <si>
-    <t>['slipəri]</t>
-  </si>
-  <si>
-    <t>a.滑的，光滑的，靠不住的</t>
-  </si>
-  <si>
+      <t>tound</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
@@ -1240,7 +2078,173 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>de</t>
+      <t>ing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>əˈstaundiŋ]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.使人震惊的</t>
+  </si>
+  <si>
+    <t>cosmopolitan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ˌkɔzməˈpɔlitən]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.世界主义者，全球的</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>['sʌbə:b]</t>
+  </si>
+  <si>
+    <t>a.市郊的，郊区</t>
+  </si>
+  <si>
+    <t>tentative</t>
+  </si>
+  <si>
+    <t>['tentətiv]</t>
+  </si>
+  <si>
+    <t>a.试探性的，试验的</t>
+  </si>
+  <si>
+    <t>adaptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈdæptɪv] </t>
+  </si>
+  <si>
+    <t>a.适合的，适应的</t>
+  </si>
+  <si>
+    <t>handcrafted</t>
+  </si>
+  <si>
+    <t>'hændˌkræftid</t>
+  </si>
+  <si>
+    <t>a.手工制作的</t>
+  </si>
+  <si>
+    <t>bilingual</t>
+  </si>
+  <si>
+    <t>[bai'liŋgwəl]</t>
+  </si>
+  <si>
+    <t>a.双语的</t>
+  </si>
+  <si>
+    <t>crystalline</t>
+  </si>
+  <si>
+    <t>['kristəlain]</t>
+  </si>
+  <si>
+    <t>a.水晶的,结晶性的</t>
+  </si>
+  <si>
+    <t>rigid</t>
+  </si>
+  <si>
+    <t>['rɪdʒɪd]</t>
+  </si>
+  <si>
+    <t>a.死板的；坚硬的;严苛的</t>
+  </si>
+  <si>
+    <t>acidic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈsɪdɪk] </t>
+  </si>
+  <si>
+    <t>a.酸性的</t>
+  </si>
+  <si>
+    <t>ensuing</t>
+  </si>
+  <si>
+    <t>[en'sju:iŋ]</t>
+  </si>
+  <si>
+    <t>a.随后（发生）的</t>
+  </si>
+  <si>
+    <t>consequent</t>
+  </si>
+  <si>
+    <t>[ˈkɔnsikwənt]</t>
+  </si>
+  <si>
+    <t>a.随之发生的，作为结果的</t>
+  </si>
+  <si>
+    <t>carbonic</t>
+  </si>
+  <si>
+    <t>kɑ:'bɔnik</t>
+  </si>
+  <si>
+    <t>a.碳的;由碳得到的</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>[ri'freʃiŋ]</t>
+  </si>
+  <si>
+    <t>a.提神的；新鲜宜人的,与众不同的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>in</t>
     </r>
     <r>
       <rPr>
@@ -1249,1022 +2253,6 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>sol</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>['des</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">ələt] </t>
-    </r>
-  </si>
-  <si>
-    <t>a.荒凉的</t>
-  </si>
-  <si>
-    <t>automated</t>
-  </si>
-  <si>
-    <t>[ɔ:təumeitid]</t>
-  </si>
-  <si>
-    <t>a.机械化的</t>
-  </si>
-  <si>
-    <t>mechanical</t>
-  </si>
-  <si>
-    <t>[mi'kænikəl]</t>
-  </si>
-  <si>
-    <t>a.机械性的</t>
-  </si>
-  <si>
-    <t>muscular</t>
-  </si>
-  <si>
-    <t>['mʌskjulə]</t>
-  </si>
-  <si>
-    <t>a.肌肉的；强健的</t>
-  </si>
-  <si>
-    <t>drastic</t>
-  </si>
-  <si>
-    <t>['dræstik]</t>
-  </si>
-  <si>
-    <t>a.激烈的，极端的</t>
-  </si>
-  <si>
-    <t>fictitious</t>
-  </si>
-  <si>
-    <t>[fikˈtiʃəs]</t>
-  </si>
-  <si>
-    <t>a.假的，虚构的</t>
-  </si>
-  <si>
-    <t>hypothetical</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ˌhaipəˈθetikəl]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.假说的</t>
-  </si>
-  <si>
-    <t>interactive</t>
-  </si>
-  <si>
-    <t>[ˌintərˈæktiv]</t>
-  </si>
-  <si>
-    <t>a.交互式的，相互作用的</t>
-  </si>
-  <si>
-    <t>successional</t>
-  </si>
-  <si>
-    <t>[sək'sεʃənl]</t>
-  </si>
-  <si>
-    <t>a.接连着的，连续性的</t>
-  </si>
-  <si>
-    <t>packed</t>
-  </si>
-  <si>
-    <t>[pækt]</t>
-  </si>
-  <si>
-    <t>a.紧密的，塞满的</t>
-  </si>
-  <si>
-    <t>prohibitive</t>
-  </si>
-  <si>
-    <t>prəu'hibitiv</t>
-  </si>
-  <si>
-    <t>a.禁止的；抑制的</t>
-  </si>
-  <si>
-    <t>vigorous</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>['vig</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ərəs]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.精力充沛的，有力的</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>psycho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>dynamic</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[saik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>əudai'næmik]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.精神动力的</t>
-  </si>
-  <si>
-    <t>proficient</t>
-  </si>
-  <si>
-    <t>[prəˈfiʃənt]</t>
-  </si>
-  <si>
-    <t>a.精通的</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[əˈlɝt] </t>
-  </si>
-  <si>
-    <t>a.警觉的，警惕的</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>['stætik]</t>
-  </si>
-  <si>
-    <t>a.静态的，静止的</t>
-  </si>
-  <si>
-    <t>depressed</t>
-  </si>
-  <si>
-    <t>[di'prest]</t>
-  </si>
-  <si>
-    <t>a.沮丧的</t>
-  </si>
-  <si>
-    <t>colossal</t>
-  </si>
-  <si>
-    <t>[kə'lɑsl]</t>
-  </si>
-  <si>
-    <t>a.巨大的</t>
-  </si>
-  <si>
-    <t>recognizable</t>
-  </si>
-  <si>
-    <t>[ˈrekəgnaizəbl]</t>
-  </si>
-  <si>
-    <t>a.可辩认的，可认识的</t>
-  </si>
-  <si>
-    <t>measurable</t>
-  </si>
-  <si>
-    <t>[ˈmeʒərəbl]</t>
-  </si>
-  <si>
-    <t>a.可测量的</t>
-  </si>
-  <si>
-    <t>perceptible</t>
-  </si>
-  <si>
-    <t>[pə'septəbl]</t>
-  </si>
-  <si>
-    <t>a.可察觉的</t>
-  </si>
-  <si>
-    <t>appreciable</t>
-  </si>
-  <si>
-    <t>[ə'pri:ʃəbl]</t>
-  </si>
-  <si>
-    <t>a.可感知的</t>
-  </si>
-  <si>
-    <t>comprehensible</t>
-  </si>
-  <si>
-    <t>[kɔmpriˈhensəbl]</t>
-  </si>
-  <si>
-    <t>a.可理解的</t>
-  </si>
-  <si>
-    <t>weighable</t>
-  </si>
-  <si>
-    <t>['weiəbl]</t>
-  </si>
-  <si>
-    <t>a.可量重的，可称的</t>
-  </si>
-  <si>
-    <t>conceivable</t>
-  </si>
-  <si>
-    <t>[kənˈsi:vəbl]</t>
-  </si>
-  <si>
-    <t>a.可能的，想得到的</t>
-  </si>
-  <si>
-    <t>combustible</t>
-  </si>
-  <si>
-    <t>[kəm'bʌstəbl]</t>
-  </si>
-  <si>
-    <t>a.可燃的</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>solu</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ble</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ˈsɔljubl]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.可溶解的; 可解决的</t>
-  </si>
-  <si>
-    <t>suspicious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[səs'piʃəs] </t>
-  </si>
-  <si>
-    <t>a.可疑的，多疑的</t>
-  </si>
-  <si>
-    <t>negligible</t>
-  </si>
-  <si>
-    <t>['neglidʒəbl]</t>
-  </si>
-  <si>
-    <t>a.可以忽略的，不予重视的</t>
-  </si>
-  <si>
-    <t>avid</t>
-  </si>
-  <si>
-    <t>['ævid]</t>
-  </si>
-  <si>
-    <t>a.渴望的,贪婪的,热心的</t>
-  </si>
-  <si>
-    <t>impersonal</t>
-  </si>
-  <si>
-    <t>[imˈpə:sənəl]</t>
-  </si>
-  <si>
-    <t>a.客观的；没有人情味的；没有个人色彩的</t>
-  </si>
-  <si>
-    <t>spacious</t>
-  </si>
-  <si>
-    <t>[speiʃəs]</t>
-  </si>
-  <si>
-    <t>a.宽敞的,广阔的</t>
-  </si>
-  <si>
-    <t>furious</t>
-  </si>
-  <si>
-    <t>['fjuəriəs]</t>
-  </si>
-  <si>
-    <t>a.狂怒的，暴怒的</t>
-  </si>
-  <si>
-    <t>analogous</t>
-  </si>
-  <si>
-    <t>[ə'næləgəs]</t>
-  </si>
-  <si>
-    <t>a.类似的</t>
-  </si>
-  <si>
-    <t>cumulative</t>
-  </si>
-  <si>
-    <t>['kju:mjuˌləitiv]</t>
-  </si>
-  <si>
-    <t>a.累积的</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>[aiˈrɔnik]</t>
-  </si>
-  <si>
-    <t>a.冷嘲的，挖苦的</t>
-  </si>
-  <si>
-    <t>rational</t>
-  </si>
-  <si>
-    <t>['ræʃənl]</t>
-  </si>
-  <si>
-    <t>a.理性的，合理的</t>
-  </si>
-  <si>
-    <t>cubic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ˈkjubɪk] </t>
-  </si>
-  <si>
-    <t>a.立方体的，立方形的</t>
-  </si>
-  <si>
-    <t>exceptional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ik'sepʃənəl] </t>
-  </si>
-  <si>
-    <t>a.例外的，独特的；优越的</t>
-  </si>
-  <si>
-    <t>consecutive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[kən'sekjətiv] </t>
-  </si>
-  <si>
-    <t>a.连贯的，连续不断的</t>
-  </si>
-  <si>
-    <t>successive</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>əkˈsesiv]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.连续的</t>
-  </si>
-  <si>
-    <t>polar</t>
-  </si>
-  <si>
-    <t>['pəulə]</t>
-  </si>
-  <si>
-    <t>a.两极的</t>
-  </si>
-  <si>
-    <t>clinical</t>
-  </si>
-  <si>
-    <t>['klinikəl]</t>
-  </si>
-  <si>
-    <t>a.临床的</t>
-  </si>
-  <si>
-    <t>territorial</t>
-  </si>
-  <si>
-    <t>[ˌterəˈtɔ:riəl]</t>
-  </si>
-  <si>
-    <t>a.领土的，土地的，类地的</t>
-  </si>
-  <si>
-    <t>thrilling</t>
-  </si>
-  <si>
-    <t>[ˈθriliŋ]</t>
-  </si>
-  <si>
-    <t>a.令人兴奋的，毛骨悚然的</t>
-  </si>
-  <si>
-    <t>inflowing</t>
-  </si>
-  <si>
-    <t>['infləuiŋ]</t>
-  </si>
-  <si>
-    <t>a.流入的</t>
-  </si>
-  <si>
-    <t>ethical</t>
-  </si>
-  <si>
-    <t>[ˈeθikəl]</t>
-  </si>
-  <si>
-    <t>a.伦理的，道德的</t>
-  </si>
-  <si>
-    <t>candid</t>
-  </si>
-  <si>
-    <t>[ˈkændid]</t>
-  </si>
-  <si>
-    <t>a.率真的，坦诚的</t>
-  </si>
-  <si>
-    <t>ambivalent</t>
-  </si>
-  <si>
-    <t>[æm'bivələnt</t>
-  </si>
-  <si>
-    <t>a.矛盾的,摇摆不定的</t>
-  </si>
-  <si>
-    <t>mercantile</t>
-  </si>
-  <si>
-    <t>[ˈmə:kəntail]</t>
-  </si>
-  <si>
-    <t>a.贸易的，商业的</t>
-  </si>
-  <si>
-    <t>undisturbed</t>
-  </si>
-  <si>
-    <t>['ʌndis'tə:bd</t>
-  </si>
-  <si>
-    <t>a.没受到干扰的</t>
-  </si>
-  <si>
-    <t>responsive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[rɪˈspɑnsɪv] </t>
-  </si>
-  <si>
-    <t>a.敏感的；反应灵敏的</t>
-  </si>
-  <si>
-    <t>explicit</t>
-  </si>
-  <si>
-    <t>[ik'splisit]</t>
-  </si>
-  <si>
-    <t>a.明确的，清晰的，直率的</t>
-  </si>
-  <si>
-    <t>indistinct</t>
-  </si>
-  <si>
-    <t>[ˌindi'stiŋkt]</t>
-  </si>
-  <si>
-    <t>a.模糊的</t>
-  </si>
-  <si>
-    <t>inaccessible</t>
-  </si>
-  <si>
-    <t>ˌinæk'sesəbl</t>
-  </si>
-  <si>
-    <t>a.难接近的</t>
-  </si>
-  <si>
-    <t>transient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['trænziənt] </t>
-  </si>
-  <si>
-    <t>a.片刻的，转瞬即逝的</t>
-  </si>
-  <si>
-    <t>meager</t>
-  </si>
-  <si>
-    <t>['mi:gə]</t>
-  </si>
-  <si>
-    <t>a.贫乏的；瘦的</t>
-  </si>
-  <si>
-    <t>commonplace</t>
-  </si>
-  <si>
-    <t>['kɔmənpleis]</t>
-  </si>
-  <si>
-    <t>a.平凡的</t>
-  </si>
-  <si>
-    <t>mediocre</t>
-  </si>
-  <si>
-    <t>[ˌmi:diˈəukə]</t>
-  </si>
-  <si>
-    <t>a.平庸的，平凡的</t>
-  </si>
-  <si>
-    <t>prevalent</t>
-  </si>
-  <si>
-    <t>['prevələnt]</t>
-  </si>
-  <si>
-    <t>a.普遍的</t>
-  </si>
-  <si>
-    <t>spectral</t>
-  </si>
-  <si>
-    <t>[ˈspektrəl]</t>
-  </si>
-  <si>
-    <t>a.谱的，光谱的</t>
-  </si>
-  <si>
-    <t>longawaited</t>
-  </si>
-  <si>
-    <t>['lɔŋəˌweitid]</t>
-  </si>
-  <si>
-    <t>a.期待已久的</t>
-  </si>
-  <si>
-    <t>gaseous</t>
-  </si>
-  <si>
-    <t>['gæsiəs,'geizjəs]</t>
-  </si>
-  <si>
-    <t>a.气体的，气态的，无实质的</t>
-  </si>
-  <si>
-    <t>millennia</t>
-  </si>
-  <si>
-    <t>[mi'leniə]</t>
-  </si>
-  <si>
-    <t>a.千禧年的</t>
-  </si>
-  <si>
-    <t>migratory</t>
-  </si>
-  <si>
-    <t>['maigrətəri]</t>
-  </si>
-  <si>
-    <t>a.迁移的</t>
-  </si>
-  <si>
-    <t>compulsory</t>
-  </si>
-  <si>
-    <t>[kəm'pʌlsəri]</t>
-  </si>
-  <si>
-    <t>a.强迫的，义务的</t>
-  </si>
-  <si>
-    <t>sloping</t>
-  </si>
-  <si>
-    <t>'sləupiŋ</t>
-  </si>
-  <si>
-    <t>a.倾斜的；有坡度的；成斜坡的</t>
-  </si>
-  <si>
-    <t>distinct</t>
-  </si>
-  <si>
-    <t>[di'stiŋkt]</t>
-  </si>
-  <si>
-    <t>a.清楚的;明显的</t>
-  </si>
-  <si>
-    <t>submissive</t>
-  </si>
-  <si>
-    <t>[sʌb'mɪsɪv]</t>
-  </si>
-  <si>
-    <t>a.屈服的；胆怯的</t>
-  </si>
-  <si>
-    <t>receptive</t>
-  </si>
-  <si>
-    <t>[ri'septiv]</t>
-  </si>
-  <si>
-    <t>a.善于接受的，能容纳的</t>
-  </si>
-  <si>
-    <t>ascending</t>
-  </si>
-  <si>
-    <t>[ə'sendiŋ]</t>
-  </si>
-  <si>
-    <t>a.上升的</t>
-  </si>
-  <si>
-    <t>biblical</t>
-  </si>
-  <si>
-    <t>[biblikəl]</t>
-  </si>
-  <si>
-    <t>a.圣经的</t>
-  </si>
-  <si>
-    <t>prevailing</t>
-  </si>
-  <si>
-    <t>[pri'veiliŋ]</t>
-  </si>
-  <si>
-    <t>a.盛行很广的</t>
-  </si>
-  <si>
-    <t>residual</t>
-  </si>
-  <si>
-    <t>[riˈzidjuəl]</t>
-  </si>
-  <si>
-    <t>a.剩余的，残留的</t>
-  </si>
-  <si>
-    <t>virtual</t>
-  </si>
-  <si>
-    <t>['və:tʃuəl]</t>
-  </si>
-  <si>
-    <t>a.实质的，有效的</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>as</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>tound</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>əˈstaundiŋ]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.使人震惊的</t>
-  </si>
-  <si>
-    <t>cosmopolitan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ˌkɔzməˈpɔlitən]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.世界主义者，全球的</t>
-  </si>
-  <si>
-    <t>suburb</t>
-  </si>
-  <si>
-    <t>['sʌbə:b]</t>
-  </si>
-  <si>
-    <t>a.市郊的，郊区</t>
-  </si>
-  <si>
-    <t>tentative</t>
-  </si>
-  <si>
-    <t>['tentətiv]</t>
-  </si>
-  <si>
-    <t>a.试探性的，试验的</t>
-  </si>
-  <si>
-    <t>adaptive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[əˈdæptɪv] </t>
-  </si>
-  <si>
-    <t>a.适合的，适应的</t>
-  </si>
-  <si>
-    <t>handcrafted</t>
-  </si>
-  <si>
-    <t>'hændˌkræftid</t>
-  </si>
-  <si>
-    <t>a.手工制作的</t>
-  </si>
-  <si>
-    <t>bilingual</t>
-  </si>
-  <si>
-    <t>[bai'liŋgwəl]</t>
-  </si>
-  <si>
-    <t>a.双语的</t>
-  </si>
-  <si>
-    <t>crystalline</t>
-  </si>
-  <si>
-    <t>['kristəlain]</t>
-  </si>
-  <si>
-    <t>a.水晶的,结晶性的</t>
-  </si>
-  <si>
-    <t>rigid</t>
-  </si>
-  <si>
-    <t>['rɪdʒɪd]</t>
-  </si>
-  <si>
-    <t>a.死板的；坚硬的;严苛的</t>
-  </si>
-  <si>
-    <t>acidic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[əˈsɪdɪk] </t>
-  </si>
-  <si>
-    <t>a.酸性的</t>
-  </si>
-  <si>
-    <t>ensuing</t>
-  </si>
-  <si>
-    <t>[en'sju:iŋ]</t>
-  </si>
-  <si>
-    <t>a.随后（发生）的</t>
-  </si>
-  <si>
-    <t>consequent</t>
-  </si>
-  <si>
-    <t>[ˈkɔnsikwənt]</t>
-  </si>
-  <si>
-    <t>a.随之发生的，作为结果的</t>
-  </si>
-  <si>
-    <t>carbonic</t>
-  </si>
-  <si>
-    <t>kɑ:'bɔnik</t>
-  </si>
-  <si>
-    <t>a.碳的;由碳得到的</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>[ri'freʃiŋ]</t>
-  </si>
-  <si>
-    <t>a.提神的；新鲜宜人的,与众不同的</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>firm</t>
     </r>
   </si>
@@ -2290,7 +2278,7 @@
     <t>[kəu'hiərənt]</t>
   </si>
   <si>
-    <t>a.条理清楚的，连贯的</t>
+    <t>a.条理清楚的，连贯的，adhere 坚持 附着</t>
   </si>
   <si>
     <t>accustomed</t>
@@ -12900,9 +12888,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -12920,6 +12908,19 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="手札体-简 常规体"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -12928,7 +12929,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -12944,9 +12960,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12958,16 +12982,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12975,7 +12999,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12990,53 +13022,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13057,13 +13058,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="手札体-简 常规体"/>
       <charset val="136"/>
@@ -13071,12 +13065,6 @@
     <font>
       <sz val="16"/>
       <color indexed="8"/>
-      <name val="手札体-简 常规体"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="手札体-简 常规体"/>
       <charset val="136"/>
     </font>
@@ -13127,19 +13115,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13157,7 +13217,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13169,31 +13247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13205,103 +13283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13318,17 +13306,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13348,6 +13327,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13363,13 +13360,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13389,180 +13390,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13653,7 +13644,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="2619375"/>
+          <a:off x="2713990" y="1428750"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13950,8 +13941,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -13977,9 +13968,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" hidden="1" spans="1:4">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -14119,9 +14110,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" hidden="1" spans="1:4">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
@@ -14235,7 +14226,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
@@ -14277,7 +14268,7 @@
     </row>
     <row r="25" ht="37.5" spans="1:4">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
@@ -14303,9 +14294,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" hidden="1" spans="1:4">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>79</v>
@@ -14352,7 +14343,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>91</v>
@@ -14364,9 +14355,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" hidden="1" spans="1:4">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>94</v>
@@ -14380,7 +14371,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>97</v>
@@ -14414,9 +14405,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>106</v>
@@ -14470,9 +14461,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>118</v>
@@ -14512,9 +14503,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" hidden="1" spans="1:4">
       <c r="A43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>127</v>
@@ -14539,7 +14530,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
@@ -14553,7 +14544,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>136</v>
@@ -14592,7 +14583,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>145</v>
@@ -14604,9 +14595,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" hidden="1" spans="1:4">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>148</v>
@@ -14634,7 +14625,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>154</v>
@@ -14671,9 +14662,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>163</v>
@@ -14696,9 +14687,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>169</v>
@@ -14757,9 +14748,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" hidden="1" spans="1:4">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>184</v>
@@ -14771,9 +14762,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>187</v>
@@ -14810,9 +14801,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>196</v>
@@ -15279,7 +15270,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="2:4">
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>301</v>
       </c>
@@ -15290,7 +15284,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="2:4">
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
@@ -15301,7 +15298,10 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="2:4">
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>307</v>
       </c>
@@ -15323,7 +15323,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="2:4">
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>313</v>
       </c>
@@ -15334,7 +15337,10 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="2:4">
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>316</v>
       </c>
@@ -15345,7 +15351,10 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="2:4">
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>1</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>319</v>
       </c>
@@ -15356,7 +15365,10 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="2:4">
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
       <c r="B108" s="1" t="s">
         <v>322</v>
       </c>
@@ -15367,7 +15379,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="2:4">
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>325</v>
       </c>
@@ -15378,7 +15393,10 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="2:4">
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>328</v>
       </c>
@@ -15411,7 +15429,10 @@
         <v>336</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="2:4">
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>337</v>
       </c>
@@ -15477,7 +15498,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="2:4">
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>355</v>
       </c>
@@ -15499,8 +15523,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="2:4">
-      <c r="B121" s="1" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>361</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -15510,7 +15537,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="2:4">
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>364</v>
       </c>
@@ -15521,7 +15551,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="2:4">
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
       <c r="B123" s="1" t="s">
         <v>367</v>
       </c>
@@ -15554,7 +15587,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="2:4">
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
       <c r="B126" s="1" t="s">
         <v>376</v>
       </c>
@@ -15587,7 +15623,10 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="2:4">
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
       <c r="B129" s="1" t="s">
         <v>385</v>
       </c>
@@ -15598,7 +15637,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="2:4">
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>388</v>
       </c>
@@ -15631,7 +15673,10 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="2:4">
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
       <c r="B133" s="1" t="s">
         <v>397</v>
       </c>
@@ -15642,7 +15687,10 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="2:4">
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
       <c r="B134" s="1" t="s">
         <v>400</v>
       </c>
@@ -15653,7 +15701,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="2:4">
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>1</v>
+      </c>
       <c r="B135" s="1" t="s">
         <v>403</v>
       </c>
@@ -15664,7 +15715,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="2:4">
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
       <c r="B136" s="1" t="s">
         <v>406</v>
       </c>
@@ -15675,7 +15729,10 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="2:4">
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>1</v>
+      </c>
       <c r="B137" s="1" t="s">
         <v>409</v>
       </c>
@@ -15686,7 +15743,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="2:4">
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
       <c r="B138" s="1" t="s">
         <v>412</v>
       </c>
@@ -15708,7 +15768,10 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="2:4">
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>1</v>
+      </c>
       <c r="B140" s="1" t="s">
         <v>418</v>
       </c>
@@ -15719,7 +15782,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="2:4">
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
       <c r="B141" s="1" t="s">
         <v>421</v>
       </c>
@@ -15730,7 +15796,10 @@
         <v>423</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="2:4">
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>1</v>
+      </c>
       <c r="B142" s="1" t="s">
         <v>424</v>
       </c>
@@ -15741,7 +15810,10 @@
         <v>426</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="2:4">
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
       <c r="B143" s="1" t="s">
         <v>427</v>
       </c>
@@ -15752,7 +15824,10 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="2:4">
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
       <c r="B144" s="1" t="s">
         <v>430</v>
       </c>
@@ -15763,7 +15838,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="2:4">
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
       <c r="B145" s="1" t="s">
         <v>433</v>
       </c>
@@ -15796,7 +15874,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="2:4">
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
       <c r="B148" s="1" t="s">
         <v>442</v>
       </c>
@@ -15818,7 +15899,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="2:4">
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>1</v>
+      </c>
       <c r="B150" s="1" t="s">
         <v>448</v>
       </c>
@@ -15829,7 +15913,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="2:4">
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>1</v>
+      </c>
       <c r="B151" s="1" t="s">
         <v>451</v>
       </c>
@@ -15851,7 +15938,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="2:4">
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
       <c r="B153" s="1" t="s">
         <v>457</v>
       </c>
@@ -15873,7 +15963,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="2:4">
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
       <c r="B155" s="1" t="s">
         <v>463</v>
       </c>
@@ -15884,7 +15977,10 @@
         <v>465</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="2:4">
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
       <c r="B156" s="1" t="s">
         <v>466</v>
       </c>
@@ -15895,7 +15991,10 @@
         <v>468</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="2:4">
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
       <c r="B157" s="1" t="s">
         <v>469</v>
       </c>
@@ -15906,7 +16005,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="2:4">
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>1</v>
+      </c>
       <c r="B158" s="1" t="s">
         <v>472</v>
       </c>
@@ -15928,7 +16030,10 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="2:4">
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
       <c r="B160" s="1" t="s">
         <v>478</v>
       </c>
@@ -15939,7 +16044,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="2:4">
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
       <c r="B161" s="1" t="s">
         <v>481</v>
       </c>
@@ -15950,7 +16058,10 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="2:4">
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
       <c r="B162" s="1" t="s">
         <v>484</v>
       </c>
@@ -15972,7 +16083,10 @@
         <v>489</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="2:4">
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>1</v>
+      </c>
       <c r="B164" s="1" t="s">
         <v>490</v>
       </c>
@@ -15983,7 +16097,10 @@
         <v>492</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="2:4">
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>1</v>
+      </c>
       <c r="B165" s="1" t="s">
         <v>493</v>
       </c>
@@ -15994,7 +16111,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="2:4">
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
       <c r="B166" s="1" t="s">
         <v>496</v>
       </c>
@@ -16005,7 +16125,10 @@
         <v>498</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="2:4">
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
       <c r="B167" s="1" t="s">
         <v>499</v>
       </c>
@@ -16027,7 +16150,10 @@
         <v>504</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="2:4">
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>1</v>
+      </c>
       <c r="B169" s="1" t="s">
         <v>505</v>
       </c>
@@ -16049,7 +16175,10 @@
         <v>510</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="2:4">
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
       <c r="B171" s="1" t="s">
         <v>511</v>
       </c>
@@ -16060,7 +16189,10 @@
         <v>513</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="2:4">
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
       <c r="B172" s="1" t="s">
         <v>514</v>
       </c>
@@ -16082,7 +16214,10 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="2:4">
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
       <c r="B174" s="1" t="s">
         <v>520</v>
       </c>
@@ -16093,7 +16228,10 @@
         <v>522</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="2:4">
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>1</v>
+      </c>
       <c r="B175" s="1" t="s">
         <v>523</v>
       </c>
@@ -16104,7 +16242,10 @@
         <v>525</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="2:4">
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>1</v>
+      </c>
       <c r="B176" s="1" t="s">
         <v>526</v>
       </c>
@@ -16115,7 +16256,10 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="2:4">
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>1</v>
+      </c>
       <c r="B177" s="1" t="s">
         <v>529</v>
       </c>
@@ -16126,7 +16270,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="2:4">
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
       <c r="B178" s="1" t="s">
         <v>532</v>
       </c>
@@ -16137,7 +16284,10 @@
         <v>534</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="2:4">
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
       <c r="B179" s="1" t="s">
         <v>535</v>
       </c>
@@ -16148,7 +16298,10 @@
         <v>537</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="2:4">
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>1</v>
+      </c>
       <c r="B180" s="1" t="s">
         <v>538</v>
       </c>
@@ -16170,7 +16323,10 @@
         <v>543</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="2:4">
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>1</v>
+      </c>
       <c r="B182" s="1" t="s">
         <v>544</v>
       </c>
@@ -16181,7 +16337,10 @@
         <v>546</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="2:4">
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
       <c r="B183" s="1" t="s">
         <v>547</v>
       </c>
@@ -16192,7 +16351,10 @@
         <v>549</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="2:4">
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>1</v>
+      </c>
       <c r="B184" s="1" t="s">
         <v>550</v>
       </c>
@@ -16203,7 +16365,10 @@
         <v>552</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="2:4">
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>1</v>
+      </c>
       <c r="B185" s="1" t="s">
         <v>553</v>
       </c>
@@ -16214,7 +16379,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="2:4">
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
       <c r="B186" s="1" t="s">
         <v>556</v>
       </c>
@@ -16225,7 +16393,10 @@
         <v>558</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="2:4">
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
       <c r="B187" s="1" t="s">
         <v>559</v>
       </c>
@@ -16258,7 +16429,10 @@
         <v>567</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="2:4">
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
       <c r="B190" s="1" t="s">
         <v>568</v>
       </c>
@@ -16280,7 +16454,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="2:4">
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>1</v>
+      </c>
       <c r="B192" s="1" t="s">
         <v>574</v>
       </c>
@@ -16302,7 +16479,10 @@
         <v>579</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="2:4">
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
       <c r="B194" s="1" t="s">
         <v>580</v>
       </c>
@@ -16324,7 +16504,10 @@
         <v>585</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="2:4">
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>1</v>
+      </c>
       <c r="B196" s="1" t="s">
         <v>586</v>
       </c>
@@ -16346,7 +16529,10 @@
         <v>591</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="2:4">
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>1</v>
+      </c>
       <c r="B198" s="1" t="s">
         <v>592</v>
       </c>
@@ -16357,7 +16543,10 @@
         <v>594</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="2:4">
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
       <c r="B199" s="1" t="s">
         <v>595</v>
       </c>
@@ -16368,7 +16557,10 @@
         <v>597</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="2:4">
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
       <c r="B200" s="1" t="s">
         <v>598</v>
       </c>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="6525" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13335" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1074,6 +1074,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>un</t>
     </r>
     <r>
@@ -1410,6 +1416,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>psycho</t>
     </r>
     <r>
@@ -12888,9 +12900,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -12922,7 +12934,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12930,14 +12980,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12951,9 +13002,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12974,37 +13054,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -13015,46 +13064,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13109,7 +13121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13121,25 +13145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13151,25 +13157,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13181,73 +13211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13265,13 +13235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13283,13 +13253,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13323,15 +13335,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13400,148 +13403,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -13941,8 +13953,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -14226,7 +14238,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
@@ -14268,7 +14280,7 @@
     </row>
     <row r="25" ht="37.5" spans="1:4">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
@@ -14343,7 +14355,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>91</v>
@@ -14371,7 +14383,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>97</v>
@@ -14544,7 +14556,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>136</v>
@@ -14583,7 +14595,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>145</v>
@@ -14625,7 +14637,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>154</v>
@@ -14723,9 +14735,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>178</v>
@@ -14898,7 +14910,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>217</v>
@@ -14912,7 +14924,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>220</v>
@@ -14968,7 +14980,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>232</v>
@@ -15085,7 +15097,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>259</v>
@@ -15124,7 +15136,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>268</v>
@@ -15177,7 +15189,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>280</v>
@@ -15203,9 +15215,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>286</v>
@@ -15230,7 +15242,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>292</v>
@@ -15270,9 +15282,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" hidden="1" spans="1:4">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>301</v>
@@ -15286,7 +15298,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>304</v>
@@ -15323,9 +15335,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" hidden="1" spans="1:4">
       <c r="A105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>313</v>
@@ -15339,7 +15351,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>316</v>
@@ -15351,9 +15363,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" hidden="1" spans="1:4">
       <c r="A107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>319</v>
@@ -15365,9 +15377,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>322</v>
@@ -15381,7 +15393,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>325</v>
@@ -15393,9 +15405,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" hidden="1" spans="1:4">
       <c r="A110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>328</v>
@@ -15431,7 +15443,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>337</v>
@@ -15498,9 +15510,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" hidden="1" spans="1:4">
       <c r="A119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>355</v>
@@ -15523,9 +15535,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" hidden="1" spans="1:4">
       <c r="A121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>361</v>
@@ -15539,7 +15551,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>364</v>
@@ -15551,9 +15563,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" hidden="1" spans="1:4">
       <c r="A123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>367</v>
@@ -15587,9 +15599,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" hidden="1" spans="1:4">
       <c r="A126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>376</v>
@@ -15625,7 +15637,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>385</v>
@@ -15639,7 +15651,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>388</v>
@@ -15675,7 +15687,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>397</v>
@@ -15687,9 +15699,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" hidden="1" spans="1:4">
       <c r="A134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>400</v>
@@ -15701,9 +15713,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" hidden="1" spans="1:4">
       <c r="A135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>403</v>
@@ -15715,9 +15727,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" hidden="1" spans="1:4">
       <c r="A136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>406</v>
@@ -15731,7 +15743,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>409</v>
@@ -15745,7 +15757,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>412</v>
@@ -15770,7 +15782,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>418</v>
@@ -15784,7 +15796,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>421</v>
@@ -15796,9 +15808,9 @@
         <v>423</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" hidden="1" spans="1:4">
       <c r="A142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>424</v>
@@ -15812,7 +15824,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>427</v>
@@ -15826,7 +15838,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>430</v>
@@ -15840,7 +15852,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>433</v>
@@ -15876,7 +15888,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>442</v>
@@ -15899,9 +15911,9 @@
         <v>447</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" hidden="1" spans="1:4">
       <c r="A150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>448</v>
@@ -15915,7 +15927,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>451</v>
@@ -15965,7 +15977,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>463</v>
@@ -15979,7 +15991,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>466</v>
@@ -15993,7 +16005,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>469</v>
@@ -16007,7 +16019,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>472</v>
@@ -16030,9 +16042,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" hidden="1" spans="1:4">
       <c r="A160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>478</v>
@@ -16046,7 +16058,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>481</v>
@@ -16058,9 +16070,9 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" hidden="1" spans="1:4">
       <c r="A162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>484</v>
@@ -16085,7 +16097,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>490</v>
@@ -16099,7 +16111,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>493</v>
@@ -16111,9 +16123,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" hidden="1" spans="1:4">
       <c r="A166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>496</v>
@@ -16127,7 +16139,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>499</v>
@@ -16152,7 +16164,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>505</v>
@@ -16175,9 +16187,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" hidden="1" spans="1:4">
       <c r="A171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>511</v>
@@ -16189,9 +16201,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" hidden="1" spans="1:4">
       <c r="A172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>514</v>
@@ -16216,7 +16228,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>520</v>
@@ -16228,9 +16240,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" hidden="1" spans="1:4">
       <c r="A175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>523</v>
@@ -16242,9 +16254,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" hidden="1" spans="1:4">
       <c r="A176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>526</v>
@@ -16258,7 +16270,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>529</v>
@@ -16270,9 +16282,9 @@
         <v>531</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" hidden="1" spans="1:4">
       <c r="A178" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>532</v>
@@ -16286,7 +16298,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>535</v>
@@ -16300,7 +16312,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>538</v>
@@ -16325,7 +16337,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>544</v>
@@ -16339,7 +16351,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>547</v>
@@ -16353,7 +16365,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>550</v>
@@ -16367,7 +16379,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>553</v>
@@ -16381,7 +16393,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>556</v>
@@ -16395,7 +16407,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>559</v>
@@ -16431,7 +16443,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>568</v>
@@ -16454,9 +16466,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" hidden="1" spans="1:4">
       <c r="A192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>574</v>
@@ -16479,9 +16491,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" hidden="1" spans="1:4">
       <c r="A194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>580</v>
@@ -16504,9 +16516,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" hidden="1" spans="1:4">
       <c r="A196" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>586</v>
@@ -16531,7 +16543,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>592</v>
@@ -16543,9 +16555,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" hidden="1" spans="1:4">
       <c r="A199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>595</v>
@@ -16559,7 +16571,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>598</v>
@@ -25528,10 +25540,11 @@
   </sheetData>
   <autoFilter ref="A1:A1014">
     <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-        <customFilter operator="equal" val="2"/>
-      </customFilters>
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="B2:D1014">

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -12900,10 +12900,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -12934,23 +12934,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12963,7 +12980,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -12986,9 +13003,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13002,8 +13018,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13016,41 +13041,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13062,11 +13056,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13121,7 +13121,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13133,13 +13223,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13151,103 +13247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13265,19 +13265,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13289,19 +13295,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13320,6 +13320,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13343,7 +13352,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13359,6 +13368,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13392,168 +13412,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -13656,7 +13656,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="1428750"/>
+          <a:off x="2713990" y="714375"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13953,8 +13953,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -14238,7 +14238,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
@@ -14278,9 +14278,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" ht="37.5" spans="1:4">
+    <row r="25" ht="37.5" hidden="1" spans="1:4">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
@@ -14353,9 +14353,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>91</v>
@@ -14542,7 +14542,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
@@ -14554,9 +14554,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>136</v>
@@ -14595,7 +14595,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>145</v>
@@ -14637,7 +14637,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>154</v>
@@ -14922,9 +14922,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" hidden="1" spans="1:4">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>220</v>
@@ -14980,7 +14980,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>232</v>
@@ -15097,7 +15097,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>259</v>
@@ -15189,7 +15189,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>280</v>
@@ -15240,9 +15240,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" hidden="1" spans="1:4">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>292</v>
@@ -15310,9 +15310,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" hidden="1" spans="1:4">
       <c r="A103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>307</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>325</v>
@@ -15443,7 +15443,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>337</v>
@@ -15551,7 +15551,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>364</v>
@@ -15637,7 +15637,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>385</v>
@@ -15651,7 +15651,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>388</v>
@@ -15687,7 +15687,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>397</v>
@@ -15743,7 +15743,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>409</v>
@@ -15796,7 +15796,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>421</v>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>427</v>
@@ -15838,7 +15838,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>430</v>
@@ -15888,7 +15888,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>442</v>
@@ -15927,7 +15927,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>451</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>466</v>
@@ -16005,7 +16005,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>469</v>
@@ -16019,7 +16019,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>472</v>
@@ -16058,7 +16058,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>481</v>
@@ -16111,7 +16111,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>493</v>
@@ -16164,7 +16164,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>505</v>
@@ -16228,7 +16228,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>520</v>
@@ -16270,7 +16270,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>529</v>
@@ -16298,7 +16298,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>535</v>
@@ -16312,7 +16312,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>538</v>
@@ -16337,7 +16337,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>544</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>547</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>550</v>
@@ -16379,7 +16379,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>553</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>556</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>559</v>
@@ -16443,7 +16443,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>568</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>592</v>
@@ -16571,7 +16571,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>598</v>
@@ -16605,7 +16605,10 @@
         <v>606</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="2:4">
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
       <c r="B203" s="1" t="s">
         <v>607</v>
       </c>
@@ -16627,7 +16630,10 @@
         <v>612</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="2:4">
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>1</v>
+      </c>
       <c r="B205" s="1" t="s">
         <v>613</v>
       </c>
@@ -16638,7 +16644,10 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="2:4">
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>1</v>
+      </c>
       <c r="B206" s="1" t="s">
         <v>616</v>
       </c>
@@ -16649,7 +16658,10 @@
         <v>618</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="2:4">
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>1</v>
+      </c>
       <c r="B207" s="1" t="s">
         <v>619</v>
       </c>
@@ -16660,7 +16672,10 @@
         <v>621</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="2:4">
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>1</v>
+      </c>
       <c r="B208" s="1" t="s">
         <v>622</v>
       </c>
@@ -16671,7 +16686,10 @@
         <v>624</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="2:4">
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>1</v>
+      </c>
       <c r="B209" s="1" t="s">
         <v>625</v>
       </c>
@@ -16682,7 +16700,10 @@
         <v>627</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="2:4">
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
       <c r="B210" s="1" t="s">
         <v>628</v>
       </c>
@@ -16726,7 +16747,10 @@
         <v>639</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="2:4">
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>1</v>
+      </c>
       <c r="B214" s="1" t="s">
         <v>640</v>
       </c>
@@ -16770,7 +16794,10 @@
         <v>651</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="2:4">
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>1</v>
+      </c>
       <c r="B218" s="1" t="s">
         <v>652</v>
       </c>
@@ -16781,7 +16808,10 @@
         <v>654</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="2:4">
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>1</v>
+      </c>
       <c r="B219" s="1" t="s">
         <v>655</v>
       </c>
@@ -16792,7 +16822,10 @@
         <v>654</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="2:4">
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>1</v>
+      </c>
       <c r="B220" s="1" t="s">
         <v>657</v>
       </c>
@@ -16803,7 +16836,10 @@
         <v>659</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="2:4">
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>1</v>
+      </c>
       <c r="B221" s="1" t="s">
         <v>660</v>
       </c>
@@ -16814,7 +16850,10 @@
         <v>662</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="2:4">
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>1</v>
+      </c>
       <c r="B222" s="1" t="s">
         <v>663</v>
       </c>
@@ -16825,7 +16864,10 @@
         <v>665</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="2:4">
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>1</v>
+      </c>
       <c r="B223" s="1" t="s">
         <v>666</v>
       </c>
@@ -16836,7 +16878,10 @@
         <v>668</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="2:4">
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>1</v>
+      </c>
       <c r="B224" s="1" t="s">
         <v>669</v>
       </c>
@@ -16847,7 +16892,10 @@
         <v>671</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="2:4">
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>1</v>
+      </c>
       <c r="B225" s="1" t="s">
         <v>672</v>
       </c>
@@ -16858,7 +16906,10 @@
         <v>674</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="2:4">
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>1</v>
+      </c>
       <c r="B226" s="1" t="s">
         <v>675</v>
       </c>
@@ -16869,7 +16920,10 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="2:4">
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>1</v>
+      </c>
       <c r="B227" s="1" t="s">
         <v>678</v>
       </c>
@@ -16880,7 +16934,10 @@
         <v>680</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="2:4">
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>1</v>
+      </c>
       <c r="B228" s="1" t="s">
         <v>681</v>
       </c>
@@ -16891,7 +16948,10 @@
         <v>683</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="2:4">
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>1</v>
+      </c>
       <c r="B229" s="1" t="s">
         <v>684</v>
       </c>
@@ -16913,7 +16973,10 @@
         <v>689</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="2:4">
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>1</v>
+      </c>
       <c r="B231" s="1" t="s">
         <v>690</v>
       </c>
@@ -16924,7 +16987,10 @@
         <v>692</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="2:4">
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>1</v>
+      </c>
       <c r="B232" s="1" t="s">
         <v>693</v>
       </c>
@@ -16935,7 +17001,10 @@
         <v>695</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="2:4">
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>1</v>
+      </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
       </c>
@@ -16946,7 +17015,10 @@
         <v>698</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="2:4">
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>1</v>
+      </c>
       <c r="B234" s="1" t="s">
         <v>699</v>
       </c>
@@ -16957,7 +17029,10 @@
         <v>701</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="2:4">
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>1</v>
+      </c>
       <c r="B235" s="1" t="s">
         <v>702</v>
       </c>
@@ -16968,7 +17043,10 @@
         <v>704</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="2:4">
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>1</v>
+      </c>
       <c r="B236" s="1" t="s">
         <v>705</v>
       </c>
@@ -16979,7 +17057,10 @@
         <v>707</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="2:4">
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>1</v>
+      </c>
       <c r="B237" s="1" t="s">
         <v>708</v>
       </c>
@@ -16990,7 +17071,10 @@
         <v>710</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="2:4">
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>1</v>
+      </c>
       <c r="B238" s="1" t="s">
         <v>711</v>
       </c>
@@ -17023,7 +17107,10 @@
         <v>719</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="2:4">
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>1</v>
+      </c>
       <c r="B241" s="1" t="s">
         <v>720</v>
       </c>
@@ -17034,7 +17121,10 @@
         <v>722</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="2:4">
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>1</v>
+      </c>
       <c r="B242" s="1" t="s">
         <v>723</v>
       </c>
@@ -17045,7 +17135,10 @@
         <v>725</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="2:4">
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>1</v>
+      </c>
       <c r="B243" s="1" t="s">
         <v>726</v>
       </c>
@@ -17067,7 +17160,10 @@
         <v>731</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="2:4">
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>1</v>
+      </c>
       <c r="B245" s="1" t="s">
         <v>732</v>
       </c>
@@ -17078,7 +17174,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="2:4">
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>1</v>
+      </c>
       <c r="B246" s="1" t="s">
         <v>735</v>
       </c>
@@ -17089,7 +17188,10 @@
         <v>737</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="2:4">
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>1</v>
+      </c>
       <c r="B247" s="1" t="s">
         <v>738</v>
       </c>
@@ -17111,7 +17213,10 @@
         <v>743</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="2:4">
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>1</v>
+      </c>
       <c r="B249" s="1" t="s">
         <v>744</v>
       </c>
@@ -17122,7 +17227,10 @@
         <v>746</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="2:4">
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>1</v>
+      </c>
       <c r="B250" s="1" t="s">
         <v>747</v>
       </c>
@@ -17144,7 +17252,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="2:4">
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>1</v>
+      </c>
       <c r="B252" s="1" t="s">
         <v>753</v>
       </c>
@@ -17177,7 +17288,10 @@
         <v>761</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="2:4">
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>1</v>
+      </c>
       <c r="B255" s="1" t="s">
         <v>762</v>
       </c>
@@ -17210,7 +17324,10 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="2:4">
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>1</v>
+      </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
       </c>
@@ -17221,7 +17338,10 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="2:4">
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>1</v>
+      </c>
       <c r="B259" s="1" t="s">
         <v>774</v>
       </c>
@@ -17254,7 +17374,10 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="2:4">
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>1</v>
+      </c>
       <c r="B262" s="1" t="s">
         <v>783</v>
       </c>
@@ -17265,7 +17388,10 @@
         <v>785</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="2:4">
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>1</v>
+      </c>
       <c r="B263" s="1" t="s">
         <v>786</v>
       </c>
@@ -17276,7 +17402,10 @@
         <v>788</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="2:4">
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>1</v>
+      </c>
       <c r="B264" s="1" t="s">
         <v>789</v>
       </c>
@@ -17287,7 +17416,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="2:4">
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>1</v>
+      </c>
       <c r="B265" s="1" t="s">
         <v>792</v>
       </c>
@@ -17298,7 +17430,10 @@
         <v>794</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="2:4">
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>1</v>
+      </c>
       <c r="B266" s="1" t="s">
         <v>795</v>
       </c>
@@ -17309,7 +17444,10 @@
         <v>797</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="2:4">
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>1</v>
+      </c>
       <c r="B267" s="1" t="s">
         <v>798</v>
       </c>
@@ -17331,7 +17469,10 @@
         <v>803</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="2:4">
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>1</v>
+      </c>
       <c r="B269" s="1" t="s">
         <v>804</v>
       </c>
@@ -17364,7 +17505,10 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="2:4">
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>1</v>
+      </c>
       <c r="B272" s="1" t="s">
         <v>813</v>
       </c>
@@ -17375,7 +17519,10 @@
         <v>815</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="2:4">
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>1</v>
+      </c>
       <c r="B273" s="1" t="s">
         <v>816</v>
       </c>
@@ -17386,7 +17533,10 @@
         <v>818</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="2:4">
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>1</v>
+      </c>
       <c r="B274" s="1" t="s">
         <v>819</v>
       </c>
@@ -17408,7 +17558,10 @@
         <v>824</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="2:4">
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>1</v>
+      </c>
       <c r="B276" s="1" t="s">
         <v>825</v>
       </c>
@@ -17430,7 +17583,10 @@
         <v>830</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="2:4">
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>1</v>
+      </c>
       <c r="B278" s="1" t="s">
         <v>831</v>
       </c>
@@ -17441,7 +17597,10 @@
         <v>833</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="2:4">
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>1</v>
+      </c>
       <c r="B279" s="1" t="s">
         <v>834</v>
       </c>
@@ -17452,7 +17611,10 @@
         <v>836</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="2:4">
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>1</v>
+      </c>
       <c r="B280" s="1" t="s">
         <v>837</v>
       </c>
@@ -17474,7 +17636,10 @@
         <v>842</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="2:4">
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>1</v>
+      </c>
       <c r="B282" s="1" t="s">
         <v>843</v>
       </c>
@@ -17518,7 +17683,10 @@
         <v>854</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="2:4">
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>1</v>
+      </c>
       <c r="B286" s="1" t="s">
         <v>855</v>
       </c>
@@ -17529,7 +17697,10 @@
         <v>857</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="2:4">
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>1</v>
+      </c>
       <c r="B287" s="1" t="s">
         <v>858</v>
       </c>
@@ -17573,7 +17744,10 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="2:4">
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>1</v>
+      </c>
       <c r="B291" s="1" t="s">
         <v>870</v>
       </c>
@@ -17606,7 +17780,10 @@
         <v>878</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="2:4">
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>1</v>
+      </c>
       <c r="B294" s="1" t="s">
         <v>879</v>
       </c>
@@ -17617,7 +17794,10 @@
         <v>881</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="2:4">
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>1</v>
+      </c>
       <c r="B295" s="1" t="s">
         <v>882</v>
       </c>
@@ -17628,7 +17808,10 @@
         <v>884</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="2:4">
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>1</v>
+      </c>
       <c r="B296" s="1" t="s">
         <v>885</v>
       </c>
@@ -17639,7 +17822,10 @@
         <v>887</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="2:4">
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>1</v>
+      </c>
       <c r="B297" s="1" t="s">
         <v>888</v>
       </c>
@@ -17650,7 +17836,10 @@
         <v>890</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="2:4">
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>1</v>
+      </c>
       <c r="B298" s="1" t="s">
         <v>891</v>
       </c>
@@ -17661,7 +17850,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="2:4">
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>1</v>
+      </c>
       <c r="B299" s="1" t="s">
         <v>894</v>
       </c>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13335" tabRatio="500"/>
+    <workbookView windowWidth="13545" windowHeight="4755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2680,7 +2680,43 @@
     <t>stellar</t>
   </si>
   <si>
-    <t>[ˈstelə]</t>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>stel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
   <si>
     <t>a.星的，星球的，主要的</t>
@@ -3157,7 +3193,7 @@
     <t>[ˌɔkju'peiʃnl]</t>
   </si>
   <si>
-    <t>a.职业的</t>
+    <t>a.职业的，occasionally 偶尔</t>
   </si>
   <si>
     <t>colonial</t>
@@ -3399,7 +3435,7 @@
     <t>[i'læbərətli]</t>
   </si>
   <si>
-    <t>ad.精心地</t>
+    <t>ad.精心地，liberate 解放</t>
   </si>
   <si>
     <t>explicitly</t>
@@ -3596,7 +3632,7 @@
     <t>[in'tentli]</t>
   </si>
   <si>
-    <t>ad.专心地，集中地</t>
+    <t>ad.专心地，集中地，intent 意图目的</t>
   </si>
   <si>
     <t>paradoxically</t>
@@ -3654,12 +3690,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>regi</t>
     </r>
     <r>
@@ -3937,12 +3967,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>ac</t>
     </r>
     <r>
@@ -3967,7 +3991,7 @@
     <t xml:space="preserve">[əˌkɑməˈdeʃən] </t>
   </si>
   <si>
-    <t>n.1.住处 2.适应 3.调节 4.提供</t>
+    <t>n.1.住处 2.适应 3.调节 4.提供，commod 日用品 货物的前缀</t>
   </si>
   <si>
     <t>supplement</t>
@@ -4601,7 +4625,7 @@
     <t>[ˈrezidju:]</t>
   </si>
   <si>
-    <t>n.残渣，剩余物</t>
+    <t>n.残渣，剩余物，reside 居住 residence 住处</t>
   </si>
   <si>
     <t>herbivore</t>
@@ -4610,7 +4634,7 @@
     <t>[ˈhə:bivɔ:]</t>
   </si>
   <si>
-    <t>n.草食动物</t>
+    <t>n.草食动物，carnivore食肉动物</t>
   </si>
   <si>
     <t>profile</t>
@@ -12902,10 +12926,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -12948,6 +12972,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -12955,25 +12987,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12987,40 +13002,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13041,8 +13032,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13056,8 +13056,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13067,6 +13083,14 @@
       <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13090,6 +13114,11 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="手札体-简 常规体"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -13133,13 +13162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13151,13 +13186,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13169,7 +13210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13181,13 +13234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13199,13 +13258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13217,7 +13270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13229,7 +13294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13241,7 +13312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13253,55 +13324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13357,6 +13386,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13367,32 +13411,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -13412,37 +13430,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13451,91 +13480,91 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13544,16 +13573,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -13656,7 +13685,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="714375"/>
+          <a:off x="2713990" y="476250"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13953,8 +13982,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="D385" sqref="D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -14236,9 +14265,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" hidden="1" spans="1:4">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
@@ -14383,7 +14412,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>97</v>
@@ -14540,9 +14569,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" hidden="1" spans="1:4">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
@@ -14593,9 +14622,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" hidden="1" spans="1:4">
       <c r="A49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>145</v>
@@ -14635,9 +14664,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>154</v>
@@ -14908,9 +14937,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" hidden="1" spans="1:4">
       <c r="A73" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>217</v>
@@ -14978,9 +15007,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>232</v>
@@ -15095,9 +15124,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>259</v>
@@ -15136,7 +15165,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>268</v>
@@ -15187,9 +15216,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" hidden="1" spans="1:4">
       <c r="A94" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>280</v>
@@ -15296,9 +15325,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" hidden="1" spans="1:4">
       <c r="A102" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>304</v>
@@ -15349,9 +15378,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" hidden="1" spans="1:4">
       <c r="A106" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>316</v>
@@ -15393,7 +15422,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>325</v>
@@ -15441,9 +15470,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" hidden="1" spans="1:4">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>337</v>
@@ -15549,9 +15578,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" hidden="1" spans="1:4">
       <c r="A122" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>364</v>
@@ -15635,9 +15664,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" hidden="1" spans="1:4">
       <c r="A129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>385</v>
@@ -15649,9 +15678,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" hidden="1" spans="1:4">
       <c r="A130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>388</v>
@@ -15685,9 +15714,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" hidden="1" spans="1:4">
       <c r="A133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>397</v>
@@ -15741,9 +15770,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" hidden="1" spans="1:4">
       <c r="A137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>409</v>
@@ -15755,9 +15784,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" hidden="1" spans="1:4">
       <c r="A138" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>412</v>
@@ -15780,9 +15809,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>418</v>
@@ -15794,9 +15823,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" hidden="1" spans="1:4">
       <c r="A141" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>421</v>
@@ -15822,9 +15851,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" hidden="1" spans="1:4">
       <c r="A143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>427</v>
@@ -15838,7 +15867,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>430</v>
@@ -15850,9 +15879,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" hidden="1" spans="1:4">
       <c r="A145" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>433</v>
@@ -15886,9 +15915,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" hidden="1" spans="1:4">
       <c r="A148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>442</v>
@@ -15925,9 +15954,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" hidden="1" spans="1:4">
       <c r="A151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>451</v>
@@ -15950,9 +15979,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" hidden="1" spans="1:4">
       <c r="A153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>457</v>
@@ -15975,9 +16004,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" hidden="1" spans="1:4">
       <c r="A155" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>463</v>
@@ -15989,9 +16018,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" hidden="1" spans="1:4">
       <c r="A156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>466</v>
@@ -16003,9 +16032,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" hidden="1" spans="1:4">
       <c r="A157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>469</v>
@@ -16017,9 +16046,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" hidden="1" spans="1:4">
       <c r="A158" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>472</v>
@@ -16058,7 +16087,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>481</v>
@@ -16095,9 +16124,9 @@
         <v>489</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" hidden="1" spans="1:4">
       <c r="A164" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>490</v>
@@ -16109,9 +16138,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" hidden="1" spans="1:4">
       <c r="A165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>493</v>
@@ -16137,9 +16166,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" hidden="1" spans="1:4">
       <c r="A167" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>499</v>
@@ -16164,7 +16193,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>505</v>
@@ -16226,9 +16255,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" hidden="1" spans="1:4">
       <c r="A174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>520</v>
@@ -16268,9 +16297,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" hidden="1" spans="1:4">
       <c r="A177" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>529</v>
@@ -16296,9 +16325,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" hidden="1" spans="1:4">
       <c r="A179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>535</v>
@@ -16310,9 +16339,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" hidden="1" spans="1:4">
       <c r="A180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>538</v>
@@ -16335,9 +16364,9 @@
         <v>543</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" hidden="1" spans="1:4">
       <c r="A182" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>544</v>
@@ -16349,9 +16378,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" hidden="1" spans="1:4">
       <c r="A183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>547</v>
@@ -16363,9 +16392,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" hidden="1" spans="1:4">
       <c r="A184" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>550</v>
@@ -16377,9 +16406,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" hidden="1" spans="1:4">
       <c r="A185" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>553</v>
@@ -16391,9 +16420,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" hidden="1" spans="1:4">
       <c r="A186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>556</v>
@@ -16407,7 +16436,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>559</v>
@@ -16441,9 +16470,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" hidden="1" spans="1:4">
       <c r="A190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>568</v>
@@ -16541,9 +16570,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" hidden="1" spans="1:4">
       <c r="A198" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>592</v>
@@ -16569,9 +16598,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" hidden="1" spans="1:4">
       <c r="A200" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>598</v>
@@ -16605,9 +16634,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" hidden="1" spans="1:4">
       <c r="A203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>607</v>
@@ -16630,9 +16659,9 @@
         <v>612</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" hidden="1" spans="1:4">
       <c r="A205" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>613</v>
@@ -16644,9 +16673,9 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" hidden="1" spans="1:4">
       <c r="A206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>616</v>
@@ -16658,9 +16687,9 @@
         <v>618</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" hidden="1" spans="1:4">
       <c r="A207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>619</v>
@@ -16672,9 +16701,9 @@
         <v>621</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" hidden="1" spans="1:4">
       <c r="A208" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>622</v>
@@ -16686,9 +16715,9 @@
         <v>624</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" hidden="1" spans="1:4">
       <c r="A209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>625</v>
@@ -16700,9 +16729,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" hidden="1" spans="1:4">
       <c r="A210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>628</v>
@@ -16747,9 +16776,9 @@
         <v>639</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" hidden="1" spans="1:4">
       <c r="A214" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>640</v>
@@ -16808,9 +16837,9 @@
         <v>654</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" hidden="1" spans="1:4">
       <c r="A219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>655</v>
@@ -16824,7 +16853,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>657</v>
@@ -16838,7 +16867,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>660</v>
@@ -16850,9 +16879,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" hidden="1" spans="1:4">
       <c r="A222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>663</v>
@@ -16864,9 +16893,9 @@
         <v>665</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" hidden="1" spans="1:4">
       <c r="A223" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>666</v>
@@ -16894,7 +16923,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>672</v>
@@ -16908,7 +16937,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>675</v>
@@ -16922,7 +16951,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>678</v>
@@ -16934,9 +16963,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" hidden="1" spans="1:4">
       <c r="A228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>681</v>
@@ -16948,9 +16977,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" hidden="1" spans="1:4">
       <c r="A229" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>684</v>
@@ -16973,9 +17002,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" hidden="1" spans="1:4">
       <c r="A231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>690</v>
@@ -16987,9 +17016,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" hidden="1" spans="1:4">
       <c r="A232" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>693</v>
@@ -17003,7 +17032,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
@@ -17029,9 +17058,9 @@
         <v>701</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" hidden="1" spans="1:4">
       <c r="A235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>702</v>
@@ -17045,7 +17074,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>705</v>
@@ -17057,9 +17086,9 @@
         <v>707</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" hidden="1" spans="1:4">
       <c r="A237" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>708</v>
@@ -17071,9 +17100,9 @@
         <v>710</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" hidden="1" spans="1:4">
       <c r="A238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>711</v>
@@ -17121,9 +17150,9 @@
         <v>722</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" hidden="1" spans="1:4">
       <c r="A242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>723</v>
@@ -17135,9 +17164,9 @@
         <v>725</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" hidden="1" spans="1:4">
       <c r="A243" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>726</v>
@@ -17162,7 +17191,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>732</v>
@@ -17188,9 +17217,9 @@
         <v>737</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" hidden="1" spans="1:4">
       <c r="A247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>738</v>
@@ -17213,9 +17242,9 @@
         <v>743</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" hidden="1" spans="1:4">
       <c r="A249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>744</v>
@@ -17227,9 +17256,9 @@
         <v>746</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" hidden="1" spans="1:4">
       <c r="A250" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>747</v>
@@ -17252,9 +17281,9 @@
         <v>752</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" hidden="1" spans="1:4">
       <c r="A252" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>753</v>
@@ -17288,9 +17317,9 @@
         <v>761</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" hidden="1" spans="1:4">
       <c r="A255" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>762</v>
@@ -17326,7 +17355,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -17340,7 +17369,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>774</v>
@@ -17374,9 +17403,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" hidden="1" spans="1:4">
       <c r="A262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>783</v>
@@ -17388,9 +17417,9 @@
         <v>785</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" hidden="1" spans="1:4">
       <c r="A263" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>786</v>
@@ -17402,9 +17431,9 @@
         <v>788</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" hidden="1" spans="1:4">
       <c r="A264" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>789</v>
@@ -17416,9 +17445,9 @@
         <v>791</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" hidden="1" spans="1:4">
       <c r="A265" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>792</v>
@@ -17430,9 +17459,9 @@
         <v>794</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" hidden="1" spans="1:4">
       <c r="A266" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>795</v>
@@ -17444,9 +17473,9 @@
         <v>797</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" hidden="1" spans="1:4">
       <c r="A267" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>798</v>
@@ -17469,9 +17498,9 @@
         <v>803</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" hidden="1" spans="1:4">
       <c r="A269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>804</v>
@@ -17505,9 +17534,9 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" hidden="1" spans="1:4">
       <c r="A272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>813</v>
@@ -17558,9 +17587,9 @@
         <v>824</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" hidden="1" spans="1:4">
       <c r="A276" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>825</v>
@@ -17583,9 +17612,9 @@
         <v>830</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" hidden="1" spans="1:4">
       <c r="A278" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>831</v>
@@ -17611,9 +17640,9 @@
         <v>836</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" hidden="1" spans="1:4">
       <c r="A280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>837</v>
@@ -17636,9 +17665,9 @@
         <v>842</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" hidden="1" spans="1:4">
       <c r="A282" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>843</v>
@@ -17744,9 +17773,9 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" hidden="1" spans="1:4">
       <c r="A291" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>870</v>
@@ -17780,9 +17809,9 @@
         <v>878</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" hidden="1" spans="1:4">
       <c r="A294" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>879</v>
@@ -17794,9 +17823,9 @@
         <v>881</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" hidden="1" spans="1:4">
       <c r="A295" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>882</v>
@@ -17808,9 +17837,9 @@
         <v>884</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" hidden="1" spans="1:4">
       <c r="A296" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>885</v>
@@ -17822,9 +17851,9 @@
         <v>887</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" hidden="1" spans="1:4">
       <c r="A297" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>888</v>
@@ -17836,9 +17865,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" hidden="1" spans="1:4">
       <c r="A298" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>891</v>
@@ -17850,9 +17879,9 @@
         <v>893</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" hidden="1" spans="1:4">
       <c r="A299" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>894</v>
@@ -17963,7 +17992,10 @@
         <v>923</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="2:4">
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>1</v>
+      </c>
       <c r="B309" s="1" t="s">
         <v>924</v>
       </c>
@@ -18018,7 +18050,10 @@
         <v>938</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="2:4">
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>1</v>
+      </c>
       <c r="B314" s="1" t="s">
         <v>939</v>
       </c>
@@ -18029,7 +18064,10 @@
         <v>941</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="2:4">
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>1</v>
+      </c>
       <c r="B315" s="1" t="s">
         <v>942</v>
       </c>
@@ -18051,7 +18089,10 @@
         <v>947</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="2:4">
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>1</v>
+      </c>
       <c r="B317" s="1" t="s">
         <v>948</v>
       </c>
@@ -18073,7 +18114,10 @@
         <v>953</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="2:4">
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>1</v>
+      </c>
       <c r="B319" s="1" t="s">
         <v>954</v>
       </c>
@@ -18084,7 +18128,10 @@
         <v>956</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="2:4">
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>1</v>
+      </c>
       <c r="B320" s="1" t="s">
         <v>957</v>
       </c>
@@ -18095,8 +18142,11 @@
         <v>959</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="2:4">
-      <c r="B321" s="1" t="s">
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>1</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>960</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -18106,7 +18156,10 @@
         <v>962</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="2:4">
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>1</v>
+      </c>
       <c r="B322" s="1" t="s">
         <v>963</v>
       </c>
@@ -18216,7 +18269,10 @@
         <v>992</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="2:4">
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>1</v>
+      </c>
       <c r="B332" s="1" t="s">
         <v>993</v>
       </c>
@@ -18227,7 +18283,10 @@
         <v>995</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="2:4">
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>1</v>
+      </c>
       <c r="B333" s="1" t="s">
         <v>996</v>
       </c>
@@ -18260,7 +18319,10 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="2:4">
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>1</v>
+      </c>
       <c r="B336" s="1" t="s">
         <v>1005</v>
       </c>
@@ -18293,7 +18355,10 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="2:4">
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>1</v>
+      </c>
       <c r="B339" s="1" t="s">
         <v>1014</v>
       </c>
@@ -18304,7 +18369,10 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="2:4">
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>1</v>
+      </c>
       <c r="B340" s="1" t="s">
         <v>1017</v>
       </c>
@@ -18315,7 +18383,10 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="2:4">
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>1</v>
+      </c>
       <c r="B341" s="1" t="s">
         <v>1020</v>
       </c>
@@ -18326,7 +18397,10 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="2:4">
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>1</v>
+      </c>
       <c r="B342" s="1" t="s">
         <v>1023</v>
       </c>
@@ -18359,7 +18433,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="2:4">
+    <row r="345" ht="37.5" spans="1:4">
+      <c r="A345" s="1">
+        <v>1</v>
+      </c>
       <c r="B345" s="1" t="s">
         <v>1032</v>
       </c>
@@ -18370,7 +18447,10 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="2:4">
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>1</v>
+      </c>
       <c r="B346" s="1" t="s">
         <v>1035</v>
       </c>
@@ -18381,7 +18461,10 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="2:4">
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>1</v>
+      </c>
       <c r="B347" s="1" t="s">
         <v>1038</v>
       </c>
@@ -18392,7 +18475,10 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="2:4">
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>1</v>
+      </c>
       <c r="B348" s="1" t="s">
         <v>1041</v>
       </c>
@@ -18414,7 +18500,10 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="2:4">
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>1</v>
+      </c>
       <c r="B350" s="1" t="s">
         <v>1047</v>
       </c>
@@ -18425,7 +18514,10 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="2:4">
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>1</v>
+      </c>
       <c r="B351" s="1" t="s">
         <v>1050</v>
       </c>
@@ -18436,7 +18528,10 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="2:4">
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>1</v>
+      </c>
       <c r="B352" s="1" t="s">
         <v>1053</v>
       </c>
@@ -18447,7 +18542,10 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="353" ht="37.5" hidden="1" spans="2:4">
+    <row r="353" ht="37.5" spans="1:4">
+      <c r="A353" s="1">
+        <v>1</v>
+      </c>
       <c r="B353" s="1" t="s">
         <v>1056</v>
       </c>
@@ -18458,7 +18556,10 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="2:4">
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>1</v>
+      </c>
       <c r="B354" s="1" t="s">
         <v>1059</v>
       </c>
@@ -18469,7 +18570,10 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="2:4">
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>1</v>
+      </c>
       <c r="B355" s="1" t="s">
         <v>1062</v>
       </c>
@@ -18491,7 +18595,10 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="2:4">
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>1</v>
+      </c>
       <c r="B357" s="1" t="s">
         <v>1068</v>
       </c>
@@ -18513,7 +18620,10 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="2:4">
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>1</v>
+      </c>
       <c r="B359" s="1" t="s">
         <v>1074</v>
       </c>
@@ -18524,7 +18634,10 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="2:4">
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>1</v>
+      </c>
       <c r="B360" s="1" t="s">
         <v>1077</v>
       </c>
@@ -18535,7 +18648,10 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="2:4">
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>1</v>
+      </c>
       <c r="B361" s="1" t="s">
         <v>1080</v>
       </c>
@@ -18557,7 +18673,10 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="2:4">
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
       <c r="B363" s="1" t="s">
         <v>1086</v>
       </c>
@@ -18568,7 +18687,10 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="2:4">
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>1</v>
+      </c>
       <c r="B364" s="1" t="s">
         <v>1089</v>
       </c>
@@ -18590,7 +18712,10 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="2:4">
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>1</v>
+      </c>
       <c r="B366" s="1" t="s">
         <v>1095</v>
       </c>
@@ -18601,7 +18726,10 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="2:4">
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>1</v>
+      </c>
       <c r="B367" s="1" t="s">
         <v>1098</v>
       </c>
@@ -18612,7 +18740,10 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="2:4">
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>1</v>
+      </c>
       <c r="B368" s="1" t="s">
         <v>1101</v>
       </c>
@@ -18623,7 +18754,10 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="2:4">
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>1</v>
+      </c>
       <c r="B369" s="1" t="s">
         <v>1104</v>
       </c>
@@ -18634,7 +18768,10 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="2:4">
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>1</v>
+      </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
       </c>
@@ -18645,7 +18782,10 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="2:4">
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>1</v>
+      </c>
       <c r="B371" s="1" t="s">
         <v>1110</v>
       </c>
@@ -18656,7 +18796,10 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="2:4">
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>1</v>
+      </c>
       <c r="B372" s="1" t="s">
         <v>1113</v>
       </c>
@@ -18678,7 +18821,10 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="2:4">
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>1</v>
+      </c>
       <c r="B374" s="1" t="s">
         <v>1119</v>
       </c>
@@ -18689,7 +18835,10 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="2:4">
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>1</v>
+      </c>
       <c r="B375" s="1" t="s">
         <v>1122</v>
       </c>
@@ -18711,7 +18860,10 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="2:4">
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>1</v>
+      </c>
       <c r="B377" s="1" t="s">
         <v>1128</v>
       </c>
@@ -18744,7 +18896,10 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="2:4">
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>1</v>
+      </c>
       <c r="B380" s="1" t="s">
         <v>1137</v>
       </c>
@@ -18755,7 +18910,10 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="2:4">
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>1</v>
+      </c>
       <c r="B381" s="1" t="s">
         <v>1140</v>
       </c>
@@ -18766,7 +18924,10 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="2:4">
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>1</v>
+      </c>
       <c r="B382" s="1" t="s">
         <v>1143</v>
       </c>
@@ -18777,7 +18938,10 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="2:4">
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>1</v>
+      </c>
       <c r="B383" s="1" t="s">
         <v>1146</v>
       </c>
@@ -18788,7 +18952,10 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="2:4">
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>1</v>
+      </c>
       <c r="B384" s="1" t="s">
         <v>1149</v>
       </c>
@@ -18799,7 +18966,10 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="2:4">
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>1</v>
+      </c>
       <c r="B385" s="1" t="s">
         <v>1152</v>
       </c>
@@ -18821,7 +18991,10 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="2:4">
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>1</v>
+      </c>
       <c r="B387" s="1" t="s">
         <v>1158</v>
       </c>
@@ -18832,7 +19005,10 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="2:4">
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>1</v>
+      </c>
       <c r="B388" s="1" t="s">
         <v>1161</v>
       </c>
@@ -18854,7 +19030,10 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="2:4">
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>1</v>
+      </c>
       <c r="B390" s="1" t="s">
         <v>1167</v>
       </c>
@@ -18865,7 +19044,10 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="2:4">
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>1</v>
+      </c>
       <c r="B391" s="1" t="s">
         <v>1170</v>
       </c>
@@ -18876,7 +19058,10 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="2:4">
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>1</v>
+      </c>
       <c r="B392" s="1" t="s">
         <v>1173</v>
       </c>
@@ -18887,7 +19072,10 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="2:4">
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>1</v>
+      </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
       </c>
@@ -18942,7 +19130,10 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="2:4">
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>1</v>
+      </c>
       <c r="B398" s="1" t="s">
         <v>1191</v>
       </c>
@@ -18953,7 +19144,10 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="2:4">
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>1</v>
+      </c>
       <c r="B399" s="1" t="s">
         <v>1194</v>
       </c>
@@ -18964,7 +19158,10 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="2:4">
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>1</v>
+      </c>
       <c r="B400" s="1" t="s">
         <v>1197</v>
       </c>
@@ -25736,6 +25933,7 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="4755" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2656,13 +2656,152 @@
   </si>
   <si>
     <r>
+      <t>[in'd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ʒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>i:nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>s]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.心灵手巧的；精巧的</t>
+  </si>
+  <si>
+    <t>stellar</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>[in'd</t>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>stel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.星的，星球的，主要的</t>
+  </si>
+  <si>
+    <t>rhetorical</t>
+  </si>
+  <si>
+    <t>[riˈtɔrikəl]</t>
+  </si>
+  <si>
+    <t>a.修辞的，夸张的</t>
+  </si>
+  <si>
+    <t>illusory</t>
+  </si>
+  <si>
+    <t>[iˈlusəri]</t>
+  </si>
+  <si>
+    <t>a.虚幻的，错觉的，产生幻觉的</t>
+  </si>
+  <si>
+    <t>rotary</t>
+  </si>
+  <si>
+    <t>['rəutəri]</t>
+  </si>
+  <si>
+    <t>a.旋转的，转动的，轮流的</t>
+  </si>
+  <si>
+    <t>ragged</t>
+  </si>
+  <si>
+    <t>[ˈrægid]</t>
+  </si>
+  <si>
+    <t>a.衣着破烂的，参差不齐的</t>
+  </si>
+  <si>
+    <t>migrant</t>
+  </si>
+  <si>
+    <t>[ˈmaigrənt]</t>
+  </si>
+  <si>
+    <t>a.移居的 n.移居者，候鸟</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>['v</t>
     </r>
     <r>
       <rPr>
@@ -2670,27 +2809,785 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>ʒi:njəs]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.心灵手巧的；精巧的</t>
-  </si>
-  <si>
-    <t>stellar</t>
-  </si>
-  <si>
-    <r>
+      <t>ʌlnərəbl]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.易受伤的，脆弱的</t>
+  </si>
+  <si>
+    <t>susceptible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[sə'septəbl] </t>
+  </si>
+  <si>
+    <t>a.易受影响的，易受感染的</t>
+  </si>
+  <si>
+    <t>prone</t>
+  </si>
+  <si>
+    <t>[prəun]</t>
+  </si>
+  <si>
+    <t>a.易于…的，很可能…的</t>
+  </si>
+  <si>
+    <t>compelling</t>
+  </si>
+  <si>
+    <t>[kəmˈpeliŋ]</t>
+  </si>
+  <si>
+    <t>a.引人入胜的，强有力的</t>
+  </si>
+  <si>
+    <t>spectacular</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[spek'tækjul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ə]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.引人入胜的，壮观的</t>
+  </si>
+  <si>
+    <t>covert</t>
+  </si>
+  <si>
+    <t>['kəʊvət]</t>
+  </si>
+  <si>
+    <t>a.隐蔽的，不公开的，秘密的</t>
+  </si>
+  <si>
+    <t>preferential</t>
+  </si>
+  <si>
+    <t>[ˌprefə'renʃəl]</t>
+  </si>
+  <si>
+    <t>a.优先的，选择的</t>
+  </si>
+  <si>
+    <t>instrumental</t>
+  </si>
+  <si>
+    <t>[ˌinstru'mentl]</t>
+  </si>
+  <si>
+    <t>a.有帮助的，工具的</t>
+  </si>
+  <si>
+    <t>literate</t>
+  </si>
+  <si>
+    <t>[ˈlitərit]</t>
+  </si>
+  <si>
+    <t>a.有读写能力的，有文化修养的</t>
+  </si>
+  <si>
+    <t>biotic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[bai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ˈɔtik]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.有关生命的，生物的</t>
+  </si>
+  <si>
+    <t>agrarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈɡrɛrɪən] </t>
+  </si>
+  <si>
+    <t>a.有关土地的，耕地的</t>
+  </si>
+  <si>
+    <t>permeable</t>
+  </si>
+  <si>
+    <t>[ˈpə:mi:əbəl]</t>
+  </si>
+  <si>
+    <t>a.有浸透性，能透过的</t>
+  </si>
+  <si>
+    <t>renowned</t>
+  </si>
+  <si>
+    <t>[riˈnaund]</t>
+  </si>
+  <si>
+    <t>a.有名的，有声誉的</t>
+  </si>
+  <si>
+    <t>capable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['keipəbl] </t>
+  </si>
+  <si>
+    <t>a.有能力的，能干的</t>
+  </si>
+  <si>
+    <t>insightful</t>
+  </si>
+  <si>
+    <t>[ˈinsaitfəl]</t>
+  </si>
+  <si>
+    <t>a.有深刻见解的，富有洞察力的</t>
+  </si>
+  <si>
+    <t>animate</t>
+  </si>
+  <si>
+    <t>['ænimeit]</t>
+  </si>
+  <si>
+    <t>a.有生命力的 v.使活泼</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>['fainait]</t>
+  </si>
+  <si>
+    <t>a.有限的，限定的</t>
+  </si>
+  <si>
+    <t>efficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[iˈfiʃənt] </t>
+  </si>
+  <si>
+    <t>a.有效的</t>
+  </si>
+  <si>
+    <t>intuitive</t>
+  </si>
+  <si>
+    <t>[inˈtju:itiv]</t>
+  </si>
+  <si>
+    <t>a.有直觉力的，直觉到的 intuition 直觉</t>
+  </si>
+  <si>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['elidʒəbl] </t>
+  </si>
+  <si>
+    <t>a.有资格的，合适的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>infant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ile</t>
+    </r>
+  </si>
+  <si>
+    <t>[ˈinfəntail]</t>
+  </si>
+  <si>
+    <t>a.幼稚的，幼儿的</t>
+  </si>
+  <si>
+    <t>circuitous</t>
+  </si>
+  <si>
+    <t>[sə'kju:itəs]</t>
+  </si>
+  <si>
+    <t>a.迂回的,绕行的</t>
+  </si>
+  <si>
+    <t>recreational</t>
+  </si>
+  <si>
+    <t>[ˌrekriˈeiʃənəl]</t>
+  </si>
+  <si>
+    <t>a.娱乐的，消遣的</t>
+  </si>
+  <si>
+    <t>preliminary</t>
+  </si>
+  <si>
+    <t>[pri'liminəri]</t>
+  </si>
+  <si>
+    <t>a.预备的，初步的，开始的</t>
+  </si>
+  <si>
+    <t>prospective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[prəs'pektiv] </t>
+  </si>
+  <si>
+    <t>a.预期的，未来的</t>
+  </si>
+  <si>
+    <t>indicative</t>
+  </si>
+  <si>
+    <t>[ɪn'dɪkətɪv]</t>
+  </si>
+  <si>
+    <t>a.预示的</t>
+  </si>
+  <si>
+    <t>primal</t>
+  </si>
+  <si>
+    <t>['praiməl]</t>
+  </si>
+  <si>
+    <t>a.原始的</t>
+  </si>
+  <si>
+    <t>causal</t>
+  </si>
+  <si>
+    <t>[ˈkɔ:zəl]</t>
+  </si>
+  <si>
+    <t>a.原因的</t>
+  </si>
+  <si>
+    <t>recurrent</t>
+  </si>
+  <si>
+    <t>[riˈkʌrənt]</t>
+  </si>
+  <si>
+    <t>a.再发生的，周期性的</t>
+  </si>
+  <si>
+    <t>sticky</t>
+  </si>
+  <si>
+    <t>['stiki]</t>
+  </si>
+  <si>
+    <t>a.粘的，黏性的</t>
+  </si>
+  <si>
+    <t>strategic</t>
+  </si>
+  <si>
+    <t>[strəˈti:dʒik]</t>
+  </si>
+  <si>
+    <t>a.战略（上）的</t>
+  </si>
+  <si>
+    <t>rectangular</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[rek'tæŋɡj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">ələ]   </t>
+    </r>
+  </si>
+  <si>
+    <t>a.长方形的，矩形的</t>
+  </si>
+  <si>
+    <t>marshy</t>
+  </si>
+  <si>
+    <t>['mɑ:ʃi]</t>
+  </si>
+  <si>
+    <t>a.沼泽般的，湿软的</t>
+  </si>
+  <si>
+    <t>fungal</t>
+  </si>
+  <si>
+    <t>['fʌŋgəl]</t>
+  </si>
+  <si>
+    <t>a.真菌的</t>
+  </si>
+  <si>
+    <t>vibrant</t>
+  </si>
+  <si>
+    <t>[ˈvaibrənt]</t>
+  </si>
+  <si>
+    <t>a.震动的</t>
+  </si>
+  <si>
+    <t>frontal</t>
+  </si>
+  <si>
+    <t>[ˈfrʌntl]</t>
+  </si>
+  <si>
+    <t>a.正面的，前面的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>occupation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>al</t>
+    </r>
+  </si>
+  <si>
+    <t>[ˌɔkju'peiʃnl]</t>
+  </si>
+  <si>
+    <t>a.职业的，occasionally 偶尔</t>
+  </si>
+  <si>
+    <t>colonial</t>
+  </si>
+  <si>
+    <t>[kə'ləunjəl]</t>
+  </si>
+  <si>
+    <t>a.殖民地的</t>
+  </si>
+  <si>
+    <t>crucial</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>['kru:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">ʃəl] </t>
+    </r>
+  </si>
+  <si>
+    <t>a.至关紧要的</t>
+  </si>
+  <si>
+    <t>pristine</t>
+  </si>
+  <si>
+    <t>[ˈpristiain]</t>
+  </si>
+  <si>
+    <t>a.质朴的，原始的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>gene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ric</t>
+    </r>
+  </si>
+  <si>
+    <t>[dʒə'nerik]</t>
+  </si>
+  <si>
+    <t>a.种类的，类属的</t>
+  </si>
+  <si>
+    <t>fatal</t>
+  </si>
+  <si>
+    <t>['feitl]</t>
+  </si>
+  <si>
+    <t>a.重大的;致命的</t>
+  </si>
+  <si>
+    <t>gravitational</t>
+  </si>
+  <si>
+    <t>['grævə'teiʃənəl]</t>
+  </si>
+  <si>
+    <t>a.重力的</t>
+  </si>
+  <si>
+    <t>periodical</t>
+  </si>
+  <si>
+    <t>[,piəri'ɔdikəl]</t>
+  </si>
+  <si>
+    <t>a.周期的，定期的</t>
+  </si>
+  <si>
+    <t>predominant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[,pri'd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ɔminənt]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.主要的，占优势的，支配的</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ˌreziˈdenʃəl]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.住宅的，居住的</t>
+  </si>
+  <si>
+    <t>solemn</t>
+  </si>
+  <si>
+    <t>['sɔləm]</t>
+  </si>
+  <si>
+    <t>a.庄严的，严肃的</t>
+  </si>
+  <si>
+    <t>imposing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ˈ</t>
-    </r>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[im</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ˈpəʊziŋ]</t>
+    </r>
+  </si>
+  <si>
+    <t>a.庄严的，壮观的；令人印象深刻的</t>
+  </si>
+  <si>
+    <t>ornate</t>
+  </si>
+  <si>
+    <t>[ɔ:'neit]</t>
+  </si>
+  <si>
+    <t>a.装饰的</t>
+  </si>
+  <si>
+    <t>ornamental</t>
+  </si>
+  <si>
+    <t>[ˌɔ:nə'mentl]</t>
+  </si>
+  <si>
+    <t>a.装饰性的</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>[kɒmprɪ'hensɪv]</t>
+  </si>
+  <si>
+    <t>a.综合的; 全面的</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>[ˈsʌmɪt]</t>
+  </si>
+  <si>
+    <t>a.最高级的； 政府首脑的</t>
+  </si>
+  <si>
+    <t>electronically</t>
+  </si>
+  <si>
+    <t>[ilek'trɔnikəli]</t>
+  </si>
+  <si>
+    <t>ad.电子地</t>
+  </si>
+  <si>
+    <t>consequently</t>
+  </si>
+  <si>
+    <t>['kɔnsikwəntli]</t>
+  </si>
+  <si>
+    <t>ad.结果</t>
+  </si>
+  <si>
+    <t>elaborately</t>
+  </si>
+  <si>
+    <t>[i'læbərətli]</t>
+  </si>
+  <si>
+    <t>ad.精心地，liberate 解放</t>
+  </si>
+  <si>
+    <t>explicitly</t>
+  </si>
+  <si>
+    <t>ik'splisitli</t>
+  </si>
+  <si>
+    <t>ad.明确地；明白地</t>
+  </si>
+  <si>
+    <t>appreciably</t>
+  </si>
+  <si>
+    <t>[ə'pri:ʃəbli]</t>
+  </si>
+  <si>
+    <t>ad.明显地；相当地；可察觉地</t>
+  </si>
+  <si>
+    <t>exclusively</t>
+  </si>
+  <si>
+    <t>[iks'klu:sivli]</t>
+  </si>
+  <si>
+    <t>ad.排外地</t>
+  </si>
+  <si>
+    <t>collectively</t>
+  </si>
+  <si>
+    <t>kə'lektivli</t>
+  </si>
+  <si>
+    <t>ad.全体地</t>
+  </si>
+  <si>
+    <t>critically</t>
+  </si>
+  <si>
+    <t>['kritikəli]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad.审慎地；批评性地；极其 </t>
+  </si>
+  <si>
+    <t>substantially</t>
+  </si>
+  <si>
+    <t>səb'stænʃəli</t>
+  </si>
+  <si>
+    <t>ad.实质上；大体上；充分地</t>
+  </si>
+  <si>
+    <t>virtually</t>
+  </si>
+  <si>
+    <t>['və:tʃuəli</t>
+  </si>
+  <si>
+    <t>ad.事实上,实质上</t>
+  </si>
+  <si>
+    <t>subsequently</t>
+  </si>
+  <si>
+    <t>[sʌbsikwəntli]</t>
+  </si>
+  <si>
+    <t>ad.随后，其后；后来</t>
+  </si>
+  <si>
+    <t>specifically</t>
+  </si>
+  <si>
+    <t>spi'sifikəli]</t>
+  </si>
+  <si>
+    <t>ad.特别地;具体地</t>
+  </si>
+  <si>
+    <t>utterly</t>
+  </si>
+  <si>
+    <t>['ʌtəli]</t>
+  </si>
+  <si>
+    <t>ad.完全地，绝对地</t>
+  </si>
+  <si>
+    <t>proportionately</t>
+  </si>
+  <si>
+    <t>prə'pɔ:ʃənit</t>
+  </si>
+  <si>
+    <t>ad.相称地,成比例地</t>
+  </si>
+  <si>
+    <t>forth</t>
+  </si>
+  <si>
+    <t>[fɔ:θ]</t>
+  </si>
+  <si>
+    <t>ad.向前，向外；自…以后</t>
+  </si>
+  <si>
+    <t>severely</t>
+  </si>
+  <si>
+    <t>[sə'virli]</t>
+  </si>
+  <si>
+    <t>ad.严格地;激烈地</t>
+  </si>
+  <si>
+    <t>uniformly</t>
+  </si>
+  <si>
+    <t>ˈju:nifɔ:mli</t>
+  </si>
+  <si>
+    <t>ad.一致地，齐心地</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -2698,303 +3595,8 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>stel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ə</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.星的，星球的，主要的</t>
-  </si>
-  <si>
-    <t>rhetorical</t>
-  </si>
-  <si>
-    <t>[riˈtɔrikəl]</t>
-  </si>
-  <si>
-    <t>a.修辞的，夸张的</t>
-  </si>
-  <si>
-    <t>illusory</t>
-  </si>
-  <si>
-    <t>[iˈlusəri]</t>
-  </si>
-  <si>
-    <t>a.虚幻的，错觉的，产生幻觉的</t>
-  </si>
-  <si>
-    <t>rotary</t>
-  </si>
-  <si>
-    <t>['rəutəri]</t>
-  </si>
-  <si>
-    <t>a.旋转的，转动的，轮流的</t>
-  </si>
-  <si>
-    <t>ragged</t>
-  </si>
-  <si>
-    <t>[ˈrægid]</t>
-  </si>
-  <si>
-    <t>a.衣着破烂的，参差不齐的</t>
-  </si>
-  <si>
-    <t>migrant</t>
-  </si>
-  <si>
-    <t>[ˈmaigrənt]</t>
-  </si>
-  <si>
-    <t>a.移居的 n.移居者，候鸟</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>['v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ʌlnərəbl]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.易受伤的，脆弱的</t>
-  </si>
-  <si>
-    <t>susceptible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[sə'septəbl] </t>
-  </si>
-  <si>
-    <t>a.易受影响的，易受感染的</t>
-  </si>
-  <si>
-    <t>prone</t>
-  </si>
-  <si>
-    <t>[prəun]</t>
-  </si>
-  <si>
-    <t>a.易于…的，很可能…的</t>
-  </si>
-  <si>
-    <t>compelling</t>
-  </si>
-  <si>
-    <t>[kəmˈpeliŋ]</t>
-  </si>
-  <si>
-    <t>a.引人入胜的，强有力的</t>
-  </si>
-  <si>
-    <t>spectacular</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[spek'tækjul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ə]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.引人入胜的，壮观的</t>
-  </si>
-  <si>
-    <t>covert</t>
-  </si>
-  <si>
-    <t>['kəʊvət]</t>
-  </si>
-  <si>
-    <t>a.隐蔽的，不公开的，秘密的</t>
-  </si>
-  <si>
-    <t>preferential</t>
-  </si>
-  <si>
-    <t>[ˌprefə'renʃəl]</t>
-  </si>
-  <si>
-    <t>a.优先的，选择的</t>
-  </si>
-  <si>
-    <t>instrumental</t>
-  </si>
-  <si>
-    <t>[ˌinstru'mentl]</t>
-  </si>
-  <si>
-    <t>a.有帮助的，工具的</t>
-  </si>
-  <si>
-    <t>literate</t>
-  </si>
-  <si>
-    <t>[ˈlitərit]</t>
-  </si>
-  <si>
-    <t>a.有读写能力的，有文化修养的</t>
-  </si>
-  <si>
-    <t>biotic</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[bai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ˈɔtik]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.有关生命的，生物的</t>
-  </si>
-  <si>
-    <t>agrarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[əˈɡrɛrɪən] </t>
-  </si>
-  <si>
-    <t>a.有关土地的，耕地的</t>
-  </si>
-  <si>
-    <t>permeable</t>
-  </si>
-  <si>
-    <t>[ˈpə:mi:əbəl]</t>
-  </si>
-  <si>
-    <t>a.有浸透性，能透过的</t>
-  </si>
-  <si>
-    <t>renowned</t>
-  </si>
-  <si>
-    <t>[riˈnaund]</t>
-  </si>
-  <si>
-    <t>a.有名的，有声誉的</t>
-  </si>
-  <si>
-    <t>capable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['keipəbl] </t>
-  </si>
-  <si>
-    <t>a.有能力的，能干的</t>
-  </si>
-  <si>
-    <t>insightful</t>
-  </si>
-  <si>
-    <t>[ˈinsaitfəl]</t>
-  </si>
-  <si>
-    <t>a.有深刻见解的，富有洞察力的</t>
-  </si>
-  <si>
-    <t>animate</t>
-  </si>
-  <si>
-    <t>['ænimeit]</t>
-  </si>
-  <si>
-    <t>a.有生命力的 v.使活泼</t>
-  </si>
-  <si>
-    <t>finite</t>
-  </si>
-  <si>
-    <t>['fainait]</t>
-  </si>
-  <si>
-    <t>a.有限的，限定的</t>
-  </si>
-  <si>
-    <t>efficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[iˈfiʃənt] </t>
-  </si>
-  <si>
-    <t>a.有效的</t>
-  </si>
-  <si>
-    <t>intuitive</t>
-  </si>
-  <si>
-    <t>[inˈtju:itiv]</t>
-  </si>
-  <si>
-    <t>a.有直觉力的，直觉到的</t>
-  </si>
-  <si>
-    <t>eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['elidʒəbl] </t>
-  </si>
-  <si>
-    <t>a.有资格的，合适的</t>
-  </si>
-  <si>
+      <t>a</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
@@ -3002,173 +3604,113 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>infant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ile</t>
-    </r>
-  </si>
-  <si>
-    <t>[ˈinfəntail]</t>
-  </si>
-  <si>
-    <t>a.幼稚的，幼儿的</t>
-  </si>
-  <si>
-    <t>circuitous</t>
-  </si>
-  <si>
-    <t>[sə'kju:itəs]</t>
-  </si>
-  <si>
-    <t>a.迂回的,绕行的</t>
-  </si>
-  <si>
-    <t>recreational</t>
-  </si>
-  <si>
-    <t>[ˌrekriˈeiʃənəl]</t>
-  </si>
-  <si>
-    <t>a.娱乐的，消遣的</t>
-  </si>
-  <si>
-    <t>preliminary</t>
-  </si>
-  <si>
-    <t>[pri'liminəri]</t>
-  </si>
-  <si>
-    <t>a.预备的，初步的，开始的</t>
-  </si>
-  <si>
-    <t>prospective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[prəs'pektiv] </t>
-  </si>
-  <si>
-    <t>a.预期的，未来的</t>
-  </si>
-  <si>
-    <t>indicative</t>
-  </si>
-  <si>
-    <t>[ɪn'dɪkətɪv]</t>
-  </si>
-  <si>
-    <t>a.预示的</t>
-  </si>
-  <si>
-    <t>primal</t>
-  </si>
-  <si>
-    <t>['praiməl]</t>
-  </si>
-  <si>
-    <t>a.原始的</t>
-  </si>
-  <si>
-    <t>causal</t>
-  </si>
-  <si>
-    <t>[ˈkɔ:zəl]</t>
-  </si>
-  <si>
-    <t>a.原因的</t>
-  </si>
-  <si>
-    <t>recurrent</t>
-  </si>
-  <si>
-    <t>[riˈkʌrənt]</t>
-  </si>
-  <si>
-    <t>a.再发生的，周期性的</t>
-  </si>
-  <si>
-    <t>sticky</t>
-  </si>
-  <si>
-    <t>['stiki]</t>
-  </si>
-  <si>
-    <t>a.粘的，黏性的</t>
-  </si>
-  <si>
-    <t>strategic</t>
-  </si>
-  <si>
-    <t>[strəˈti:dʒik]</t>
-  </si>
-  <si>
-    <t>a.战略（上）的</t>
-  </si>
-  <si>
-    <t>rectangular</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[rek'tæŋɡj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">ələ]   </t>
-    </r>
-  </si>
-  <si>
-    <t>a.长方形的，矩形的</t>
-  </si>
-  <si>
-    <t>marshy</t>
-  </si>
-  <si>
-    <t>['mɑ:ʃi]</t>
-  </si>
-  <si>
-    <t>a.沼泽般的，湿软的</t>
-  </si>
-  <si>
-    <t>fungal</t>
-  </si>
-  <si>
-    <t>['fʌŋgəl]</t>
-  </si>
-  <si>
-    <t>a.真菌的</t>
-  </si>
-  <si>
-    <t>vibrant</t>
-  </si>
-  <si>
-    <t>[ˈvaibrənt]</t>
-  </si>
-  <si>
-    <t>a.震动的</t>
-  </si>
-  <si>
-    <t>frontal</t>
-  </si>
-  <si>
-    <t>[ˈfrʌntl]</t>
-  </si>
-  <si>
-    <t>a.正面的，前面的</t>
+      <t>field </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈfiːld] </t>
+  </si>
+  <si>
+    <t>ad.在战场上； 在野外； 远离着</t>
+  </si>
+  <si>
+    <t>predominantly</t>
+  </si>
+  <si>
+    <t>pri'dɔminəntli</t>
+  </si>
+  <si>
+    <t>ad.占主导地位地</t>
+  </si>
+  <si>
+    <t>intellectually</t>
+  </si>
+  <si>
+    <t>[inti'lektʃjuəli]</t>
+  </si>
+  <si>
+    <t>ad.智力上；理智地；知性上</t>
+  </si>
+  <si>
+    <t>periodically</t>
+  </si>
+  <si>
+    <t>piəri'ɔdikli</t>
+  </si>
+  <si>
+    <t>ad.周期性地;偶尔</t>
+  </si>
+  <si>
+    <t>literally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['litərəli] </t>
+  </si>
+  <si>
+    <t>ad.逐字地，正确地</t>
+  </si>
+  <si>
+    <t>intently</t>
+  </si>
+  <si>
+    <t>[in'tentli]</t>
+  </si>
+  <si>
+    <t>ad.专心地，集中地，intent 意图目的</t>
+  </si>
+  <si>
+    <t>paradoxically</t>
+  </si>
+  <si>
+    <t>[ˌpærə'dɔksikəli]</t>
+  </si>
+  <si>
+    <t>ad.自相矛盾地,反常地,似是而非的</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>[hwɛər'æz]</t>
+  </si>
+  <si>
+    <t>conj.但是</t>
+  </si>
+  <si>
+    <t>provided</t>
+  </si>
+  <si>
+    <t>prə'vaidid</t>
+  </si>
+  <si>
+    <t>conj.假如,若是</t>
+  </si>
+  <si>
+    <t>comet</t>
+  </si>
+  <si>
+    <t>['kɑmət[</t>
+  </si>
+  <si>
+    <t>n. 彗星</t>
+  </si>
+  <si>
+    <t>bait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bet] </t>
+  </si>
+  <si>
+    <t>n. 鱼饵</t>
+  </si>
+  <si>
+    <t>legion</t>
+  </si>
+  <si>
+    <t>['li:dʒən]</t>
+  </si>
+  <si>
+    <t>n.（古罗马）军团；众多；军队 a.众多的</t>
   </si>
   <si>
     <r>
@@ -3178,518 +3720,6 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>occupation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>al</t>
-    </r>
-  </si>
-  <si>
-    <t>[ˌɔkju'peiʃnl]</t>
-  </si>
-  <si>
-    <t>a.职业的，occasionally 偶尔</t>
-  </si>
-  <si>
-    <t>colonial</t>
-  </si>
-  <si>
-    <t>[kə'ləunjəl]</t>
-  </si>
-  <si>
-    <t>a.殖民地的</t>
-  </si>
-  <si>
-    <t>crucial</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>['kru:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">ʃəl] </t>
-    </r>
-  </si>
-  <si>
-    <t>a.至关紧要的</t>
-  </si>
-  <si>
-    <t>pristine</t>
-  </si>
-  <si>
-    <t>[ˈpristiain]</t>
-  </si>
-  <si>
-    <t>a.质朴的，原始的</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>gene</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ric</t>
-    </r>
-  </si>
-  <si>
-    <t>[dʒə'nerik]</t>
-  </si>
-  <si>
-    <t>a.种类的，类属的</t>
-  </si>
-  <si>
-    <t>fatal</t>
-  </si>
-  <si>
-    <t>['feitl]</t>
-  </si>
-  <si>
-    <t>a.重大的;致命的</t>
-  </si>
-  <si>
-    <t>gravitational</t>
-  </si>
-  <si>
-    <t>['grævə'teiʃənəl]</t>
-  </si>
-  <si>
-    <t>a.重力的</t>
-  </si>
-  <si>
-    <t>periodical</t>
-  </si>
-  <si>
-    <t>[,piəri'ɔdikəl]</t>
-  </si>
-  <si>
-    <t>a.周期的，定期的</t>
-  </si>
-  <si>
-    <t>predominant</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[,pri'd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ɔminənt]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.主要的，占优势的，支配的</t>
-  </si>
-  <si>
-    <t>residential</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ˌreziˈdenʃəl]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.住宅的，居住的</t>
-  </si>
-  <si>
-    <t>solemn</t>
-  </si>
-  <si>
-    <t>['sɔləm]</t>
-  </si>
-  <si>
-    <t>a.庄严的，严肃的</t>
-  </si>
-  <si>
-    <t>imposing</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[im</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ˈpəʊziŋ]</t>
-    </r>
-  </si>
-  <si>
-    <t>a.庄严的，壮观的；令人印象深刻的</t>
-  </si>
-  <si>
-    <t>ornate</t>
-  </si>
-  <si>
-    <t>[ɔ:'neit]</t>
-  </si>
-  <si>
-    <t>a.装饰的</t>
-  </si>
-  <si>
-    <t>ornamental</t>
-  </si>
-  <si>
-    <t>[ˌɔ:nə'mentl]</t>
-  </si>
-  <si>
-    <t>a.装饰性的</t>
-  </si>
-  <si>
-    <t>comprehensive</t>
-  </si>
-  <si>
-    <t>[kɒmprɪ'hensɪv]</t>
-  </si>
-  <si>
-    <t>a.综合的; 全面的</t>
-  </si>
-  <si>
-    <t>summit</t>
-  </si>
-  <si>
-    <t>[ˈsʌmɪt]</t>
-  </si>
-  <si>
-    <t>a.最高级的； 政府首脑的</t>
-  </si>
-  <si>
-    <t>electronically</t>
-  </si>
-  <si>
-    <t>[ilek'trɔnikəli]</t>
-  </si>
-  <si>
-    <t>ad.电子地</t>
-  </si>
-  <si>
-    <t>consequently</t>
-  </si>
-  <si>
-    <t>['kɔnsikwəntli]</t>
-  </si>
-  <si>
-    <t>ad.结果</t>
-  </si>
-  <si>
-    <t>elaborately</t>
-  </si>
-  <si>
-    <t>[i'læbərətli]</t>
-  </si>
-  <si>
-    <t>ad.精心地，liberate 解放</t>
-  </si>
-  <si>
-    <t>explicitly</t>
-  </si>
-  <si>
-    <t>ik'splisitli</t>
-  </si>
-  <si>
-    <t>ad.明确地；明白地</t>
-  </si>
-  <si>
-    <t>appreciably</t>
-  </si>
-  <si>
-    <t>[ə'pri:ʃəbli]</t>
-  </si>
-  <si>
-    <t>ad.明显地；相当地；可察觉地</t>
-  </si>
-  <si>
-    <t>exclusively</t>
-  </si>
-  <si>
-    <t>[iks'klu:sivli]</t>
-  </si>
-  <si>
-    <t>ad.排外地</t>
-  </si>
-  <si>
-    <t>collectively</t>
-  </si>
-  <si>
-    <t>kə'lektivli</t>
-  </si>
-  <si>
-    <t>ad.全体地</t>
-  </si>
-  <si>
-    <t>critically</t>
-  </si>
-  <si>
-    <t>['kritikəli]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad.审慎地；批评性地；极其 </t>
-  </si>
-  <si>
-    <t>substantially</t>
-  </si>
-  <si>
-    <t>səb'stænʃəli</t>
-  </si>
-  <si>
-    <t>ad.实质上；大体上；充分地</t>
-  </si>
-  <si>
-    <t>virtually</t>
-  </si>
-  <si>
-    <t>['və:tʃuəli</t>
-  </si>
-  <si>
-    <t>ad.事实上,实质上</t>
-  </si>
-  <si>
-    <t>subsequently</t>
-  </si>
-  <si>
-    <t>[sʌbsikwəntli]</t>
-  </si>
-  <si>
-    <t>ad.随后，其后；后来</t>
-  </si>
-  <si>
-    <t>specifically</t>
-  </si>
-  <si>
-    <t>spi'sifikəli]</t>
-  </si>
-  <si>
-    <t>ad.特别地;具体地</t>
-  </si>
-  <si>
-    <t>utterly</t>
-  </si>
-  <si>
-    <t>['ʌtəli]</t>
-  </si>
-  <si>
-    <t>ad.完全地，绝对地</t>
-  </si>
-  <si>
-    <t>proportionately</t>
-  </si>
-  <si>
-    <t>prə'pɔ:ʃənit</t>
-  </si>
-  <si>
-    <t>ad.相称地,成比例地</t>
-  </si>
-  <si>
-    <t>forth</t>
-  </si>
-  <si>
-    <t>[fɔ:θ]</t>
-  </si>
-  <si>
-    <t>ad.向前，向外；自…以后</t>
-  </si>
-  <si>
-    <t>severely</t>
-  </si>
-  <si>
-    <t>[sə'virli]</t>
-  </si>
-  <si>
-    <t>ad.严格地;激烈地</t>
-  </si>
-  <si>
-    <t>uniformly</t>
-  </si>
-  <si>
-    <t>ˈju:nifɔ:mli</t>
-  </si>
-  <si>
-    <t>ad.一致地，齐心地</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>field </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[əˈfiːld] </t>
-  </si>
-  <si>
-    <t>ad.在战场上； 在野外； 远离着</t>
-  </si>
-  <si>
-    <t>predominantly</t>
-  </si>
-  <si>
-    <t>pri'dɔminəntli</t>
-  </si>
-  <si>
-    <t>ad.占主导地位地</t>
-  </si>
-  <si>
-    <t>intellectually</t>
-  </si>
-  <si>
-    <t>[inti'lektʃjuəli]</t>
-  </si>
-  <si>
-    <t>ad.智力上；理智地；知性上</t>
-  </si>
-  <si>
-    <t>periodically</t>
-  </si>
-  <si>
-    <t>piəri'ɔdikli</t>
-  </si>
-  <si>
-    <t>ad.周期性地;偶尔</t>
-  </si>
-  <si>
-    <t>literally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['litərəli] </t>
-  </si>
-  <si>
-    <t>ad.逐字地，正确地</t>
-  </si>
-  <si>
-    <t>intently</t>
-  </si>
-  <si>
-    <t>[in'tentli]</t>
-  </si>
-  <si>
-    <t>ad.专心地，集中地，intent 意图目的</t>
-  </si>
-  <si>
-    <t>paradoxically</t>
-  </si>
-  <si>
-    <t>[ˌpærə'dɔksikəli]</t>
-  </si>
-  <si>
-    <t>ad.自相矛盾地,反常地,似是而非的</t>
-  </si>
-  <si>
-    <t>whereas</t>
-  </si>
-  <si>
-    <t>[hwɛər'æz]</t>
-  </si>
-  <si>
-    <t>conj.但是</t>
-  </si>
-  <si>
-    <t>provided</t>
-  </si>
-  <si>
-    <t>prə'vaidid</t>
-  </si>
-  <si>
-    <t>conj.假如,若是</t>
-  </si>
-  <si>
-    <t>comet</t>
-  </si>
-  <si>
-    <t>['kɑmət[</t>
-  </si>
-  <si>
-    <t>n. 彗星</t>
-  </si>
-  <si>
-    <t>bait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[bet] </t>
-  </si>
-  <si>
-    <t>n. 鱼饵</t>
-  </si>
-  <si>
-    <t>legion</t>
-  </si>
-  <si>
-    <t>['li:dʒən]</t>
-  </si>
-  <si>
-    <t>n.（古罗马）军团；众多；军队 a.众多的</t>
-  </si>
-  <si>
-    <r>
       <t>regi</t>
     </r>
     <r>
@@ -3967,6 +3997,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>ac</t>
     </r>
     <r>
@@ -4524,12 +4560,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>dis</t>
     </r>
     <r>
@@ -5904,12 +5934,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>mutual</t>
     </r>
     <r>
@@ -5925,7 +5949,7 @@
     <t>['mju:tjuəlizəm]</t>
   </si>
   <si>
-    <t>n.互助论，互利共生</t>
+    <t>n.互助论，互利共生，mutual 相互的 共同的</t>
   </si>
   <si>
     <t>pollen</t>
@@ -5947,12 +5971,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>de</t>
     </r>
     <r>
@@ -12925,11 +12943,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -12958,29 +12976,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -12988,7 +12983,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13003,7 +12998,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13017,16 +13012,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13034,7 +13022,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13050,7 +13038,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13065,15 +13068,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13081,6 +13076,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13117,8 +13135,13 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="12"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <charset val="136"/>
     </font>
     <font>
@@ -13150,7 +13173,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13162,7 +13239,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13174,19 +13329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13198,139 +13353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13357,31 +13380,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13416,21 +13430,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -13441,148 +13440,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -13685,7 +13708,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="476250"/>
+          <a:off x="2713990" y="238125"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13982,8 +14005,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="D385" sqref="D385"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="C488" sqref="C488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -14410,9 +14433,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" hidden="1" spans="1:4">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>97</v>
@@ -15163,9 +15186,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>268</v>
@@ -15420,9 +15443,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" hidden="1" spans="1:4">
       <c r="A109" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>325</v>
@@ -15865,9 +15888,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" hidden="1" spans="1:4">
       <c r="A144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>430</v>
@@ -16085,9 +16108,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" hidden="1" spans="1:4">
       <c r="A161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>481</v>
@@ -16191,9 +16214,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" hidden="1" spans="1:4">
       <c r="A169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>505</v>
@@ -16434,9 +16457,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" hidden="1" spans="1:4">
       <c r="A187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>559</v>
@@ -16823,9 +16846,9 @@
         <v>651</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" hidden="1" spans="1:4">
       <c r="A218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>652</v>
@@ -16851,9 +16874,9 @@
         <v>654</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" hidden="1" spans="1:4">
       <c r="A220" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>657</v>
@@ -16865,9 +16888,9 @@
         <v>659</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" hidden="1" spans="1:4">
       <c r="A221" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>660</v>
@@ -16907,9 +16930,9 @@
         <v>668</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" hidden="1" spans="1:4">
       <c r="A224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>669</v>
@@ -16921,9 +16944,9 @@
         <v>671</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" hidden="1" spans="1:4">
       <c r="A225" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>672</v>
@@ -16937,7 +16960,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>675</v>
@@ -16951,7 +16974,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>678</v>
@@ -17032,7 +17055,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
@@ -17044,9 +17067,9 @@
         <v>698</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" hidden="1" spans="1:4">
       <c r="A234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>699</v>
@@ -17136,9 +17159,9 @@
         <v>719</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" hidden="1" spans="1:4">
       <c r="A241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>720</v>
@@ -17191,7 +17214,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>732</v>
@@ -17203,9 +17226,9 @@
         <v>734</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" hidden="1" spans="1:4">
       <c r="A246" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>735</v>
@@ -17355,7 +17378,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -17369,7 +17392,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>774</v>
@@ -17548,9 +17571,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" hidden="1" spans="1:4">
       <c r="A273" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>816</v>
@@ -17562,9 +17585,9 @@
         <v>818</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" hidden="1" spans="1:4">
       <c r="A274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>819</v>
@@ -17626,9 +17649,9 @@
         <v>833</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" hidden="1" spans="1:4">
       <c r="A279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>834</v>
@@ -17712,9 +17735,9 @@
         <v>854</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" hidden="1" spans="1:4">
       <c r="A286" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>855</v>
@@ -17726,9 +17749,9 @@
         <v>857</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" hidden="1" spans="1:4">
       <c r="A287" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>858</v>
@@ -17992,9 +18015,9 @@
         <v>923</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" hidden="1" spans="1:4">
       <c r="A309" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>924</v>
@@ -18052,7 +18075,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>939</v>
@@ -18091,7 +18114,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>948</v>
@@ -18130,7 +18153,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>957</v>
@@ -18144,7 +18167,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>960</v>
@@ -18158,7 +18181,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>963</v>
@@ -18269,9 +18292,9 @@
         <v>992</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" hidden="1" spans="1:4">
       <c r="A332" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>993</v>
@@ -18285,7 +18308,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>996</v>
@@ -18321,7 +18344,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>1005</v>
@@ -18357,7 +18380,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>1014</v>
@@ -18369,9 +18392,9 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" hidden="1" spans="1:4">
       <c r="A340" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>1017</v>
@@ -18399,7 +18422,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1023</v>
@@ -18433,9 +18456,9 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="345" ht="37.5" spans="1:4">
+    <row r="345" ht="37.5" hidden="1" spans="1:4">
       <c r="A345" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>1032</v>
@@ -18447,9 +18470,9 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" hidden="1" spans="1:4">
       <c r="A346" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>1035</v>
@@ -18463,7 +18486,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>1038</v>
@@ -18528,9 +18551,9 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" hidden="1" spans="1:4">
       <c r="A352" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>1053</v>
@@ -18542,9 +18565,9 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="353" ht="37.5" spans="1:4">
+    <row r="353" ht="37.5" hidden="1" spans="1:4">
       <c r="A353" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>1056</v>
@@ -18572,7 +18595,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1062</v>
@@ -18620,9 +18643,9 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" hidden="1" spans="1:4">
       <c r="A359" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1074</v>
@@ -18634,9 +18657,9 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" hidden="1" spans="1:4">
       <c r="A360" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>1077</v>
@@ -18712,9 +18735,9 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" hidden="1" spans="1:4">
       <c r="A366" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>1095</v>
@@ -18726,9 +18749,9 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" hidden="1" spans="1:4">
       <c r="A367" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>1098</v>
@@ -18740,9 +18763,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" hidden="1" spans="1:4">
       <c r="A368" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>1101</v>
@@ -18770,7 +18793,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -18782,9 +18805,9 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" hidden="1" spans="1:4">
       <c r="A371" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>1110</v>
@@ -18821,9 +18844,9 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" hidden="1" spans="1:4">
       <c r="A374" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>1119</v>
@@ -18835,9 +18858,9 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" hidden="1" spans="1:4">
       <c r="A375" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>1122</v>
@@ -18862,7 +18885,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>1128</v>
@@ -18896,9 +18919,9 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" hidden="1" spans="1:4">
       <c r="A380" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>1137</v>
@@ -18912,7 +18935,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>1140</v>
@@ -18924,9 +18947,9 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" hidden="1" spans="1:4">
       <c r="A382" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>1143</v>
@@ -18938,9 +18961,9 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" hidden="1" spans="1:4">
       <c r="A383" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>1146</v>
@@ -18952,9 +18975,9 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" hidden="1" spans="1:4">
       <c r="A384" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>1149</v>
@@ -19060,7 +19083,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1173</v>
@@ -19074,7 +19097,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
@@ -19158,9 +19181,9 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" hidden="1" spans="1:4">
       <c r="A400" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>1197</v>
@@ -19172,7 +19195,10 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="2:4">
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>1</v>
+      </c>
       <c r="B401" s="1" t="s">
         <v>1200</v>
       </c>
@@ -19183,7 +19209,10 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="2:4">
+    <row r="402" spans="1:4">
+      <c r="A402" s="1">
+        <v>1</v>
+      </c>
       <c r="B402" s="1" t="s">
         <v>1203</v>
       </c>
@@ -19238,7 +19267,10 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="2:4">
+    <row r="407" spans="1:4">
+      <c r="A407" s="1">
+        <v>1</v>
+      </c>
       <c r="B407" s="1" t="s">
         <v>1218</v>
       </c>
@@ -19271,7 +19303,10 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="2:4">
+    <row r="410" spans="1:4">
+      <c r="A410" s="1">
+        <v>1</v>
+      </c>
       <c r="B410" s="1" t="s">
         <v>1227</v>
       </c>
@@ -19304,7 +19339,10 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="2:4">
+    <row r="413" spans="1:4">
+      <c r="A413" s="1">
+        <v>1</v>
+      </c>
       <c r="B413" s="1" t="s">
         <v>1236</v>
       </c>
@@ -19348,7 +19386,10 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="2:4">
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
+        <v>1</v>
+      </c>
       <c r="B417" s="1" t="s">
         <v>1248</v>
       </c>
@@ -19403,7 +19444,10 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="2:4">
+    <row r="422" spans="1:4">
+      <c r="A422" s="1">
+        <v>1</v>
+      </c>
       <c r="B422" s="1" t="s">
         <v>1263</v>
       </c>
@@ -19436,7 +19480,10 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="2:4">
+    <row r="425" spans="1:4">
+      <c r="A425" s="1">
+        <v>1</v>
+      </c>
       <c r="B425" s="1" t="s">
         <v>1272</v>
       </c>
@@ -19469,7 +19516,10 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="2:4">
+    <row r="428" spans="1:4">
+      <c r="A428" s="1">
+        <v>1</v>
+      </c>
       <c r="B428" s="1" t="s">
         <v>1281</v>
       </c>
@@ -19491,7 +19541,10 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="2:4">
+    <row r="430" spans="1:4">
+      <c r="A430" s="1">
+        <v>1</v>
+      </c>
       <c r="B430" s="1" t="s">
         <v>1287</v>
       </c>
@@ -19502,7 +19555,10 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="2:4">
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
+        <v>1</v>
+      </c>
       <c r="B431" s="1" t="s">
         <v>1290</v>
       </c>
@@ -19546,7 +19602,10 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="2:4">
+    <row r="435" spans="1:4">
+      <c r="A435" s="1">
+        <v>1</v>
+      </c>
       <c r="B435" s="1" t="s">
         <v>1302</v>
       </c>
@@ -19557,7 +19616,10 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="2:4">
+    <row r="436" spans="1:4">
+      <c r="A436" s="1">
+        <v>1</v>
+      </c>
       <c r="B436" s="1" t="s">
         <v>1305</v>
       </c>
@@ -19568,7 +19630,10 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="2:4">
+    <row r="437" spans="1:4">
+      <c r="A437" s="1">
+        <v>1</v>
+      </c>
       <c r="B437" s="1" t="s">
         <v>1308</v>
       </c>
@@ -19667,7 +19732,10 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="2:4">
+    <row r="446" spans="1:4">
+      <c r="A446" s="1">
+        <v>1</v>
+      </c>
       <c r="B446" s="1" t="s">
         <v>1335</v>
       </c>
@@ -19678,7 +19746,10 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="2:4">
+    <row r="447" spans="1:4">
+      <c r="A447" s="1">
+        <v>1</v>
+      </c>
       <c r="B447" s="1" t="s">
         <v>1338</v>
       </c>
@@ -19700,7 +19771,10 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="2:4">
+    <row r="449" spans="1:4">
+      <c r="A449" s="1">
+        <v>1</v>
+      </c>
       <c r="B449" s="1" t="s">
         <v>1344</v>
       </c>
@@ -19722,7 +19796,10 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="2:4">
+    <row r="451" spans="1:4">
+      <c r="A451" s="1">
+        <v>1</v>
+      </c>
       <c r="B451" s="1" t="s">
         <v>1350</v>
       </c>
@@ -19766,7 +19843,10 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="2:4">
+    <row r="455" spans="1:4">
+      <c r="A455" s="1">
+        <v>1</v>
+      </c>
       <c r="B455" s="1" t="s">
         <v>1362</v>
       </c>
@@ -19777,7 +19857,10 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="2:4">
+    <row r="456" spans="1:4">
+      <c r="A456" s="1">
+        <v>1</v>
+      </c>
       <c r="B456" s="1" t="s">
         <v>1365</v>
       </c>
@@ -19821,7 +19904,10 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="2:4">
+    <row r="460" spans="1:4">
+      <c r="A460" s="1">
+        <v>1</v>
+      </c>
       <c r="B460" s="1" t="s">
         <v>1377</v>
       </c>
@@ -19865,7 +19951,10 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="2:4">
+    <row r="464" spans="1:4">
+      <c r="A464" s="1">
+        <v>1</v>
+      </c>
       <c r="B464" s="1" t="s">
         <v>1389</v>
       </c>
@@ -19909,7 +19998,10 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="2:4">
+    <row r="468" spans="1:4">
+      <c r="A468" s="1">
+        <v>1</v>
+      </c>
       <c r="B468" s="1" t="s">
         <v>1401</v>
       </c>
@@ -19931,7 +20023,10 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="2:4">
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>1</v>
+      </c>
       <c r="B470" s="1" t="s">
         <v>1407</v>
       </c>
@@ -19942,7 +20037,10 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="2:4">
+    <row r="471" spans="1:4">
+      <c r="A471" s="1">
+        <v>1</v>
+      </c>
       <c r="B471" s="1" t="s">
         <v>1410</v>
       </c>
@@ -19953,7 +20051,10 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="2:4">
+    <row r="472" spans="1:4">
+      <c r="A472" s="1">
+        <v>1</v>
+      </c>
       <c r="B472" s="1" t="s">
         <v>1413</v>
       </c>
@@ -19964,7 +20065,10 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="2:4">
+    <row r="473" spans="1:4">
+      <c r="A473" s="1">
+        <v>1</v>
+      </c>
       <c r="B473" s="1" t="s">
         <v>1416</v>
       </c>
@@ -19975,7 +20079,10 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="2:4">
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>1</v>
+      </c>
       <c r="B474" s="1" t="s">
         <v>1419</v>
       </c>
@@ -19997,7 +20104,10 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="2:4">
+    <row r="476" spans="1:4">
+      <c r="A476" s="1">
+        <v>1</v>
+      </c>
       <c r="B476" s="1" t="s">
         <v>1425</v>
       </c>
@@ -20019,7 +20129,10 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="2:4">
+    <row r="478" spans="1:4">
+      <c r="A478" s="1">
+        <v>1</v>
+      </c>
       <c r="B478" s="1" t="s">
         <v>1431</v>
       </c>
@@ -20030,7 +20143,10 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="2:4">
+    <row r="479" spans="1:4">
+      <c r="A479" s="1">
+        <v>1</v>
+      </c>
       <c r="B479" s="1" t="s">
         <v>1434</v>
       </c>
@@ -20085,7 +20201,10 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="2:4">
+    <row r="484" spans="1:4">
+      <c r="A484" s="1">
+        <v>1</v>
+      </c>
       <c r="B484" s="1" t="s">
         <v>1449</v>
       </c>
@@ -20096,8 +20215,11 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="2:4">
-      <c r="B485" s="1" t="s">
+    <row r="485" spans="1:4">
+      <c r="A485" s="1">
+        <v>1</v>
+      </c>
+      <c r="B485" s="2" t="s">
         <v>1452</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -20107,7 +20229,10 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="2:4">
+    <row r="486" spans="1:4">
+      <c r="A486" s="1">
+        <v>1</v>
+      </c>
       <c r="B486" s="1" t="s">
         <v>1455</v>
       </c>
@@ -20129,7 +20254,10 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="2:4">
+    <row r="488" spans="1:4">
+      <c r="A488" s="1">
+        <v>1</v>
+      </c>
       <c r="B488" s="1" t="s">
         <v>1461</v>
       </c>
@@ -20162,7 +20290,10 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="2:4">
+    <row r="491" spans="1:4">
+      <c r="A491" s="1">
+        <v>1</v>
+      </c>
       <c r="B491" s="1" t="s">
         <v>1470</v>
       </c>
@@ -20173,7 +20304,10 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="2:4">
+    <row r="492" spans="1:4">
+      <c r="A492" s="1">
+        <v>1</v>
+      </c>
       <c r="B492" s="1" t="s">
         <v>1473</v>
       </c>
@@ -20184,7 +20318,10 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="2:4">
+    <row r="493" spans="1:4">
+      <c r="A493" s="1">
+        <v>1</v>
+      </c>
       <c r="B493" s="1" t="s">
         <v>1476</v>
       </c>
@@ -20217,7 +20354,10 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="2:4">
+    <row r="496" spans="1:4">
+      <c r="A496" s="1">
+        <v>1</v>
+      </c>
       <c r="B496" s="1" t="s">
         <v>1485</v>
       </c>
@@ -20239,7 +20379,10 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="2:4">
+    <row r="498" spans="1:4">
+      <c r="A498" s="1">
+        <v>1</v>
+      </c>
       <c r="B498" s="1" t="s">
         <v>1491</v>
       </c>
@@ -20261,7 +20404,10 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="2:4">
+    <row r="500" spans="1:4">
+      <c r="A500" s="1">
+        <v>1</v>
+      </c>
       <c r="B500" s="1" t="s">
         <v>1497</v>
       </c>
@@ -25933,7 +26079,7 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowWidth="13545" windowHeight="4755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -5344,7 +5344,7 @@
     </r>
   </si>
   <si>
-    <t>n.妨碍，口吃，障碍物</t>
+    <t>n.妨碍，口吃，障碍物，implement实施</t>
   </si>
   <si>
     <t>textile</t>
@@ -5563,7 +5563,7 @@
     </r>
   </si>
   <si>
-    <t>n.干涉，介入</t>
+    <t>n.干涉，介入，invention发明，intention意图目的</t>
   </si>
   <si>
     <t>nobility</t>
@@ -5651,7 +5651,7 @@
     <t>[prə'viʒən]</t>
   </si>
   <si>
-    <t>n.供应，预备</t>
+    <t>n.供应，预备，poison毒药</t>
   </si>
   <si>
     <t>configuration</t>
@@ -14005,8 +14005,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="C488" sqref="C488"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="D455" sqref="D455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -19857,7 +19857,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" ht="37.5" spans="1:4">
       <c r="A456" s="1">
         <v>1</v>
       </c>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -5703,7 +5703,7 @@
     <t>['kaunsələ</t>
   </si>
   <si>
-    <t>n.顾问</t>
+    <t>n.顾问，coun 顾问前缀</t>
   </si>
   <si>
     <t>monster</t>
@@ -14005,8 +14005,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="D455" sqref="D455"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="4755" tabRatio="500"/>
+    <workbookView windowWidth="13515" windowHeight="4755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2656,11 +2656,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>[in'd</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="136"/>
       </rPr>
       <t>ʒ</t>
@@ -2676,6 +2683,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="136"/>
       </rPr>
       <t>ə</t>
@@ -4560,6 +4568,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>dis</t>
     </r>
     <r>
@@ -5934,6 +5948,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>mutual</t>
     </r>
     <r>
@@ -5971,6 +5991,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>de</t>
     </r>
     <r>
@@ -12942,9 +12968,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -12975,8 +13001,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12984,6 +13019,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12998,23 +13048,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13022,7 +13056,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13037,30 +13102,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -13068,7 +13110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13081,34 +13123,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13136,6 +13162,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
       <charset val="136"/>
     </font>
     <font>
@@ -13173,13 +13200,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13191,85 +13296,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13287,25 +13344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13317,19 +13356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13341,19 +13374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13380,62 +13407,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -13456,156 +13427,212 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -14005,8 +14032,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="D314" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -16958,9 +16985,9 @@
         <v>674</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" hidden="1" spans="1:4">
       <c r="A226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>675</v>
@@ -16974,7 +17001,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>678</v>
@@ -17055,7 +17082,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
@@ -17097,7 +17124,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>705</v>
@@ -17212,9 +17239,9 @@
         <v>731</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" hidden="1" spans="1:4">
       <c r="A245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>732</v>
@@ -17378,7 +17405,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -17392,7 +17419,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>774</v>
@@ -18075,7 +18102,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>939</v>
@@ -18087,9 +18114,9 @@
         <v>941</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" hidden="1" spans="1:4">
       <c r="A315" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>942</v>
@@ -18114,7 +18141,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>948</v>
@@ -18137,9 +18164,9 @@
         <v>953</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" hidden="1" spans="1:4">
       <c r="A319" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>954</v>
@@ -18153,7 +18180,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>957</v>
@@ -18167,7 +18194,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>960</v>
@@ -18181,7 +18208,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>963</v>
@@ -18308,7 +18335,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>996</v>
@@ -18344,7 +18371,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>1005</v>
@@ -18380,7 +18407,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>1014</v>
@@ -18406,9 +18433,9 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" hidden="1" spans="1:4">
       <c r="A341" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>1020</v>
@@ -18422,7 +18449,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1023</v>
@@ -18486,7 +18513,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>1038</v>
@@ -18498,9 +18525,9 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" hidden="1" spans="1:4">
       <c r="A348" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>1041</v>
@@ -18523,9 +18550,9 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" hidden="1" spans="1:4">
       <c r="A350" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1047</v>
@@ -18537,9 +18564,9 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" hidden="1" spans="1:4">
       <c r="A351" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>1050</v>
@@ -18579,9 +18606,9 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" hidden="1" spans="1:4">
       <c r="A354" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1059</v>
@@ -18595,7 +18622,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1062</v>
@@ -18618,9 +18645,9 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" hidden="1" spans="1:4">
       <c r="A357" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>1068</v>
@@ -18671,9 +18698,9 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" hidden="1" spans="1:4">
       <c r="A361" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>1080</v>
@@ -18696,9 +18723,9 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" hidden="1" spans="1:4">
       <c r="A363" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>1086</v>
@@ -18710,9 +18737,9 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" hidden="1" spans="1:4">
       <c r="A364" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1089</v>
@@ -18777,9 +18804,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" hidden="1" spans="1:4">
       <c r="A369" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>1104</v>
@@ -18793,7 +18820,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -18819,9 +18846,9 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" hidden="1" spans="1:4">
       <c r="A372" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>1113</v>
@@ -18885,7 +18912,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>1128</v>
@@ -18935,7 +18962,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>1140</v>
@@ -18989,9 +19016,9 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" hidden="1" spans="1:4">
       <c r="A385" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>1152</v>
@@ -19028,9 +19055,9 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" hidden="1" spans="1:4">
       <c r="A388" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>1161</v>
@@ -19083,7 +19110,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1173</v>
@@ -19097,7 +19124,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
@@ -19153,9 +19180,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" hidden="1" spans="1:4">
       <c r="A398" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>1191</v>
@@ -19167,9 +19194,9 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" hidden="1" spans="1:4">
       <c r="A399" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>1194</v>
@@ -19195,9 +19222,9 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" hidden="1" spans="1:4">
       <c r="A401" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>1200</v>
@@ -19209,9 +19236,9 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" hidden="1" spans="1:4">
       <c r="A402" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>1203</v>
@@ -19267,9 +19294,9 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" hidden="1" spans="1:4">
       <c r="A407" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>1218</v>
@@ -19305,7 +19332,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1227</v>
@@ -19339,9 +19366,9 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" hidden="1" spans="1:4">
       <c r="A413" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>1236</v>
@@ -19386,9 +19413,9 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" hidden="1" spans="1:4">
       <c r="A417" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>1248</v>
@@ -19444,9 +19471,9 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" hidden="1" spans="1:4">
       <c r="A422" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>1263</v>
@@ -19480,9 +19507,9 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" hidden="1" spans="1:4">
       <c r="A425" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>1272</v>
@@ -19516,9 +19543,9 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" hidden="1" spans="1:4">
       <c r="A428" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>1281</v>
@@ -19543,7 +19570,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1287</v>
@@ -19557,7 +19584,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1290</v>
@@ -19604,7 +19631,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1302</v>
@@ -19616,9 +19643,9 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" hidden="1" spans="1:4">
       <c r="A436" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>1305</v>
@@ -19630,9 +19657,9 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" hidden="1" spans="1:4">
       <c r="A437" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>1308</v>
@@ -19746,9 +19773,9 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" hidden="1" spans="1:4">
       <c r="A447" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>1338</v>
@@ -19773,7 +19800,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1344</v>
@@ -19843,9 +19870,9 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" hidden="1" spans="1:4">
       <c r="A455" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>1362</v>
@@ -19904,9 +19931,9 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" hidden="1" spans="1:4">
       <c r="A460" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>1377</v>
@@ -19951,9 +19978,9 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" hidden="1" spans="1:4">
       <c r="A464" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>1389</v>
@@ -20023,9 +20050,9 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" hidden="1" spans="1:4">
       <c r="A470" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>1407</v>
@@ -20037,9 +20064,9 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" hidden="1" spans="1:4">
       <c r="A471" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>1410</v>
@@ -20065,9 +20092,9 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" hidden="1" spans="1:4">
       <c r="A473" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>1416</v>
@@ -20079,9 +20106,9 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" hidden="1" spans="1:4">
       <c r="A474" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>1419</v>
@@ -20106,7 +20133,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>1425</v>
@@ -20143,9 +20170,9 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" hidden="1" spans="1:4">
       <c r="A479" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>1434</v>
@@ -20201,9 +20228,9 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" hidden="1" spans="1:4">
       <c r="A484" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>1449</v>
@@ -20215,9 +20242,9 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" hidden="1" spans="1:4">
       <c r="A485" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>1452</v>
@@ -20229,9 +20256,9 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" hidden="1" spans="1:4">
       <c r="A486" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>1455</v>
@@ -20304,9 +20331,9 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" hidden="1" spans="1:4">
       <c r="A492" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>1473</v>
@@ -20318,9 +20345,9 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" hidden="1" spans="1:4">
       <c r="A493" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>1476</v>
@@ -20356,7 +20383,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>1485</v>
@@ -20404,9 +20431,9 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" hidden="1" spans="1:4">
       <c r="A500" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1497</v>
@@ -26079,7 +26106,8 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val="5"/>
+        <filter val="4"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13515" windowHeight="4755" tabRatio="500"/>
+    <workbookView windowWidth="13545" windowHeight="4755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -6164,7 +6164,7 @@
     <t>[ʃelv]</t>
   </si>
   <si>
-    <t>n.架子 v.放置架子上</t>
+    <t>n.架子 v.放置架子上，shield 盾</t>
   </si>
   <si>
     <t>inspection</t>
@@ -6173,7 +6173,7 @@
     <t>[in'spekʃən]</t>
   </si>
   <si>
-    <t>n.检查</t>
+    <t>n.检查，inspire激励 灵感</t>
   </si>
   <si>
     <t>exchanger</t>
@@ -6191,7 +6191,7 @@
     <t>['simfəni]</t>
   </si>
   <si>
-    <t>n.交响乐，交响曲</t>
+    <t>n.交响乐，交响曲，symptom症状，sympathy 同情</t>
   </si>
   <si>
     <t>horn</t>
@@ -6382,7 +6382,7 @@
     <t>['raivlri]</t>
   </si>
   <si>
-    <t>n.竞争，竞赛，敌对</t>
+    <t>n.竞争，竞赛，敌对，trivial 平凡的 无价值的</t>
   </si>
   <si>
     <t>competitor</t>
@@ -7356,7 +7356,7 @@
     <t>[dis'fekt]</t>
   </si>
   <si>
-    <t>n.缺点，过失，瑕疵</t>
+    <t>n.缺点，过失，瑕疵，defend 保卫，防御</t>
   </si>
   <si>
     <t>flaw</t>
@@ -13001,8 +13001,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -13011,7 +13025,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13032,37 +13046,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -13070,24 +13053,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13109,6 +13077,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -13118,21 +13133,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13200,7 +13200,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13212,7 +13242,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13224,25 +13314,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13254,133 +13380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13407,7 +13407,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13427,36 +13427,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -13491,148 +13465,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -14032,8 +14032,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="D314" sqref="D314"/>
+    <sheetView tabSelected="1" topLeftCell="C515" workbookViewId="0">
+      <selection activeCell="D523" sqref="D523:D524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -14059,7 +14059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:4">
+    <row r="2" ht="19" hidden="1" customHeight="1" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="37.5" hidden="1" spans="1:4">
+    <row r="4" ht="21" hidden="1" customHeight="1" spans="1:4">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:4">
+    <row r="5" ht="33" hidden="1" customHeight="1" spans="1:4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="37.5" hidden="1" spans="2:4">
+    <row r="6" ht="23" hidden="1" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="37.5" hidden="1" spans="1:4">
+    <row r="7" ht="32" hidden="1" customHeight="1" spans="1:4">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:4">
+    <row r="8" ht="46" hidden="1" customHeight="1" spans="1:4">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" ht="31" hidden="1" customHeight="1" spans="1:4">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:4">
+    <row r="10" ht="31" hidden="1" customHeight="1" spans="1:4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:4">
+    <row r="13" ht="24" hidden="1" customHeight="1" spans="1:4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:4">
+    <row r="14" ht="22" hidden="1" customHeight="1" spans="1:4">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="56.25" hidden="1" spans="1:4">
+    <row r="15" ht="21" hidden="1" customHeight="1" spans="1:4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -16999,9 +16999,9 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" hidden="1" spans="1:4">
       <c r="A227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>678</v>
@@ -17082,7 +17082,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
@@ -17124,7 +17124,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>705</v>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -17419,7 +17419,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>774</v>
@@ -18102,7 +18102,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>939</v>
@@ -18141,7 +18141,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>948</v>
@@ -18180,7 +18180,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>957</v>
@@ -18194,7 +18194,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>960</v>
@@ -18208,7 +18208,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>963</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>996</v>
@@ -18371,7 +18371,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>1005</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>1014</v>
@@ -18449,7 +18449,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1023</v>
@@ -18511,9 +18511,9 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" hidden="1" spans="1:4">
       <c r="A347" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>1038</v>
@@ -18622,7 +18622,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1062</v>
@@ -18820,7 +18820,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -18912,7 +18912,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>1128</v>
@@ -18962,7 +18962,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>1140</v>
@@ -19041,9 +19041,9 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" hidden="1" spans="1:4">
       <c r="A387" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>1158</v>
@@ -19094,9 +19094,9 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" hidden="1" spans="1:4">
       <c r="A391" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>1170</v>
@@ -19110,7 +19110,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1173</v>
@@ -19124,7 +19124,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
@@ -19332,7 +19332,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1227</v>
@@ -19570,7 +19570,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1287</v>
@@ -19584,7 +19584,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1290</v>
@@ -19759,9 +19759,9 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" hidden="1" spans="1:4">
       <c r="A446" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>1335</v>
@@ -19800,7 +19800,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1344</v>
@@ -20025,9 +20025,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" hidden="1" spans="1:4">
       <c r="A468" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>1401</v>
@@ -20078,9 +20078,9 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" hidden="1" spans="1:4">
       <c r="A472" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>1413</v>
@@ -20133,7 +20133,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>1425</v>
@@ -20156,9 +20156,9 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" hidden="1" spans="1:4">
       <c r="A478" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>1431</v>
@@ -20281,9 +20281,9 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" hidden="1" spans="1:4">
       <c r="A488" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>1461</v>
@@ -20317,9 +20317,9 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" hidden="1" spans="1:4">
       <c r="A491" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>1470</v>
@@ -20383,7 +20383,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>1485</v>
@@ -20406,9 +20406,9 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" hidden="1" spans="1:4">
       <c r="A498" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>1491</v>
@@ -20456,7 +20456,10 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="2:4">
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>1</v>
+      </c>
       <c r="B502" s="1" t="s">
         <v>1503</v>
       </c>
@@ -20467,7 +20470,10 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="2:4">
+    <row r="503" spans="1:4">
+      <c r="A503" s="1">
+        <v>1</v>
+      </c>
       <c r="B503" s="1" t="s">
         <v>1506</v>
       </c>
@@ -20489,7 +20495,10 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="2:4">
+    <row r="505" ht="37.5" spans="1:4">
+      <c r="A505" s="1">
+        <v>1</v>
+      </c>
       <c r="B505" s="1" t="s">
         <v>1512</v>
       </c>
@@ -20500,7 +20509,10 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="2:4">
+    <row r="506" spans="1:4">
+      <c r="A506" s="1">
+        <v>1</v>
+      </c>
       <c r="B506" s="1" t="s">
         <v>1515</v>
       </c>
@@ -20511,7 +20523,10 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="2:4">
+    <row r="507" spans="1:4">
+      <c r="A507" s="1">
+        <v>1</v>
+      </c>
       <c r="B507" s="1" t="s">
         <v>1518</v>
       </c>
@@ -20522,7 +20537,10 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="2:4">
+    <row r="508" spans="1:4">
+      <c r="A508" s="1">
+        <v>1</v>
+      </c>
       <c r="B508" s="1" t="s">
         <v>1521</v>
       </c>
@@ -20533,7 +20551,10 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="2:4">
+    <row r="509" spans="1:4">
+      <c r="A509" s="1">
+        <v>1</v>
+      </c>
       <c r="B509" s="1" t="s">
         <v>1524</v>
       </c>
@@ -20555,7 +20576,10 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="2:4">
+    <row r="511" spans="1:4">
+      <c r="A511" s="1">
+        <v>1</v>
+      </c>
       <c r="B511" s="1" t="s">
         <v>1530</v>
       </c>
@@ -20566,7 +20590,10 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="2:4">
+    <row r="512" spans="1:4">
+      <c r="A512" s="1">
+        <v>1</v>
+      </c>
       <c r="B512" s="1" t="s">
         <v>1533</v>
       </c>
@@ -20577,7 +20604,10 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="2:4">
+    <row r="513" spans="1:4">
+      <c r="A513" s="1">
+        <v>1</v>
+      </c>
       <c r="B513" s="1" t="s">
         <v>1536</v>
       </c>
@@ -20588,7 +20618,10 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="2:4">
+    <row r="514" spans="1:4">
+      <c r="A514" s="1">
+        <v>1</v>
+      </c>
       <c r="B514" s="1" t="s">
         <v>1539</v>
       </c>
@@ -20599,7 +20632,10 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="515" hidden="1" spans="2:4">
+    <row r="515" spans="1:4">
+      <c r="A515" s="1">
+        <v>1</v>
+      </c>
       <c r="B515" s="1" t="s">
         <v>1542</v>
       </c>
@@ -20610,7 +20646,10 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="2:4">
+    <row r="516" spans="1:4">
+      <c r="A516" s="1">
+        <v>1</v>
+      </c>
       <c r="B516" s="1" t="s">
         <v>1545</v>
       </c>
@@ -20632,7 +20671,10 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="2:4">
+    <row r="518" spans="1:4">
+      <c r="A518" s="1">
+        <v>1</v>
+      </c>
       <c r="B518" s="1" t="s">
         <v>1551</v>
       </c>
@@ -20643,7 +20685,10 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="2:4">
+    <row r="519" spans="1:4">
+      <c r="A519" s="1">
+        <v>1</v>
+      </c>
       <c r="B519" s="1" t="s">
         <v>1554</v>
       </c>
@@ -20676,7 +20721,10 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="2:4">
+    <row r="522" spans="1:4">
+      <c r="A522" s="1">
+        <v>1</v>
+      </c>
       <c r="B522" s="1" t="s">
         <v>1563</v>
       </c>
@@ -20687,7 +20735,10 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="2:4">
+    <row r="523" spans="1:4">
+      <c r="A523" s="1">
+        <v>1</v>
+      </c>
       <c r="B523" s="1" t="s">
         <v>1566</v>
       </c>
@@ -20698,7 +20749,10 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="2:4">
+    <row r="524" spans="1:4">
+      <c r="A524" s="1">
+        <v>1</v>
+      </c>
       <c r="B524" s="1" t="s">
         <v>1569</v>
       </c>
@@ -20709,7 +20763,10 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="2:4">
+    <row r="525" spans="1:4">
+      <c r="A525" s="1">
+        <v>1</v>
+      </c>
       <c r="B525" s="1" t="s">
         <v>1571</v>
       </c>
@@ -20731,7 +20788,10 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="2:4">
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>1</v>
+      </c>
       <c r="B527" s="1" t="s">
         <v>1577</v>
       </c>
@@ -20742,7 +20802,10 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="2:4">
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>1</v>
+      </c>
       <c r="B528" s="1" t="s">
         <v>1580</v>
       </c>
@@ -20753,7 +20816,10 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="2:4">
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>1</v>
+      </c>
       <c r="B529" s="1" t="s">
         <v>1583</v>
       </c>
@@ -20764,7 +20830,10 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="2:4">
+    <row r="530" spans="1:4">
+      <c r="A530" s="1">
+        <v>1</v>
+      </c>
       <c r="B530" s="1" t="s">
         <v>1586</v>
       </c>
@@ -20797,7 +20866,10 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="2:4">
+    <row r="533" spans="1:4">
+      <c r="A533" s="1">
+        <v>1</v>
+      </c>
       <c r="B533" s="1" t="s">
         <v>1595</v>
       </c>
@@ -20808,7 +20880,10 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="2:4">
+    <row r="534" spans="1:4">
+      <c r="A534" s="1">
+        <v>1</v>
+      </c>
       <c r="B534" s="1" t="s">
         <v>1598</v>
       </c>
@@ -20830,7 +20905,10 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="2:4">
+    <row r="536" spans="1:4">
+      <c r="A536" s="1">
+        <v>1</v>
+      </c>
       <c r="B536" s="1" t="s">
         <v>1604</v>
       </c>
@@ -20852,7 +20930,10 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="2:4">
+    <row r="538" spans="1:4">
+      <c r="A538" s="1">
+        <v>1</v>
+      </c>
       <c r="B538" s="1" t="s">
         <v>1610</v>
       </c>
@@ -20863,7 +20944,10 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="2:4">
+    <row r="539" spans="1:4">
+      <c r="A539" s="1">
+        <v>1</v>
+      </c>
       <c r="B539" s="1" t="s">
         <v>1613</v>
       </c>
@@ -20874,7 +20958,10 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="2:4">
+    <row r="540" spans="1:4">
+      <c r="A540" s="1">
+        <v>1</v>
+      </c>
       <c r="B540" s="1" t="s">
         <v>1616</v>
       </c>
@@ -20885,7 +20972,10 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="2:4">
+    <row r="541" spans="1:4">
+      <c r="A541" s="1">
+        <v>1</v>
+      </c>
       <c r="B541" s="1" t="s">
         <v>1619</v>
       </c>
@@ -20896,7 +20986,10 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="2:4">
+    <row r="542" spans="1:4">
+      <c r="A542" s="1">
+        <v>1</v>
+      </c>
       <c r="B542" s="1" t="s">
         <v>1622</v>
       </c>
@@ -20940,7 +21033,10 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="2:4">
+    <row r="546" spans="1:4">
+      <c r="A546" s="1">
+        <v>1</v>
+      </c>
       <c r="B546" s="1" t="s">
         <v>1634</v>
       </c>
@@ -20973,7 +21069,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="2:4">
+    <row r="549" spans="1:4">
+      <c r="A549" s="1">
+        <v>1</v>
+      </c>
       <c r="B549" s="1" t="s">
         <v>1643</v>
       </c>
@@ -20984,7 +21083,10 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="2:4">
+    <row r="550" spans="1:4">
+      <c r="A550" s="1">
+        <v>1</v>
+      </c>
       <c r="B550" s="1" t="s">
         <v>1646</v>
       </c>
@@ -21006,7 +21108,10 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="552" hidden="1" spans="2:4">
+    <row r="552" spans="1:4">
+      <c r="A552" s="1">
+        <v>1</v>
+      </c>
       <c r="B552" s="1" t="s">
         <v>1652</v>
       </c>
@@ -21017,7 +21122,10 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="553" hidden="1" spans="2:4">
+    <row r="553" spans="1:4">
+      <c r="A553" s="1">
+        <v>1</v>
+      </c>
       <c r="B553" s="1" t="s">
         <v>1655</v>
       </c>
@@ -21028,7 +21136,10 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="554" hidden="1" spans="2:4">
+    <row r="554" spans="1:4">
+      <c r="A554" s="1">
+        <v>1</v>
+      </c>
       <c r="B554" s="1" t="s">
         <v>1658</v>
       </c>
@@ -21039,7 +21150,10 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="2:4">
+    <row r="555" spans="1:4">
+      <c r="A555" s="1">
+        <v>1</v>
+      </c>
       <c r="B555" s="1" t="s">
         <v>1661</v>
       </c>
@@ -21061,7 +21175,10 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="2:4">
+    <row r="557" spans="1:4">
+      <c r="A557" s="1">
+        <v>1</v>
+      </c>
       <c r="B557" s="1" t="s">
         <v>1667</v>
       </c>
@@ -21072,7 +21189,10 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="2:4">
+    <row r="558" spans="1:4">
+      <c r="A558" s="1">
+        <v>1</v>
+      </c>
       <c r="B558" s="1" t="s">
         <v>1670</v>
       </c>
@@ -21116,7 +21236,10 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="562" hidden="1" spans="2:4">
+    <row r="562" spans="1:4">
+      <c r="A562" s="1">
+        <v>1</v>
+      </c>
       <c r="B562" s="1" t="s">
         <v>1682</v>
       </c>
@@ -21127,7 +21250,10 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="2:4">
+    <row r="563" spans="1:4">
+      <c r="A563" s="1">
+        <v>1</v>
+      </c>
       <c r="B563" s="1" t="s">
         <v>1685</v>
       </c>
@@ -21138,7 +21264,10 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="564" hidden="1" spans="2:4">
+    <row r="564" spans="1:4">
+      <c r="A564" s="1">
+        <v>1</v>
+      </c>
       <c r="B564" s="1" t="s">
         <v>1688</v>
       </c>
@@ -21149,7 +21278,10 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="2:4">
+    <row r="565" spans="1:4">
+      <c r="A565" s="1">
+        <v>1</v>
+      </c>
       <c r="B565" s="1" t="s">
         <v>1691</v>
       </c>
@@ -21182,7 +21314,10 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="568" hidden="1" spans="2:4">
+    <row r="568" spans="1:4">
+      <c r="A568" s="1">
+        <v>1</v>
+      </c>
       <c r="B568" s="1" t="s">
         <v>1700</v>
       </c>
@@ -21204,7 +21339,10 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="2:4">
+    <row r="570" spans="1:4">
+      <c r="A570" s="1">
+        <v>1</v>
+      </c>
       <c r="B570" s="1" t="s">
         <v>1706</v>
       </c>
@@ -21281,7 +21419,10 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="2:4">
+    <row r="577" spans="1:4">
+      <c r="A577" s="1">
+        <v>1</v>
+      </c>
       <c r="B577" s="1" t="s">
         <v>1727</v>
       </c>
@@ -21292,7 +21433,10 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="578" hidden="1" spans="2:4">
+    <row r="578" spans="1:4">
+      <c r="A578" s="1">
+        <v>1</v>
+      </c>
       <c r="B578" s="1" t="s">
         <v>1730</v>
       </c>
@@ -21303,7 +21447,10 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="2:4">
+    <row r="579" spans="1:4">
+      <c r="A579" s="1">
+        <v>1</v>
+      </c>
       <c r="B579" s="1" t="s">
         <v>1733</v>
       </c>
@@ -21314,7 +21461,10 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="580" hidden="1" spans="2:4">
+    <row r="580" spans="1:4">
+      <c r="A580" s="1">
+        <v>1</v>
+      </c>
       <c r="B580" s="1" t="s">
         <v>1736</v>
       </c>
@@ -21358,7 +21508,10 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="584" hidden="1" spans="2:4">
+    <row r="584" spans="1:4">
+      <c r="A584" s="1">
+        <v>1</v>
+      </c>
       <c r="B584" s="1" t="s">
         <v>1748</v>
       </c>
@@ -21402,7 +21555,10 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="2:4">
+    <row r="588" spans="1:4">
+      <c r="A588" s="1">
+        <v>1</v>
+      </c>
       <c r="B588" s="1" t="s">
         <v>1760</v>
       </c>
@@ -21413,7 +21569,10 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="589" hidden="1" spans="2:4">
+    <row r="589" spans="1:4">
+      <c r="A589" s="1">
+        <v>1</v>
+      </c>
       <c r="B589" s="1" t="s">
         <v>1763</v>
       </c>
@@ -21424,7 +21583,10 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="2:4">
+    <row r="590" spans="1:4">
+      <c r="A590" s="1">
+        <v>1</v>
+      </c>
       <c r="B590" s="1" t="s">
         <v>1766</v>
       </c>
@@ -21435,7 +21597,10 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="591" hidden="1" spans="2:4">
+    <row r="591" spans="1:4">
+      <c r="A591" s="1">
+        <v>1</v>
+      </c>
       <c r="B591" s="1" t="s">
         <v>1769</v>
       </c>
@@ -21446,7 +21611,10 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="592" hidden="1" spans="2:4">
+    <row r="592" spans="1:4">
+      <c r="A592" s="1">
+        <v>1</v>
+      </c>
       <c r="B592" s="1" t="s">
         <v>1772</v>
       </c>
@@ -21490,7 +21658,10 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="596" hidden="1" spans="2:4">
+    <row r="596" spans="1:4">
+      <c r="A596" s="1">
+        <v>1</v>
+      </c>
       <c r="B596" s="1" t="s">
         <v>1784</v>
       </c>
@@ -21501,7 +21672,10 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="2:4">
+    <row r="597" spans="1:4">
+      <c r="A597" s="1">
+        <v>1</v>
+      </c>
       <c r="B597" s="1" t="s">
         <v>1787</v>
       </c>
@@ -21512,7 +21686,10 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="2:4">
+    <row r="598" spans="1:4">
+      <c r="A598" s="1">
+        <v>1</v>
+      </c>
       <c r="B598" s="1" t="s">
         <v>1790</v>
       </c>
@@ -21534,7 +21711,10 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="2:4">
+    <row r="600" spans="1:4">
+      <c r="A600" s="1">
+        <v>1</v>
+      </c>
       <c r="B600" s="1" t="s">
         <v>1796</v>
       </c>
@@ -26106,8 +26286,7 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val="4"/>
-        <filter val="6"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="4755" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -8222,7 +8222,7 @@
     </r>
   </si>
   <si>
-    <t>n.物质，实质</t>
+    <t>n.物质，实质，sustain维持，substantial大量</t>
   </si>
   <si>
     <t>dilution</t>
@@ -8448,7 +8448,7 @@
     <t>['æstərɔid]</t>
   </si>
   <si>
-    <t>n.小行星</t>
+    <t>n.小行星，aesthetics美学</t>
   </si>
   <si>
     <t>facet</t>
@@ -8563,7 +8563,7 @@
     </r>
   </si>
   <si>
-    <t>n.驯养，教化</t>
+    <t>n.驯养，教化，dormitory宿舍，dominate支配</t>
   </si>
   <si>
     <t>compaction</t>
@@ -8651,7 +8651,7 @@
     <t>[ˌemi'ɡreiʃən]</t>
   </si>
   <si>
-    <t>n.移居出境，侨居</t>
+    <t>n.移居出境，侨居，marine海的</t>
   </si>
   <si>
     <t>relic</t>
@@ -12968,10 +12968,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -13008,13 +13008,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -13025,37 +13018,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13077,16 +13055,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13100,11 +13077,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13124,15 +13122,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13200,13 +13200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13224,7 +13218,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13236,25 +13308,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13266,7 +13350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13278,7 +13362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13290,97 +13374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13436,17 +13436,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13466,17 +13462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13491,148 +13476,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -14032,8 +14032,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C515" workbookViewId="0">
-      <selection activeCell="D523" sqref="D523:D524"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="A697" sqref="A697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -17082,7 +17082,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
@@ -17122,9 +17122,9 @@
         <v>704</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" hidden="1" spans="1:4">
       <c r="A236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>705</v>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -17419,7 +17419,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>774</v>
@@ -18100,9 +18100,9 @@
         <v>938</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" hidden="1" spans="1:4">
       <c r="A314" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>939</v>
@@ -18139,9 +18139,9 @@
         <v>947</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" hidden="1" spans="1:4">
       <c r="A317" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>948</v>
@@ -18178,9 +18178,9 @@
         <v>956</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" hidden="1" spans="1:4">
       <c r="A320" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>957</v>
@@ -18192,9 +18192,9 @@
         <v>959</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" hidden="1" spans="1:4">
       <c r="A321" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>960</v>
@@ -18206,9 +18206,9 @@
         <v>962</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" hidden="1" spans="1:4">
       <c r="A322" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>963</v>
@@ -18333,9 +18333,9 @@
         <v>995</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" hidden="1" spans="1:4">
       <c r="A333" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>996</v>
@@ -18371,7 +18371,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>1005</v>
@@ -18405,9 +18405,9 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" hidden="1" spans="1:4">
       <c r="A339" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>1014</v>
@@ -18447,9 +18447,9 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" hidden="1" spans="1:4">
       <c r="A342" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1023</v>
@@ -18620,9 +18620,9 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" hidden="1" spans="1:4">
       <c r="A355" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1062</v>
@@ -18820,7 +18820,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -18910,9 +18910,9 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" hidden="1" spans="1:4">
       <c r="A377" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>1128</v>
@@ -18962,7 +18962,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>1140</v>
@@ -19110,7 +19110,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1173</v>
@@ -19124,7 +19124,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
@@ -19330,9 +19330,9 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" hidden="1" spans="1:4">
       <c r="A410" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1227</v>
@@ -19568,9 +19568,9 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" hidden="1" spans="1:4">
       <c r="A430" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1287</v>
@@ -19582,9 +19582,9 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" hidden="1" spans="1:4">
       <c r="A431" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1290</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1302</v>
@@ -19800,7 +19800,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1344</v>
@@ -19823,9 +19823,9 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" hidden="1" spans="1:4">
       <c r="A451" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>1350</v>
@@ -19884,9 +19884,9 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="456" ht="37.5" spans="1:4">
+    <row r="456" ht="37.5" hidden="1" spans="1:4">
       <c r="A456" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>1365</v>
@@ -20131,9 +20131,9 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" hidden="1" spans="1:4">
       <c r="A476" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>1425</v>
@@ -20381,9 +20381,9 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" hidden="1" spans="1:4">
       <c r="A496" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>1485</v>
@@ -20456,9 +20456,9 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" hidden="1" spans="1:4">
       <c r="A502" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>1503</v>
@@ -20472,7 +20472,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1506</v>
@@ -20509,9 +20509,9 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" hidden="1" spans="1:4">
       <c r="A506" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>1515</v>
@@ -20523,9 +20523,9 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" hidden="1" spans="1:4">
       <c r="A507" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>1518</v>
@@ -20576,9 +20576,9 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" hidden="1" spans="1:4">
       <c r="A511" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>1530</v>
@@ -20590,9 +20590,9 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" hidden="1" spans="1:4">
       <c r="A512" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>1533</v>
@@ -20604,9 +20604,9 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" hidden="1" spans="1:4">
       <c r="A513" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>1536</v>
@@ -20618,9 +20618,9 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" hidden="1" spans="1:4">
       <c r="A514" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>1539</v>
@@ -20634,7 +20634,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>1542</v>
@@ -20671,9 +20671,9 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" hidden="1" spans="1:4">
       <c r="A518" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>1551</v>
@@ -20687,7 +20687,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>1554</v>
@@ -20723,7 +20723,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>1563</v>
@@ -20737,7 +20737,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>1566</v>
@@ -20751,7 +20751,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>1569</v>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>1571</v>
@@ -20788,9 +20788,9 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" hidden="1" spans="1:4">
       <c r="A527" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>1577</v>
@@ -20804,7 +20804,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>1580</v>
@@ -20816,9 +20816,9 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" hidden="1" spans="1:4">
       <c r="A529" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>1583</v>
@@ -20830,9 +20830,9 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" hidden="1" spans="1:4">
       <c r="A530" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>1586</v>
@@ -20868,7 +20868,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>1595</v>
@@ -20880,9 +20880,9 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" hidden="1" spans="1:4">
       <c r="A534" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>1598</v>
@@ -20905,9 +20905,9 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" hidden="1" spans="1:4">
       <c r="A536" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>1604</v>
@@ -20932,7 +20932,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>1610</v>
@@ -20944,9 +20944,9 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" hidden="1" spans="1:4">
       <c r="A539" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>1613</v>
@@ -20960,7 +20960,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>1616</v>
@@ -20988,7 +20988,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>1622</v>
@@ -21033,9 +21033,9 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" hidden="1" spans="1:4">
       <c r="A546" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>1634</v>
@@ -21071,7 +21071,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>1643</v>
@@ -21083,9 +21083,9 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" hidden="1" spans="1:4">
       <c r="A550" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>1646</v>
@@ -21110,7 +21110,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1652</v>
@@ -21124,7 +21124,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1655</v>
@@ -21138,7 +21138,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>1658</v>
@@ -21152,7 +21152,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1661</v>
@@ -21177,7 +21177,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>1667</v>
@@ -21191,7 +21191,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1670</v>
@@ -21236,9 +21236,9 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" hidden="1" spans="1:4">
       <c r="A562" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>1682</v>
@@ -21250,9 +21250,9 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" hidden="1" spans="1:4">
       <c r="A563" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>1685</v>
@@ -21264,9 +21264,9 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" hidden="1" spans="1:4">
       <c r="A564" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>1688</v>
@@ -21278,9 +21278,9 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" hidden="1" spans="1:4">
       <c r="A565" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>1691</v>
@@ -21314,9 +21314,9 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" hidden="1" spans="1:4">
       <c r="A568" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>1700</v>
@@ -21339,9 +21339,9 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" hidden="1" spans="1:4">
       <c r="A570" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>1706</v>
@@ -21421,7 +21421,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>1727</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>1730</v>
@@ -21447,9 +21447,9 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" hidden="1" spans="1:4">
       <c r="A579" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>1733</v>
@@ -21508,9 +21508,9 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" hidden="1" spans="1:4">
       <c r="A584" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>1748</v>
@@ -21569,9 +21569,9 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" hidden="1" spans="1:4">
       <c r="A589" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>1763</v>
@@ -21583,9 +21583,9 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" hidden="1" spans="1:4">
       <c r="A590" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>1766</v>
@@ -21597,9 +21597,9 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" hidden="1" spans="1:4">
       <c r="A591" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>1769</v>
@@ -21611,9 +21611,9 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" hidden="1" spans="1:4">
       <c r="A592" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>1772</v>
@@ -21658,9 +21658,9 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" hidden="1" spans="1:4">
       <c r="A596" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>1784</v>
@@ -21672,9 +21672,9 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" hidden="1" spans="1:4">
       <c r="A597" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>1787</v>
@@ -21686,9 +21686,9 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" hidden="1" spans="1:4">
       <c r="A598" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>1790</v>
@@ -21711,9 +21711,9 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" hidden="1" spans="1:4">
       <c r="A600" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>1796</v>
@@ -21747,7 +21747,10 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="603" hidden="1" spans="2:4">
+    <row r="603" spans="1:4">
+      <c r="A603" s="1">
+        <v>1</v>
+      </c>
       <c r="B603" s="1" t="s">
         <v>1805</v>
       </c>
@@ -21769,7 +21772,10 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="605" hidden="1" spans="2:4">
+    <row r="605" spans="1:4">
+      <c r="A605" s="1">
+        <v>1</v>
+      </c>
       <c r="B605" s="1" t="s">
         <v>1811</v>
       </c>
@@ -21813,7 +21819,10 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="609" hidden="1" spans="2:4">
+    <row r="609" spans="1:4">
+      <c r="A609" s="1">
+        <v>1</v>
+      </c>
       <c r="B609" s="1" t="s">
         <v>1823</v>
       </c>
@@ -21835,7 +21844,10 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="2:4">
+    <row r="611" spans="1:4">
+      <c r="A611" s="1">
+        <v>1</v>
+      </c>
       <c r="B611" s="1" t="s">
         <v>1829</v>
       </c>
@@ -21846,7 +21858,10 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="2:4">
+    <row r="612" spans="1:4">
+      <c r="A612" s="1">
+        <v>1</v>
+      </c>
       <c r="B612" s="1" t="s">
         <v>1832</v>
       </c>
@@ -21868,7 +21883,10 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="614" hidden="1" spans="2:4">
+    <row r="614" spans="1:4">
+      <c r="A614" s="1">
+        <v>1</v>
+      </c>
       <c r="B614" s="1" t="s">
         <v>1838</v>
       </c>
@@ -21901,7 +21919,10 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="617" hidden="1" spans="2:4">
+    <row r="617" spans="1:4">
+      <c r="A617" s="1">
+        <v>1</v>
+      </c>
       <c r="B617" s="1" t="s">
         <v>1847</v>
       </c>
@@ -21912,7 +21933,10 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="2:4">
+    <row r="618" spans="1:4">
+      <c r="A618" s="1">
+        <v>1</v>
+      </c>
       <c r="B618" s="1" t="s">
         <v>1850</v>
       </c>
@@ -21945,7 +21969,10 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="2:4">
+    <row r="621" spans="1:4">
+      <c r="A621" s="1">
+        <v>1</v>
+      </c>
       <c r="B621" s="1" t="s">
         <v>1859</v>
       </c>
@@ -21967,7 +21994,10 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="2:4">
+    <row r="623" spans="1:4">
+      <c r="A623" s="1">
+        <v>1</v>
+      </c>
       <c r="B623" s="1" t="s">
         <v>1865</v>
       </c>
@@ -21989,7 +22019,10 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="625" hidden="1" spans="2:4">
+    <row r="625" spans="1:4">
+      <c r="A625" s="1">
+        <v>1</v>
+      </c>
       <c r="B625" s="1" t="s">
         <v>1871</v>
       </c>
@@ -22000,7 +22033,10 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="626" hidden="1" spans="2:4">
+    <row r="626" spans="1:4">
+      <c r="A626" s="1">
+        <v>1</v>
+      </c>
       <c r="B626" s="1" t="s">
         <v>1874</v>
       </c>
@@ -22011,7 +22047,10 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="2:4">
+    <row r="627" spans="1:4">
+      <c r="A627" s="1">
+        <v>1</v>
+      </c>
       <c r="B627" s="1" t="s">
         <v>1877</v>
       </c>
@@ -22022,7 +22061,10 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="628" hidden="1" spans="2:4">
+    <row r="628" spans="1:4">
+      <c r="A628" s="1">
+        <v>1</v>
+      </c>
       <c r="B628" s="1" t="s">
         <v>1880</v>
       </c>
@@ -22055,7 +22097,10 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="2:4">
+    <row r="631" spans="1:4">
+      <c r="A631" s="1">
+        <v>1</v>
+      </c>
       <c r="B631" s="1" t="s">
         <v>1889</v>
       </c>
@@ -22066,7 +22111,10 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="632" hidden="1" spans="2:4">
+    <row r="632" spans="1:4">
+      <c r="A632" s="1">
+        <v>1</v>
+      </c>
       <c r="B632" s="1" t="s">
         <v>1892</v>
       </c>
@@ -22099,7 +22147,10 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="635" hidden="1" spans="2:4">
+    <row r="635" spans="1:4">
+      <c r="A635" s="1">
+        <v>1</v>
+      </c>
       <c r="B635" s="1" t="s">
         <v>1901</v>
       </c>
@@ -22110,7 +22161,10 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="2:4">
+    <row r="636" spans="1:4">
+      <c r="A636" s="1">
+        <v>1</v>
+      </c>
       <c r="B636" s="1" t="s">
         <v>1904</v>
       </c>
@@ -22121,7 +22175,10 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="2:4">
+    <row r="637" spans="1:4">
+      <c r="A637" s="1">
+        <v>1</v>
+      </c>
       <c r="B637" s="1" t="s">
         <v>1907</v>
       </c>
@@ -22132,7 +22189,10 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="2:4">
+    <row r="638" spans="1:4">
+      <c r="A638" s="1">
+        <v>1</v>
+      </c>
       <c r="B638" s="1" t="s">
         <v>1910</v>
       </c>
@@ -22143,7 +22203,10 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="639" hidden="1" spans="2:4">
+    <row r="639" spans="1:4">
+      <c r="A639" s="1">
+        <v>1</v>
+      </c>
       <c r="B639" s="1" t="s">
         <v>1913</v>
       </c>
@@ -22165,7 +22228,10 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="641" hidden="1" spans="2:4">
+    <row r="641" spans="1:4">
+      <c r="A641" s="1">
+        <v>1</v>
+      </c>
       <c r="B641" s="1" t="s">
         <v>1919</v>
       </c>
@@ -22187,7 +22253,10 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="643" hidden="1" spans="2:4">
+    <row r="643" spans="1:4">
+      <c r="A643" s="1">
+        <v>1</v>
+      </c>
       <c r="B643" s="1" t="s">
         <v>1925</v>
       </c>
@@ -22209,7 +22278,10 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="2:4">
+    <row r="645" spans="1:4">
+      <c r="A645" s="1">
+        <v>1</v>
+      </c>
       <c r="B645" s="1" t="s">
         <v>1931</v>
       </c>
@@ -22242,7 +22314,10 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="2:4">
+    <row r="648" spans="1:4">
+      <c r="A648" s="1">
+        <v>1</v>
+      </c>
       <c r="B648" s="1" t="s">
         <v>1940</v>
       </c>
@@ -22253,7 +22328,10 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="649" hidden="1" spans="2:4">
+    <row r="649" spans="1:4">
+      <c r="A649" s="1">
+        <v>1</v>
+      </c>
       <c r="B649" s="1" t="s">
         <v>1943</v>
       </c>
@@ -22264,7 +22342,10 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="650" hidden="1" spans="2:4">
+    <row r="650" spans="1:4">
+      <c r="A650" s="1">
+        <v>1</v>
+      </c>
       <c r="B650" s="1" t="s">
         <v>1946</v>
       </c>
@@ -22275,7 +22356,10 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="651" hidden="1" spans="2:4">
+    <row r="651" spans="1:4">
+      <c r="A651" s="1">
+        <v>1</v>
+      </c>
       <c r="B651" s="1" t="s">
         <v>1949</v>
       </c>
@@ -22308,7 +22392,10 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="2:4">
+    <row r="654" spans="1:4">
+      <c r="A654" s="1">
+        <v>1</v>
+      </c>
       <c r="B654" s="1" t="s">
         <v>1958</v>
       </c>
@@ -22341,7 +22428,10 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="657" hidden="1" spans="2:4">
+    <row r="657" spans="1:4">
+      <c r="A657" s="1">
+        <v>1</v>
+      </c>
       <c r="B657" s="1" t="s">
         <v>1967</v>
       </c>
@@ -22352,7 +22442,10 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="658" ht="37.5" hidden="1" spans="2:4">
+    <row r="658" ht="37.5" spans="1:4">
+      <c r="A658" s="1">
+        <v>1</v>
+      </c>
       <c r="B658" s="1" t="s">
         <v>1970</v>
       </c>
@@ -22363,7 +22456,10 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="2:4">
+    <row r="659" spans="1:4">
+      <c r="A659" s="1">
+        <v>1</v>
+      </c>
       <c r="B659" s="1" t="s">
         <v>1973</v>
       </c>
@@ -22374,7 +22470,10 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="2:4">
+    <row r="660" spans="1:4">
+      <c r="A660" s="1">
+        <v>1</v>
+      </c>
       <c r="B660" s="1" t="s">
         <v>1976</v>
       </c>
@@ -22385,7 +22484,10 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="661" hidden="1" spans="2:4">
+    <row r="661" spans="1:4">
+      <c r="A661" s="1">
+        <v>1</v>
+      </c>
       <c r="B661" s="1" t="s">
         <v>1979</v>
       </c>
@@ -22396,7 +22498,10 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="662" hidden="1" spans="2:4">
+    <row r="662" spans="1:4">
+      <c r="A662" s="1">
+        <v>1</v>
+      </c>
       <c r="B662" s="1" t="s">
         <v>1982</v>
       </c>
@@ -22407,7 +22512,10 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="663" hidden="1" spans="2:4">
+    <row r="663" spans="1:4">
+      <c r="A663" s="1">
+        <v>1</v>
+      </c>
       <c r="B663" s="1" t="s">
         <v>1985</v>
       </c>
@@ -22418,7 +22526,10 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="664" hidden="1" spans="2:4">
+    <row r="664" spans="1:4">
+      <c r="A664" s="1">
+        <v>1</v>
+      </c>
       <c r="B664" s="1" t="s">
         <v>1988</v>
       </c>
@@ -22429,7 +22540,10 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="665" hidden="1" spans="2:4">
+    <row r="665" spans="1:4">
+      <c r="A665" s="1">
+        <v>1</v>
+      </c>
       <c r="B665" s="1" t="s">
         <v>1991</v>
       </c>
@@ -22440,7 +22554,10 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="666" hidden="1" spans="2:4">
+    <row r="666" spans="1:4">
+      <c r="A666" s="1">
+        <v>1</v>
+      </c>
       <c r="B666" s="1" t="s">
         <v>1994</v>
       </c>
@@ -22451,7 +22568,10 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="667" hidden="1" spans="2:4">
+    <row r="667" spans="1:4">
+      <c r="A667" s="1">
+        <v>1</v>
+      </c>
       <c r="B667" s="1" t="s">
         <v>1997</v>
       </c>
@@ -22484,7 +22604,10 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="670" hidden="1" spans="2:4">
+    <row r="670" spans="1:4">
+      <c r="A670" s="1">
+        <v>1</v>
+      </c>
       <c r="B670" s="1" t="s">
         <v>2006</v>
       </c>
@@ -22495,7 +22618,10 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="671" hidden="1" spans="2:4">
+    <row r="671" spans="1:4">
+      <c r="A671" s="1">
+        <v>1</v>
+      </c>
       <c r="B671" s="1" t="s">
         <v>2009</v>
       </c>
@@ -22517,7 +22643,10 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="673" hidden="1" spans="2:4">
+    <row r="673" spans="1:4">
+      <c r="A673" s="1">
+        <v>1</v>
+      </c>
       <c r="B673" s="1" t="s">
         <v>2015</v>
       </c>
@@ -22539,7 +22668,10 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="2:4">
+    <row r="675" spans="1:4">
+      <c r="A675" s="1">
+        <v>1</v>
+      </c>
       <c r="B675" s="1" t="s">
         <v>2021</v>
       </c>
@@ -22572,7 +22704,10 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="2:4">
+    <row r="678" spans="1:4">
+      <c r="A678" s="1">
+        <v>1</v>
+      </c>
       <c r="B678" s="1" t="s">
         <v>2030</v>
       </c>
@@ -22583,7 +22718,10 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="679" hidden="1" spans="2:4">
+    <row r="679" spans="1:4">
+      <c r="A679" s="1">
+        <v>1</v>
+      </c>
       <c r="B679" s="1" t="s">
         <v>2033</v>
       </c>
@@ -22594,7 +22732,10 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="680" hidden="1" spans="2:4">
+    <row r="680" spans="1:4">
+      <c r="A680" s="1">
+        <v>1</v>
+      </c>
       <c r="B680" s="1" t="s">
         <v>2036</v>
       </c>
@@ -22605,7 +22746,10 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="681" hidden="1" spans="2:4">
+    <row r="681" spans="1:4">
+      <c r="A681" s="1">
+        <v>1</v>
+      </c>
       <c r="B681" s="1" t="s">
         <v>2039</v>
       </c>
@@ -22616,7 +22760,10 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="2:4">
+    <row r="682" spans="1:4">
+      <c r="A682" s="1">
+        <v>1</v>
+      </c>
       <c r="B682" s="1" t="s">
         <v>2042</v>
       </c>
@@ -22638,7 +22785,10 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="684" hidden="1" spans="2:4">
+    <row r="684" spans="1:4">
+      <c r="A684" s="1">
+        <v>1</v>
+      </c>
       <c r="B684" s="1" t="s">
         <v>2048</v>
       </c>
@@ -22649,7 +22799,10 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="685" hidden="1" spans="2:4">
+    <row r="685" spans="1:4">
+      <c r="A685" s="1">
+        <v>1</v>
+      </c>
       <c r="B685" s="1" t="s">
         <v>2051</v>
       </c>
@@ -22671,7 +22824,10 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="687" hidden="1" spans="2:4">
+    <row r="687" spans="1:4">
+      <c r="A687" s="1">
+        <v>1</v>
+      </c>
       <c r="B687" s="1" t="s">
         <v>2057</v>
       </c>
@@ -22682,7 +22838,10 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="2:4">
+    <row r="688" spans="1:4">
+      <c r="A688" s="1">
+        <v>1</v>
+      </c>
       <c r="B688" s="1" t="s">
         <v>2060</v>
       </c>
@@ -22693,7 +22852,10 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="689" hidden="1" spans="2:4">
+    <row r="689" spans="1:4">
+      <c r="A689" s="1">
+        <v>1</v>
+      </c>
       <c r="B689" s="1" t="s">
         <v>2063</v>
       </c>
@@ -22704,7 +22866,10 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="2:4">
+    <row r="690" spans="1:4">
+      <c r="A690" s="1">
+        <v>1</v>
+      </c>
       <c r="B690" s="1" t="s">
         <v>2066</v>
       </c>
@@ -22715,7 +22880,10 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="691" hidden="1" spans="2:4">
+    <row r="691" spans="1:4">
+      <c r="A691" s="1">
+        <v>1</v>
+      </c>
       <c r="B691" s="1" t="s">
         <v>2069</v>
       </c>
@@ -22726,7 +22894,10 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="692" hidden="1" spans="2:4">
+    <row r="692" spans="1:4">
+      <c r="A692" s="1">
+        <v>1</v>
+      </c>
       <c r="B692" s="1" t="s">
         <v>2072</v>
       </c>
@@ -22759,7 +22930,10 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="695" hidden="1" spans="2:4">
+    <row r="695" spans="1:4">
+      <c r="A695" s="1">
+        <v>1</v>
+      </c>
       <c r="B695" s="1" t="s">
         <v>2081</v>
       </c>
@@ -22781,7 +22955,10 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="697" hidden="1" spans="2:4">
+    <row r="697" spans="1:4">
+      <c r="A697" s="1">
+        <v>1</v>
+      </c>
       <c r="B697" s="1" t="s">
         <v>2087</v>
       </c>
@@ -22792,7 +22969,10 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="698" hidden="1" spans="2:4">
+    <row r="698" spans="1:4">
+      <c r="A698" s="1">
+        <v>1</v>
+      </c>
       <c r="B698" s="1" t="s">
         <v>2090</v>
       </c>
@@ -22803,7 +22983,10 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="699" hidden="1" spans="2:4">
+    <row r="699" spans="1:4">
+      <c r="A699" s="1">
+        <v>1</v>
+      </c>
       <c r="B699" s="1" t="s">
         <v>2093</v>
       </c>
@@ -22814,7 +22997,10 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="700" hidden="1" spans="2:4">
+    <row r="700" spans="1:4">
+      <c r="A700" s="1">
+        <v>1</v>
+      </c>
       <c r="B700" s="1" t="s">
         <v>2096</v>
       </c>
@@ -26286,6 +26472,7 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
+        <filter val="4"/>
         <filter val="5"/>
       </filters>
     </filterColumn>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -12968,10 +12968,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -13008,8 +13008,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -13024,24 +13055,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13062,8 +13077,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13078,24 +13110,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13106,9 +13123,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13117,22 +13133,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13206,19 +13206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13230,25 +13224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13266,7 +13248,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13278,19 +13314,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13302,7 +13356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13314,73 +13380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13399,6 +13399,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13427,11 +13436,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13461,175 +13491,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14032,8 +14032,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="A697" sqref="A697"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D508" sqref="D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -17082,7 +17082,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -17417,9 +17417,9 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" hidden="1" spans="1:4">
       <c r="A259" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>774</v>
@@ -18369,9 +18369,9 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" hidden="1" spans="1:4">
       <c r="A336" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>1005</v>
@@ -18820,7 +18820,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -18960,9 +18960,9 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" hidden="1" spans="1:4">
       <c r="A381" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>1140</v>
@@ -19082,7 +19082,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1167</v>
@@ -19110,7 +19110,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1173</v>
@@ -19124,7 +19124,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1302</v>
@@ -19800,7 +19800,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1344</v>
@@ -20495,9 +20495,9 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="505" ht="37.5" spans="1:4">
+    <row r="505" ht="37.5" hidden="1" spans="1:4">
       <c r="A505" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>1512</v>
@@ -20539,7 +20539,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>1521</v>
@@ -20553,7 +20553,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>1524</v>
@@ -20646,9 +20646,9 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" hidden="1" spans="1:4">
       <c r="A516" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>1545</v>
@@ -20737,7 +20737,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>1566</v>
@@ -20751,7 +20751,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>1569</v>
@@ -20972,9 +20972,9 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" hidden="1" spans="1:4">
       <c r="A541" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>1619</v>
@@ -21461,9 +21461,9 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" hidden="1" spans="1:4">
       <c r="A580" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>1736</v>
@@ -21555,9 +21555,9 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" hidden="1" spans="1:4">
       <c r="A588" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>1760</v>
@@ -21933,9 +21933,9 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" hidden="1" spans="1:4">
       <c r="A618" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>1850</v>
@@ -22033,9 +22033,9 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" hidden="1" spans="1:4">
       <c r="A626" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>1874</v>
@@ -22147,9 +22147,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" hidden="1" spans="1:4">
       <c r="A635" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>1901</v>
@@ -22228,9 +22228,9 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" hidden="1" spans="1:4">
       <c r="A641" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>1919</v>
@@ -22328,9 +22328,9 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" hidden="1" spans="1:4">
       <c r="A649" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>1943</v>
@@ -22456,9 +22456,9 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" hidden="1" spans="1:4">
       <c r="A659" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>1973</v>
@@ -22470,9 +22470,9 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" hidden="1" spans="1:4">
       <c r="A660" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>1976</v>
@@ -22512,9 +22512,9 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" hidden="1" spans="1:4">
       <c r="A663" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>1985</v>
@@ -22554,9 +22554,9 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" hidden="1" spans="1:4">
       <c r="A666" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>1994</v>
@@ -22618,9 +22618,9 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" hidden="1" spans="1:4">
       <c r="A671" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>2009</v>
@@ -22668,9 +22668,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" hidden="1" spans="1:4">
       <c r="A675" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>2021</v>
@@ -22746,9 +22746,9 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" hidden="1" spans="1:4">
       <c r="A681" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>2039</v>
@@ -22785,9 +22785,9 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" hidden="1" spans="1:4">
       <c r="A684" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>2048</v>
@@ -22799,9 +22799,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" hidden="1" spans="1:4">
       <c r="A685" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>2051</v>
@@ -22824,9 +22824,9 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" hidden="1" spans="1:4">
       <c r="A687" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>2057</v>
@@ -22866,9 +22866,9 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" hidden="1" spans="1:4">
       <c r="A690" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>2066</v>
@@ -22880,9 +22880,9 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" hidden="1" spans="1:4">
       <c r="A691" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>2069</v>
@@ -22955,9 +22955,9 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" hidden="1" spans="1:4">
       <c r="A697" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>2087</v>
@@ -26473,7 +26473,7 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="5"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4741,7 +4741,7 @@
     <t>[iˈmɔ:ʃən]</t>
   </si>
   <si>
-    <t>n.沉浸，专心，陷入</t>
+    <t>n.沉浸，专心，陷入， immune免疫</t>
   </si>
   <si>
     <t>ingredient</t>
@@ -6537,7 +6537,7 @@
     <t xml:space="preserve">[ˌæfɚˈmeʃən] </t>
   </si>
   <si>
-    <t>n.肯定</t>
+    <t>n.肯定，affirm肯定</t>
   </si>
   <si>
     <t>vacancy</t>
@@ -12968,10 +12968,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -12995,21 +12995,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13023,9 +13009,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13047,16 +13033,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13070,13 +13063,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -13085,17 +13071,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13116,23 +13130,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13206,7 +13206,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13218,25 +13248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13248,7 +13266,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13260,13 +13284,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13284,103 +13380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13397,17 +13397,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13436,6 +13442,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13451,17 +13472,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13476,176 +13491,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -14033,7 +14036,7 @@
   <dimension ref="A1:D1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D508" sqref="D508"/>
+      <selection activeCell="C503" sqref="C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -17082,7 +17085,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
@@ -17403,9 +17406,9 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" hidden="1" spans="1:4">
       <c r="A258" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -18820,7 +18823,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -19080,9 +19083,9 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" hidden="1" spans="1:4">
       <c r="A390" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1167</v>
@@ -19110,7 +19113,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1173</v>
@@ -19124,7 +19127,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
@@ -19631,7 +19634,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1302</v>
@@ -19800,7 +19803,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1344</v>
@@ -20472,7 +20475,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1506</v>
@@ -20539,7 +20542,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>1521</v>
@@ -20551,9 +20554,9 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" hidden="1" spans="1:4">
       <c r="A509" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>1524</v>
@@ -20634,7 +20637,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>1542</v>
@@ -20687,7 +20690,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>1554</v>
@@ -20723,7 +20726,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>1563</v>
@@ -20735,7 +20738,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" hidden="1" spans="1:4">
       <c r="A523" s="1">
         <v>1</v>
       </c>
@@ -20749,7 +20752,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" hidden="1" spans="1:4">
       <c r="A524" s="1">
         <v>1</v>
       </c>
@@ -20763,9 +20766,9 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" hidden="1" spans="1:4">
       <c r="A525" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>1571</v>
@@ -20804,7 +20807,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>1580</v>
@@ -20866,9 +20869,9 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" hidden="1" spans="1:4">
       <c r="A533" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>1595</v>
@@ -20930,9 +20933,9 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" hidden="1" spans="1:4">
       <c r="A538" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>1610</v>
@@ -20958,9 +20961,9 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" hidden="1" spans="1:4">
       <c r="A540" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>1616</v>
@@ -20986,9 +20989,9 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" hidden="1" spans="1:4">
       <c r="A542" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>1622</v>
@@ -21071,7 +21074,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>1643</v>
@@ -21110,7 +21113,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1652</v>
@@ -21124,7 +21127,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1655</v>
@@ -21136,9 +21139,9 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" hidden="1" spans="1:4">
       <c r="A554" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>1658</v>
@@ -21152,7 +21155,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1661</v>
@@ -21191,7 +21194,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1670</v>
@@ -21421,7 +21424,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>1727</v>
@@ -21433,9 +21436,9 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" hidden="1" spans="1:4">
       <c r="A578" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>1730</v>
@@ -21749,7 +21752,7 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>1805</v>
@@ -21772,7 +21775,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" hidden="1" spans="1:4">
       <c r="A605" s="1">
         <v>1</v>
       </c>
@@ -21819,7 +21822,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" hidden="1" spans="1:4">
       <c r="A609" s="1">
         <v>1</v>
       </c>
@@ -21846,7 +21849,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>1829</v>
@@ -21858,7 +21861,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" hidden="1" spans="1:4">
       <c r="A612" s="1">
         <v>1</v>
       </c>
@@ -21883,7 +21886,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" hidden="1" spans="1:4">
       <c r="A614" s="1">
         <v>1</v>
       </c>
@@ -21919,7 +21922,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" hidden="1" spans="1:4">
       <c r="A617" s="1">
         <v>1</v>
       </c>
@@ -21969,7 +21972,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" hidden="1" spans="1:4">
       <c r="A621" s="1">
         <v>1</v>
       </c>
@@ -21994,7 +21997,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" hidden="1" spans="1:4">
       <c r="A623" s="1">
         <v>1</v>
       </c>
@@ -22019,7 +22022,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" hidden="1" spans="1:4">
       <c r="A625" s="1">
         <v>1</v>
       </c>
@@ -22047,7 +22050,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" hidden="1" spans="1:4">
       <c r="A627" s="1">
         <v>1</v>
       </c>
@@ -22061,7 +22064,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" hidden="1" spans="1:4">
       <c r="A628" s="1">
         <v>1</v>
       </c>
@@ -22097,7 +22100,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" hidden="1" spans="1:4">
       <c r="A631" s="1">
         <v>1</v>
       </c>
@@ -22111,7 +22114,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" hidden="1" spans="1:4">
       <c r="A632" s="1">
         <v>1</v>
       </c>
@@ -22163,7 +22166,7 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>1904</v>
@@ -22175,7 +22178,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" hidden="1" spans="1:4">
       <c r="A637" s="1">
         <v>1</v>
       </c>
@@ -22189,7 +22192,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" hidden="1" spans="1:4">
       <c r="A638" s="1">
         <v>1</v>
       </c>
@@ -22205,7 +22208,7 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>1913</v>
@@ -22255,7 +22258,7 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>1925</v>
@@ -22278,7 +22281,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" hidden="1" spans="1:4">
       <c r="A645" s="1">
         <v>1</v>
       </c>
@@ -22314,7 +22317,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" hidden="1" spans="1:4">
       <c r="A648" s="1">
         <v>1</v>
       </c>
@@ -22342,7 +22345,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" hidden="1" spans="1:4">
       <c r="A650" s="1">
         <v>1</v>
       </c>
@@ -22356,7 +22359,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" hidden="1" spans="1:4">
       <c r="A651" s="1">
         <v>1</v>
       </c>
@@ -22392,7 +22395,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" hidden="1" spans="1:4">
       <c r="A654" s="1">
         <v>1</v>
       </c>
@@ -22428,7 +22431,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" hidden="1" spans="1:4">
       <c r="A657" s="1">
         <v>1</v>
       </c>
@@ -22442,11 +22445,11 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="658" ht="37.5" spans="1:4">
+    <row r="658" ht="37.5" hidden="1" spans="1:4">
       <c r="A658" s="1">
         <v>1</v>
       </c>
-      <c r="B658" s="1" t="s">
+      <c r="B658" s="3" t="s">
         <v>1970</v>
       </c>
       <c r="C658" s="1" t="s">
@@ -22484,11 +22487,11 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" hidden="1" spans="1:4">
       <c r="A661" s="1">
         <v>1</v>
       </c>
-      <c r="B661" s="1" t="s">
+      <c r="B661" s="3" t="s">
         <v>1979</v>
       </c>
       <c r="C661" s="1" t="s">
@@ -22498,11 +22501,11 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" hidden="1" spans="1:4">
       <c r="A662" s="1">
         <v>1</v>
       </c>
-      <c r="B662" s="1" t="s">
+      <c r="B662" s="3" t="s">
         <v>1982</v>
       </c>
       <c r="C662" s="1" t="s">
@@ -22528,9 +22531,9 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>1</v>
-      </c>
-      <c r="B664" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B664" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="C664" s="1" t="s">
@@ -22540,11 +22543,11 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" hidden="1" spans="1:4">
       <c r="A665" s="1">
         <v>1</v>
       </c>
-      <c r="B665" s="1" t="s">
+      <c r="B665" s="3" t="s">
         <v>1991</v>
       </c>
       <c r="C665" s="1" t="s">
@@ -22568,11 +22571,11 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" hidden="1" spans="1:4">
       <c r="A667" s="1">
         <v>1</v>
       </c>
-      <c r="B667" s="1" t="s">
+      <c r="B667" s="3" t="s">
         <v>1997</v>
       </c>
       <c r="C667" s="1" t="s">
@@ -22604,11 +22607,11 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" hidden="1" spans="1:4">
       <c r="A670" s="1">
         <v>1</v>
       </c>
-      <c r="B670" s="1" t="s">
+      <c r="B670" s="3" t="s">
         <v>2006</v>
       </c>
       <c r="C670" s="1" t="s">
@@ -22645,9 +22648,9 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="1">
-        <v>1</v>
-      </c>
-      <c r="B673" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B673" s="3" t="s">
         <v>2015</v>
       </c>
       <c r="C673" s="1" t="s">
@@ -22704,11 +22707,11 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" hidden="1" spans="1:4">
       <c r="A678" s="1">
         <v>1</v>
       </c>
-      <c r="B678" s="1" t="s">
+      <c r="B678" s="3" t="s">
         <v>2030</v>
       </c>
       <c r="C678" s="1" t="s">
@@ -22718,11 +22721,11 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" hidden="1" spans="1:4">
       <c r="A679" s="1">
         <v>1</v>
       </c>
-      <c r="B679" s="1" t="s">
+      <c r="B679" s="3" t="s">
         <v>2033</v>
       </c>
       <c r="C679" s="1" t="s">
@@ -22732,11 +22735,11 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" hidden="1" spans="1:4">
       <c r="A680" s="1">
         <v>1</v>
       </c>
-      <c r="B680" s="1" t="s">
+      <c r="B680" s="3" t="s">
         <v>2036</v>
       </c>
       <c r="C680" s="1" t="s">
@@ -22760,11 +22763,11 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" hidden="1" spans="1:4">
       <c r="A682" s="1">
         <v>1</v>
       </c>
-      <c r="B682" s="1" t="s">
+      <c r="B682" s="3" t="s">
         <v>2042</v>
       </c>
       <c r="C682" s="1" t="s">
@@ -22838,11 +22841,11 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" hidden="1" spans="1:4">
       <c r="A688" s="1">
         <v>1</v>
       </c>
-      <c r="B688" s="1" t="s">
+      <c r="B688" s="3" t="s">
         <v>2060</v>
       </c>
       <c r="C688" s="1" t="s">
@@ -22854,9 +22857,9 @@
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="1">
-        <v>1</v>
-      </c>
-      <c r="B689" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B689" s="3" t="s">
         <v>2063</v>
       </c>
       <c r="C689" s="1" t="s">
@@ -22894,11 +22897,11 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" hidden="1" spans="1:4">
       <c r="A692" s="1">
         <v>1</v>
       </c>
-      <c r="B692" s="1" t="s">
+      <c r="B692" s="3" t="s">
         <v>2072</v>
       </c>
       <c r="C692" s="1" t="s">
@@ -22930,11 +22933,11 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" hidden="1" spans="1:4">
       <c r="A695" s="1">
         <v>1</v>
       </c>
-      <c r="B695" s="1" t="s">
+      <c r="B695" s="3" t="s">
         <v>2081</v>
       </c>
       <c r="C695" s="1" t="s">
@@ -22969,11 +22972,11 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" hidden="1" spans="1:4">
       <c r="A698" s="1">
         <v>1</v>
       </c>
-      <c r="B698" s="1" t="s">
+      <c r="B698" s="3" t="s">
         <v>2090</v>
       </c>
       <c r="C698" s="1" t="s">
@@ -22985,9 +22988,9 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="1">
-        <v>1</v>
-      </c>
-      <c r="B699" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B699" s="3" t="s">
         <v>2093</v>
       </c>
       <c r="C699" s="1" t="s">
@@ -22997,11 +23000,11 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" hidden="1" spans="1:4">
       <c r="A700" s="1">
         <v>1</v>
       </c>
-      <c r="B700" s="1" t="s">
+      <c r="B700" s="3" t="s">
         <v>2096</v>
       </c>
       <c r="C700" s="1" t="s">
@@ -26468,13 +26471,10 @@
   </sheetData>
   <autoFilter ref="A1:A1014">
     <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="4"/>
-        <filter val="6"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="2"/>
+        <customFilter operator="equal" val="3"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="B2:D1014">

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -9383,12 +9383,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>v.  </t>
     </r>
     <r>
@@ -9397,7 +9391,7 @@
         <rFont val="手札体-简 常规体"/>
         <charset val="136"/>
       </rPr>
-      <t>悬挂; 暂停;推迟</t>
+      <t>悬挂; 暂停;推迟，suspect怀疑</t>
     </r>
   </si>
   <si>
@@ -9792,7 +9786,7 @@
   </si>
   <si>
     <t>v.1.限制
-2.防止；阻碍</t>
+2.防止；阻碍，inhabit居住</t>
   </si>
   <si>
     <t>recount</t>
@@ -10045,7 +10039,7 @@
     <t>[dis'mæntl]</t>
   </si>
   <si>
-    <t>v.拆除</t>
+    <t>v.拆除，mantle覆盖</t>
   </si>
   <si>
     <t>exceed</t>
@@ -12968,9 +12962,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -12995,7 +12989,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13010,8 +13065,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13019,22 +13081,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13049,23 +13110,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13079,60 +13124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13200,31 +13194,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13242,13 +13236,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13260,55 +13290,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13326,49 +13326,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13381,6 +13357,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13397,23 +13391,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13457,6 +13436,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13472,11 +13460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13494,148 +13488,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14035,8 +14029,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C503" sqref="C503"/>
+    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
+      <selection activeCell="D1018" sqref="D1018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -17085,7 +17079,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
@@ -17406,9 +17400,9 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:4">
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -18823,7 +18817,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -19085,7 +19079,7 @@
     </row>
     <row r="390" hidden="1" spans="1:4">
       <c r="A390" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1167</v>
@@ -19113,7 +19107,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1173</v>
@@ -19127,7 +19121,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
@@ -19634,7 +19628,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1302</v>
@@ -19803,7 +19797,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1344</v>
@@ -20475,7 +20469,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1506</v>
@@ -20542,7 +20536,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>1521</v>
@@ -20556,7 +20550,7 @@
     </row>
     <row r="509" hidden="1" spans="1:4">
       <c r="A509" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>1524</v>
@@ -20637,7 +20631,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>1542</v>
@@ -20690,7 +20684,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>1554</v>
@@ -20726,7 +20720,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>1563</v>
@@ -20740,7 +20734,7 @@
     </row>
     <row r="523" hidden="1" spans="1:4">
       <c r="A523" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>1566</v>
@@ -20754,7 +20748,7 @@
     </row>
     <row r="524" hidden="1" spans="1:4">
       <c r="A524" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>1569</v>
@@ -20768,7 +20762,7 @@
     </row>
     <row r="525" hidden="1" spans="1:4">
       <c r="A525" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>1571</v>
@@ -20807,7 +20801,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>1580</v>
@@ -20871,7 +20865,7 @@
     </row>
     <row r="533" hidden="1" spans="1:4">
       <c r="A533" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>1595</v>
@@ -20935,7 +20929,7 @@
     </row>
     <row r="538" hidden="1" spans="1:4">
       <c r="A538" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>1610</v>
@@ -20963,7 +20957,7 @@
     </row>
     <row r="540" hidden="1" spans="1:4">
       <c r="A540" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>1616</v>
@@ -20991,7 +20985,7 @@
     </row>
     <row r="542" hidden="1" spans="1:4">
       <c r="A542" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>1622</v>
@@ -21074,7 +21068,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>1643</v>
@@ -21113,7 +21107,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1652</v>
@@ -21127,7 +21121,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1655</v>
@@ -21141,7 +21135,7 @@
     </row>
     <row r="554" hidden="1" spans="1:4">
       <c r="A554" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>1658</v>
@@ -21155,7 +21149,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1661</v>
@@ -21180,7 +21174,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>1667</v>
@@ -21194,7 +21188,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1670</v>
@@ -21424,7 +21418,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>1727</v>
@@ -21438,7 +21432,7 @@
     </row>
     <row r="578" hidden="1" spans="1:4">
       <c r="A578" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>1730</v>
@@ -21752,7 +21746,7 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>1805</v>
@@ -21777,7 +21771,7 @@
     </row>
     <row r="605" hidden="1" spans="1:4">
       <c r="A605" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>1811</v>
@@ -21822,9 +21816,9 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="609" hidden="1" spans="1:4">
+    <row r="609" spans="1:4">
       <c r="A609" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>1823</v>
@@ -21849,7 +21843,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>1829</v>
@@ -21863,7 +21857,7 @@
     </row>
     <row r="612" hidden="1" spans="1:4">
       <c r="A612" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>1832</v>
@@ -21888,7 +21882,7 @@
     </row>
     <row r="614" hidden="1" spans="1:4">
       <c r="A614" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>1838</v>
@@ -21924,7 +21918,7 @@
     </row>
     <row r="617" hidden="1" spans="1:4">
       <c r="A617" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>1847</v>
@@ -21974,7 +21968,7 @@
     </row>
     <row r="621" hidden="1" spans="1:4">
       <c r="A621" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>1859</v>
@@ -21999,7 +21993,7 @@
     </row>
     <row r="623" hidden="1" spans="1:4">
       <c r="A623" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>1865</v>
@@ -22024,7 +22018,7 @@
     </row>
     <row r="625" hidden="1" spans="1:4">
       <c r="A625" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>1871</v>
@@ -22052,7 +22046,7 @@
     </row>
     <row r="627" hidden="1" spans="1:4">
       <c r="A627" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>1877</v>
@@ -22066,7 +22060,7 @@
     </row>
     <row r="628" hidden="1" spans="1:4">
       <c r="A628" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>1880</v>
@@ -22102,7 +22096,7 @@
     </row>
     <row r="631" hidden="1" spans="1:4">
       <c r="A631" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>1889</v>
@@ -22116,7 +22110,7 @@
     </row>
     <row r="632" hidden="1" spans="1:4">
       <c r="A632" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>1892</v>
@@ -22166,7 +22160,7 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>1904</v>
@@ -22180,7 +22174,7 @@
     </row>
     <row r="637" hidden="1" spans="1:4">
       <c r="A637" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>1907</v>
@@ -22194,7 +22188,7 @@
     </row>
     <row r="638" hidden="1" spans="1:4">
       <c r="A638" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>1910</v>
@@ -22208,7 +22202,7 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>1913</v>
@@ -22258,7 +22252,7 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>1925</v>
@@ -22283,7 +22277,7 @@
     </row>
     <row r="645" hidden="1" spans="1:4">
       <c r="A645" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>1931</v>
@@ -22319,7 +22313,7 @@
     </row>
     <row r="648" hidden="1" spans="1:4">
       <c r="A648" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>1940</v>
@@ -22345,9 +22339,9 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="650" hidden="1" spans="1:4">
+    <row r="650" spans="1:4">
       <c r="A650" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>1946</v>
@@ -22361,7 +22355,7 @@
     </row>
     <row r="651" hidden="1" spans="1:4">
       <c r="A651" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>1949</v>
@@ -22397,7 +22391,7 @@
     </row>
     <row r="654" hidden="1" spans="1:4">
       <c r="A654" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>1958</v>
@@ -22433,7 +22427,7 @@
     </row>
     <row r="657" hidden="1" spans="1:4">
       <c r="A657" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>1967</v>
@@ -22445,9 +22439,9 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="658" ht="37.5" hidden="1" spans="1:4">
+    <row r="658" ht="37.5" spans="1:4">
       <c r="A658" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>1970</v>
@@ -22489,7 +22483,7 @@
     </row>
     <row r="661" hidden="1" spans="1:4">
       <c r="A661" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B661" s="3" t="s">
         <v>1979</v>
@@ -22501,7 +22495,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="662" hidden="1" spans="1:4">
+    <row r="662" spans="1:4">
       <c r="A662" s="1">
         <v>1</v>
       </c>
@@ -22531,7 +22525,7 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>1988</v>
@@ -22545,7 +22539,7 @@
     </row>
     <row r="665" hidden="1" spans="1:4">
       <c r="A665" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B665" s="3" t="s">
         <v>1991</v>
@@ -22573,7 +22567,7 @@
     </row>
     <row r="667" hidden="1" spans="1:4">
       <c r="A667" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>1997</v>
@@ -22609,7 +22603,7 @@
     </row>
     <row r="670" hidden="1" spans="1:4">
       <c r="A670" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>2006</v>
@@ -22648,7 +22642,7 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>2015</v>
@@ -22709,7 +22703,7 @@
     </row>
     <row r="678" hidden="1" spans="1:4">
       <c r="A678" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>2030</v>
@@ -22723,7 +22717,7 @@
     </row>
     <row r="679" hidden="1" spans="1:4">
       <c r="A679" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>2033</v>
@@ -22737,7 +22731,7 @@
     </row>
     <row r="680" hidden="1" spans="1:4">
       <c r="A680" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>2036</v>
@@ -22765,7 +22759,7 @@
     </row>
     <row r="682" hidden="1" spans="1:4">
       <c r="A682" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>2042</v>
@@ -22843,7 +22837,7 @@
     </row>
     <row r="688" hidden="1" spans="1:4">
       <c r="A688" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>2060</v>
@@ -22857,7 +22851,7 @@
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>2063</v>
@@ -22899,7 +22893,7 @@
     </row>
     <row r="692" hidden="1" spans="1:4">
       <c r="A692" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>2072</v>
@@ -22935,7 +22929,7 @@
     </row>
     <row r="695" hidden="1" spans="1:4">
       <c r="A695" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>2081</v>
@@ -22974,7 +22968,7 @@
     </row>
     <row r="698" hidden="1" spans="1:4">
       <c r="A698" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>2090</v>
@@ -22988,7 +22982,7 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>2093</v>
@@ -23002,7 +22996,7 @@
     </row>
     <row r="700" hidden="1" spans="1:4">
       <c r="A700" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>2096</v>
@@ -23014,7 +23008,10 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="701" hidden="1" spans="2:4">
+    <row r="701" spans="1:4">
+      <c r="A701" s="1">
+        <v>1</v>
+      </c>
       <c r="B701" s="1" t="s">
         <v>2099</v>
       </c>
@@ -23025,7 +23022,10 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="702" hidden="1" spans="2:4">
+    <row r="702" spans="1:4">
+      <c r="A702" s="1">
+        <v>1</v>
+      </c>
       <c r="B702" s="1" t="s">
         <v>2102</v>
       </c>
@@ -23036,7 +23036,10 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="703" hidden="1" spans="2:4">
+    <row r="703" spans="1:4">
+      <c r="A703" s="1">
+        <v>1</v>
+      </c>
       <c r="B703" s="1" t="s">
         <v>2105</v>
       </c>
@@ -23047,7 +23050,10 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="704" hidden="1" spans="2:4">
+    <row r="704" spans="1:4">
+      <c r="A704" s="1">
+        <v>1</v>
+      </c>
       <c r="B704" s="1" t="s">
         <v>2108</v>
       </c>
@@ -23058,7 +23064,10 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="705" hidden="1" spans="2:4">
+    <row r="705" spans="1:4">
+      <c r="A705" s="1">
+        <v>1</v>
+      </c>
       <c r="B705" s="1" t="s">
         <v>2111</v>
       </c>
@@ -23069,7 +23078,10 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="706" hidden="1" spans="2:4">
+    <row r="706" spans="1:4">
+      <c r="A706" s="1">
+        <v>1</v>
+      </c>
       <c r="B706" s="1" t="s">
         <v>2114</v>
       </c>
@@ -23080,7 +23092,10 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="707" hidden="1" spans="2:4">
+    <row r="707" spans="1:4">
+      <c r="A707" s="1">
+        <v>1</v>
+      </c>
       <c r="B707" s="1" t="s">
         <v>2117</v>
       </c>
@@ -23091,7 +23106,10 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="708" hidden="1" spans="2:4">
+    <row r="708" spans="1:4">
+      <c r="A708" s="1">
+        <v>1</v>
+      </c>
       <c r="B708" s="1" t="s">
         <v>2120</v>
       </c>
@@ -23102,7 +23120,10 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="2:4">
+    <row r="709" spans="1:4">
+      <c r="A709" s="1">
+        <v>1</v>
+      </c>
       <c r="B709" s="1" t="s">
         <v>2123</v>
       </c>
@@ -23113,7 +23134,10 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="710" hidden="1" spans="2:4">
+    <row r="710" spans="1:4">
+      <c r="A710" s="1">
+        <v>1</v>
+      </c>
       <c r="B710" s="1" t="s">
         <v>2126</v>
       </c>
@@ -23135,7 +23159,10 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="712" hidden="1" spans="2:4">
+    <row r="712" spans="1:4">
+      <c r="A712" s="1">
+        <v>1</v>
+      </c>
       <c r="B712" s="1" t="s">
         <v>2132</v>
       </c>
@@ -23146,7 +23173,10 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="713" hidden="1" spans="2:4">
+    <row r="713" spans="1:4">
+      <c r="A713" s="1">
+        <v>1</v>
+      </c>
       <c r="B713" s="1" t="s">
         <v>2135</v>
       </c>
@@ -23157,7 +23187,10 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="714" hidden="1" spans="2:4">
+    <row r="714" spans="1:4">
+      <c r="A714" s="1">
+        <v>1</v>
+      </c>
       <c r="B714" s="1" t="s">
         <v>2138</v>
       </c>
@@ -23168,7 +23201,10 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="2:4">
+    <row r="715" spans="1:4">
+      <c r="A715" s="1">
+        <v>1</v>
+      </c>
       <c r="B715" s="1" t="s">
         <v>2141</v>
       </c>
@@ -23179,7 +23215,10 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="716" hidden="1" spans="2:4">
+    <row r="716" spans="1:4">
+      <c r="A716" s="1">
+        <v>1</v>
+      </c>
       <c r="B716" s="1" t="s">
         <v>2144</v>
       </c>
@@ -23190,7 +23229,10 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="717" hidden="1" spans="2:4">
+    <row r="717" spans="1:4">
+      <c r="A717" s="1">
+        <v>1</v>
+      </c>
       <c r="B717" s="1" t="s">
         <v>2147</v>
       </c>
@@ -23201,7 +23243,10 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="718" hidden="1" spans="2:4">
+    <row r="718" spans="1:4">
+      <c r="A718" s="1">
+        <v>1</v>
+      </c>
       <c r="B718" s="1" t="s">
         <v>2150</v>
       </c>
@@ -23223,7 +23268,10 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="720" hidden="1" spans="2:4">
+    <row r="720" spans="1:4">
+      <c r="A720" s="1">
+        <v>1</v>
+      </c>
       <c r="B720" s="1" t="s">
         <v>2156</v>
       </c>
@@ -23234,7 +23282,10 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="721" hidden="1" spans="2:4">
+    <row r="721" spans="1:4">
+      <c r="A721" s="1">
+        <v>1</v>
+      </c>
       <c r="B721" s="1" t="s">
         <v>2159</v>
       </c>
@@ -23245,7 +23296,10 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="2:4">
+    <row r="722" spans="1:4">
+      <c r="A722" s="1">
+        <v>1</v>
+      </c>
       <c r="B722" s="1" t="s">
         <v>2162</v>
       </c>
@@ -23256,7 +23310,10 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="723" hidden="1" spans="2:4">
+    <row r="723" spans="1:4">
+      <c r="A723" s="1">
+        <v>1</v>
+      </c>
       <c r="B723" s="1" t="s">
         <v>2165</v>
       </c>
@@ -23267,7 +23324,10 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="2:4">
+    <row r="724" spans="1:4">
+      <c r="A724" s="1">
+        <v>1</v>
+      </c>
       <c r="B724" s="1" t="s">
         <v>2168</v>
       </c>
@@ -23278,7 +23338,10 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="725" hidden="1" spans="2:4">
+    <row r="725" spans="1:4">
+      <c r="A725" s="1">
+        <v>1</v>
+      </c>
       <c r="B725" s="1" t="s">
         <v>2171</v>
       </c>
@@ -23289,7 +23352,10 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="726" hidden="1" spans="2:4">
+    <row r="726" spans="1:4">
+      <c r="A726" s="1">
+        <v>1</v>
+      </c>
       <c r="B726" s="1" t="s">
         <v>2174</v>
       </c>
@@ -23300,7 +23366,10 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="727" hidden="1" spans="2:4">
+    <row r="727" spans="1:4">
+      <c r="A727" s="1">
+        <v>1</v>
+      </c>
       <c r="B727" s="1" t="s">
         <v>2177</v>
       </c>
@@ -23311,7 +23380,10 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="728" hidden="1" spans="2:4">
+    <row r="728" spans="1:4">
+      <c r="A728" s="1">
+        <v>1</v>
+      </c>
       <c r="B728" s="1" t="s">
         <v>2180</v>
       </c>
@@ -23344,7 +23416,10 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="731" hidden="1" spans="2:4">
+    <row r="731" spans="1:4">
+      <c r="A731" s="1">
+        <v>1</v>
+      </c>
       <c r="B731" s="1" t="s">
         <v>2189</v>
       </c>
@@ -23355,7 +23430,10 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="732" hidden="1" spans="2:4">
+    <row r="732" spans="1:4">
+      <c r="A732" s="1">
+        <v>1</v>
+      </c>
       <c r="B732" s="1" t="s">
         <v>2192</v>
       </c>
@@ -23388,7 +23466,10 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="2:4">
+    <row r="735" spans="1:4">
+      <c r="A735" s="1">
+        <v>1</v>
+      </c>
       <c r="B735" s="1" t="s">
         <v>2201</v>
       </c>
@@ -23399,7 +23480,10 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="2:4">
+    <row r="736" spans="1:4">
+      <c r="A736" s="1">
+        <v>1</v>
+      </c>
       <c r="B736" s="1" t="s">
         <v>2204</v>
       </c>
@@ -23410,7 +23494,10 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="737" hidden="1" spans="2:4">
+    <row r="737" spans="1:4">
+      <c r="A737" s="1">
+        <v>1</v>
+      </c>
       <c r="B737" s="1" t="s">
         <v>2207</v>
       </c>
@@ -23421,7 +23508,10 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="738" hidden="1" spans="2:4">
+    <row r="738" spans="1:4">
+      <c r="A738" s="1">
+        <v>1</v>
+      </c>
       <c r="B738" s="1" t="s">
         <v>2210</v>
       </c>
@@ -23432,7 +23522,10 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="739" hidden="1" spans="2:4">
+    <row r="739" spans="1:4">
+      <c r="A739" s="1">
+        <v>1</v>
+      </c>
       <c r="B739" s="1" t="s">
         <v>2213</v>
       </c>
@@ -23443,7 +23536,10 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="740" hidden="1" spans="2:4">
+    <row r="740" spans="1:4">
+      <c r="A740" s="1">
+        <v>1</v>
+      </c>
       <c r="B740" s="1" t="s">
         <v>2216</v>
       </c>
@@ -23465,7 +23561,10 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="2:4">
+    <row r="742" spans="1:4">
+      <c r="A742" s="1">
+        <v>1</v>
+      </c>
       <c r="B742" s="1" t="s">
         <v>2222</v>
       </c>
@@ -23498,7 +23597,10 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="745" hidden="1" spans="2:4">
+    <row r="745" spans="1:4">
+      <c r="A745" s="1">
+        <v>1</v>
+      </c>
       <c r="B745" s="1" t="s">
         <v>2231</v>
       </c>
@@ -23509,7 +23611,10 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="746" hidden="1" spans="2:4">
+    <row r="746" spans="1:4">
+      <c r="A746" s="1">
+        <v>1</v>
+      </c>
       <c r="B746" s="1" t="s">
         <v>2234</v>
       </c>
@@ -23564,7 +23669,10 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="751" hidden="1" spans="2:4">
+    <row r="751" spans="1:4">
+      <c r="A751" s="1">
+        <v>1</v>
+      </c>
       <c r="B751" s="1" t="s">
         <v>2249</v>
       </c>
@@ -23575,7 +23683,10 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="752" hidden="1" spans="2:4">
+    <row r="752" spans="1:4">
+      <c r="A752" s="1">
+        <v>1</v>
+      </c>
       <c r="B752" s="1" t="s">
         <v>2252</v>
       </c>
@@ -23586,7 +23697,10 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="753" hidden="1" spans="2:4">
+    <row r="753" spans="1:4">
+      <c r="A753" s="1">
+        <v>1</v>
+      </c>
       <c r="B753" s="1" t="s">
         <v>2255</v>
       </c>
@@ -23597,7 +23711,10 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="754" hidden="1" spans="2:4">
+    <row r="754" spans="1:4">
+      <c r="A754" s="1">
+        <v>1</v>
+      </c>
       <c r="B754" s="1" t="s">
         <v>2258</v>
       </c>
@@ -23608,7 +23725,10 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="755" hidden="1" spans="2:4">
+    <row r="755" spans="1:4">
+      <c r="A755" s="1">
+        <v>1</v>
+      </c>
       <c r="B755" s="1" t="s">
         <v>2261</v>
       </c>
@@ -23619,7 +23739,10 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="756" hidden="1" spans="2:4">
+    <row r="756" spans="1:4">
+      <c r="A756" s="1">
+        <v>1</v>
+      </c>
       <c r="B756" s="1" t="s">
         <v>2264</v>
       </c>
@@ -23641,7 +23764,10 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="758" hidden="1" spans="2:4">
+    <row r="758" spans="1:4">
+      <c r="A758" s="1">
+        <v>1</v>
+      </c>
       <c r="B758" s="1" t="s">
         <v>2270</v>
       </c>
@@ -23652,7 +23778,10 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="759" hidden="1" spans="2:4">
+    <row r="759" spans="1:4">
+      <c r="A759" s="1">
+        <v>1</v>
+      </c>
       <c r="B759" s="1" t="s">
         <v>2273</v>
       </c>
@@ -23663,7 +23792,10 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="760" hidden="1" spans="2:4">
+    <row r="760" spans="1:4">
+      <c r="A760" s="1">
+        <v>1</v>
+      </c>
       <c r="B760" s="1" t="s">
         <v>2276</v>
       </c>
@@ -23685,7 +23817,10 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="762" hidden="1" spans="2:4">
+    <row r="762" spans="1:4">
+      <c r="A762" s="1">
+        <v>1</v>
+      </c>
       <c r="B762" s="1" t="s">
         <v>2282</v>
       </c>
@@ -23707,7 +23842,10 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="764" hidden="1" spans="2:4">
+    <row r="764" spans="1:4">
+      <c r="A764" s="1">
+        <v>1</v>
+      </c>
       <c r="B764" s="1" t="s">
         <v>2288</v>
       </c>
@@ -23718,7 +23856,10 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="765" hidden="1" spans="2:4">
+    <row r="765" spans="1:4">
+      <c r="A765" s="1">
+        <v>1</v>
+      </c>
       <c r="B765" s="1" t="s">
         <v>2291</v>
       </c>
@@ -23729,7 +23870,10 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="766" hidden="1" spans="2:4">
+    <row r="766" spans="1:4">
+      <c r="A766" s="1">
+        <v>1</v>
+      </c>
       <c r="B766" s="1" t="s">
         <v>2294</v>
       </c>
@@ -23740,7 +23884,10 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="767" hidden="1" spans="2:4">
+    <row r="767" spans="1:4">
+      <c r="A767" s="1">
+        <v>1</v>
+      </c>
       <c r="B767" s="1" t="s">
         <v>2297</v>
       </c>
@@ -23751,7 +23898,10 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="768" hidden="1" spans="2:4">
+    <row r="768" spans="1:4">
+      <c r="A768" s="1">
+        <v>1</v>
+      </c>
       <c r="B768" s="1" t="s">
         <v>2300</v>
       </c>
@@ -23762,7 +23912,10 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="769" hidden="1" spans="2:4">
+    <row r="769" spans="1:4">
+      <c r="A769" s="1">
+        <v>1</v>
+      </c>
       <c r="B769" s="1" t="s">
         <v>2303</v>
       </c>
@@ -23773,7 +23926,10 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="770" hidden="1" spans="2:4">
+    <row r="770" spans="1:4">
+      <c r="A770" s="1">
+        <v>1</v>
+      </c>
       <c r="B770" s="1" t="s">
         <v>2306</v>
       </c>
@@ -23784,7 +23940,10 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="771" hidden="1" spans="2:4">
+    <row r="771" spans="1:4">
+      <c r="A771" s="1">
+        <v>1</v>
+      </c>
       <c r="B771" s="1" t="s">
         <v>2309</v>
       </c>
@@ -23795,7 +23954,10 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="772" hidden="1" spans="2:4">
+    <row r="772" spans="1:4">
+      <c r="A772" s="1">
+        <v>1</v>
+      </c>
       <c r="B772" s="1" t="s">
         <v>2312</v>
       </c>
@@ -23828,7 +23990,10 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="775" ht="37.5" hidden="1" spans="2:4">
+    <row r="775" ht="37.5" spans="1:4">
+      <c r="A775" s="1">
+        <v>1</v>
+      </c>
       <c r="B775" s="1" t="s">
         <v>2321</v>
       </c>
@@ -23839,7 +24004,10 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="776" hidden="1" spans="2:4">
+    <row r="776" spans="1:4">
+      <c r="A776" s="1">
+        <v>1</v>
+      </c>
       <c r="B776" s="1" t="s">
         <v>2324</v>
       </c>
@@ -23850,7 +24018,10 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="777" hidden="1" spans="2:4">
+    <row r="777" spans="1:4">
+      <c r="A777" s="1">
+        <v>1</v>
+      </c>
       <c r="B777" s="1" t="s">
         <v>2327</v>
       </c>
@@ -23861,7 +24032,10 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="778" hidden="1" spans="2:4">
+    <row r="778" spans="1:4">
+      <c r="A778" s="1">
+        <v>1</v>
+      </c>
       <c r="B778" s="1" t="s">
         <v>2330</v>
       </c>
@@ -23872,7 +24046,10 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="779" ht="37.5" hidden="1" spans="2:4">
+    <row r="779" ht="37.5" spans="1:4">
+      <c r="A779" s="1">
+        <v>1</v>
+      </c>
       <c r="B779" s="1" t="s">
         <v>2333</v>
       </c>
@@ -23894,7 +24071,10 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="781" ht="37.5" hidden="1" spans="2:4">
+    <row r="781" ht="37.5" spans="1:4">
+      <c r="A781" s="1">
+        <v>1</v>
+      </c>
       <c r="B781" s="1" t="s">
         <v>2339</v>
       </c>
@@ -23905,7 +24085,10 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="782" ht="37.5" hidden="1" spans="2:4">
+    <row r="782" ht="37.5" spans="1:4">
+      <c r="A782" s="1">
+        <v>1</v>
+      </c>
       <c r="B782" s="1" t="s">
         <v>2342</v>
       </c>
@@ -23927,7 +24110,10 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="784" hidden="1" spans="2:4">
+    <row r="784" spans="1:4">
+      <c r="A784" s="1">
+        <v>1</v>
+      </c>
       <c r="B784" s="1" t="s">
         <v>2348</v>
       </c>
@@ -23938,7 +24124,10 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="2:4">
+    <row r="785" spans="1:4">
+      <c r="A785" s="1">
+        <v>1</v>
+      </c>
       <c r="B785" s="1" t="s">
         <v>2351</v>
       </c>
@@ -23949,7 +24138,10 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="786" hidden="1" spans="2:4">
+    <row r="786" spans="1:4">
+      <c r="A786" s="1">
+        <v>1</v>
+      </c>
       <c r="B786" s="1" t="s">
         <v>2354</v>
       </c>
@@ -23960,7 +24152,10 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="787" hidden="1" spans="2:4">
+    <row r="787" spans="1:4">
+      <c r="A787" s="1">
+        <v>1</v>
+      </c>
       <c r="B787" s="1" t="s">
         <v>2357</v>
       </c>
@@ -23971,7 +24166,10 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="788" hidden="1" spans="2:4">
+    <row r="788" spans="1:4">
+      <c r="A788" s="1">
+        <v>1</v>
+      </c>
       <c r="B788" s="1" t="s">
         <v>2360</v>
       </c>
@@ -23982,7 +24180,10 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="789" hidden="1" spans="2:4">
+    <row r="789" spans="1:4">
+      <c r="A789" s="1">
+        <v>1</v>
+      </c>
       <c r="B789" s="1" t="s">
         <v>2363</v>
       </c>
@@ -24004,7 +24205,10 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="791" hidden="1" spans="2:4">
+    <row r="791" spans="1:4">
+      <c r="A791" s="1">
+        <v>1</v>
+      </c>
       <c r="B791" s="1" t="s">
         <v>2369</v>
       </c>
@@ -24026,7 +24230,10 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="793" hidden="1" spans="2:4">
+    <row r="793" spans="1:4">
+      <c r="A793" s="1">
+        <v>1</v>
+      </c>
       <c r="B793" s="1" t="s">
         <v>2375</v>
       </c>
@@ -24037,7 +24244,10 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="794" hidden="1" spans="2:4">
+    <row r="794" spans="1:4">
+      <c r="A794" s="1">
+        <v>1</v>
+      </c>
       <c r="B794" s="1" t="s">
         <v>2378</v>
       </c>
@@ -24048,7 +24258,10 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="795" hidden="1" spans="2:4">
+    <row r="795" spans="1:4">
+      <c r="A795" s="1">
+        <v>1</v>
+      </c>
       <c r="B795" s="1" t="s">
         <v>2381</v>
       </c>
@@ -24059,7 +24272,10 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="796" hidden="1" spans="2:4">
+    <row r="796" spans="1:4">
+      <c r="A796" s="1">
+        <v>1</v>
+      </c>
       <c r="B796" s="1" t="s">
         <v>2384</v>
       </c>
@@ -24070,7 +24286,10 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="797" hidden="1" spans="2:4">
+    <row r="797" spans="1:4">
+      <c r="A797" s="1">
+        <v>1</v>
+      </c>
       <c r="B797" s="1" t="s">
         <v>2387</v>
       </c>
@@ -24081,7 +24300,10 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="798" hidden="1" spans="2:4">
+    <row r="798" spans="1:4">
+      <c r="A798" s="1">
+        <v>1</v>
+      </c>
       <c r="B798" s="1" t="s">
         <v>2390</v>
       </c>
@@ -24092,7 +24314,10 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="2:4">
+    <row r="799" spans="1:4">
+      <c r="A799" s="1">
+        <v>1</v>
+      </c>
       <c r="B799" s="1" t="s">
         <v>2393</v>
       </c>
@@ -24103,7 +24328,10 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="800" hidden="1" spans="2:4">
+    <row r="800" spans="1:4">
+      <c r="A800" s="1">
+        <v>1</v>
+      </c>
       <c r="B800" s="1" t="s">
         <v>2396</v>
       </c>
@@ -26471,10 +26699,12 @@
   </sheetData>
   <autoFilter ref="A1:A1014">
     <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="2"/>
-        <customFilter operator="equal" val="3"/>
-      </customFilters>
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="B2:D1014">

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -9383,6 +9383,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>v.  </t>
     </r>
     <r>
@@ -12964,8 +12970,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -13002,6 +13008,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -13010,17 +13023,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13032,9 +13039,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13056,11 +13062,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13072,13 +13078,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -13087,8 +13086,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13096,13 +13103,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13116,9 +13116,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13126,7 +13125,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13194,7 +13200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13206,7 +13212,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13218,13 +13290,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13236,7 +13326,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13248,133 +13374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13406,6 +13412,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -13417,30 +13432,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13460,6 +13451,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -13475,107 +13477,111 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13587,25 +13593,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13614,19 +13620,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -14029,8 +14035,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
-      <selection activeCell="D1018" sqref="D1018"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D558" sqref="D558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -17077,9 +17083,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" hidden="1" spans="1:4">
       <c r="A233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>696</v>
@@ -17402,7 +17408,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -18817,7 +18823,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -19105,9 +19111,9 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" hidden="1" spans="1:4">
       <c r="A392" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1173</v>
@@ -19121,7 +19127,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
@@ -19626,9 +19632,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" hidden="1" spans="1:4">
       <c r="A435" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1302</v>
@@ -19795,9 +19801,9 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" hidden="1" spans="1:4">
       <c r="A449" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1344</v>
@@ -20467,9 +20473,9 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" hidden="1" spans="1:4">
       <c r="A503" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1506</v>
@@ -20536,7 +20542,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>1521</v>
@@ -20629,9 +20635,9 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" hidden="1" spans="1:4">
       <c r="A515" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>1542</v>
@@ -20682,9 +20688,9 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" hidden="1" spans="1:4">
       <c r="A519" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>1554</v>
@@ -20720,7 +20726,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>1563</v>
@@ -20801,7 +20807,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>1580</v>
@@ -21068,7 +21074,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>1643</v>
@@ -21107,7 +21113,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1652</v>
@@ -21121,7 +21127,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1655</v>
@@ -21149,7 +21155,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1661</v>
@@ -21172,9 +21178,9 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" hidden="1" spans="1:4">
       <c r="A557" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>1667</v>
@@ -21188,7 +21194,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1670</v>
@@ -21418,7 +21424,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>1727</v>
@@ -21746,7 +21752,7 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>1805</v>
@@ -21818,7 +21824,7 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>1823</v>
@@ -21843,7 +21849,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>1829</v>
@@ -22160,7 +22166,7 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>1904</v>
@@ -22202,7 +22208,7 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>1913</v>
@@ -22250,9 +22256,9 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" hidden="1" spans="1:4">
       <c r="A643" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>1925</v>
@@ -22339,9 +22345,9 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" hidden="1" spans="1:4">
       <c r="A650" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>1946</v>
@@ -22441,7 +22447,7 @@
     </row>
     <row r="658" ht="37.5" spans="1:4">
       <c r="A658" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>1970</v>
@@ -22525,7 +22531,7 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>1988</v>
@@ -22642,7 +22648,7 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>2015</v>
@@ -22849,9 +22855,9 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" hidden="1" spans="1:4">
       <c r="A689" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>2063</v>
@@ -22982,7 +22988,7 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>2093</v>
@@ -23022,9 +23028,9 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" hidden="1" spans="1:4">
       <c r="A702" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>2102</v>
@@ -23036,9 +23042,9 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" hidden="1" spans="1:4">
       <c r="A703" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>2105</v>
@@ -23050,9 +23056,9 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" hidden="1" spans="1:4">
       <c r="A704" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>2108</v>
@@ -23064,9 +23070,9 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" hidden="1" spans="1:4">
       <c r="A705" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>2111</v>
@@ -23078,9 +23084,9 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" hidden="1" spans="1:4">
       <c r="A706" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>2114</v>
@@ -23092,9 +23098,9 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" hidden="1" spans="1:4">
       <c r="A707" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>2117</v>
@@ -23106,9 +23112,9 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" hidden="1" spans="1:4">
       <c r="A708" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>2120</v>
@@ -23120,9 +23126,9 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" hidden="1" spans="1:4">
       <c r="A709" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>2123</v>
@@ -23134,9 +23140,9 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" hidden="1" spans="1:4">
       <c r="A710" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>2126</v>
@@ -23159,9 +23165,9 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" hidden="1" spans="1:4">
       <c r="A712" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>2132</v>
@@ -23173,9 +23179,9 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" hidden="1" spans="1:4">
       <c r="A713" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>2135</v>
@@ -23187,9 +23193,9 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" hidden="1" spans="1:4">
       <c r="A714" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>2138</v>
@@ -23201,9 +23207,9 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" hidden="1" spans="1:4">
       <c r="A715" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>2141</v>
@@ -23217,7 +23223,7 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>2144</v>
@@ -23231,7 +23237,7 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>2147</v>
@@ -23245,7 +23251,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2150</v>
@@ -23268,9 +23274,9 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" hidden="1" spans="1:4">
       <c r="A720" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>2156</v>
@@ -23282,9 +23288,9 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" hidden="1" spans="1:4">
       <c r="A721" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>2159</v>
@@ -23298,7 +23304,7 @@
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>2162</v>
@@ -23310,9 +23316,9 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" hidden="1" spans="1:4">
       <c r="A723" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>2165</v>
@@ -23326,7 +23332,7 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>2168</v>
@@ -23352,9 +23358,9 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" hidden="1" spans="1:4">
       <c r="A726" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>2174</v>
@@ -23366,9 +23372,9 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" hidden="1" spans="1:4">
       <c r="A727" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>2177</v>
@@ -23382,7 +23388,7 @@
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>2180</v>
@@ -23418,7 +23424,7 @@
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>2189</v>
@@ -23430,9 +23436,9 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" hidden="1" spans="1:4">
       <c r="A732" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>2192</v>
@@ -23466,9 +23472,9 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" hidden="1" spans="1:4">
       <c r="A735" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>2201</v>
@@ -23480,9 +23486,9 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" hidden="1" spans="1:4">
       <c r="A736" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>2204</v>
@@ -23494,9 +23500,9 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" hidden="1" spans="1:4">
       <c r="A737" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>2207</v>
@@ -23508,9 +23514,9 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" hidden="1" spans="1:4">
       <c r="A738" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>2210</v>
@@ -23522,9 +23528,9 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" hidden="1" spans="1:4">
       <c r="A739" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>2213</v>
@@ -23538,7 +23544,7 @@
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>2216</v>
@@ -23563,7 +23569,7 @@
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>2222</v>
@@ -23613,7 +23619,7 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>2234</v>
@@ -23669,9 +23675,9 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" hidden="1" spans="1:4">
       <c r="A751" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>2249</v>
@@ -23697,9 +23703,9 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" hidden="1" spans="1:4">
       <c r="A753" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>2255</v>
@@ -23711,9 +23717,9 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" hidden="1" spans="1:4">
       <c r="A754" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>2258</v>
@@ -23727,7 +23733,7 @@
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>2261</v>
@@ -23739,9 +23745,9 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" hidden="1" spans="1:4">
       <c r="A756" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>2264</v>
@@ -23766,7 +23772,7 @@
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>2270</v>
@@ -23778,9 +23784,9 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" hidden="1" spans="1:4">
       <c r="A759" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>2273</v>
@@ -23792,9 +23798,9 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" hidden="1" spans="1:4">
       <c r="A760" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>2276</v>
@@ -23817,9 +23823,9 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" hidden="1" spans="1:4">
       <c r="A762" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>2282</v>
@@ -23844,7 +23850,7 @@
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>2288</v>
@@ -23856,9 +23862,9 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" hidden="1" spans="1:4">
       <c r="A765" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>2291</v>
@@ -23870,9 +23876,9 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" hidden="1" spans="1:4">
       <c r="A766" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>2294</v>
@@ -23884,9 +23890,9 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" hidden="1" spans="1:4">
       <c r="A767" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>2297</v>
@@ -23898,9 +23904,9 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" hidden="1" spans="1:4">
       <c r="A768" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>2300</v>
@@ -23914,7 +23920,7 @@
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>2303</v>
@@ -23928,7 +23934,7 @@
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>2306</v>
@@ -23942,7 +23948,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2309</v>
@@ -23956,7 +23962,7 @@
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>2312</v>
@@ -23990,9 +23996,9 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="775" ht="37.5" spans="1:4">
+    <row r="775" ht="37.5" hidden="1" spans="1:4">
       <c r="A775" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>2321</v>
@@ -24006,7 +24012,7 @@
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>2324</v>
@@ -24020,7 +24026,7 @@
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>2327</v>
@@ -24032,9 +24038,9 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" hidden="1" spans="1:4">
       <c r="A778" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>2330</v>
@@ -24048,7 +24054,7 @@
     </row>
     <row r="779" ht="37.5" spans="1:4">
       <c r="A779" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>2333</v>
@@ -24085,9 +24091,9 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="782" ht="37.5" spans="1:4">
+    <row r="782" ht="37.5" hidden="1" spans="1:4">
       <c r="A782" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B782" s="1" t="s">
         <v>2342</v>
@@ -24110,9 +24116,9 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" hidden="1" spans="1:4">
       <c r="A784" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>2348</v>
@@ -24124,9 +24130,9 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" hidden="1" spans="1:4">
       <c r="A785" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>2351</v>
@@ -24152,9 +24158,9 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" hidden="1" spans="1:4">
       <c r="A787" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>2357</v>
@@ -24168,7 +24174,7 @@
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>2360</v>
@@ -24182,7 +24188,7 @@
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>2363</v>
@@ -24207,7 +24213,7 @@
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>2369</v>
@@ -24230,9 +24236,9 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" hidden="1" spans="1:4">
       <c r="A793" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>2375</v>
@@ -24244,9 +24250,9 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" hidden="1" spans="1:4">
       <c r="A794" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>2378</v>
@@ -24260,7 +24266,7 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>2381</v>
@@ -24274,7 +24280,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2384</v>
@@ -24286,9 +24292,9 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" hidden="1" spans="1:4">
       <c r="A797" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>2387</v>
@@ -24302,7 +24308,7 @@
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>2390</v>
@@ -24328,9 +24334,9 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" hidden="1" spans="1:4">
       <c r="A800" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>2396</v>
@@ -26704,6 +26710,7 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -12968,9 +12968,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -13023,11 +13023,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13041,6 +13040,75 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13062,79 +13130,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13212,12 +13212,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13242,43 +13236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13296,7 +13260,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13308,7 +13332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13320,67 +13356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13412,15 +13412,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -13436,21 +13427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -13458,6 +13434,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13477,16 +13477,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -13497,82 +13497,82 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13581,37 +13581,37 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13620,10 +13620,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -14035,8 +14035,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D558" sqref="D558"/>
+    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
+      <selection activeCell="A900" sqref="A900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -14044,7 +14044,7 @@
     <col min="1" max="1" width="10.8296296296296" style="1"/>
     <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.8296296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1111111111111" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14076,7 +14076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="37.5" hidden="1" spans="2:4">
+    <row r="3" ht="75" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -17406,9 +17406,9 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" hidden="1" spans="1:4">
       <c r="A258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -19125,9 +19125,9 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" hidden="1" spans="1:4">
       <c r="A393" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1176</v>
@@ -20540,9 +20540,9 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" hidden="1" spans="1:4">
       <c r="A508" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>1521</v>
@@ -20724,9 +20724,9 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" hidden="1" spans="1:4">
       <c r="A522" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>1563</v>
@@ -20805,9 +20805,9 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" hidden="1" spans="1:4">
       <c r="A528" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>1580</v>
@@ -21074,7 +21074,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>1643</v>
@@ -21113,7 +21113,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1652</v>
@@ -21127,7 +21127,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1655</v>
@@ -21155,7 +21155,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1661</v>
@@ -21194,7 +21194,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1670</v>
@@ -21424,7 +21424,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>1727</v>
@@ -21752,7 +21752,7 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>1805</v>
@@ -21822,9 +21822,9 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" hidden="1" spans="1:4">
       <c r="A609" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>1823</v>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>1829</v>
@@ -22164,9 +22164,9 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" hidden="1" spans="1:4">
       <c r="A636" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>1904</v>
@@ -22206,9 +22206,9 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" hidden="1" spans="1:4">
       <c r="A639" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>1913</v>
@@ -22445,9 +22445,9 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="658" ht="37.5" spans="1:4">
+    <row r="658" ht="37.5" hidden="1" spans="1:4">
       <c r="A658" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>1970</v>
@@ -22501,9 +22501,9 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" hidden="1" spans="1:4">
       <c r="A662" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B662" s="3" t="s">
         <v>1982</v>
@@ -22531,7 +22531,7 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>1988</v>
@@ -22648,7 +22648,7 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>2015</v>
@@ -22988,7 +22988,7 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>2093</v>
@@ -23014,9 +23014,9 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" hidden="1" spans="1:4">
       <c r="A701" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>2099</v>
@@ -23223,7 +23223,7 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>2144</v>
@@ -23237,7 +23237,7 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>2147</v>
@@ -23251,7 +23251,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2150</v>
@@ -23304,7 +23304,7 @@
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>2162</v>
@@ -23332,7 +23332,7 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>2168</v>
@@ -23344,9 +23344,9 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" hidden="1" spans="1:4">
       <c r="A725" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>2171</v>
@@ -23388,7 +23388,7 @@
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>2180</v>
@@ -23424,7 +23424,7 @@
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>2189</v>
@@ -23544,7 +23544,7 @@
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>2216</v>
@@ -23567,9 +23567,9 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" hidden="1" spans="1:4">
       <c r="A742" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>2222</v>
@@ -23603,9 +23603,9 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" hidden="1" spans="1:4">
       <c r="A745" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>2231</v>
@@ -23731,9 +23731,9 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" hidden="1" spans="1:4">
       <c r="A755" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>2261</v>
@@ -23770,9 +23770,9 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" hidden="1" spans="1:4">
       <c r="A758" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>2270</v>
@@ -23918,9 +23918,9 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" hidden="1" spans="1:4">
       <c r="A769" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>2303</v>
@@ -23934,7 +23934,7 @@
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>2306</v>
@@ -23948,7 +23948,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2309</v>
@@ -23962,7 +23962,7 @@
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>2312</v>
@@ -24012,7 +24012,7 @@
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>2324</v>
@@ -24026,7 +24026,7 @@
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>2327</v>
@@ -24054,7 +24054,7 @@
     </row>
     <row r="779" ht="37.5" spans="1:4">
       <c r="A779" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>2333</v>
@@ -24077,9 +24077,9 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="781" ht="37.5" spans="1:4">
+    <row r="781" ht="37.5" hidden="1" spans="1:4">
       <c r="A781" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B781" s="1" t="s">
         <v>2339</v>
@@ -24144,9 +24144,9 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" hidden="1" spans="1:4">
       <c r="A786" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B786" s="1" t="s">
         <v>2354</v>
@@ -24188,7 +24188,7 @@
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>2363</v>
@@ -24213,7 +24213,7 @@
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>2369</v>
@@ -24266,7 +24266,7 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>2381</v>
@@ -24280,7 +24280,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2384</v>
@@ -24308,7 +24308,7 @@
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>2390</v>
@@ -24320,9 +24320,9 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" hidden="1" spans="1:4">
       <c r="A799" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>2393</v>
@@ -24359,7 +24359,10 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="802" hidden="1" spans="2:4">
+    <row r="802" spans="1:4">
+      <c r="A802" s="1">
+        <v>1</v>
+      </c>
       <c r="B802" s="1" t="s">
         <v>2402</v>
       </c>
@@ -24370,7 +24373,10 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="803" hidden="1" spans="2:4">
+    <row r="803" spans="1:4">
+      <c r="A803" s="1">
+        <v>1</v>
+      </c>
       <c r="B803" s="1" t="s">
         <v>2405</v>
       </c>
@@ -24381,7 +24387,10 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="804" hidden="1" spans="2:4">
+    <row r="804" spans="1:4">
+      <c r="A804" s="1">
+        <v>1</v>
+      </c>
       <c r="B804" s="1" t="s">
         <v>2408</v>
       </c>
@@ -24403,7 +24412,10 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="806" hidden="1" spans="2:4">
+    <row r="806" spans="1:4">
+      <c r="A806" s="1">
+        <v>1</v>
+      </c>
       <c r="B806" s="1" t="s">
         <v>2414</v>
       </c>
@@ -24414,7 +24426,10 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="807" hidden="1" spans="2:4">
+    <row r="807" spans="1:4">
+      <c r="A807" s="1">
+        <v>1</v>
+      </c>
       <c r="B807" s="1" t="s">
         <v>2417</v>
       </c>
@@ -24436,7 +24451,10 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="809" hidden="1" spans="2:4">
+    <row r="809" spans="1:4">
+      <c r="A809" s="1">
+        <v>1</v>
+      </c>
       <c r="B809" s="1" t="s">
         <v>2423</v>
       </c>
@@ -24447,7 +24465,10 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="810" hidden="1" spans="2:4">
+    <row r="810" spans="1:4">
+      <c r="A810" s="1">
+        <v>1</v>
+      </c>
       <c r="B810" s="1" t="s">
         <v>2426</v>
       </c>
@@ -24458,7 +24479,10 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="811" hidden="1" spans="2:4">
+    <row r="811" spans="1:4">
+      <c r="A811" s="1">
+        <v>1</v>
+      </c>
       <c r="B811" s="1" t="s">
         <v>2429</v>
       </c>
@@ -24469,7 +24493,10 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="812" hidden="1" spans="2:4">
+    <row r="812" spans="1:4">
+      <c r="A812" s="1">
+        <v>1</v>
+      </c>
       <c r="B812" s="1" t="s">
         <v>2432</v>
       </c>
@@ -24480,7 +24507,10 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="813" hidden="1" spans="2:4">
+    <row r="813" spans="1:4">
+      <c r="A813" s="1">
+        <v>1</v>
+      </c>
       <c r="B813" s="1" t="s">
         <v>2435</v>
       </c>
@@ -24491,7 +24521,10 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="814" ht="56.25" hidden="1" spans="2:4">
+    <row r="814" ht="56.25" spans="1:4">
+      <c r="A814" s="1">
+        <v>1</v>
+      </c>
       <c r="B814" s="1" t="s">
         <v>2438</v>
       </c>
@@ -24502,7 +24535,10 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="815" hidden="1" spans="2:4">
+    <row r="815" spans="1:4">
+      <c r="A815" s="1">
+        <v>1</v>
+      </c>
       <c r="B815" s="1" t="s">
         <v>2441</v>
       </c>
@@ -24513,7 +24549,10 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="816" hidden="1" spans="2:4">
+    <row r="816" spans="1:4">
+      <c r="A816" s="1">
+        <v>1</v>
+      </c>
       <c r="B816" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24524,7 +24563,10 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="817" hidden="1" spans="2:4">
+    <row r="817" spans="1:4">
+      <c r="A817" s="1">
+        <v>1</v>
+      </c>
       <c r="B817" s="1" t="s">
         <v>2447</v>
       </c>
@@ -24535,7 +24577,10 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="818" hidden="1" spans="2:4">
+    <row r="818" spans="1:4">
+      <c r="A818" s="1">
+        <v>1</v>
+      </c>
       <c r="B818" s="1" t="s">
         <v>2450</v>
       </c>
@@ -24557,7 +24602,10 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="820" hidden="1" spans="2:4">
+    <row r="820" spans="1:4">
+      <c r="A820" s="1">
+        <v>1</v>
+      </c>
       <c r="B820" s="1" t="s">
         <v>2456</v>
       </c>
@@ -24579,7 +24627,10 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="822" hidden="1" spans="2:4">
+    <row r="822" spans="1:4">
+      <c r="A822" s="1">
+        <v>1</v>
+      </c>
       <c r="B822" s="1" t="s">
         <v>2462</v>
       </c>
@@ -24645,7 +24696,10 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="828" hidden="1" spans="2:4">
+    <row r="828" spans="1:4">
+      <c r="A828" s="1">
+        <v>1</v>
+      </c>
       <c r="B828" s="1" t="s">
         <v>2480</v>
       </c>
@@ -24678,7 +24732,10 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="831" hidden="1" spans="2:4">
+    <row r="831" spans="1:4">
+      <c r="A831" s="1">
+        <v>1</v>
+      </c>
       <c r="B831" s="1" t="s">
         <v>2489</v>
       </c>
@@ -24700,7 +24757,10 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="833" hidden="1" spans="2:4">
+    <row r="833" spans="1:4">
+      <c r="A833" s="1">
+        <v>1</v>
+      </c>
       <c r="B833" s="1" t="s">
         <v>2495</v>
       </c>
@@ -24711,7 +24771,10 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="834" hidden="1" spans="2:4">
+    <row r="834" spans="1:4">
+      <c r="A834" s="1">
+        <v>1</v>
+      </c>
       <c r="B834" s="1" t="s">
         <v>2498</v>
       </c>
@@ -24722,7 +24785,10 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="835" hidden="1" spans="2:4">
+    <row r="835" spans="1:4">
+      <c r="A835" s="1">
+        <v>1</v>
+      </c>
       <c r="B835" s="1" t="s">
         <v>2501</v>
       </c>
@@ -24733,7 +24799,10 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="836" hidden="1" spans="2:4">
+    <row r="836" spans="1:4">
+      <c r="A836" s="1">
+        <v>1</v>
+      </c>
       <c r="B836" s="1" t="s">
         <v>2504</v>
       </c>
@@ -24744,7 +24813,10 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="837" hidden="1" spans="2:4">
+    <row r="837" spans="1:4">
+      <c r="A837" s="1">
+        <v>1</v>
+      </c>
       <c r="B837" s="1" t="s">
         <v>2507</v>
       </c>
@@ -24777,7 +24849,10 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="840" hidden="1" spans="2:4">
+    <row r="840" spans="1:4">
+      <c r="A840" s="1">
+        <v>1</v>
+      </c>
       <c r="B840" s="1" t="s">
         <v>2516</v>
       </c>
@@ -24799,7 +24874,10 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="842" hidden="1" spans="2:4">
+    <row r="842" spans="1:4">
+      <c r="A842" s="1">
+        <v>1</v>
+      </c>
       <c r="B842" s="1" t="s">
         <v>2522</v>
       </c>
@@ -24810,7 +24888,10 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="843" hidden="1" spans="2:4">
+    <row r="843" spans="1:4">
+      <c r="A843" s="1">
+        <v>1</v>
+      </c>
       <c r="B843" s="1" t="s">
         <v>2525</v>
       </c>
@@ -24832,7 +24913,10 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="845" hidden="1" spans="2:4">
+    <row r="845" spans="1:4">
+      <c r="A845" s="1">
+        <v>1</v>
+      </c>
       <c r="B845" s="1" t="s">
         <v>2531</v>
       </c>
@@ -24843,7 +24927,10 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="846" hidden="1" spans="2:4">
+    <row r="846" spans="1:4">
+      <c r="A846" s="1">
+        <v>1</v>
+      </c>
       <c r="B846" s="1" t="s">
         <v>2534</v>
       </c>
@@ -24854,7 +24941,10 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="847" hidden="1" spans="2:4">
+    <row r="847" spans="1:4">
+      <c r="A847" s="1">
+        <v>1</v>
+      </c>
       <c r="B847" s="1" t="s">
         <v>2537</v>
       </c>
@@ -24865,7 +24955,10 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="848" hidden="1" spans="2:4">
+    <row r="848" spans="1:4">
+      <c r="A848" s="1">
+        <v>1</v>
+      </c>
       <c r="B848" s="1" t="s">
         <v>2540</v>
       </c>
@@ -24898,7 +24991,10 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="851" hidden="1" spans="2:4">
+    <row r="851" spans="1:4">
+      <c r="A851" s="1">
+        <v>1</v>
+      </c>
       <c r="B851" s="1" t="s">
         <v>2549</v>
       </c>
@@ -24909,7 +25005,10 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="852" hidden="1" spans="2:4">
+    <row r="852" spans="1:4">
+      <c r="A852" s="1">
+        <v>1</v>
+      </c>
       <c r="B852" s="1" t="s">
         <v>2552</v>
       </c>
@@ -24920,7 +25019,10 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="853" hidden="1" spans="2:4">
+    <row r="853" spans="1:4">
+      <c r="A853" s="1">
+        <v>1</v>
+      </c>
       <c r="B853" s="1" t="s">
         <v>2555</v>
       </c>
@@ -24942,7 +25044,10 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="855" hidden="1" spans="2:4">
+    <row r="855" spans="1:4">
+      <c r="A855" s="1">
+        <v>1</v>
+      </c>
       <c r="B855" s="1" t="s">
         <v>2561</v>
       </c>
@@ -24953,7 +25058,10 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="856" hidden="1" spans="2:4">
+    <row r="856" spans="1:4">
+      <c r="A856" s="1">
+        <v>1</v>
+      </c>
       <c r="B856" s="1" t="s">
         <v>2564</v>
       </c>
@@ -24964,7 +25072,10 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="857" hidden="1" spans="2:4">
+    <row r="857" spans="1:4">
+      <c r="A857" s="1">
+        <v>1</v>
+      </c>
       <c r="B857" s="1" t="s">
         <v>2567</v>
       </c>
@@ -24986,7 +25097,10 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="859" hidden="1" spans="2:4">
+    <row r="859" spans="1:4">
+      <c r="A859" s="1">
+        <v>1</v>
+      </c>
       <c r="B859" s="1" t="s">
         <v>2573</v>
       </c>
@@ -24997,7 +25111,10 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="860" hidden="1" spans="2:4">
+    <row r="860" spans="1:4">
+      <c r="A860" s="1">
+        <v>1</v>
+      </c>
       <c r="B860" s="1" t="s">
         <v>2576</v>
       </c>
@@ -25008,7 +25125,10 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="861" hidden="1" spans="2:4">
+    <row r="861" spans="1:4">
+      <c r="A861" s="1">
+        <v>1</v>
+      </c>
       <c r="B861" s="1" t="s">
         <v>2579</v>
       </c>
@@ -25019,7 +25139,10 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="862" hidden="1" spans="2:4">
+    <row r="862" spans="1:4">
+      <c r="A862" s="1">
+        <v>1</v>
+      </c>
       <c r="B862" s="1" t="s">
         <v>2582</v>
       </c>
@@ -25052,7 +25175,10 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="865" hidden="1" spans="2:4">
+    <row r="865" ht="37.5" spans="1:4">
+      <c r="A865" s="1">
+        <v>1</v>
+      </c>
       <c r="B865" s="1" t="s">
         <v>2591</v>
       </c>
@@ -25063,7 +25189,10 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="866" ht="37.5" hidden="1" spans="2:4">
+    <row r="866" ht="37.5" spans="1:4">
+      <c r="A866" s="1">
+        <v>1</v>
+      </c>
       <c r="B866" s="1" t="s">
         <v>2594</v>
       </c>
@@ -25074,7 +25203,10 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="867" hidden="1" spans="2:4">
+    <row r="867" spans="1:4">
+      <c r="A867" s="1">
+        <v>1</v>
+      </c>
       <c r="B867" s="1" t="s">
         <v>2597</v>
       </c>
@@ -25096,7 +25228,10 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="869" hidden="1" spans="2:4">
+    <row r="869" spans="1:4">
+      <c r="A869" s="1">
+        <v>1</v>
+      </c>
       <c r="B869" s="1" t="s">
         <v>2603</v>
       </c>
@@ -25118,7 +25253,10 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="871" hidden="1" spans="2:4">
+    <row r="871" spans="1:4">
+      <c r="A871" s="1">
+        <v>1</v>
+      </c>
       <c r="B871" s="1" t="s">
         <v>2609</v>
       </c>
@@ -25140,7 +25278,10 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="873" hidden="1" spans="2:4">
+    <row r="873" spans="1:4">
+      <c r="A873" s="1">
+        <v>1</v>
+      </c>
       <c r="B873" s="1" t="s">
         <v>2615</v>
       </c>
@@ -25151,7 +25292,10 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="874" hidden="1" spans="2:4">
+    <row r="874" spans="1:4">
+      <c r="A874" s="1">
+        <v>1</v>
+      </c>
       <c r="B874" s="1" t="s">
         <v>2618</v>
       </c>
@@ -25173,7 +25317,10 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="876" hidden="1" spans="2:4">
+    <row r="876" spans="1:4">
+      <c r="A876" s="1">
+        <v>1</v>
+      </c>
       <c r="B876" s="1" t="s">
         <v>2624</v>
       </c>
@@ -25184,7 +25331,10 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="877" hidden="1" spans="2:4">
+    <row r="877" spans="1:4">
+      <c r="A877" s="1">
+        <v>1</v>
+      </c>
       <c r="B877" s="1" t="s">
         <v>2627</v>
       </c>
@@ -25195,7 +25345,10 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="878" hidden="1" spans="2:4">
+    <row r="878" spans="1:4">
+      <c r="A878" s="1">
+        <v>1</v>
+      </c>
       <c r="B878" s="1" t="s">
         <v>2630</v>
       </c>
@@ -25206,7 +25359,10 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="879" hidden="1" spans="2:4">
+    <row r="879" spans="1:4">
+      <c r="A879" s="1">
+        <v>1</v>
+      </c>
       <c r="B879" s="1" t="s">
         <v>2633</v>
       </c>
@@ -25239,7 +25395,10 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="882" hidden="1" spans="2:4">
+    <row r="882" spans="1:4">
+      <c r="A882" s="1">
+        <v>1</v>
+      </c>
       <c r="B882" s="1" t="s">
         <v>2642</v>
       </c>
@@ -25250,7 +25409,10 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="883" hidden="1" spans="2:4">
+    <row r="883" spans="1:4">
+      <c r="A883" s="1">
+        <v>1</v>
+      </c>
       <c r="B883" s="1" t="s">
         <v>2645</v>
       </c>
@@ -25261,7 +25423,10 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="884" hidden="1" spans="2:4">
+    <row r="884" spans="1:4">
+      <c r="A884" s="1">
+        <v>1</v>
+      </c>
       <c r="B884" s="1" t="s">
         <v>2648</v>
       </c>
@@ -25272,7 +25437,10 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="885" hidden="1" spans="2:4">
+    <row r="885" spans="1:4">
+      <c r="A885" s="1">
+        <v>1</v>
+      </c>
       <c r="B885" s="1" t="s">
         <v>2651</v>
       </c>
@@ -25327,7 +25495,10 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="890" hidden="1" spans="2:4">
+    <row r="890" spans="1:4">
+      <c r="A890" s="1">
+        <v>1</v>
+      </c>
       <c r="B890" s="1" t="s">
         <v>2666</v>
       </c>
@@ -25338,7 +25509,10 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="891" hidden="1" spans="2:4">
+    <row r="891" spans="1:4">
+      <c r="A891" s="1">
+        <v>1</v>
+      </c>
       <c r="B891" s="1" t="s">
         <v>2669</v>
       </c>
@@ -25349,7 +25523,10 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="2:4">
+    <row r="892" spans="1:4">
+      <c r="A892" s="1">
+        <v>1</v>
+      </c>
       <c r="B892" s="1" t="s">
         <v>2672</v>
       </c>
@@ -25371,7 +25548,10 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="894" hidden="1" spans="2:4">
+    <row r="894" spans="1:4">
+      <c r="A894" s="1">
+        <v>1</v>
+      </c>
       <c r="B894" s="1" t="s">
         <v>2678</v>
       </c>
@@ -25382,7 +25562,10 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="895" hidden="1" spans="2:4">
+    <row r="895" spans="1:4">
+      <c r="A895" s="1">
+        <v>1</v>
+      </c>
       <c r="B895" s="1" t="s">
         <v>2681</v>
       </c>
@@ -25415,7 +25598,10 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="898" hidden="1" spans="2:4">
+    <row r="898" spans="1:4">
+      <c r="A898" s="1">
+        <v>1</v>
+      </c>
       <c r="B898" s="1" t="s">
         <v>2690</v>
       </c>
@@ -25426,7 +25612,10 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="899" hidden="1" spans="2:4">
+    <row r="899" spans="1:4">
+      <c r="A899" s="1">
+        <v>1</v>
+      </c>
       <c r="B899" s="1" t="s">
         <v>2693</v>
       </c>
@@ -26709,8 +26898,6 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val="4"/>
-        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -12969,9 +12969,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -12992,13 +12992,6 @@
       <color rgb="FFFF0000"/>
       <name val="手札体-简 常规体"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13023,39 +13016,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13069,9 +13032,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13080,35 +13042,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13131,10 +13064,77 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13218,7 +13218,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13230,7 +13254,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13242,145 +13380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13397,43 +13397,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13443,21 +13408,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13491,151 +13441,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14035,8 +14035,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
-      <selection activeCell="A900" sqref="A900"/>
+    <sheetView tabSelected="1" topLeftCell="A859" workbookViewId="0">
+      <selection activeCell="C883" sqref="C883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -14193,7 +14193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:4">
+    <row r="22" ht="37.5" hidden="1" spans="1:4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:4">
+    <row r="42" ht="37.5" hidden="1" spans="1:4">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:4">
+    <row r="69" ht="37.5" hidden="1" spans="1:4">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:4">
+    <row r="72" ht="37.5" hidden="1" spans="1:4">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:4">
+    <row r="73" ht="37.5" hidden="1" spans="1:4">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:4">
+    <row r="77" ht="37.5" hidden="1" spans="1:4">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="2:4">
+    <row r="84" ht="37.5" hidden="1" spans="2:4">
       <c r="B84" s="1" t="s">
         <v>250</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" ht="37.5" hidden="1" spans="1:4">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:4">
+    <row r="105" ht="37.5" hidden="1" spans="1:4">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:4">
+    <row r="123" ht="37.5" hidden="1" spans="1:4">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:4">
+    <row r="129" ht="37.5" hidden="1" spans="1:4">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:4">
+    <row r="130" ht="37.5" hidden="1" spans="1:4">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:4">
+    <row r="133" ht="37.5" hidden="1" spans="1:4">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:4">
+    <row r="134" ht="37.5" hidden="1" spans="1:4">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="2:4">
+    <row r="139" ht="37.5" hidden="1" spans="2:4">
       <c r="B139" s="1" t="s">
         <v>415</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:4">
+    <row r="171" ht="37.5" hidden="1" spans="1:4">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:4">
+    <row r="175" ht="37.5" hidden="1" spans="1:4">
       <c r="A175" s="1">
         <v>0</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="2:4">
+    <row r="197" ht="37.5" hidden="1" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>589</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:4">
+    <row r="200" ht="37.5" hidden="1" spans="1:4">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:4">
+    <row r="236" ht="37.5" hidden="1" spans="1:4">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:4">
+    <row r="245" ht="37.5" hidden="1" spans="1:4">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="2:4">
+    <row r="248" ht="37.5" hidden="1" spans="2:4">
       <c r="B248" s="1" t="s">
         <v>741</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="2:4">
+    <row r="254" ht="37.5" hidden="1" spans="2:4">
       <c r="B254" s="1" t="s">
         <v>759</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:4">
+    <row r="258" ht="37.5" hidden="1" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:4">
+    <row r="276" ht="37.5" hidden="1" spans="1:4">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="2:4">
+    <row r="284" ht="37.5" hidden="1" spans="2:4">
       <c r="B284" s="1" t="s">
         <v>849</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:4">
+    <row r="287" ht="37.5" hidden="1" spans="1:4">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:4">
+    <row r="296" ht="37.5" hidden="1" spans="1:4">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:4">
+    <row r="299" ht="37.5" hidden="1" spans="1:4">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="2:4">
+    <row r="300" ht="37.5" hidden="1" spans="2:4">
       <c r="B300" s="1" t="s">
         <v>897</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:4">
+    <row r="309" ht="37.5" hidden="1" spans="1:4">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="2:4">
+    <row r="311" ht="37.5" hidden="1" spans="2:4">
       <c r="B311" s="1" t="s">
         <v>930</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:4">
+    <row r="314" ht="37.5" hidden="1" spans="1:4">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:4">
+    <row r="315" ht="37.5" hidden="1" spans="1:4">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:4">
+    <row r="320" ht="37.5" hidden="1" spans="1:4">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:4">
+    <row r="336" ht="37.5" hidden="1" spans="1:4">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="345" ht="37.5" hidden="1" spans="1:4">
+    <row r="345" ht="56.25" hidden="1" spans="1:4">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:4">
+    <row r="369" ht="37.5" hidden="1" spans="1:4">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -18888,7 +18888,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:4">
+    <row r="375" ht="37.5" hidden="1" spans="1:4">
       <c r="A375" s="1">
         <v>0</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:4">
+    <row r="384" ht="37.5" hidden="1" spans="1:4">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:4">
+    <row r="385" ht="37.5" hidden="1" spans="1:4">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:4">
+    <row r="392" ht="37.5" hidden="1" spans="1:4">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:4">
+    <row r="401" ht="37.5" hidden="1" spans="1:4">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="2:4">
+    <row r="427" ht="37.5" hidden="1" spans="2:4">
       <c r="B427" s="1" t="s">
         <v>1278</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="2:4">
+    <row r="434" ht="37.5" hidden="1" spans="2:4">
       <c r="B434" s="1" t="s">
         <v>1299</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:4">
+    <row r="437" ht="37.5" hidden="1" spans="1:4">
       <c r="A437" s="1">
         <v>0</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="2:4">
+    <row r="467" ht="37.5" hidden="1" spans="2:4">
       <c r="B467" s="1" t="s">
         <v>1398</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:4">
+    <row r="485" ht="37.5" hidden="1" spans="1:4">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:4">
+    <row r="502" ht="37.5" hidden="1" spans="1:4">
       <c r="A502" s="1">
         <v>0</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="505" ht="37.5" hidden="1" spans="1:4">
+    <row r="505" ht="56.25" hidden="1" spans="1:4">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:4">
+    <row r="519" ht="37.5" hidden="1" spans="1:4">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="2:4">
+    <row r="547" ht="37.5" hidden="1" spans="2:4">
       <c r="B547" s="1" t="s">
         <v>1637</v>
       </c>
@@ -21074,7 +21074,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>1643</v>
@@ -21113,7 +21113,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1652</v>
@@ -21127,7 +21127,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1655</v>
@@ -21155,7 +21155,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1661</v>
@@ -21194,7 +21194,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1670</v>
@@ -21217,7 +21217,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="2:4">
+    <row r="560" ht="37.5" hidden="1" spans="2:4">
       <c r="B560" s="1" t="s">
         <v>1676</v>
       </c>
@@ -21424,7 +21424,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>1727</v>
@@ -21661,7 +21661,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="596" hidden="1" spans="1:4">
+    <row r="596" ht="37.5" hidden="1" spans="1:4">
       <c r="A596" s="1">
         <v>0</v>
       </c>
@@ -21750,9 +21750,9 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" hidden="1" spans="1:4">
       <c r="A603" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>1805</v>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>1829</v>
@@ -22022,7 +22022,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="625" hidden="1" spans="1:4">
+    <row r="625" ht="37.5" hidden="1" spans="1:4">
       <c r="A625" s="1">
         <v>0</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="1:4">
+    <row r="631" ht="37.5" hidden="1" spans="1:4">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="649" hidden="1" spans="1:4">
+    <row r="649" ht="37.5" hidden="1" spans="1:4">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -22515,7 +22515,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="663" hidden="1" spans="1:4">
+    <row r="663" ht="37.5" hidden="1" spans="1:4">
       <c r="A663" s="1">
         <v>0</v>
       </c>
@@ -22531,7 +22531,7 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>1988</v>
@@ -22648,7 +22648,7 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>2015</v>
@@ -22749,7 +22749,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="681" hidden="1" spans="1:4">
+    <row r="681" ht="37.5" hidden="1" spans="1:4">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -22855,7 +22855,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="689" hidden="1" spans="1:4">
+    <row r="689" ht="37.5" hidden="1" spans="1:4">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -22958,7 +22958,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="697" hidden="1" spans="1:4">
+    <row r="697" ht="37.5" hidden="1" spans="1:4">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -22988,7 +22988,7 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>2093</v>
@@ -23223,7 +23223,7 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>2144</v>
@@ -23237,7 +23237,7 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>2147</v>
@@ -23251,7 +23251,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2150</v>
@@ -23302,9 +23302,9 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" hidden="1" spans="1:4">
       <c r="A722" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>2162</v>
@@ -23332,7 +23332,7 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>2168</v>
@@ -23386,9 +23386,9 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" hidden="1" spans="1:4">
       <c r="A728" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>2180</v>
@@ -23424,7 +23424,7 @@
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>2189</v>
@@ -23567,7 +23567,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="1:4">
+    <row r="742" ht="37.5" hidden="1" spans="1:4">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -23619,7 +23619,7 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>2234</v>
@@ -23798,7 +23798,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="760" hidden="1" spans="1:4">
+    <row r="760" ht="37.5" hidden="1" spans="1:4">
       <c r="A760" s="1">
         <v>0</v>
       </c>
@@ -23812,7 +23812,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="761" hidden="1" spans="2:4">
+    <row r="761" ht="37.5" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2279</v>
       </c>
@@ -23850,7 +23850,7 @@
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>2288</v>
@@ -23890,7 +23890,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="767" hidden="1" spans="1:4">
+    <row r="767" ht="37.5" hidden="1" spans="1:4">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -23934,7 +23934,7 @@
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>2306</v>
@@ -23948,7 +23948,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2309</v>
@@ -23985,7 +23985,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="774" hidden="1" spans="2:4">
+    <row r="774" ht="37.5" hidden="1" spans="2:4">
       <c r="B774" s="1" t="s">
         <v>2318</v>
       </c>
@@ -24024,9 +24024,9 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" hidden="1" spans="1:4">
       <c r="A777" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>2327</v>
@@ -24054,7 +24054,7 @@
     </row>
     <row r="779" ht="37.5" spans="1:4">
       <c r="A779" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>2333</v>
@@ -24174,7 +24174,7 @@
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>2360</v>
@@ -24186,9 +24186,9 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" hidden="1" spans="1:4">
       <c r="A789" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>2363</v>
@@ -24211,9 +24211,9 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" hidden="1" spans="1:4">
       <c r="A791" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>2369</v>
@@ -24266,7 +24266,7 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>2381</v>
@@ -24280,7 +24280,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2384</v>
@@ -24308,7 +24308,7 @@
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>2390</v>
@@ -24507,9 +24507,9 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="813" spans="1:4">
+    <row r="813" hidden="1" spans="1:4">
       <c r="A813" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>2435</v>
@@ -24521,9 +24521,9 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="814" ht="56.25" spans="1:4">
+    <row r="814" ht="56.25" hidden="1" spans="1:4">
       <c r="A814" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>2438</v>
@@ -24874,9 +24874,9 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" hidden="1" spans="1:4">
       <c r="A842" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>2522</v>
@@ -24888,9 +24888,9 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" hidden="1" spans="1:4">
       <c r="A843" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B843" s="1" t="s">
         <v>2525</v>
@@ -24913,9 +24913,9 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="845" spans="1:4">
+    <row r="845" hidden="1" spans="1:4">
       <c r="A845" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B845" s="1" t="s">
         <v>2531</v>
@@ -25019,9 +25019,9 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" hidden="1" spans="1:4">
       <c r="A853" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>2555</v>
@@ -25175,9 +25175,9 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="865" ht="37.5" spans="1:4">
+    <row r="865" ht="37.5" hidden="1" spans="1:4">
       <c r="A865" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B865" s="1" t="s">
         <v>2591</v>
@@ -25331,9 +25331,9 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="877" spans="1:4">
+    <row r="877" hidden="1" spans="1:4">
       <c r="A877" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>2627</v>
@@ -25484,7 +25484,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="889" hidden="1" spans="2:4">
+    <row r="889" ht="37.5" hidden="1" spans="2:4">
       <c r="B889" s="1" t="s">
         <v>2663</v>
       </c>
@@ -26011,7 +26011,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="935" hidden="1" spans="2:4">
+    <row r="935" ht="37.5" hidden="1" spans="2:4">
       <c r="B935" s="1" t="s">
         <v>2801</v>
       </c>
@@ -26044,7 +26044,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="938" hidden="1" spans="2:4">
+    <row r="938" ht="37.5" hidden="1" spans="2:4">
       <c r="B938" s="1" t="s">
         <v>2810</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="945" hidden="1" spans="2:4">
+    <row r="945" ht="37.5" hidden="1" spans="2:4">
       <c r="B945" s="1" t="s">
         <v>2831</v>
       </c>
@@ -26407,7 +26407,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="971" hidden="1" spans="2:4">
+    <row r="971" ht="37.5" hidden="1" spans="2:4">
       <c r="B971" s="1" t="s">
         <v>2909</v>
       </c>
@@ -26616,7 +26616,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="990" hidden="1" spans="2:4">
+    <row r="990" ht="37.5" hidden="1" spans="2:4">
       <c r="B990" s="1" t="s">
         <v>2966</v>
       </c>
@@ -26638,7 +26638,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="992" hidden="1" spans="2:4">
+    <row r="992" ht="37.5" hidden="1" spans="2:4">
       <c r="B992" s="1" t="s">
         <v>2972</v>
       </c>
@@ -26693,7 +26693,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="997" hidden="1" spans="2:4">
+    <row r="997" ht="37.5" hidden="1" spans="2:4">
       <c r="B997" s="1" t="s">
         <v>2987</v>
       </c>
@@ -26715,7 +26715,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="999" hidden="1" spans="2:4">
+    <row r="999" ht="37.5" hidden="1" spans="2:4">
       <c r="B999" s="1" t="s">
         <v>2993</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="1000" hidden="1" spans="2:4">
+    <row r="1000" ht="37.5" hidden="1" spans="2:4">
       <c r="B1000" s="1" t="s">
         <v>2996</v>
       </c>
@@ -26759,7 +26759,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="1003" hidden="1" spans="2:4">
+    <row r="1003" ht="37.5" hidden="1" spans="2:4">
       <c r="B1003" s="1" t="s">
         <v>3005</v>
       </c>
@@ -26898,6 +26898,7 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -12968,9 +12968,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -13001,26 +13001,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13033,13 +13018,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -13063,32 +13070,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13103,7 +13095,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13118,13 +13110,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -13132,7 +13117,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13212,19 +13212,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13242,13 +13272,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13260,13 +13314,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13278,109 +13374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13412,17 +13412,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13442,17 +13447,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13468,11 +13462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13494,148 +13494,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14035,8 +14035,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A859" workbookViewId="0">
-      <selection activeCell="C883" sqref="C883"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D796" sqref="D796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -18821,9 +18821,9 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" hidden="1" spans="1:4">
       <c r="A370" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1107</v>
@@ -21072,9 +21072,9 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" hidden="1" spans="1:4">
       <c r="A549" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>1643</v>
@@ -21111,9 +21111,9 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" hidden="1" spans="1:4">
       <c r="A552" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1652</v>
@@ -21125,9 +21125,9 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" hidden="1" spans="1:4">
       <c r="A553" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1655</v>
@@ -21153,9 +21153,9 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" hidden="1" spans="1:4">
       <c r="A555" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1661</v>
@@ -21192,9 +21192,9 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" hidden="1" spans="1:4">
       <c r="A558" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1670</v>
@@ -21422,9 +21422,9 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" hidden="1" spans="1:4">
       <c r="A577" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>1727</v>
@@ -21847,9 +21847,9 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" hidden="1" spans="1:4">
       <c r="A611" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>1829</v>
@@ -22531,7 +22531,7 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>1988</v>
@@ -22646,9 +22646,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" hidden="1" spans="1:4">
       <c r="A673" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>2015</v>
@@ -22988,7 +22988,7 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>2093</v>
@@ -23223,7 +23223,7 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>2144</v>
@@ -23237,7 +23237,7 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>2147</v>
@@ -23251,7 +23251,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2150</v>
@@ -23332,7 +23332,7 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>2168</v>
@@ -23424,7 +23424,7 @@
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>2189</v>
@@ -23544,7 +23544,7 @@
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>2216</v>
@@ -23619,7 +23619,7 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>2234</v>
@@ -23689,9 +23689,9 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" hidden="1" spans="1:4">
       <c r="A752" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>2252</v>
@@ -23850,7 +23850,7 @@
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>2288</v>
@@ -23932,9 +23932,9 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" hidden="1" spans="1:4">
       <c r="A770" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>2306</v>
@@ -23946,9 +23946,9 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" hidden="1" spans="1:4">
       <c r="A771" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2309</v>
@@ -23960,9 +23960,9 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" hidden="1" spans="1:4">
       <c r="A772" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>2312</v>
@@ -24010,9 +24010,9 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" hidden="1" spans="1:4">
       <c r="A776" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>2324</v>
@@ -24054,7 +24054,7 @@
     </row>
     <row r="779" ht="37.5" spans="1:4">
       <c r="A779" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>2333</v>
@@ -24172,9 +24172,9 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" hidden="1" spans="1:4">
       <c r="A788" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>2360</v>
@@ -24266,7 +24266,7 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>2381</v>
@@ -24280,7 +24280,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2384</v>
@@ -24308,7 +24308,7 @@
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>2390</v>
@@ -24359,9 +24359,9 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="802" spans="1:4">
+    <row r="802" hidden="1" spans="1:4">
       <c r="A802" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>2402</v>
@@ -24373,9 +24373,9 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" hidden="1" spans="1:4">
       <c r="A803" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>2405</v>
@@ -24389,7 +24389,7 @@
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>2408</v>
@@ -24412,9 +24412,9 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="806" spans="1:4">
+    <row r="806" hidden="1" spans="1:4">
       <c r="A806" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>2414</v>
@@ -24426,9 +24426,9 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" hidden="1" spans="1:4">
       <c r="A807" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>2417</v>
@@ -24481,7 +24481,7 @@
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>2429</v>
@@ -24493,9 +24493,9 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" hidden="1" spans="1:4">
       <c r="A812" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>2432</v>
@@ -24537,7 +24537,7 @@
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>2441</v>
@@ -24549,9 +24549,9 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="816" spans="1:4">
+    <row r="816" hidden="1" spans="1:4">
       <c r="A816" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B816" s="1" t="s">
         <v>2444</v>
@@ -24563,9 +24563,9 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="817" spans="1:4">
+    <row r="817" hidden="1" spans="1:4">
       <c r="A817" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B817" s="1" t="s">
         <v>2447</v>
@@ -24577,9 +24577,9 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" hidden="1" spans="1:4">
       <c r="A818" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B818" s="1" t="s">
         <v>2450</v>
@@ -24602,9 +24602,9 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" hidden="1" spans="1:4">
       <c r="A820" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>2456</v>
@@ -24629,7 +24629,7 @@
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>2462</v>
@@ -24696,9 +24696,9 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" hidden="1" spans="1:4">
       <c r="A828" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>2480</v>
@@ -24734,7 +24734,7 @@
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>2489</v>
@@ -24757,9 +24757,9 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" hidden="1" spans="1:4">
       <c r="A833" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>2495</v>
@@ -24773,7 +24773,7 @@
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>2498</v>
@@ -24785,9 +24785,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" hidden="1" spans="1:4">
       <c r="A835" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>2501</v>
@@ -24801,7 +24801,7 @@
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>2504</v>
@@ -24815,7 +24815,7 @@
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>2507</v>
@@ -24851,7 +24851,7 @@
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>2516</v>
@@ -24927,9 +24927,9 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="846" spans="1:4">
+    <row r="846" hidden="1" spans="1:4">
       <c r="A846" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>2534</v>
@@ -24941,9 +24941,9 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="847" spans="1:4">
+    <row r="847" hidden="1" spans="1:4">
       <c r="A847" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>2537</v>
@@ -24957,7 +24957,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>2540</v>
@@ -24991,9 +24991,9 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="851" spans="1:4">
+    <row r="851" hidden="1" spans="1:4">
       <c r="A851" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>2549</v>
@@ -25007,7 +25007,7 @@
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>2552</v>
@@ -25046,7 +25046,7 @@
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>2561</v>
@@ -25058,9 +25058,9 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="856" spans="1:4">
+    <row r="856" hidden="1" spans="1:4">
       <c r="A856" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>2564</v>
@@ -25074,7 +25074,7 @@
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>2567</v>
@@ -25097,9 +25097,9 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="859" spans="1:4">
+    <row r="859" hidden="1" spans="1:4">
       <c r="A859" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>2573</v>
@@ -25113,7 +25113,7 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B860" s="1" t="s">
         <v>2576</v>
@@ -26897,7 +26897,6 @@
       <filters>
         <filter val="1"/>
         <filter val="2"/>
-        <filter val="3"/>
         <filter val="4"/>
       </filters>
     </filterColumn>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -12968,10 +12968,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -13002,15 +13002,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -13024,31 +13039,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13070,32 +13062,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13109,6 +13078,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -13116,8 +13108,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13132,7 +13125,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13206,13 +13206,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13224,13 +13296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13242,73 +13314,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13326,61 +13368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13398,7 +13398,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13407,42 +13407,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13463,6 +13443,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -13477,165 +13481,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14035,8 +14035,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D796" sqref="D796"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D922" sqref="D922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
@@ -22529,9 +22529,9 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" hidden="1" spans="1:4">
       <c r="A664" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>1988</v>
@@ -22986,9 +22986,9 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" hidden="1" spans="1:4">
       <c r="A699" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>2093</v>
@@ -23221,9 +23221,9 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" hidden="1" spans="1:4">
       <c r="A716" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>2144</v>
@@ -23235,9 +23235,9 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" hidden="1" spans="1:4">
       <c r="A717" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>2147</v>
@@ -23249,9 +23249,9 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" hidden="1" spans="1:4">
       <c r="A718" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2150</v>
@@ -23330,9 +23330,9 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" hidden="1" spans="1:4">
       <c r="A724" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>2168</v>
@@ -23422,9 +23422,9 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" hidden="1" spans="1:4">
       <c r="A731" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>2189</v>
@@ -23542,9 +23542,9 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" hidden="1" spans="1:4">
       <c r="A740" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>2216</v>
@@ -23617,9 +23617,9 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" hidden="1" spans="1:4">
       <c r="A746" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>2234</v>
@@ -23848,9 +23848,9 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" hidden="1" spans="1:4">
       <c r="A764" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>2288</v>
@@ -23934,7 +23934,7 @@
     </row>
     <row r="770" hidden="1" spans="1:4">
       <c r="A770" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>2306</v>
@@ -23948,7 +23948,7 @@
     </row>
     <row r="771" hidden="1" spans="1:4">
       <c r="A771" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2309</v>
@@ -24052,9 +24052,9 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="779" ht="37.5" spans="1:4">
+    <row r="779" ht="37.5" hidden="1" spans="1:4">
       <c r="A779" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>2333</v>
@@ -24264,9 +24264,9 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" hidden="1" spans="1:4">
       <c r="A795" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>2381</v>
@@ -24278,9 +24278,9 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" hidden="1" spans="1:4">
       <c r="A796" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2384</v>
@@ -24306,9 +24306,9 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" hidden="1" spans="1:4">
       <c r="A798" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>2390</v>
@@ -24387,9 +24387,9 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="804" spans="1:4">
+    <row r="804" hidden="1" spans="1:4">
       <c r="A804" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>2408</v>
@@ -24451,9 +24451,9 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
+    <row r="809" hidden="1" spans="1:4">
       <c r="A809" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>2423</v>
@@ -24465,9 +24465,9 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="810" spans="1:4">
+    <row r="810" hidden="1" spans="1:4">
       <c r="A810" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>2426</v>
@@ -24479,9 +24479,9 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
+    <row r="811" hidden="1" spans="1:4">
       <c r="A811" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>2429</v>
@@ -24627,9 +24627,9 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="822" spans="1:4">
+    <row r="822" hidden="1" spans="1:4">
       <c r="A822" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>2462</v>
@@ -24732,9 +24732,9 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="831" spans="1:4">
+    <row r="831" hidden="1" spans="1:4">
       <c r="A831" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>2489</v>
@@ -24771,9 +24771,9 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" hidden="1" spans="1:4">
       <c r="A834" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>2498</v>
@@ -24799,9 +24799,9 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="836" spans="1:4">
+    <row r="836" hidden="1" spans="1:4">
       <c r="A836" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>2504</v>
@@ -24813,9 +24813,9 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" hidden="1" spans="1:4">
       <c r="A837" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>2507</v>
@@ -24849,9 +24849,9 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" hidden="1" spans="1:4">
       <c r="A840" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>2516</v>
@@ -24955,9 +24955,9 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" hidden="1" spans="1:4">
       <c r="A848" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>2540</v>
@@ -25074,7 +25074,7 @@
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>2567</v>
@@ -25111,9 +25111,9 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="860" spans="1:4">
+    <row r="860" hidden="1" spans="1:4">
       <c r="A860" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B860" s="1" t="s">
         <v>2576</v>
@@ -25125,9 +25125,9 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="861" spans="1:4">
+    <row r="861" hidden="1" spans="1:4">
       <c r="A861" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B861" s="1" t="s">
         <v>2579</v>
@@ -25139,9 +25139,9 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="862" spans="1:4">
+    <row r="862" hidden="1" spans="1:4">
       <c r="A862" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B862" s="1" t="s">
         <v>2582</v>
@@ -25191,7 +25191,7 @@
     </row>
     <row r="866" ht="37.5" spans="1:4">
       <c r="A866" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>2594</v>
@@ -25203,9 +25203,9 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="867" spans="1:4">
+    <row r="867" hidden="1" spans="1:4">
       <c r="A867" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B867" s="1" t="s">
         <v>2597</v>
@@ -25228,9 +25228,9 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" hidden="1" spans="1:4">
       <c r="A869" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>2603</v>
@@ -25253,9 +25253,9 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="871" spans="1:4">
+    <row r="871" hidden="1" spans="1:4">
       <c r="A871" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>2609</v>
@@ -25278,9 +25278,9 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="873" spans="1:4">
+    <row r="873" hidden="1" spans="1:4">
       <c r="A873" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>2615</v>
@@ -25294,7 +25294,7 @@
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>2618</v>
@@ -25317,9 +25317,9 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="876" spans="1:4">
+    <row r="876" hidden="1" spans="1:4">
       <c r="A876" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>2624</v>
@@ -25345,9 +25345,9 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="878" spans="1:4">
+    <row r="878" hidden="1" spans="1:4">
       <c r="A878" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B878" s="1" t="s">
         <v>2630</v>
@@ -25361,7 +25361,7 @@
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>2633</v>
@@ -25395,9 +25395,9 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="882" spans="1:4">
+    <row r="882" hidden="1" spans="1:4">
       <c r="A882" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>2642</v>
@@ -25411,7 +25411,7 @@
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>2645</v>
@@ -25423,9 +25423,9 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="884" spans="1:4">
+    <row r="884" hidden="1" spans="1:4">
       <c r="A884" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B884" s="1" t="s">
         <v>2648</v>
@@ -25437,9 +25437,9 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" hidden="1" spans="1:4">
       <c r="A885" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>2651</v>
@@ -25497,7 +25497,7 @@
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>2666</v>
@@ -25509,9 +25509,9 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="891" spans="1:4">
+    <row r="891" hidden="1" spans="1:4">
       <c r="A891" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B891" s="1" t="s">
         <v>2669</v>
@@ -25523,9 +25523,9 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="892" spans="1:4">
+    <row r="892" hidden="1" spans="1:4">
       <c r="A892" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B892" s="1" t="s">
         <v>2672</v>
@@ -25548,9 +25548,9 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="894" spans="1:4">
+    <row r="894" hidden="1" spans="1:4">
       <c r="A894" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B894" s="1" t="s">
         <v>2678</v>
@@ -25562,9 +25562,9 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="895" spans="1:4">
+    <row r="895" hidden="1" spans="1:4">
       <c r="A895" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B895" s="1" t="s">
         <v>2681</v>
@@ -25598,9 +25598,9 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="898" spans="1:4">
+    <row r="898" hidden="1" spans="1:4">
       <c r="A898" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B898" s="1" t="s">
         <v>2690</v>
@@ -25612,9 +25612,9 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="899" spans="1:4">
+    <row r="899" hidden="1" spans="1:4">
       <c r="A899" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B899" s="1" t="s">
         <v>2693</v>
@@ -25648,7 +25648,10 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="902" hidden="1" spans="2:4">
+    <row r="902" hidden="1" spans="1:4">
+      <c r="A902" s="1">
+        <v>0</v>
+      </c>
       <c r="B902" s="1" t="s">
         <v>2702</v>
       </c>
@@ -25659,7 +25662,10 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="903" hidden="1" spans="2:4">
+    <row r="903" spans="1:4">
+      <c r="A903" s="1">
+        <v>3</v>
+      </c>
       <c r="B903" s="1" t="s">
         <v>2705</v>
       </c>
@@ -25670,7 +25676,10 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="904" hidden="1" spans="2:4">
+    <row r="904" hidden="1" spans="1:4">
+      <c r="A904" s="1">
+        <v>0</v>
+      </c>
       <c r="B904" s="1" t="s">
         <v>2708</v>
       </c>
@@ -25692,7 +25701,10 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="906" hidden="1" spans="2:4">
+    <row r="906" hidden="1" spans="1:4">
+      <c r="A906" s="1">
+        <v>0</v>
+      </c>
       <c r="B906" s="1" t="s">
         <v>2714</v>
       </c>
@@ -25747,7 +25759,10 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="911" hidden="1" spans="2:4">
+    <row r="911" hidden="1" spans="1:4">
+      <c r="A911" s="1">
+        <v>1</v>
+      </c>
       <c r="B911" s="1" t="s">
         <v>2729</v>
       </c>
@@ -25780,7 +25795,10 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="914" hidden="1" spans="2:4">
+    <row r="914" hidden="1" spans="1:4">
+      <c r="A914" s="1">
+        <v>0</v>
+      </c>
       <c r="B914" s="1" t="s">
         <v>2738</v>
       </c>
@@ -25813,7 +25831,10 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="917" hidden="1" spans="2:4">
+    <row r="917" hidden="1" spans="1:4">
+      <c r="A917" s="1">
+        <v>0</v>
+      </c>
       <c r="B917" s="1" t="s">
         <v>2747</v>
       </c>
@@ -25846,7 +25867,10 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="920" hidden="1" spans="2:4">
+    <row r="920" hidden="1" spans="1:4">
+      <c r="A920" s="1">
+        <v>0</v>
+      </c>
       <c r="B920" s="1" t="s">
         <v>2756</v>
       </c>
@@ -25857,7 +25881,10 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="921" hidden="1" spans="2:4">
+    <row r="921" spans="1:4">
+      <c r="A921" s="1">
+        <v>3</v>
+      </c>
       <c r="B921" s="1" t="s">
         <v>2759</v>
       </c>
@@ -25868,7 +25895,10 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="922" hidden="1" spans="2:4">
+    <row r="922" spans="1:4">
+      <c r="A922" s="1">
+        <v>3</v>
+      </c>
       <c r="B922" s="1" t="s">
         <v>2762</v>
       </c>
@@ -25890,7 +25920,10 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="924" hidden="1" spans="2:4">
+    <row r="924" spans="1:4">
+      <c r="A924" s="1">
+        <v>3</v>
+      </c>
       <c r="B924" s="1" t="s">
         <v>2768</v>
       </c>
@@ -25901,7 +25934,10 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="925" hidden="1" spans="2:4">
+    <row r="925" hidden="1" spans="1:4">
+      <c r="A925" s="1">
+        <v>0</v>
+      </c>
       <c r="B925" s="1" t="s">
         <v>2771</v>
       </c>
@@ -25912,7 +25948,10 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="926" hidden="1" spans="2:4">
+    <row r="926" hidden="1" spans="1:4">
+      <c r="A926" s="1">
+        <v>0</v>
+      </c>
       <c r="B926" s="1" t="s">
         <v>2774</v>
       </c>
@@ -25923,7 +25962,10 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="927" hidden="1" spans="2:4">
+    <row r="927" hidden="1" spans="1:4">
+      <c r="A927" s="1">
+        <v>1</v>
+      </c>
       <c r="B927" s="1" t="s">
         <v>2777</v>
       </c>
@@ -25934,7 +25976,10 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="928" hidden="1" spans="2:4">
+    <row r="928" hidden="1" spans="1:4">
+      <c r="A928" s="1">
+        <v>1</v>
+      </c>
       <c r="B928" s="1" t="s">
         <v>2780</v>
       </c>
@@ -25945,7 +25990,10 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="929" hidden="1" spans="2:4">
+    <row r="929" spans="1:4">
+      <c r="A929" s="1">
+        <v>3</v>
+      </c>
       <c r="B929" s="1" t="s">
         <v>2783</v>
       </c>
@@ -25956,7 +26004,10 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="930" hidden="1" spans="2:4">
+    <row r="930" hidden="1" spans="1:4">
+      <c r="A930" s="1">
+        <v>0</v>
+      </c>
       <c r="B930" s="1" t="s">
         <v>2786</v>
       </c>
@@ -25967,7 +26018,10 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="931" hidden="1" spans="2:4">
+    <row r="931" hidden="1" spans="1:4">
+      <c r="A931" s="1">
+        <v>1</v>
+      </c>
       <c r="B931" s="1" t="s">
         <v>2789</v>
       </c>
@@ -25978,7 +26032,10 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="932" hidden="1" spans="2:4">
+    <row r="932" spans="1:4">
+      <c r="A932" s="1">
+        <v>3</v>
+      </c>
       <c r="B932" s="1" t="s">
         <v>2792</v>
       </c>
@@ -25989,7 +26046,10 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="933" hidden="1" spans="2:4">
+    <row r="933" hidden="1" spans="1:4">
+      <c r="A933" s="1">
+        <v>0</v>
+      </c>
       <c r="B933" s="1" t="s">
         <v>2795</v>
       </c>
@@ -26022,7 +26082,10 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="936" hidden="1" spans="2:4">
+    <row r="936" hidden="1" spans="1:4">
+      <c r="A936" s="1">
+        <v>0</v>
+      </c>
       <c r="B936" s="1" t="s">
         <v>2804</v>
       </c>
@@ -26044,7 +26107,10 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="938" ht="37.5" hidden="1" spans="2:4">
+    <row r="938" ht="37.5" spans="1:4">
+      <c r="A938" s="1">
+        <v>3</v>
+      </c>
       <c r="B938" s="1" t="s">
         <v>2810</v>
       </c>
@@ -26055,7 +26121,10 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="939" hidden="1" spans="2:4">
+    <row r="939" hidden="1" spans="1:4">
+      <c r="A939" s="1">
+        <v>1</v>
+      </c>
       <c r="B939" s="1" t="s">
         <v>2813</v>
       </c>
@@ -26066,7 +26135,10 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="940" hidden="1" spans="2:4">
+    <row r="940" spans="1:4">
+      <c r="A940" s="1">
+        <v>3</v>
+      </c>
       <c r="B940" s="1" t="s">
         <v>2816</v>
       </c>
@@ -26077,7 +26149,10 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="941" ht="56.25" hidden="1" spans="2:4">
+    <row r="941" ht="56.25" spans="1:4">
+      <c r="A941" s="1">
+        <v>3</v>
+      </c>
       <c r="B941" s="1" t="s">
         <v>2819</v>
       </c>
@@ -26088,7 +26163,10 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="942" hidden="1" spans="2:4">
+    <row r="942" hidden="1" spans="1:4">
+      <c r="A942" s="1">
+        <v>1</v>
+      </c>
       <c r="B942" s="1" t="s">
         <v>2822</v>
       </c>
@@ -26099,7 +26177,10 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="943" hidden="1" spans="2:4">
+    <row r="943" hidden="1" spans="1:4">
+      <c r="A943" s="1">
+        <v>0</v>
+      </c>
       <c r="B943" s="1" t="s">
         <v>2825</v>
       </c>
@@ -26110,7 +26191,10 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="944" hidden="1" spans="2:4">
+    <row r="944" hidden="1" spans="1:4">
+      <c r="A944" s="1">
+        <v>0</v>
+      </c>
       <c r="B944" s="1" t="s">
         <v>2828</v>
       </c>
@@ -26132,7 +26216,10 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="946" hidden="1" spans="2:4">
+    <row r="946" hidden="1" spans="1:4">
+      <c r="A946" s="1">
+        <v>1</v>
+      </c>
       <c r="B946" s="1" t="s">
         <v>2834</v>
       </c>
@@ -26143,7 +26230,10 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="947" hidden="1" spans="2:4">
+    <row r="947" hidden="1" spans="1:4">
+      <c r="A947" s="1">
+        <v>0</v>
+      </c>
       <c r="B947" s="1" t="s">
         <v>2837</v>
       </c>
@@ -26165,7 +26255,10 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="949" hidden="1" spans="2:4">
+    <row r="949" hidden="1" spans="1:4">
+      <c r="A949" s="1">
+        <v>0</v>
+      </c>
       <c r="B949" s="1" t="s">
         <v>2843</v>
       </c>
@@ -26176,7 +26269,10 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="950" hidden="1" spans="2:4">
+    <row r="950" spans="1:4">
+      <c r="A950" s="1">
+        <v>3</v>
+      </c>
       <c r="B950" s="1" t="s">
         <v>2846</v>
       </c>
@@ -26187,7 +26283,10 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="951" hidden="1" spans="2:4">
+    <row r="951" spans="1:4">
+      <c r="A951" s="1">
+        <v>3</v>
+      </c>
       <c r="B951" s="1" t="s">
         <v>2849</v>
       </c>
@@ -26198,7 +26297,10 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="952" hidden="1" spans="2:4">
+    <row r="952" hidden="1" spans="1:4">
+      <c r="A952" s="1">
+        <v>0</v>
+      </c>
       <c r="B952" s="1" t="s">
         <v>2852</v>
       </c>
@@ -26209,7 +26311,10 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="953" hidden="1" spans="2:4">
+    <row r="953" hidden="1" spans="1:4">
+      <c r="A953" s="1">
+        <v>0</v>
+      </c>
       <c r="B953" s="1" t="s">
         <v>2855</v>
       </c>
@@ -26220,7 +26325,10 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="954" hidden="1" spans="2:4">
+    <row r="954" hidden="1" spans="1:4">
+      <c r="A954" s="1">
+        <v>1</v>
+      </c>
       <c r="B954" s="1" t="s">
         <v>2858</v>
       </c>
@@ -26231,7 +26339,10 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="955" hidden="1" spans="2:4">
+    <row r="955" hidden="1" spans="1:4">
+      <c r="A955" s="1">
+        <v>1</v>
+      </c>
       <c r="B955" s="1" t="s">
         <v>2861</v>
       </c>
@@ -26242,7 +26353,10 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="956" hidden="1" spans="2:4">
+    <row r="956" hidden="1" spans="1:4">
+      <c r="A956" s="1">
+        <v>1</v>
+      </c>
       <c r="B956" s="1" t="s">
         <v>2864</v>
       </c>
@@ -26253,7 +26367,10 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="957" hidden="1" spans="2:4">
+    <row r="957" spans="1:4">
+      <c r="A957" s="1">
+        <v>3</v>
+      </c>
       <c r="B957" s="1" t="s">
         <v>2867</v>
       </c>
@@ -26264,7 +26381,10 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="958" hidden="1" spans="2:4">
+    <row r="958" hidden="1" spans="1:4">
+      <c r="A958" s="1">
+        <v>1</v>
+      </c>
       <c r="B958" s="1" t="s">
         <v>2870</v>
       </c>
@@ -26308,7 +26428,10 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="962" hidden="1" spans="2:4">
+    <row r="962" hidden="1" spans="1:4">
+      <c r="A962" s="1">
+        <v>1</v>
+      </c>
       <c r="B962" s="1" t="s">
         <v>2882</v>
       </c>
@@ -26330,7 +26453,10 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="964" hidden="1" spans="2:4">
+    <row r="964" hidden="1" spans="1:4">
+      <c r="A964" s="1">
+        <v>0</v>
+      </c>
       <c r="B964" s="1" t="s">
         <v>2888</v>
       </c>
@@ -26352,7 +26478,10 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="966" hidden="1" spans="2:4">
+    <row r="966" spans="1:4">
+      <c r="A966" s="1">
+        <v>3</v>
+      </c>
       <c r="B966" s="1" t="s">
         <v>2894</v>
       </c>
@@ -26363,7 +26492,10 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="967" hidden="1" spans="2:4">
+    <row r="967" hidden="1" spans="1:4">
+      <c r="A967" s="1">
+        <v>0</v>
+      </c>
       <c r="B967" s="1" t="s">
         <v>2897</v>
       </c>
@@ -26374,7 +26506,10 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="968" hidden="1" spans="2:4">
+    <row r="968" hidden="1" spans="1:4">
+      <c r="A968" s="1">
+        <v>0</v>
+      </c>
       <c r="B968" s="1" t="s">
         <v>2900</v>
       </c>
@@ -26396,7 +26531,10 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="970" hidden="1" spans="2:4">
+    <row r="970" hidden="1" spans="1:4">
+      <c r="A970" s="1">
+        <v>0</v>
+      </c>
       <c r="B970" s="1" t="s">
         <v>2906</v>
       </c>
@@ -26429,7 +26567,10 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="973" hidden="1" spans="2:4">
+    <row r="973" hidden="1" spans="1:4">
+      <c r="A973" s="1">
+        <v>0</v>
+      </c>
       <c r="B973" s="1" t="s">
         <v>2915</v>
       </c>
@@ -26440,7 +26581,10 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="974" hidden="1" spans="2:4">
+    <row r="974" spans="1:4">
+      <c r="A974" s="1">
+        <v>3</v>
+      </c>
       <c r="B974" s="1" t="s">
         <v>2918</v>
       </c>
@@ -26451,7 +26595,10 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="975" hidden="1" spans="2:4">
+    <row r="975" hidden="1" spans="1:4">
+      <c r="A975" s="1">
+        <v>1</v>
+      </c>
       <c r="B975" s="1" t="s">
         <v>2921</v>
       </c>
@@ -26473,7 +26620,10 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="977" hidden="1" spans="2:4">
+    <row r="977" hidden="1" spans="1:4">
+      <c r="A977" s="1">
+        <v>1</v>
+      </c>
       <c r="B977" s="1" t="s">
         <v>2927</v>
       </c>
@@ -26495,7 +26645,10 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="979" hidden="1" spans="2:4">
+    <row r="979" spans="1:4">
+      <c r="A979" s="1">
+        <v>3</v>
+      </c>
       <c r="B979" s="1" t="s">
         <v>2933</v>
       </c>
@@ -26506,7 +26659,10 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="980" hidden="1" spans="2:4">
+    <row r="980" hidden="1" spans="1:4">
+      <c r="A980" s="1">
+        <v>0</v>
+      </c>
       <c r="B980" s="1" t="s">
         <v>2936</v>
       </c>
@@ -26517,7 +26673,10 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="981" hidden="1" spans="2:4">
+    <row r="981" hidden="1" spans="1:4">
+      <c r="A981" s="1">
+        <v>0</v>
+      </c>
       <c r="B981" s="1" t="s">
         <v>2939</v>
       </c>
@@ -26539,7 +26698,10 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="983" hidden="1" spans="2:4">
+    <row r="983" hidden="1" spans="1:4">
+      <c r="A983" s="1">
+        <v>1</v>
+      </c>
       <c r="B983" s="1" t="s">
         <v>2945</v>
       </c>
@@ -26550,7 +26712,10 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="984" hidden="1" spans="2:4">
+    <row r="984" hidden="1" spans="1:4">
+      <c r="A984" s="1">
+        <v>1</v>
+      </c>
       <c r="B984" s="1" t="s">
         <v>2948</v>
       </c>
@@ -26572,7 +26737,10 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="986" hidden="1" spans="2:4">
+    <row r="986" hidden="1" spans="1:4">
+      <c r="A986" s="1">
+        <v>0</v>
+      </c>
       <c r="B986" s="1" t="s">
         <v>2954</v>
       </c>
@@ -26594,7 +26762,10 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="988" hidden="1" spans="2:4">
+    <row r="988" hidden="1" spans="1:4">
+      <c r="A988" s="1">
+        <v>1</v>
+      </c>
       <c r="B988" s="1" t="s">
         <v>2960</v>
       </c>
@@ -26605,7 +26776,10 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="989" hidden="1" spans="2:4">
+    <row r="989" hidden="1" spans="1:4">
+      <c r="A989" s="1">
+        <v>1</v>
+      </c>
       <c r="B989" s="1" t="s">
         <v>2963</v>
       </c>
@@ -26616,7 +26790,10 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="990" ht="37.5" hidden="1" spans="2:4">
+    <row r="990" ht="37.5" hidden="1" spans="1:4">
+      <c r="A990" s="1">
+        <v>0</v>
+      </c>
       <c r="B990" s="1" t="s">
         <v>2966</v>
       </c>
@@ -26627,7 +26804,10 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="991" hidden="1" spans="2:4">
+    <row r="991" hidden="1" spans="1:4">
+      <c r="A991" s="1">
+        <v>1</v>
+      </c>
       <c r="B991" s="1" t="s">
         <v>2969</v>
       </c>
@@ -26638,7 +26818,10 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="992" ht="37.5" hidden="1" spans="2:4">
+    <row r="992" ht="37.5" hidden="1" spans="1:4">
+      <c r="A992" s="1">
+        <v>0</v>
+      </c>
       <c r="B992" s="1" t="s">
         <v>2972</v>
       </c>
@@ -26649,7 +26832,10 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="993" hidden="1" spans="2:4">
+    <row r="993" spans="1:4">
+      <c r="A993" s="1">
+        <v>3</v>
+      </c>
       <c r="B993" s="1" t="s">
         <v>2975</v>
       </c>
@@ -26660,7 +26846,10 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="994" hidden="1" spans="2:4">
+    <row r="994" hidden="1" spans="1:4">
+      <c r="A994" s="1">
+        <v>0</v>
+      </c>
       <c r="B994" s="1" t="s">
         <v>2978</v>
       </c>
@@ -26682,7 +26871,10 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="996" hidden="1" spans="2:4">
+    <row r="996" hidden="1" spans="1:4">
+      <c r="A996" s="1">
+        <v>0</v>
+      </c>
       <c r="B996" s="1" t="s">
         <v>2984</v>
       </c>
@@ -26693,7 +26885,10 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="997" ht="37.5" hidden="1" spans="2:4">
+    <row r="997" ht="37.5" hidden="1" spans="1:4">
+      <c r="A997" s="1">
+        <v>0</v>
+      </c>
       <c r="B997" s="1" t="s">
         <v>2987</v>
       </c>
@@ -26715,7 +26910,10 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="999" ht="37.5" hidden="1" spans="2:4">
+    <row r="999" ht="37.5" hidden="1" spans="1:4">
+      <c r="A999" s="1">
+        <v>1</v>
+      </c>
       <c r="B999" s="1" t="s">
         <v>2993</v>
       </c>
@@ -26737,7 +26935,10 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="1001" hidden="1" spans="2:4">
+    <row r="1001" hidden="1" spans="1:4">
+      <c r="A1001" s="1">
+        <v>1</v>
+      </c>
       <c r="B1001" s="1" t="s">
         <v>2999</v>
       </c>
@@ -26759,7 +26960,10 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="1003" ht="37.5" hidden="1" spans="2:4">
+    <row r="1003" ht="37.5" hidden="1" spans="1:4">
+      <c r="A1003" s="1">
+        <v>0</v>
+      </c>
       <c r="B1003" s="1" t="s">
         <v>3005</v>
       </c>
@@ -26770,7 +26974,10 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="1004" hidden="1" spans="2:4">
+    <row r="1004" hidden="1" spans="1:4">
+      <c r="A1004" s="1">
+        <v>0</v>
+      </c>
       <c r="B1004" s="1" t="s">
         <v>3008</v>
       </c>
@@ -26781,7 +26988,10 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="1005" hidden="1" spans="2:4">
+    <row r="1005" hidden="1" spans="1:4">
+      <c r="A1005" s="1">
+        <v>1</v>
+      </c>
       <c r="B1005" s="1" t="s">
         <v>3011</v>
       </c>
@@ -26792,7 +27002,10 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="1006" hidden="1" spans="2:4">
+    <row r="1006" hidden="1" spans="1:4">
+      <c r="A1006" s="1">
+        <v>0</v>
+      </c>
       <c r="B1006" s="1" t="s">
         <v>3014</v>
       </c>
@@ -26803,7 +27016,10 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="1007" hidden="1" spans="2:4">
+    <row r="1007" hidden="1" spans="1:4">
+      <c r="A1007" s="1">
+        <v>0</v>
+      </c>
       <c r="B1007" s="1" t="s">
         <v>3017</v>
       </c>
@@ -26814,7 +27030,10 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="1008" hidden="1" spans="2:4">
+    <row r="1008" hidden="1" spans="1:4">
+      <c r="A1008" s="1">
+        <v>0</v>
+      </c>
       <c r="B1008" s="1" t="s">
         <v>3020</v>
       </c>
@@ -26836,7 +27055,10 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="1010" hidden="1" spans="2:4">
+    <row r="1010" hidden="1" spans="1:4">
+      <c r="A1010" s="1">
+        <v>0</v>
+      </c>
       <c r="B1010" s="1" t="s">
         <v>3026</v>
       </c>
@@ -26858,7 +27080,10 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="1012" hidden="1" spans="2:4">
+    <row r="1012" hidden="1" spans="1:4">
+      <c r="A1012" s="1">
+        <v>0</v>
+      </c>
       <c r="B1012" s="1" t="s">
         <v>3032</v>
       </c>
@@ -26869,7 +27094,10 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1013" hidden="1" spans="2:4">
+    <row r="1013" hidden="1" spans="1:4">
+      <c r="A1013" s="1">
+        <v>0</v>
+      </c>
       <c r="B1013" s="1" t="s">
         <v>3035</v>
       </c>
@@ -26880,7 +27108,10 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="1014" hidden="1" spans="2:4">
+    <row r="1014" hidden="1" spans="1:4">
+      <c r="A1014" s="1">
+        <v>0</v>
+      </c>
       <c r="B1014" s="1" t="s">
         <v>3038</v>
       </c>
@@ -26895,9 +27126,11 @@
   <autoFilter ref="A1:A1014">
     <filterColumn colId="0">
       <filters>
-        <filter val="1"/>
         <filter val="2"/>
+        <filter val="3"/>
         <filter val="4"/>
+        <filter val="5"/>
+        <filter val="7"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowHeight="15080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -12968,10 +12968,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -12995,6 +12995,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -13002,30 +13009,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -13039,8 +13023,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13062,24 +13047,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -13095,7 +13072,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13110,14 +13124,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13126,13 +13133,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13206,13 +13206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13224,31 +13224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13266,13 +13248,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13284,31 +13320,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13320,7 +13350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13338,49 +13374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13397,8 +13397,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13408,6 +13432,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13442,45 +13481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -13494,148 +13494,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13703,6 +13703,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -13738,7 +13743,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="238125"/>
+          <a:off x="2814320" y="254000"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13779,7 +13784,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -14026,7 +14031,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -14035,16 +14039,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D922" sqref="D922"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C921" sqref="C921"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8296296296296" style="1"/>
-    <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8285714285714" style="1"/>
+    <col min="2" max="2" width="20.8285714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1142857142857" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14076,7 +14080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="75" hidden="1" spans="2:4">
+    <row r="3" ht="80" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -14193,7 +14197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="37.5" hidden="1" spans="2:4">
+    <row r="12" ht="40" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -14257,7 +14261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:4">
+    <row r="17" ht="24" hidden="1" spans="1:4">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -14271,7 +14275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="2:4">
+    <row r="18" ht="24" hidden="1" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
@@ -14293,7 +14297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:4">
+    <row r="20" ht="23" hidden="1" spans="1:4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -14307,7 +14311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" ht="37.5" hidden="1" spans="2:4">
+    <row r="21" ht="40" hidden="1" spans="2:4">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -14318,7 +14322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" ht="37.5" hidden="1" spans="1:4">
+    <row r="22" ht="40" hidden="1" spans="1:4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -14332,7 +14336,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:4">
+    <row r="23" ht="24" hidden="1" spans="1:4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -14346,7 +14350,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="37.5" hidden="1" spans="1:4">
+    <row r="24" ht="40" hidden="1" spans="1:4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -14360,7 +14364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" ht="37.5" hidden="1" spans="1:4">
+    <row r="25" ht="40" hidden="1" spans="1:4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -14388,7 +14392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:4">
+    <row r="27" ht="24" hidden="1" spans="1:4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -14435,7 +14439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:4">
+    <row r="31" ht="23" hidden="1" spans="1:4">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -14463,7 +14467,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:4">
+    <row r="33" ht="24" hidden="1" spans="1:4">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -14477,7 +14481,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="2:4">
+    <row r="34" ht="24" hidden="1" spans="2:4">
       <c r="B34" s="1" t="s">
         <v>100</v>
       </c>
@@ -14488,7 +14492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="2:4">
+    <row r="35" ht="24" hidden="1" spans="2:4">
       <c r="B35" s="1" t="s">
         <v>103</v>
       </c>
@@ -14513,7 +14517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
+    <row r="37" ht="24" hidden="1" spans="1:4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -14527,7 +14531,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:4">
+    <row r="38" ht="24" hidden="1" spans="1:4">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -14541,7 +14545,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:4">
+    <row r="39" ht="24" hidden="1" spans="1:4">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:4">
+    <row r="40" ht="24" hidden="1" spans="1:4">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -14583,7 +14587,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" ht="37.5" hidden="1" spans="1:4">
+    <row r="42" ht="40" hidden="1" spans="1:4">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -14611,7 +14615,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="2:4">
+    <row r="44" ht="23" hidden="1" spans="2:4">
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
@@ -14622,7 +14626,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:4">
+    <row r="45" ht="23" hidden="1" spans="1:4">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -14650,7 +14654,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:4">
+    <row r="47" ht="24" hidden="1" spans="1:4">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -14675,7 +14679,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:4">
+    <row r="49" ht="23" hidden="1" spans="1:4">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -14689,7 +14693,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:4">
+    <row r="50" ht="24" hidden="1" spans="1:4">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -14703,7 +14707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
+    <row r="51" ht="23" hidden="1" spans="1:4">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -14731,7 +14735,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:4">
+    <row r="53" ht="24" hidden="1" spans="1:4">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -14756,7 +14760,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:4">
+    <row r="55" ht="24" hidden="1" spans="1:4">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -14781,7 +14785,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" ht="24" hidden="1" spans="1:4">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -14795,7 +14799,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="2:4">
+    <row r="58" ht="24" hidden="1" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>172</v>
       </c>
@@ -14817,7 +14821,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:4">
+    <row r="60" ht="24" hidden="1" spans="1:4">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -14842,7 +14846,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:4">
+    <row r="62" ht="24" hidden="1" spans="1:4">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -14856,7 +14860,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:4">
+    <row r="63" ht="24" hidden="1" spans="1:4">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -14884,7 +14888,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="2:4">
+    <row r="65" ht="24" hidden="1" spans="2:4">
       <c r="B65" s="1" t="s">
         <v>193</v>
       </c>
@@ -14895,7 +14899,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:4">
+    <row r="66" ht="24" hidden="1" spans="1:4">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
+    <row r="68" ht="24" hidden="1" spans="1:4">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -14934,7 +14938,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" ht="37.5" hidden="1" spans="1:4">
+    <row r="69" ht="40" hidden="1" spans="1:4">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -14962,7 +14966,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
+    <row r="71" ht="24" hidden="1" spans="1:4">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -14976,7 +14980,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" ht="37.5" hidden="1" spans="1:4">
+    <row r="72" ht="40" hidden="1" spans="1:4">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -14990,7 +14994,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" ht="37.5" hidden="1" spans="1:4">
+    <row r="73" ht="40" hidden="1" spans="1:4">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -15004,7 +15008,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:4">
+    <row r="74" ht="24" hidden="1" spans="1:4">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -15032,7 +15036,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
+    <row r="76" ht="24" hidden="1" spans="1:4">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -15046,7 +15050,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" ht="37.5" hidden="1" spans="1:4">
+    <row r="77" ht="40" hidden="1" spans="1:4">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -15088,7 +15092,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:4">
+    <row r="80" ht="24" hidden="1" spans="1:4">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -15116,7 +15120,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
+    <row r="82" ht="24" hidden="1" spans="1:4">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -15130,7 +15134,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" ht="24" hidden="1" spans="1:4">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -15144,7 +15148,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" ht="37.5" hidden="1" spans="2:4">
+    <row r="84" ht="40" hidden="1" spans="2:4">
       <c r="B84" s="1" t="s">
         <v>250</v>
       </c>
@@ -15166,7 +15170,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="2:4">
+    <row r="86" ht="24" hidden="1" spans="2:4">
       <c r="B86" s="1" t="s">
         <v>256</v>
       </c>
@@ -15177,7 +15181,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" ht="24" hidden="1" spans="1:4">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -15230,7 +15234,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" ht="24" hidden="1" spans="1:4">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -15258,7 +15262,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="2:4">
+    <row r="93" ht="24" hidden="1" spans="2:4">
       <c r="B93" s="1" t="s">
         <v>277</v>
       </c>
@@ -15283,7 +15287,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:4">
+    <row r="95" ht="24" hidden="1" spans="1:4">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -15297,7 +15301,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="96" ht="37.5" hidden="1" spans="1:4">
+    <row r="96" ht="40" hidden="1" spans="1:4">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -15322,7 +15326,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:4">
+    <row r="98" ht="24" hidden="1" spans="1:4">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -15378,7 +15382,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:4">
+    <row r="102" ht="24" hidden="1" spans="1:4">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -15392,7 +15396,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:4">
+    <row r="103" ht="24" hidden="1" spans="1:4">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -15406,7 +15410,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="2:4">
+    <row r="104" ht="24" hidden="1" spans="2:4">
       <c r="B104" s="1" t="s">
         <v>310</v>
       </c>
@@ -15417,7 +15421,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" ht="37.5" hidden="1" spans="1:4">
+    <row r="105" ht="40" hidden="1" spans="1:4">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -15445,7 +15449,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:4">
+    <row r="107" ht="24" hidden="1" spans="1:4">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -15487,7 +15491,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:4">
+    <row r="110" ht="24" hidden="1" spans="1:4">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -15512,7 +15516,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="2:4">
+    <row r="112" ht="23" hidden="1" spans="2:4">
       <c r="B112" s="1" t="s">
         <v>334</v>
       </c>
@@ -15537,7 +15541,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="2:4">
+    <row r="114" ht="24" hidden="1" spans="2:4">
       <c r="B114" s="1" t="s">
         <v>340</v>
       </c>
@@ -15570,7 +15574,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="2:4">
+    <row r="117" ht="24" hidden="1" spans="2:4">
       <c r="B117" s="1" t="s">
         <v>349</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:4">
+    <row r="122" ht="24" hidden="1" spans="1:4">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -15645,7 +15649,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" ht="37.5" hidden="1" spans="1:4">
+    <row r="123" ht="40" hidden="1" spans="1:4">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -15706,7 +15710,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="2:4">
+    <row r="128" ht="23" hidden="1" spans="2:4">
       <c r="B128" s="1" t="s">
         <v>382</v>
       </c>
@@ -15717,7 +15721,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" ht="37.5" hidden="1" spans="1:4">
+    <row r="129" ht="40" hidden="1" spans="1:4">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -15731,7 +15735,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" ht="37.5" hidden="1" spans="1:4">
+    <row r="130" ht="40" hidden="1" spans="1:4">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -15745,7 +15749,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="2:4">
+    <row r="131" ht="24" hidden="1" spans="2:4">
       <c r="B131" s="1" t="s">
         <v>391</v>
       </c>
@@ -15767,7 +15771,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" ht="37.5" hidden="1" spans="1:4">
+    <row r="133" ht="40" hidden="1" spans="1:4">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -15781,7 +15785,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" ht="37.5" hidden="1" spans="1:4">
+    <row r="134" ht="40" hidden="1" spans="1:4">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -15809,7 +15813,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:4">
+    <row r="136" ht="24" hidden="1" spans="1:4">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -15823,7 +15827,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:4">
+    <row r="137" ht="23" hidden="1" spans="1:4">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -15851,7 +15855,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="139" ht="37.5" hidden="1" spans="2:4">
+    <row r="139" ht="40" hidden="1" spans="2:4">
       <c r="B139" s="1" t="s">
         <v>415</v>
       </c>
@@ -15862,7 +15866,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:4">
+    <row r="140" ht="24" hidden="1" spans="1:4">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -15918,7 +15922,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:4">
+    <row r="144" ht="24" hidden="1" spans="1:4">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -15932,7 +15936,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:4">
+    <row r="145" ht="24" hidden="1" spans="1:4">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -15946,7 +15950,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="2:4">
+    <row r="146" ht="24" hidden="1" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>436</v>
       </c>
@@ -15957,7 +15961,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="2:4">
+    <row r="147" ht="24" hidden="1" spans="2:4">
       <c r="B147" s="1" t="s">
         <v>439</v>
       </c>
@@ -16021,7 +16025,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="2:4">
+    <row r="152" ht="24" hidden="1" spans="2:4">
       <c r="B152" s="1" t="s">
         <v>454</v>
       </c>
@@ -16113,7 +16117,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="2:4">
+    <row r="159" ht="23" hidden="1" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
@@ -16124,7 +16128,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:4">
+    <row r="160" ht="24" hidden="1" spans="1:4">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -16205,7 +16209,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:4">
+    <row r="166" ht="24" hidden="1" spans="1:4">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -16258,7 +16262,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="2:4">
+    <row r="170" ht="24" hidden="1" spans="2:4">
       <c r="B170" s="1" t="s">
         <v>508</v>
       </c>
@@ -16269,7 +16273,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="171" ht="37.5" hidden="1" spans="1:4">
+    <row r="171" ht="40" hidden="1" spans="1:4">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -16308,7 +16312,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:4">
+    <row r="174" ht="23" hidden="1" spans="1:4">
       <c r="A174" s="1">
         <v>0</v>
       </c>
@@ -16322,7 +16326,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="175" ht="37.5" hidden="1" spans="1:4">
+    <row r="175" ht="40" hidden="1" spans="1:4">
       <c r="A175" s="1">
         <v>0</v>
       </c>
@@ -16350,7 +16354,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:4">
+    <row r="177" ht="24" hidden="1" spans="1:4">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -16431,7 +16435,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:4">
+    <row r="183" ht="24" hidden="1" spans="1:4">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -16473,7 +16477,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:4">
+    <row r="186" ht="23" hidden="1" spans="1:4">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -16501,7 +16505,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="2:4">
+    <row r="188" ht="24" hidden="1" spans="2:4">
       <c r="B188" s="1" t="s">
         <v>562</v>
       </c>
@@ -16548,7 +16552,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:4">
+    <row r="192" ht="24" hidden="1" spans="1:4">
       <c r="A192" s="1">
         <v>0</v>
       </c>
@@ -16562,7 +16566,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="2:4">
+    <row r="193" ht="24" hidden="1" spans="2:4">
       <c r="B193" s="1" t="s">
         <v>577</v>
       </c>
@@ -16587,7 +16591,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="2:4">
+    <row r="195" ht="24" hidden="1" spans="2:4">
       <c r="B195" s="1" t="s">
         <v>583</v>
       </c>
@@ -16598,7 +16602,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:4">
+    <row r="196" ht="24" hidden="1" spans="1:4">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -16612,7 +16616,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="197" ht="37.5" hidden="1" spans="2:4">
+    <row r="197" ht="40" hidden="1" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>589</v>
       </c>
@@ -16637,7 +16641,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:4">
+    <row r="199" ht="24" hidden="1" spans="1:4">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -16651,7 +16655,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="200" ht="37.5" hidden="1" spans="1:4">
+    <row r="200" ht="40" hidden="1" spans="1:4">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -16665,7 +16669,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="2:4">
+    <row r="201" ht="23" hidden="1" spans="2:4">
       <c r="B201" s="1" t="s">
         <v>601</v>
       </c>
@@ -16676,7 +16680,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="2:4">
+    <row r="202" ht="23" hidden="1" spans="2:4">
       <c r="B202" s="1" t="s">
         <v>604</v>
       </c>
@@ -16687,7 +16691,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:4">
+    <row r="203" ht="24" hidden="1" spans="1:4">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -16754,7 +16758,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:4">
+    <row r="208" ht="24" hidden="1" spans="1:4">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -16782,7 +16786,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:4">
+    <row r="210" ht="23" hidden="1" spans="1:4">
       <c r="A210" s="1">
         <v>0</v>
       </c>
@@ -16796,7 +16800,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="2:4">
+    <row r="211" ht="23" hidden="1" spans="2:4">
       <c r="B211" s="1" t="s">
         <v>631</v>
       </c>
@@ -16807,7 +16811,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="2:4">
+    <row r="212" ht="23" hidden="1" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>634</v>
       </c>
@@ -16818,7 +16822,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="2:4">
+    <row r="213" ht="24" hidden="1" spans="2:4">
       <c r="B213" s="1" t="s">
         <v>637</v>
       </c>
@@ -16843,7 +16847,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="2:4">
+    <row r="215" ht="24" hidden="1" spans="2:4">
       <c r="B215" s="1" t="s">
         <v>643</v>
       </c>
@@ -16918,7 +16922,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:4">
+    <row r="221" ht="24" hidden="1" spans="1:4">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -16946,7 +16950,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:4">
+    <row r="223" ht="24" hidden="1" spans="1:4">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -16988,7 +16992,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:4">
+    <row r="226" ht="24" hidden="1" spans="1:4">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -17030,7 +17034,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:4">
+    <row r="229" ht="24" hidden="1" spans="1:4">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -17069,7 +17073,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:4">
+    <row r="232" ht="24" hidden="1" spans="1:4">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -17097,7 +17101,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:4">
+    <row r="234" ht="24" hidden="1" spans="1:4">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -17111,7 +17115,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:4">
+    <row r="235" ht="24" hidden="1" spans="1:4">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -17125,7 +17129,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="236" ht="37.5" hidden="1" spans="1:4">
+    <row r="236" ht="40" hidden="1" spans="1:4">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -17242,7 +17246,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="245" ht="37.5" hidden="1" spans="1:4">
+    <row r="245" ht="40" hidden="1" spans="1:4">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -17256,7 +17260,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:4">
+    <row r="246" ht="24" hidden="1" spans="1:4">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -17284,7 +17288,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="248" ht="37.5" hidden="1" spans="2:4">
+    <row r="248" ht="40" hidden="1" spans="2:4">
       <c r="B248" s="1" t="s">
         <v>741</v>
       </c>
@@ -17309,7 +17313,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:4">
+    <row r="250" ht="24" hidden="1" spans="1:4">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -17359,7 +17363,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" ht="37.5" hidden="1" spans="2:4">
+    <row r="254" ht="40" hidden="1" spans="2:4">
       <c r="B254" s="1" t="s">
         <v>759</v>
       </c>
@@ -17395,7 +17399,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="2:4">
+    <row r="257" ht="24" hidden="1" spans="2:4">
       <c r="B257" s="1" t="s">
         <v>768</v>
       </c>
@@ -17406,7 +17410,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" ht="37.5" hidden="1" spans="1:4">
+    <row r="258" ht="40" hidden="1" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -17420,7 +17424,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:4">
+    <row r="259" ht="23" hidden="1" spans="1:4">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -17456,7 +17460,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:4">
+    <row r="262" ht="24" hidden="1" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -17498,7 +17502,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:4">
+    <row r="265" ht="24" hidden="1" spans="1:4">
       <c r="A265" s="1">
         <v>0</v>
       </c>
@@ -17526,7 +17530,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:4">
+    <row r="267" ht="24" hidden="1" spans="1:4">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -17540,7 +17544,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="2:4">
+    <row r="268" ht="23" hidden="1" spans="2:4">
       <c r="B268" s="1" t="s">
         <v>801</v>
       </c>
@@ -17565,7 +17569,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="2:4">
+    <row r="270" ht="23" hidden="1" spans="2:4">
       <c r="B270" s="1" t="s">
         <v>807</v>
       </c>
@@ -17587,7 +17591,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:4">
+    <row r="272" ht="24" hidden="1" spans="1:4">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -17601,7 +17605,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:4">
+    <row r="273" ht="23" hidden="1" spans="1:4">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -17629,7 +17633,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="2:4">
+    <row r="275" ht="23" hidden="1" spans="2:4">
       <c r="B275" s="1" t="s">
         <v>822</v>
       </c>
@@ -17640,7 +17644,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="276" ht="37.5" hidden="1" spans="1:4">
+    <row r="276" ht="40" hidden="1" spans="1:4">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -17693,7 +17697,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:4">
+    <row r="280" ht="23" hidden="1" spans="1:4">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -17718,7 +17722,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:4">
+    <row r="282" ht="24" hidden="1" spans="1:4">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -17732,7 +17736,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="2:4">
+    <row r="283" ht="24" hidden="1" spans="2:4">
       <c r="B283" s="1" t="s">
         <v>846</v>
       </c>
@@ -17743,7 +17747,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="284" ht="37.5" hidden="1" spans="2:4">
+    <row r="284" ht="40" hidden="1" spans="2:4">
       <c r="B284" s="1" t="s">
         <v>849</v>
       </c>
@@ -17765,7 +17769,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:4">
+    <row r="286" ht="24" hidden="1" spans="1:4">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -17779,7 +17783,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="287" ht="37.5" hidden="1" spans="1:4">
+    <row r="287" ht="40" hidden="1" spans="1:4">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -17793,7 +17797,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="2:4">
+    <row r="288" ht="24" hidden="1" spans="2:4">
       <c r="B288" s="1" t="s">
         <v>861</v>
       </c>
@@ -17804,7 +17808,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="2:4">
+    <row r="289" ht="24" hidden="1" spans="2:4">
       <c r="B289" s="1" t="s">
         <v>864</v>
       </c>
@@ -17815,7 +17819,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="2:4">
+    <row r="290" ht="24" hidden="1" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>867</v>
       </c>
@@ -17826,7 +17830,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:4">
+    <row r="291" ht="24" hidden="1" spans="1:4">
       <c r="A291" s="1">
         <v>0</v>
       </c>
@@ -17840,7 +17844,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="2:4">
+    <row r="292" ht="24" hidden="1" spans="2:4">
       <c r="B292" s="1" t="s">
         <v>873</v>
       </c>
@@ -17851,7 +17855,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="2:4">
+    <row r="293" ht="24" hidden="1" spans="2:4">
       <c r="B293" s="1" t="s">
         <v>876</v>
       </c>
@@ -17890,7 +17894,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="296" ht="37.5" hidden="1" spans="1:4">
+    <row r="296" ht="40" hidden="1" spans="1:4">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -17932,7 +17936,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="299" ht="37.5" hidden="1" spans="1:4">
+    <row r="299" ht="40" hidden="1" spans="1:4">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -17946,7 +17950,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="300" ht="37.5" hidden="1" spans="2:4">
+    <row r="300" ht="40" hidden="1" spans="2:4">
       <c r="B300" s="1" t="s">
         <v>897</v>
       </c>
@@ -17957,7 +17961,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="2:4">
+    <row r="301" ht="24" hidden="1" spans="2:4">
       <c r="B301" s="1" t="s">
         <v>900</v>
       </c>
@@ -17968,7 +17972,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="2:4">
+    <row r="302" ht="23" hidden="1" spans="2:4">
       <c r="B302" s="1" t="s">
         <v>903</v>
       </c>
@@ -17990,7 +17994,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="2:4">
+    <row r="304" ht="23" hidden="1" spans="2:4">
       <c r="B304" s="1" t="s">
         <v>909</v>
       </c>
@@ -18001,7 +18005,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="2:4">
+    <row r="305" ht="24" hidden="1" spans="2:4">
       <c r="B305" s="1" t="s">
         <v>912</v>
       </c>
@@ -18012,7 +18016,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="2:4">
+    <row r="306" ht="24" hidden="1" spans="2:4">
       <c r="B306" s="1" t="s">
         <v>915</v>
       </c>
@@ -18034,7 +18038,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="2:4">
+    <row r="308" ht="24" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>921</v>
       </c>
@@ -18045,7 +18049,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="309" ht="37.5" hidden="1" spans="1:4">
+    <row r="309" ht="40" hidden="1" spans="1:4">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -18059,7 +18063,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="2:4">
+    <row r="310" ht="24" hidden="1" spans="2:4">
       <c r="B310" s="1" t="s">
         <v>927</v>
       </c>
@@ -18070,7 +18074,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="311" ht="37.5" hidden="1" spans="2:4">
+    <row r="311" ht="40" hidden="1" spans="2:4">
       <c r="B311" s="1" t="s">
         <v>930</v>
       </c>
@@ -18081,7 +18085,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="2:4">
+    <row r="312" ht="24" hidden="1" spans="2:4">
       <c r="B312" s="1" t="s">
         <v>933</v>
       </c>
@@ -18103,7 +18107,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="314" ht="37.5" hidden="1" spans="1:4">
+    <row r="314" ht="40" hidden="1" spans="1:4">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -18117,7 +18121,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="315" ht="37.5" hidden="1" spans="1:4">
+    <row r="315" ht="40" hidden="1" spans="1:4">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -18131,7 +18135,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="2:4">
+    <row r="316" ht="24" hidden="1" spans="2:4">
       <c r="B316" s="1" t="s">
         <v>945</v>
       </c>
@@ -18181,7 +18185,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="320" ht="37.5" hidden="1" spans="1:4">
+    <row r="320" ht="40" hidden="1" spans="1:4">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -18234,7 +18238,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="2:4">
+    <row r="324" ht="24" hidden="1" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>969</v>
       </c>
@@ -18245,7 +18249,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="2:4">
+    <row r="325" ht="24" hidden="1" spans="2:4">
       <c r="B325" s="1" t="s">
         <v>972</v>
       </c>
@@ -18267,7 +18271,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="327" ht="37.5" hidden="1" spans="2:4">
+    <row r="327" ht="40" hidden="1" spans="2:4">
       <c r="B327" s="1" t="s">
         <v>978</v>
       </c>
@@ -18289,7 +18293,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="2:4">
+    <row r="329" ht="24" hidden="1" spans="2:4">
       <c r="B329" s="1" t="s">
         <v>984</v>
       </c>
@@ -18311,7 +18315,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="2:4">
+    <row r="331" ht="24" hidden="1" spans="2:4">
       <c r="B331" s="1" t="s">
         <v>990</v>
       </c>
@@ -18336,7 +18340,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:4">
+    <row r="333" ht="24" hidden="1" spans="1:4">
       <c r="A333" s="1">
         <v>0</v>
       </c>
@@ -18350,7 +18354,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="2:4">
+    <row r="334" ht="40" hidden="1" spans="2:4">
       <c r="B334" s="1" t="s">
         <v>999</v>
       </c>
@@ -18361,7 +18365,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="2:4">
+    <row r="335" ht="24" hidden="1" spans="2:4">
       <c r="B335" s="1" t="s">
         <v>1002</v>
       </c>
@@ -18372,7 +18376,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="336" ht="37.5" hidden="1" spans="1:4">
+    <row r="336" ht="40" hidden="1" spans="1:4">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -18386,7 +18390,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="337" ht="37.5" hidden="1" spans="2:4">
+    <row r="337" ht="40" hidden="1" spans="2:4">
       <c r="B337" s="1" t="s">
         <v>1008</v>
       </c>
@@ -18397,7 +18401,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="2:4">
+    <row r="338" ht="24" hidden="1" spans="2:4">
       <c r="B338" s="1" t="s">
         <v>1011</v>
       </c>
@@ -18436,7 +18440,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:4">
+    <row r="341" ht="24" hidden="1" spans="1:4">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -18450,7 +18454,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:4">
+    <row r="342" ht="24" hidden="1" spans="1:4">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -18464,7 +18468,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="2:4">
+    <row r="343" ht="24" hidden="1" spans="2:4">
       <c r="B343" s="1" t="s">
         <v>1026</v>
       </c>
@@ -18475,7 +18479,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="2:4">
+    <row r="344" ht="23" hidden="1" spans="2:4">
       <c r="B344" s="1" t="s">
         <v>1029</v>
       </c>
@@ -18486,7 +18490,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="345" ht="56.25" hidden="1" spans="1:4">
+    <row r="345" ht="60" hidden="1" spans="1:4">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -18500,7 +18504,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:4">
+    <row r="346" ht="23" hidden="1" spans="1:4">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -18528,7 +18532,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:4">
+    <row r="348" ht="24" hidden="1" spans="1:4">
       <c r="A348" s="1">
         <v>0</v>
       </c>
@@ -18595,7 +18599,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="353" ht="37.5" hidden="1" spans="1:4">
+    <row r="353" ht="40" hidden="1" spans="1:4">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -18662,7 +18666,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="2:4">
+    <row r="358" ht="24" hidden="1" spans="2:4">
       <c r="B358" s="1" t="s">
         <v>1071</v>
       </c>
@@ -18687,7 +18691,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:4">
+    <row r="360" ht="24" hidden="1" spans="1:4">
       <c r="A360" s="1">
         <v>0</v>
       </c>
@@ -18701,7 +18705,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:4">
+    <row r="361" ht="24" hidden="1" spans="1:4">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -18715,7 +18719,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="2:4">
+    <row r="362" ht="24" hidden="1" spans="2:4">
       <c r="B362" s="1" t="s">
         <v>1083</v>
       </c>
@@ -18726,7 +18730,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:4">
+    <row r="363" ht="23" hidden="1" spans="1:4">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -18754,7 +18758,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="2:4">
+    <row r="365" ht="24" hidden="1" spans="2:4">
       <c r="B365" s="1" t="s">
         <v>1092</v>
       </c>
@@ -18765,7 +18769,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:4">
+    <row r="366" ht="24" hidden="1" spans="1:4">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -18807,7 +18811,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="369" ht="37.5" hidden="1" spans="1:4">
+    <row r="369" ht="40" hidden="1" spans="1:4">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -18821,7 +18825,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:4">
+    <row r="370" ht="24" hidden="1" spans="1:4">
       <c r="A370" s="1">
         <v>0</v>
       </c>
@@ -18835,7 +18839,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:4">
+    <row r="371" ht="24" hidden="1" spans="1:4">
       <c r="A371" s="1">
         <v>0</v>
       </c>
@@ -18888,7 +18892,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="375" ht="37.5" hidden="1" spans="1:4">
+    <row r="375" ht="40" hidden="1" spans="1:4">
       <c r="A375" s="1">
         <v>0</v>
       </c>
@@ -18938,7 +18942,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="2:4">
+    <row r="379" ht="23" hidden="1" spans="2:4">
       <c r="B379" s="1" t="s">
         <v>1134</v>
       </c>
@@ -18949,7 +18953,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:4">
+    <row r="380" ht="24" hidden="1" spans="1:4">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -18991,7 +18995,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:4">
+    <row r="383" ht="24" hidden="1" spans="1:4">
       <c r="A383" s="1">
         <v>0</v>
       </c>
@@ -19005,7 +19009,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="384" ht="37.5" hidden="1" spans="1:4">
+    <row r="384" ht="40" hidden="1" spans="1:4">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -19019,7 +19023,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="385" ht="37.5" hidden="1" spans="1:4">
+    <row r="385" ht="40" hidden="1" spans="1:4">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -19072,7 +19076,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="2:4">
+    <row r="389" ht="24" hidden="1" spans="2:4">
       <c r="B389" s="1" t="s">
         <v>1164</v>
       </c>
@@ -19083,7 +19087,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:4">
+    <row r="390" ht="24" hidden="1" spans="1:4">
       <c r="A390" s="1">
         <v>0</v>
       </c>
@@ -19111,7 +19115,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="392" ht="37.5" hidden="1" spans="1:4">
+    <row r="392" ht="40" hidden="1" spans="1:4">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -19139,7 +19143,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="2:4">
+    <row r="394" ht="24" hidden="1" spans="2:4">
       <c r="B394" s="1" t="s">
         <v>1179</v>
       </c>
@@ -19150,7 +19154,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="2:4">
+    <row r="395" ht="24" hidden="1" spans="2:4">
       <c r="B395" s="1" t="s">
         <v>1182</v>
       </c>
@@ -19172,7 +19176,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="2:4">
+    <row r="397" ht="24" hidden="1" spans="2:4">
       <c r="B397" s="1" t="s">
         <v>1188</v>
       </c>
@@ -19211,7 +19215,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:4">
+    <row r="400" ht="24" hidden="1" spans="1:4">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -19225,7 +19229,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="401" ht="37.5" hidden="1" spans="1:4">
+    <row r="401" ht="40" hidden="1" spans="1:4">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -19239,7 +19243,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:4">
+    <row r="402" ht="23" hidden="1" spans="1:4">
       <c r="A402" s="1">
         <v>0</v>
       </c>
@@ -19253,7 +19257,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="403" ht="37.5" hidden="1" spans="2:4">
+    <row r="403" ht="48" hidden="1" spans="2:4">
       <c r="B403" s="1" t="s">
         <v>1206</v>
       </c>
@@ -19264,7 +19268,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="2:4">
+    <row r="404" ht="23" hidden="1" spans="2:4">
       <c r="B404" s="1" t="s">
         <v>1209</v>
       </c>
@@ -19275,7 +19279,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="2:4">
+    <row r="405" ht="23" hidden="1" spans="2:4">
       <c r="B405" s="1" t="s">
         <v>1212</v>
       </c>
@@ -19286,7 +19290,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="2:4">
+    <row r="406" ht="24" hidden="1" spans="2:4">
       <c r="B406" s="1" t="s">
         <v>1215</v>
       </c>
@@ -19311,7 +19315,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="2:4">
+    <row r="408" ht="24" hidden="1" spans="2:4">
       <c r="B408" s="1" t="s">
         <v>1221</v>
       </c>
@@ -19333,7 +19337,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:4">
+    <row r="410" ht="24" hidden="1" spans="1:4">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -19358,7 +19362,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="2:4">
+    <row r="412" ht="24" hidden="1" spans="2:4">
       <c r="B412" s="1" t="s">
         <v>1233</v>
       </c>
@@ -19383,7 +19387,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="2:4">
+    <row r="414" ht="23" hidden="1" spans="2:4">
       <c r="B414" s="1" t="s">
         <v>1239</v>
       </c>
@@ -19405,7 +19409,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="2:4">
+    <row r="416" ht="24" hidden="1" spans="2:4">
       <c r="B416" s="1" t="s">
         <v>1245</v>
       </c>
@@ -19416,7 +19420,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:4">
+    <row r="417" ht="24" hidden="1" spans="1:4">
       <c r="A417" s="1">
         <v>0</v>
       </c>
@@ -19441,7 +19445,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="2:4">
+    <row r="419" ht="24" hidden="1" spans="2:4">
       <c r="B419" s="1" t="s">
         <v>1254</v>
       </c>
@@ -19488,7 +19492,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="2:4">
+    <row r="423" ht="23" hidden="1" spans="2:4">
       <c r="B423" s="1" t="s">
         <v>1266</v>
       </c>
@@ -19499,7 +19503,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="2:4">
+    <row r="424" ht="23" hidden="1" spans="2:4">
       <c r="B424" s="1" t="s">
         <v>1269</v>
       </c>
@@ -19510,7 +19514,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:4">
+    <row r="425" ht="23" hidden="1" spans="1:4">
       <c r="A425" s="1">
         <v>0</v>
       </c>
@@ -19535,7 +19539,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="427" ht="37.5" hidden="1" spans="2:4">
+    <row r="427" ht="40" hidden="1" spans="2:4">
       <c r="B427" s="1" t="s">
         <v>1278</v>
       </c>
@@ -19546,7 +19550,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:4">
+    <row r="428" ht="23" hidden="1" spans="1:4">
       <c r="A428" s="1">
         <v>0</v>
       </c>
@@ -19560,7 +19564,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="2:4">
+    <row r="429" ht="24" hidden="1" spans="2:4">
       <c r="B429" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19571,7 +19575,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:4">
+    <row r="430" ht="24" hidden="1" spans="1:4">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -19621,7 +19625,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="434" ht="37.5" hidden="1" spans="2:4">
+    <row r="434" ht="40" hidden="1" spans="2:4">
       <c r="B434" s="1" t="s">
         <v>1299</v>
       </c>
@@ -19660,7 +19664,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="437" ht="37.5" hidden="1" spans="1:4">
+    <row r="437" ht="40" hidden="1" spans="1:4">
       <c r="A437" s="1">
         <v>0</v>
       </c>
@@ -19696,7 +19700,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="2:4">
+    <row r="440" ht="24" hidden="1" spans="2:4">
       <c r="B440" s="1" t="s">
         <v>1317</v>
       </c>
@@ -19707,7 +19711,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="2:4">
+    <row r="441" ht="24" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1320</v>
       </c>
@@ -19729,7 +19733,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="2:4">
+    <row r="443" ht="24" hidden="1" spans="2:4">
       <c r="B443" s="1" t="s">
         <v>1326</v>
       </c>
@@ -19740,7 +19744,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="2:4">
+    <row r="444" ht="23" hidden="1" spans="2:4">
       <c r="B444" s="1" t="s">
         <v>1329</v>
       </c>
@@ -19751,7 +19755,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="2:4">
+    <row r="445" ht="24" hidden="1" spans="2:4">
       <c r="B445" s="1" t="s">
         <v>1332</v>
       </c>
@@ -19790,7 +19794,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="2:4">
+    <row r="448" ht="23" hidden="1" spans="2:4">
       <c r="B448" s="1" t="s">
         <v>1341</v>
       </c>
@@ -19840,7 +19844,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="2:4">
+    <row r="452" ht="24" hidden="1" spans="2:4">
       <c r="B452" s="1" t="s">
         <v>1353</v>
       </c>
@@ -19851,7 +19855,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="2:4">
+    <row r="453" ht="24" hidden="1" spans="2:4">
       <c r="B453" s="1" t="s">
         <v>1356</v>
       </c>
@@ -19887,7 +19891,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="456" ht="37.5" hidden="1" spans="1:4">
+    <row r="456" ht="40" hidden="1" spans="1:4">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -19912,7 +19916,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="2:4">
+    <row r="458" ht="24" hidden="1" spans="2:4">
       <c r="B458" s="1" t="s">
         <v>1371</v>
       </c>
@@ -19948,7 +19952,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="2:4">
+    <row r="461" ht="24" hidden="1" spans="2:4">
       <c r="B461" s="1" t="s">
         <v>1380</v>
       </c>
@@ -19959,7 +19963,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="2:4">
+    <row r="462" ht="24" hidden="1" spans="2:4">
       <c r="B462" s="1" t="s">
         <v>1383</v>
       </c>
@@ -19970,7 +19974,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="2:4">
+    <row r="463" ht="24" hidden="1" spans="2:4">
       <c r="B463" s="1" t="s">
         <v>1386</v>
       </c>
@@ -19981,7 +19985,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:4">
+    <row r="464" ht="23" hidden="1" spans="1:4">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -20017,7 +20021,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="467" ht="37.5" hidden="1" spans="2:4">
+    <row r="467" ht="40" hidden="1" spans="2:4">
       <c r="B467" s="1" t="s">
         <v>1398</v>
       </c>
@@ -20042,7 +20046,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="2:4">
+    <row r="469" ht="23" hidden="1" spans="2:4">
       <c r="B469" s="1" t="s">
         <v>1404</v>
       </c>
@@ -20081,7 +20085,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:4">
+    <row r="472" ht="24" hidden="1" spans="1:4">
       <c r="A472" s="1">
         <v>0</v>
       </c>
@@ -20134,7 +20138,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:4">
+    <row r="476" ht="23" hidden="1" spans="1:4">
       <c r="A476" s="1">
         <v>0</v>
       </c>
@@ -20148,7 +20152,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="2:4">
+    <row r="477" ht="23" hidden="1" spans="2:4">
       <c r="B477" s="1" t="s">
         <v>1428</v>
       </c>
@@ -20159,7 +20163,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:4">
+    <row r="478" ht="24" hidden="1" spans="1:4">
       <c r="A478" s="1">
         <v>0</v>
       </c>
@@ -20173,7 +20177,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:4">
+    <row r="479" ht="24" hidden="1" spans="1:4">
       <c r="A479" s="1">
         <v>0</v>
       </c>
@@ -20198,7 +20202,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="2:4">
+    <row r="481" ht="24" hidden="1" spans="2:4">
       <c r="B481" s="1" t="s">
         <v>1440</v>
       </c>
@@ -20209,7 +20213,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="2:4">
+    <row r="482" ht="24" hidden="1" spans="2:4">
       <c r="B482" s="1" t="s">
         <v>1443</v>
       </c>
@@ -20220,7 +20224,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="2:4">
+    <row r="483" ht="24" hidden="1" spans="2:4">
       <c r="B483" s="1" t="s">
         <v>1446</v>
       </c>
@@ -20245,7 +20249,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="485" ht="37.5" hidden="1" spans="1:4">
+    <row r="485" ht="40" hidden="1" spans="1:4">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -20259,7 +20263,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:4">
+    <row r="486" ht="24" hidden="1" spans="1:4">
       <c r="A486" s="1">
         <v>0</v>
       </c>
@@ -20284,7 +20288,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:4">
+    <row r="488" ht="24" hidden="1" spans="1:4">
       <c r="A488" s="1">
         <v>0</v>
       </c>
@@ -20309,7 +20313,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="2:4">
+    <row r="490" ht="24" hidden="1" spans="2:4">
       <c r="B490" s="1" t="s">
         <v>1467</v>
       </c>
@@ -20334,7 +20338,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="1:4">
+    <row r="492" ht="24" hidden="1" spans="1:4">
       <c r="A492" s="1">
         <v>0</v>
       </c>
@@ -20362,7 +20366,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="2:4">
+    <row r="494" ht="24" hidden="1" spans="2:4">
       <c r="B494" s="1" t="s">
         <v>1479</v>
       </c>
@@ -20384,7 +20388,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:4">
+    <row r="496" ht="24" hidden="1" spans="1:4">
       <c r="A496" s="1">
         <v>0</v>
       </c>
@@ -20398,7 +20402,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="2:4">
+    <row r="497" ht="24" hidden="1" spans="2:4">
       <c r="B497" s="1" t="s">
         <v>1488</v>
       </c>
@@ -20423,7 +20427,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="2:4">
+    <row r="499" ht="24" hidden="1" spans="2:4">
       <c r="B499" s="1" t="s">
         <v>1494</v>
       </c>
@@ -20434,7 +20438,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:4">
+    <row r="500" ht="24" hidden="1" spans="1:4">
       <c r="A500" s="1">
         <v>0</v>
       </c>
@@ -20459,7 +20463,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="502" ht="37.5" hidden="1" spans="1:4">
+    <row r="502" ht="40" hidden="1" spans="1:4">
       <c r="A502" s="1">
         <v>0</v>
       </c>
@@ -20473,7 +20477,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:4">
+    <row r="503" ht="24" hidden="1" spans="1:4">
       <c r="A503" s="1">
         <v>0</v>
       </c>
@@ -20487,7 +20491,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="2:4">
+    <row r="504" ht="24" hidden="1" spans="2:4">
       <c r="B504" s="1" t="s">
         <v>1509</v>
       </c>
@@ -20498,7 +20502,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="505" ht="56.25" hidden="1" spans="1:4">
+    <row r="505" ht="60" hidden="1" spans="1:4">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -20512,7 +20516,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:4">
+    <row r="506" ht="24" hidden="1" spans="1:4">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -20554,7 +20558,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:4">
+    <row r="509" ht="23" hidden="1" spans="1:4">
       <c r="A509" s="1">
         <v>0</v>
       </c>
@@ -20579,7 +20583,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:4">
+    <row r="511" ht="24" hidden="1" spans="1:4">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -20607,7 +20611,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:4">
+    <row r="513" ht="24" hidden="1" spans="1:4">
       <c r="A513" s="1">
         <v>0</v>
       </c>
@@ -20621,7 +20625,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:4">
+    <row r="514" ht="24" hidden="1" spans="1:4">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -20663,7 +20667,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="2:4">
+    <row r="517" ht="23" hidden="1" spans="2:4">
       <c r="B517" s="1" t="s">
         <v>1548</v>
       </c>
@@ -20674,7 +20678,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:4">
+    <row r="518" ht="23" hidden="1" spans="1:4">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -20688,7 +20692,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="519" ht="37.5" hidden="1" spans="1:4">
+    <row r="519" ht="40" hidden="1" spans="1:4">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -20738,7 +20742,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:4">
+    <row r="523" ht="23" hidden="1" spans="1:4">
       <c r="A523" s="1">
         <v>0</v>
       </c>
@@ -20752,7 +20756,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:4">
+    <row r="524" ht="23" hidden="1" spans="1:4">
       <c r="A524" s="1">
         <v>0</v>
       </c>
@@ -20780,7 +20784,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="2:4">
+    <row r="526" ht="24" hidden="1" spans="2:4">
       <c r="B526" s="1" t="s">
         <v>1574</v>
       </c>
@@ -20805,7 +20809,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:4">
+    <row r="528" ht="24" hidden="1" spans="1:4">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -20833,7 +20837,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:4">
+    <row r="530" ht="24" hidden="1" spans="1:4">
       <c r="A530" s="1">
         <v>0</v>
       </c>
@@ -20869,7 +20873,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:4">
+    <row r="533" ht="24" hidden="1" spans="1:4">
       <c r="A533" s="1">
         <v>0</v>
       </c>
@@ -20897,7 +20901,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="535" hidden="1" spans="2:4">
+    <row r="535" ht="24" hidden="1" spans="2:4">
       <c r="B535" s="1" t="s">
         <v>1601</v>
       </c>
@@ -20908,7 +20912,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:4">
+    <row r="536" ht="23" hidden="1" spans="1:4">
       <c r="A536" s="1">
         <v>0</v>
       </c>
@@ -20933,7 +20937,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:4">
+    <row r="538" ht="24" hidden="1" spans="1:4">
       <c r="A538" s="1">
         <v>0</v>
       </c>
@@ -20961,7 +20965,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:4">
+    <row r="540" ht="23" hidden="1" spans="1:4">
       <c r="A540" s="1">
         <v>0</v>
       </c>
@@ -20989,7 +20993,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:4">
+    <row r="542" ht="24" hidden="1" spans="1:4">
       <c r="A542" s="1">
         <v>0</v>
       </c>
@@ -21014,7 +21018,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="2:4">
+    <row r="544" ht="24" hidden="1" spans="2:4">
       <c r="B544" s="1" t="s">
         <v>1628</v>
       </c>
@@ -21050,7 +21054,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="547" ht="37.5" hidden="1" spans="2:4">
+    <row r="547" ht="40" hidden="1" spans="2:4">
       <c r="B547" s="1" t="s">
         <v>1637</v>
       </c>
@@ -21086,7 +21090,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="1:4">
+    <row r="550" ht="24" hidden="1" spans="1:4">
       <c r="A550" s="1">
         <v>0</v>
       </c>
@@ -21111,7 +21115,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="552" hidden="1" spans="1:4">
+    <row r="552" ht="24" hidden="1" spans="1:4">
       <c r="A552" s="1">
         <v>0</v>
       </c>
@@ -21153,7 +21157,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="1:4">
+    <row r="555" ht="24" hidden="1" spans="1:4">
       <c r="A555" s="1">
         <v>0</v>
       </c>
@@ -21178,7 +21182,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:4">
+    <row r="557" ht="24" hidden="1" spans="1:4">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -21206,7 +21210,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="2:4">
+    <row r="559" ht="24" hidden="1" spans="2:4">
       <c r="B559" s="1" t="s">
         <v>1673</v>
       </c>
@@ -21217,7 +21221,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="560" ht="37.5" hidden="1" spans="2:4">
+    <row r="560" ht="40" hidden="1" spans="2:4">
       <c r="B560" s="1" t="s">
         <v>1676</v>
       </c>
@@ -21228,7 +21232,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="2:4">
+    <row r="561" ht="24" hidden="1" spans="2:4">
       <c r="B561" s="1" t="s">
         <v>1679</v>
       </c>
@@ -21253,7 +21257,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="1:4">
+    <row r="563" ht="24" hidden="1" spans="1:4">
       <c r="A563" s="1">
         <v>0</v>
       </c>
@@ -21267,7 +21271,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="564" hidden="1" spans="1:4">
+    <row r="564" ht="24" hidden="1" spans="1:4">
       <c r="A564" s="1">
         <v>0</v>
       </c>
@@ -21331,7 +21335,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="569" hidden="1" spans="2:4">
+    <row r="569" ht="23" hidden="1" spans="2:4">
       <c r="B569" s="1" t="s">
         <v>1703</v>
       </c>
@@ -21356,7 +21360,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="2:4">
+    <row r="571" ht="24" hidden="1" spans="2:4">
       <c r="B571" s="1" t="s">
         <v>1709</v>
       </c>
@@ -21367,7 +21371,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="2:4">
+    <row r="572" ht="24" hidden="1" spans="2:4">
       <c r="B572" s="1" t="s">
         <v>1712</v>
       </c>
@@ -21389,7 +21393,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="2:4">
+    <row r="574" ht="24" hidden="1" spans="2:4">
       <c r="B574" s="1" t="s">
         <v>1718</v>
       </c>
@@ -21411,7 +21415,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="2:4">
+    <row r="576" ht="24" hidden="1" spans="2:4">
       <c r="B576" s="1" t="s">
         <v>1724</v>
       </c>
@@ -21450,7 +21454,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="1:4">
+    <row r="579" ht="23" hidden="1" spans="1:4">
       <c r="A579" s="1">
         <v>0</v>
       </c>
@@ -21500,7 +21504,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="583" hidden="1" spans="2:4">
+    <row r="583" ht="23" hidden="1" spans="2:4">
       <c r="B583" s="1" t="s">
         <v>1745</v>
       </c>
@@ -21525,7 +21529,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="585" hidden="1" spans="2:4">
+    <row r="585" ht="24" hidden="1" spans="2:4">
       <c r="B585" s="1" t="s">
         <v>1751</v>
       </c>
@@ -21586,7 +21590,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:4">
+    <row r="590" ht="24" hidden="1" spans="1:4">
       <c r="A590" s="1">
         <v>0</v>
       </c>
@@ -21600,7 +21604,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="591" hidden="1" spans="1:4">
+    <row r="591" ht="24" hidden="1" spans="1:4">
       <c r="A591" s="1">
         <v>0</v>
       </c>
@@ -21628,7 +21632,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="2:4">
+    <row r="593" ht="23" hidden="1" spans="2:4">
       <c r="B593" s="1" t="s">
         <v>1775</v>
       </c>
@@ -21639,7 +21643,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="594" hidden="1" spans="2:4">
+    <row r="594" ht="24" hidden="1" spans="2:4">
       <c r="B594" s="1" t="s">
         <v>1778</v>
       </c>
@@ -21661,7 +21665,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="596" ht="37.5" hidden="1" spans="1:4">
+    <row r="596" ht="40" hidden="1" spans="1:4">
       <c r="A596" s="1">
         <v>0</v>
       </c>
@@ -21675,7 +21679,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="1:4">
+    <row r="597" ht="24" hidden="1" spans="1:4">
       <c r="A597" s="1">
         <v>0</v>
       </c>
@@ -21703,7 +21707,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="599" hidden="1" spans="2:4">
+    <row r="599" ht="24" hidden="1" spans="2:4">
       <c r="B599" s="1" t="s">
         <v>1793</v>
       </c>
@@ -21714,7 +21718,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:4">
+    <row r="600" ht="24" hidden="1" spans="1:4">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -21739,7 +21743,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="602" hidden="1" spans="2:4">
+    <row r="602" ht="24" hidden="1" spans="2:4">
       <c r="B602" s="1" t="s">
         <v>1802</v>
       </c>
@@ -21750,7 +21754,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="603" hidden="1" spans="1:4">
+    <row r="603" ht="24" hidden="1" spans="1:4">
       <c r="A603" s="1">
         <v>0</v>
       </c>
@@ -21775,7 +21779,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="605" hidden="1" spans="1:4">
+    <row r="605" ht="24" hidden="1" spans="1:4">
       <c r="A605" s="1">
         <v>0</v>
       </c>
@@ -21800,7 +21804,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="2:4">
+    <row r="607" ht="24" hidden="1" spans="2:4">
       <c r="B607" s="1" t="s">
         <v>1817</v>
       </c>
@@ -21886,7 +21890,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="614" hidden="1" spans="1:4">
+    <row r="614" ht="24" hidden="1" spans="1:4">
       <c r="A614" s="1">
         <v>0</v>
       </c>
@@ -21900,7 +21904,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="615" hidden="1" spans="2:4">
+    <row r="615" ht="24" hidden="1" spans="2:4">
       <c r="B615" s="1" t="s">
         <v>1841</v>
       </c>
@@ -21911,7 +21915,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="616" hidden="1" spans="2:4">
+    <row r="616" ht="24" hidden="1" spans="2:4">
       <c r="B616" s="1" t="s">
         <v>1844</v>
       </c>
@@ -21922,7 +21926,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="617" hidden="1" spans="1:4">
+    <row r="617" ht="23" hidden="1" spans="1:4">
       <c r="A617" s="1">
         <v>0</v>
       </c>
@@ -21950,7 +21954,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="619" hidden="1" spans="2:4">
+    <row r="619" ht="24" hidden="1" spans="2:4">
       <c r="B619" s="1" t="s">
         <v>1853</v>
       </c>
@@ -21986,7 +21990,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="622" hidden="1" spans="2:4">
+    <row r="622" ht="24" hidden="1" spans="2:4">
       <c r="B622" s="1" t="s">
         <v>1862</v>
       </c>
@@ -21997,7 +22001,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="1:4">
+    <row r="623" ht="24" hidden="1" spans="1:4">
       <c r="A623" s="1">
         <v>0</v>
       </c>
@@ -22022,7 +22026,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="625" ht="37.5" hidden="1" spans="1:4">
+    <row r="625" ht="40" hidden="1" spans="1:4">
       <c r="A625" s="1">
         <v>0</v>
       </c>
@@ -22050,7 +22054,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="1:4">
+    <row r="627" ht="24" hidden="1" spans="1:4">
       <c r="A627" s="1">
         <v>0</v>
       </c>
@@ -22078,7 +22082,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="2:4">
+    <row r="629" ht="24" hidden="1" spans="2:4">
       <c r="B629" s="1" t="s">
         <v>1883</v>
       </c>
@@ -22089,7 +22093,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="630" hidden="1" spans="2:4">
+    <row r="630" ht="24" hidden="1" spans="2:4">
       <c r="B630" s="1" t="s">
         <v>1886</v>
       </c>
@@ -22100,7 +22104,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="631" ht="37.5" hidden="1" spans="1:4">
+    <row r="631" ht="40" hidden="1" spans="1:4">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -22128,7 +22132,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="633" hidden="1" spans="2:4">
+    <row r="633" ht="24" hidden="1" spans="2:4">
       <c r="B633" s="1" t="s">
         <v>1895</v>
       </c>
@@ -22164,7 +22168,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:4">
+    <row r="636" ht="24" hidden="1" spans="1:4">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -22178,7 +22182,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="1:4">
+    <row r="637" ht="24" hidden="1" spans="1:4">
       <c r="A637" s="1">
         <v>0</v>
       </c>
@@ -22192,7 +22196,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="1:4">
+    <row r="638" ht="24" hidden="1" spans="1:4">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -22256,7 +22260,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="643" hidden="1" spans="1:4">
+    <row r="643" ht="24" hidden="1" spans="1:4">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -22281,7 +22285,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="1:4">
+    <row r="645" ht="24" hidden="1" spans="1:4">
       <c r="A645" s="1">
         <v>0</v>
       </c>
@@ -22295,7 +22299,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="646" hidden="1" spans="2:4">
+    <row r="646" ht="24" hidden="1" spans="2:4">
       <c r="B646" s="1" t="s">
         <v>1934</v>
       </c>
@@ -22317,7 +22321,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="1:4">
+    <row r="648" ht="23" hidden="1" spans="1:4">
       <c r="A648" s="1">
         <v>0</v>
       </c>
@@ -22331,7 +22335,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="649" ht="37.5" hidden="1" spans="1:4">
+    <row r="649" ht="40" hidden="1" spans="1:4">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -22373,7 +22377,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="652" hidden="1" spans="2:4">
+    <row r="652" ht="24" hidden="1" spans="2:4">
       <c r="B652" s="1" t="s">
         <v>1952</v>
       </c>
@@ -22431,7 +22435,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="657" hidden="1" spans="1:4">
+    <row r="657" ht="24" hidden="1" spans="1:4">
       <c r="A657" s="1">
         <v>0</v>
       </c>
@@ -22445,7 +22449,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="658" ht="37.5" hidden="1" spans="1:4">
+    <row r="658" ht="40" hidden="1" spans="1:4">
       <c r="A658" s="1">
         <v>0</v>
       </c>
@@ -22501,7 +22505,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="662" hidden="1" spans="1:4">
+    <row r="662" ht="24" hidden="1" spans="1:4">
       <c r="A662" s="1">
         <v>0</v>
       </c>
@@ -22515,7 +22519,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="663" ht="37.5" hidden="1" spans="1:4">
+    <row r="663" ht="40" hidden="1" spans="1:4">
       <c r="A663" s="1">
         <v>0</v>
       </c>
@@ -22529,7 +22533,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="664" hidden="1" spans="1:4">
+    <row r="664" ht="24" hidden="1" spans="1:4">
       <c r="A664" s="1">
         <v>0</v>
       </c>
@@ -22557,7 +22561,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="666" hidden="1" spans="1:4">
+    <row r="666" ht="24" hidden="1" spans="1:4">
       <c r="A666" s="1">
         <v>0</v>
       </c>
@@ -22585,7 +22589,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="668" hidden="1" spans="2:4">
+    <row r="668" ht="24" hidden="1" spans="2:4">
       <c r="B668" s="1" t="s">
         <v>2000</v>
       </c>
@@ -22596,7 +22600,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="669" hidden="1" spans="2:4">
+    <row r="669" ht="24" hidden="1" spans="2:4">
       <c r="B669" s="1" t="s">
         <v>2003</v>
       </c>
@@ -22621,7 +22625,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="671" hidden="1" spans="1:4">
+    <row r="671" ht="23" hidden="1" spans="1:4">
       <c r="A671" s="1">
         <v>0</v>
       </c>
@@ -22635,7 +22639,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="672" hidden="1" spans="2:4">
+    <row r="672" ht="24" hidden="1" spans="2:4">
       <c r="B672" s="1" t="s">
         <v>2012</v>
       </c>
@@ -22671,7 +22675,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="1:4">
+    <row r="675" ht="24" hidden="1" spans="1:4">
       <c r="A675" s="1">
         <v>0</v>
       </c>
@@ -22685,7 +22689,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="2:4">
+    <row r="676" ht="24" hidden="1" spans="2:4">
       <c r="B676" s="1" t="s">
         <v>2024</v>
       </c>
@@ -22696,7 +22700,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="2:4">
+    <row r="677" ht="24" hidden="1" spans="2:4">
       <c r="B677" s="1" t="s">
         <v>2027</v>
       </c>
@@ -22707,7 +22711,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="1:4">
+    <row r="678" ht="24" hidden="1" spans="1:4">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -22749,7 +22753,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="681" ht="37.5" hidden="1" spans="1:4">
+    <row r="681" ht="40" hidden="1" spans="1:4">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -22763,7 +22767,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="1:4">
+    <row r="682" ht="24" hidden="1" spans="1:4">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -22788,7 +22792,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="684" hidden="1" spans="1:4">
+    <row r="684" ht="24" hidden="1" spans="1:4">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -22816,7 +22820,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="686" hidden="1" spans="2:4">
+    <row r="686" ht="24" hidden="1" spans="2:4">
       <c r="B686" s="1" t="s">
         <v>2054</v>
       </c>
@@ -22827,7 +22831,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="687" hidden="1" spans="1:4">
+    <row r="687" ht="24" hidden="1" spans="1:4">
       <c r="A687" s="1">
         <v>0</v>
       </c>
@@ -22855,7 +22859,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="689" ht="37.5" hidden="1" spans="1:4">
+    <row r="689" ht="40" hidden="1" spans="1:4">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -22869,7 +22873,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="1:4">
+    <row r="690" ht="24" hidden="1" spans="1:4">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -22883,7 +22887,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="691" hidden="1" spans="1:4">
+    <row r="691" ht="24" hidden="1" spans="1:4">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -22933,7 +22937,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="695" hidden="1" spans="1:4">
+    <row r="695" ht="24" hidden="1" spans="1:4">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -22958,7 +22962,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="697" ht="37.5" hidden="1" spans="1:4">
+    <row r="697" ht="40" hidden="1" spans="1:4">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -22986,7 +22990,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="699" hidden="1" spans="1:4">
+    <row r="699" ht="24" hidden="1" spans="1:4">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -23000,7 +23004,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="700" hidden="1" spans="1:4">
+    <row r="700" ht="24" hidden="1" spans="1:4">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -23042,7 +23046,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="703" hidden="1" spans="1:4">
+    <row r="703" ht="24" hidden="1" spans="1:4">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -23070,7 +23074,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="705" hidden="1" spans="1:4">
+    <row r="705" ht="24" hidden="1" spans="1:4">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -23084,7 +23088,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="706" hidden="1" spans="1:4">
+    <row r="706" ht="24" hidden="1" spans="1:4">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -23098,7 +23102,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="707" hidden="1" spans="1:4">
+    <row r="707" ht="24" hidden="1" spans="1:4">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -23154,7 +23158,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="711" hidden="1" spans="2:4">
+    <row r="711" ht="24" hidden="1" spans="2:4">
       <c r="B711" s="1" t="s">
         <v>2129</v>
       </c>
@@ -23207,7 +23211,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="1:4">
+    <row r="715" ht="23" hidden="1" spans="1:4">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -23263,7 +23267,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="719" hidden="1" spans="2:4">
+    <row r="719" ht="24" hidden="1" spans="2:4">
       <c r="B719" s="1" t="s">
         <v>2153</v>
       </c>
@@ -23288,7 +23292,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="721" hidden="1" spans="1:4">
+    <row r="721" ht="24" hidden="1" spans="1:4">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -23330,7 +23334,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="1:4">
+    <row r="724" ht="24" hidden="1" spans="1:4">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -23358,7 +23362,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="726" hidden="1" spans="1:4">
+    <row r="726" ht="23" hidden="1" spans="1:4">
       <c r="A726" s="1">
         <v>0</v>
       </c>
@@ -23386,7 +23390,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="728" hidden="1" spans="1:4">
+    <row r="728" ht="24" hidden="1" spans="1:4">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -23400,7 +23404,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="729" hidden="1" spans="2:4">
+    <row r="729" ht="24" hidden="1" spans="2:4">
       <c r="B729" s="1" t="s">
         <v>2183</v>
       </c>
@@ -23461,7 +23465,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="734" hidden="1" spans="2:4">
+    <row r="734" ht="24" hidden="1" spans="2:4">
       <c r="B734" s="1" t="s">
         <v>2198</v>
       </c>
@@ -23472,7 +23476,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="1:4">
+    <row r="735" ht="24" hidden="1" spans="1:4">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -23514,7 +23518,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="738" hidden="1" spans="1:4">
+    <row r="738" ht="23" hidden="1" spans="1:4">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -23528,7 +23532,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="739" hidden="1" spans="1:4">
+    <row r="739" ht="24" hidden="1" spans="1:4">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -23556,7 +23560,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="741" hidden="1" spans="2:4">
+    <row r="741" ht="24" hidden="1" spans="2:4">
       <c r="B741" s="1" t="s">
         <v>2219</v>
       </c>
@@ -23567,7 +23571,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="742" ht="37.5" hidden="1" spans="1:4">
+    <row r="742" ht="40" hidden="1" spans="1:4">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -23592,7 +23596,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="744" hidden="1" spans="2:4">
+    <row r="744" ht="23" hidden="1" spans="2:4">
       <c r="B744" s="1" t="s">
         <v>2228</v>
       </c>
@@ -23603,7 +23607,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="745" hidden="1" spans="1:4">
+    <row r="745" ht="23" hidden="1" spans="1:4">
       <c r="A745" s="1">
         <v>0</v>
       </c>
@@ -23617,7 +23621,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="746" hidden="1" spans="1:4">
+    <row r="746" ht="24" hidden="1" spans="1:4">
       <c r="A746" s="1">
         <v>0</v>
       </c>
@@ -23631,7 +23635,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="747" hidden="1" spans="2:4">
+    <row r="747" ht="23" hidden="1" spans="2:4">
       <c r="B747" s="1" t="s">
         <v>2237</v>
       </c>
@@ -23642,7 +23646,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="748" hidden="1" spans="2:4">
+    <row r="748" ht="24" hidden="1" spans="2:4">
       <c r="B748" s="1" t="s">
         <v>2240</v>
       </c>
@@ -23653,7 +23657,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="749" ht="37.5" hidden="1" spans="2:4">
+    <row r="749" ht="40" hidden="1" spans="2:4">
       <c r="B749" s="1" t="s">
         <v>2243</v>
       </c>
@@ -23664,7 +23668,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="750" hidden="1" spans="2:4">
+    <row r="750" ht="24" hidden="1" spans="2:4">
       <c r="B750" s="1" t="s">
         <v>2246</v>
       </c>
@@ -23675,7 +23679,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="751" hidden="1" spans="1:4">
+    <row r="751" ht="24" hidden="1" spans="1:4">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -23703,7 +23707,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="753" hidden="1" spans="1:4">
+    <row r="753" ht="24" hidden="1" spans="1:4">
       <c r="A753" s="1">
         <v>0</v>
       </c>
@@ -23731,7 +23735,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="755" hidden="1" spans="1:4">
+    <row r="755" ht="24" hidden="1" spans="1:4">
       <c r="A755" s="1">
         <v>0</v>
       </c>
@@ -23770,7 +23774,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="758" hidden="1" spans="1:4">
+    <row r="758" ht="24" hidden="1" spans="1:4">
       <c r="A758" s="1">
         <v>0</v>
       </c>
@@ -23798,7 +23802,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="760" ht="37.5" hidden="1" spans="1:4">
+    <row r="760" ht="40" hidden="1" spans="1:4">
       <c r="A760" s="1">
         <v>0</v>
       </c>
@@ -23812,7 +23816,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="761" ht="37.5" hidden="1" spans="2:4">
+    <row r="761" ht="40" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2279</v>
       </c>
@@ -23848,7 +23852,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="764" hidden="1" spans="1:4">
+    <row r="764" ht="24" hidden="1" spans="1:4">
       <c r="A764" s="1">
         <v>0</v>
       </c>
@@ -23876,7 +23880,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="766" hidden="1" spans="1:4">
+    <row r="766" ht="24" hidden="1" spans="1:4">
       <c r="A766" s="1">
         <v>0</v>
       </c>
@@ -23890,7 +23894,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="767" ht="37.5" hidden="1" spans="1:4">
+    <row r="767" ht="40" hidden="1" spans="1:4">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -23960,7 +23964,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="772" hidden="1" spans="1:4">
+    <row r="772" ht="24" hidden="1" spans="1:4">
       <c r="A772" s="1">
         <v>0</v>
       </c>
@@ -23985,7 +23989,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="774" ht="37.5" hidden="1" spans="2:4">
+    <row r="774" ht="40" hidden="1" spans="2:4">
       <c r="B774" s="1" t="s">
         <v>2318</v>
       </c>
@@ -23996,7 +24000,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="775" ht="37.5" hidden="1" spans="1:4">
+    <row r="775" ht="40" hidden="1" spans="1:4">
       <c r="A775" s="1">
         <v>0</v>
       </c>
@@ -24052,7 +24056,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="779" ht="37.5" hidden="1" spans="1:4">
+    <row r="779" ht="40" hidden="1" spans="1:4">
       <c r="A779" s="1">
         <v>0</v>
       </c>
@@ -24066,7 +24070,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="780" hidden="1" spans="2:4">
+    <row r="780" ht="24" hidden="1" spans="2:4">
       <c r="B780" s="1" t="s">
         <v>2336</v>
       </c>
@@ -24077,7 +24081,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="781" ht="37.5" hidden="1" spans="1:4">
+    <row r="781" ht="40" hidden="1" spans="1:4">
       <c r="A781" s="1">
         <v>0</v>
       </c>
@@ -24091,7 +24095,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="782" ht="37.5" hidden="1" spans="1:4">
+    <row r="782" ht="60" hidden="1" spans="1:4">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -24186,7 +24190,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="789" hidden="1" spans="1:4">
+    <row r="789" ht="24" hidden="1" spans="1:4">
       <c r="A789" s="1">
         <v>0</v>
       </c>
@@ -24266,7 +24270,7 @@
     </row>
     <row r="795" hidden="1" spans="1:4">
       <c r="A795" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>2381</v>
@@ -24320,7 +24324,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="1:4">
+    <row r="799" ht="23" hidden="1" spans="1:4">
       <c r="A799" s="1">
         <v>0</v>
       </c>
@@ -24387,7 +24391,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="804" hidden="1" spans="1:4">
+    <row r="804" ht="24" hidden="1" spans="1:4">
       <c r="A804" s="1">
         <v>0</v>
       </c>
@@ -24521,7 +24525,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="814" ht="56.25" hidden="1" spans="1:4">
+    <row r="814" ht="60" hidden="1" spans="1:4">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -24537,7 +24541,7 @@
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>2441</v>
@@ -24629,7 +24633,7 @@
     </row>
     <row r="822" hidden="1" spans="1:4">
       <c r="A822" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>2462</v>
@@ -24721,7 +24725,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="830" hidden="1" spans="2:4">
+    <row r="830" ht="24" hidden="1" spans="2:4">
       <c r="B830" s="1" t="s">
         <v>2486</v>
       </c>
@@ -24773,7 +24777,7 @@
     </row>
     <row r="834" hidden="1" spans="1:4">
       <c r="A834" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>2498</v>
@@ -24801,7 +24805,7 @@
     </row>
     <row r="836" hidden="1" spans="1:4">
       <c r="A836" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>2504</v>
@@ -24888,7 +24892,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="843" hidden="1" spans="1:4">
+    <row r="843" ht="24" hidden="1" spans="1:4">
       <c r="A843" s="1">
         <v>0</v>
       </c>
@@ -25005,9 +25009,9 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="852" spans="1:4">
+    <row r="852" ht="23" spans="1:4">
       <c r="A852" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>2552</v>
@@ -25019,7 +25023,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="853" hidden="1" spans="1:4">
+    <row r="853" ht="24" hidden="1" spans="1:4">
       <c r="A853" s="1">
         <v>0</v>
       </c>
@@ -25046,7 +25050,7 @@
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>2561</v>
@@ -25058,7 +25062,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="856" hidden="1" spans="1:4">
+    <row r="856" ht="24" hidden="1" spans="1:4">
       <c r="A856" s="1">
         <v>0</v>
       </c>
@@ -25074,7 +25078,7 @@
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>2567</v>
@@ -25097,7 +25101,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="859" hidden="1" spans="1:4">
+    <row r="859" ht="23" hidden="1" spans="1:4">
       <c r="A859" s="1">
         <v>0</v>
       </c>
@@ -25139,7 +25143,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="862" hidden="1" spans="1:4">
+    <row r="862" ht="24" hidden="1" spans="1:4">
       <c r="A862" s="1">
         <v>0</v>
       </c>
@@ -25175,7 +25179,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="865" ht="37.5" hidden="1" spans="1:4">
+    <row r="865" ht="40" hidden="1" spans="1:4">
       <c r="A865" s="1">
         <v>0</v>
       </c>
@@ -25189,9 +25193,9 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="866" ht="37.5" spans="1:4">
+    <row r="866" ht="40" spans="1:4">
       <c r="A866" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>2594</v>
@@ -25294,7 +25298,7 @@
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>2618</v>
@@ -25359,9 +25363,9 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="879" spans="1:4">
+    <row r="879" ht="24" spans="1:4">
       <c r="A879" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>2633</v>
@@ -25411,7 +25415,7 @@
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>2645</v>
@@ -25484,7 +25488,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="889" ht="37.5" hidden="1" spans="2:4">
+    <row r="889" ht="40" hidden="1" spans="2:4">
       <c r="B889" s="1" t="s">
         <v>2663</v>
       </c>
@@ -25497,7 +25501,7 @@
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>2666</v>
@@ -25523,7 +25527,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="1:4">
+    <row r="892" ht="24" hidden="1" spans="1:4">
       <c r="A892" s="1">
         <v>0</v>
       </c>
@@ -25587,7 +25591,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="897" hidden="1" spans="2:4">
+    <row r="897" ht="24" hidden="1" spans="2:4">
       <c r="B897" s="1" t="s">
         <v>2687</v>
       </c>
@@ -25664,7 +25668,7 @@
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B903" s="1" t="s">
         <v>2705</v>
@@ -25701,7 +25705,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="906" hidden="1" spans="1:4">
+    <row r="906" ht="24" hidden="1" spans="1:4">
       <c r="A906" s="1">
         <v>0</v>
       </c>
@@ -25715,7 +25719,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="907" hidden="1" spans="2:4">
+    <row r="907" ht="24" hidden="1" spans="2:4">
       <c r="B907" s="1" t="s">
         <v>2717</v>
       </c>
@@ -25761,7 +25765,7 @@
     </row>
     <row r="911" hidden="1" spans="1:4">
       <c r="A911" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B911" s="1" t="s">
         <v>2729</v>
@@ -25773,7 +25777,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="912" hidden="1" spans="2:4">
+    <row r="912" ht="24" hidden="1" spans="2:4">
       <c r="B912" s="1" t="s">
         <v>2732</v>
       </c>
@@ -25784,7 +25788,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="913" hidden="1" spans="2:4">
+    <row r="913" ht="24" hidden="1" spans="2:4">
       <c r="B913" s="1" t="s">
         <v>2735</v>
       </c>
@@ -25809,7 +25813,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="915" hidden="1" spans="2:4">
+    <row r="915" ht="24" hidden="1" spans="2:4">
       <c r="B915" s="1" t="s">
         <v>2741</v>
       </c>
@@ -25845,7 +25849,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="918" hidden="1" spans="2:4">
+    <row r="918" ht="24" hidden="1" spans="2:4">
       <c r="B918" s="1" t="s">
         <v>2750</v>
       </c>
@@ -25856,7 +25860,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="919" hidden="1" spans="2:4">
+    <row r="919" ht="24" hidden="1" spans="2:4">
       <c r="B919" s="1" t="s">
         <v>2753</v>
       </c>
@@ -25883,7 +25887,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B921" s="1" t="s">
         <v>2759</v>
@@ -25897,7 +25901,7 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B922" s="1" t="s">
         <v>2762</v>
@@ -25922,7 +25926,7 @@
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>2768</v>
@@ -25934,7 +25938,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="925" hidden="1" spans="1:4">
+    <row r="925" ht="24" hidden="1" spans="1:4">
       <c r="A925" s="1">
         <v>0</v>
       </c>
@@ -25962,9 +25966,9 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="927" hidden="1" spans="1:4">
+    <row r="927" spans="1:4">
       <c r="A927" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>2777</v>
@@ -25978,7 +25982,7 @@
     </row>
     <row r="928" hidden="1" spans="1:4">
       <c r="A928" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>2780</v>
@@ -25992,7 +25996,7 @@
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>2783</v>
@@ -26018,9 +26022,9 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="931" hidden="1" spans="1:4">
+    <row r="931" ht="23" hidden="1" spans="1:4">
       <c r="A931" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>2789</v>
@@ -26034,7 +26038,7 @@
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>2792</v>
@@ -26071,7 +26075,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="935" ht="37.5" hidden="1" spans="2:4">
+    <row r="935" ht="40" hidden="1" spans="2:4">
       <c r="B935" s="1" t="s">
         <v>2801</v>
       </c>
@@ -26107,9 +26111,9 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="938" ht="37.5" spans="1:4">
+    <row r="938" ht="40" spans="1:4">
       <c r="A938" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B938" s="1" t="s">
         <v>2810</v>
@@ -26123,7 +26127,7 @@
     </row>
     <row r="939" hidden="1" spans="1:4">
       <c r="A939" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B939" s="1" t="s">
         <v>2813</v>
@@ -26137,7 +26141,7 @@
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B940" s="1" t="s">
         <v>2816</v>
@@ -26149,9 +26153,9 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="941" ht="56.25" spans="1:4">
+    <row r="941" ht="60" spans="1:4">
       <c r="A941" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B941" s="1" t="s">
         <v>2819</v>
@@ -26163,9 +26167,9 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="942" hidden="1" spans="1:4">
+    <row r="942" spans="1:4">
       <c r="A942" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B942" s="1" t="s">
         <v>2822</v>
@@ -26177,7 +26181,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="943" hidden="1" spans="1:4">
+    <row r="943" ht="24" hidden="1" spans="1:4">
       <c r="A943" s="1">
         <v>0</v>
       </c>
@@ -26205,7 +26209,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="945" ht="37.5" hidden="1" spans="2:4">
+    <row r="945" ht="40" hidden="1" spans="2:4">
       <c r="B945" s="1" t="s">
         <v>2831</v>
       </c>
@@ -26218,7 +26222,7 @@
     </row>
     <row r="946" hidden="1" spans="1:4">
       <c r="A946" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B946" s="1" t="s">
         <v>2834</v>
@@ -26271,7 +26275,7 @@
     </row>
     <row r="950" spans="1:4">
       <c r="A950" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B950" s="1" t="s">
         <v>2846</v>
@@ -26283,9 +26287,9 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="951" spans="1:4">
+    <row r="951" ht="23" spans="1:4">
       <c r="A951" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B951" s="1" t="s">
         <v>2849</v>
@@ -26311,7 +26315,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="953" hidden="1" spans="1:4">
+    <row r="953" ht="24" hidden="1" spans="1:4">
       <c r="A953" s="1">
         <v>0</v>
       </c>
@@ -26327,7 +26331,7 @@
     </row>
     <row r="954" hidden="1" spans="1:4">
       <c r="A954" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B954" s="1" t="s">
         <v>2858</v>
@@ -26339,9 +26343,9 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="955" hidden="1" spans="1:4">
+    <row r="955" ht="23" hidden="1" spans="1:4">
       <c r="A955" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B955" s="1" t="s">
         <v>2861</v>
@@ -26353,9 +26357,9 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="956" hidden="1" spans="1:4">
+    <row r="956" ht="23" spans="1:4">
       <c r="A956" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B956" s="1" t="s">
         <v>2864</v>
@@ -26369,7 +26373,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B957" s="1" t="s">
         <v>2867</v>
@@ -26383,7 +26387,7 @@
     </row>
     <row r="958" hidden="1" spans="1:4">
       <c r="A958" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B958" s="1" t="s">
         <v>2870</v>
@@ -26430,7 +26434,7 @@
     </row>
     <row r="962" hidden="1" spans="1:4">
       <c r="A962" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B962" s="1" t="s">
         <v>2882</v>
@@ -26467,7 +26471,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="965" hidden="1" spans="2:4">
+    <row r="965" ht="23" hidden="1" spans="2:4">
       <c r="B965" s="1" t="s">
         <v>2891</v>
       </c>
@@ -26478,9 +26482,9 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="966" spans="1:4">
+    <row r="966" ht="24" spans="1:4">
       <c r="A966" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B966" s="1" t="s">
         <v>2894</v>
@@ -26531,7 +26535,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="970" hidden="1" spans="1:4">
+    <row r="970" ht="24" hidden="1" spans="1:4">
       <c r="A970" s="1">
         <v>0</v>
       </c>
@@ -26545,7 +26549,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="971" ht="37.5" hidden="1" spans="2:4">
+    <row r="971" ht="40" hidden="1" spans="2:4">
       <c r="B971" s="1" t="s">
         <v>2909</v>
       </c>
@@ -26567,7 +26571,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="973" hidden="1" spans="1:4">
+    <row r="973" ht="23" hidden="1" spans="1:4">
       <c r="A973" s="1">
         <v>0</v>
       </c>
@@ -26583,7 +26587,7 @@
     </row>
     <row r="974" spans="1:4">
       <c r="A974" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B974" s="1" t="s">
         <v>2918</v>
@@ -26597,7 +26601,7 @@
     </row>
     <row r="975" hidden="1" spans="1:4">
       <c r="A975" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>2921</v>
@@ -26622,7 +26626,7 @@
     </row>
     <row r="977" hidden="1" spans="1:4">
       <c r="A977" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B977" s="1" t="s">
         <v>2927</v>
@@ -26647,7 +26651,7 @@
     </row>
     <row r="979" spans="1:4">
       <c r="A979" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B979" s="1" t="s">
         <v>2933</v>
@@ -26673,7 +26677,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="981" hidden="1" spans="1:4">
+    <row r="981" ht="24" hidden="1" spans="1:4">
       <c r="A981" s="1">
         <v>0</v>
       </c>
@@ -26698,9 +26702,9 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="983" hidden="1" spans="1:4">
+    <row r="983" ht="23" hidden="1" spans="1:4">
       <c r="A983" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B983" s="1" t="s">
         <v>2945</v>
@@ -26714,7 +26718,7 @@
     </row>
     <row r="984" hidden="1" spans="1:4">
       <c r="A984" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B984" s="1" t="s">
         <v>2948</v>
@@ -26726,7 +26730,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="985" hidden="1" spans="2:4">
+    <row r="985" ht="24" hidden="1" spans="2:4">
       <c r="B985" s="1" t="s">
         <v>2951</v>
       </c>
@@ -26737,7 +26741,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="986" hidden="1" spans="1:4">
+    <row r="986" ht="24" hidden="1" spans="1:4">
       <c r="A986" s="1">
         <v>0</v>
       </c>
@@ -26762,9 +26766,9 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="988" hidden="1" spans="1:4">
+    <row r="988" ht="23" hidden="1" spans="1:4">
       <c r="A988" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B988" s="1" t="s">
         <v>2960</v>
@@ -26776,9 +26780,9 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="989" hidden="1" spans="1:4">
+    <row r="989" ht="24" hidden="1" spans="1:4">
       <c r="A989" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B989" s="1" t="s">
         <v>2963</v>
@@ -26790,7 +26794,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="990" ht="37.5" hidden="1" spans="1:4">
+    <row r="990" ht="40" hidden="1" spans="1:4">
       <c r="A990" s="1">
         <v>0</v>
       </c>
@@ -26804,9 +26808,9 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="991" hidden="1" spans="1:4">
+    <row r="991" ht="24" hidden="1" spans="1:4">
       <c r="A991" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B991" s="1" t="s">
         <v>2969</v>
@@ -26818,7 +26822,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="992" ht="37.5" hidden="1" spans="1:4">
+    <row r="992" ht="40" hidden="1" spans="1:4">
       <c r="A992" s="1">
         <v>0</v>
       </c>
@@ -26832,9 +26836,9 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="993" spans="1:4">
+    <row r="993" ht="24" spans="1:4">
       <c r="A993" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B993" s="1" t="s">
         <v>2975</v>
@@ -26846,7 +26850,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="994" hidden="1" spans="1:4">
+    <row r="994" ht="24" hidden="1" spans="1:4">
       <c r="A994" s="1">
         <v>0</v>
       </c>
@@ -26860,7 +26864,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="995" hidden="1" spans="2:4">
+    <row r="995" ht="23" hidden="1" spans="2:4">
       <c r="B995" s="1" t="s">
         <v>2981</v>
       </c>
@@ -26885,7 +26889,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="997" ht="37.5" hidden="1" spans="1:4">
+    <row r="997" ht="40" hidden="1" spans="1:4">
       <c r="A997" s="1">
         <v>0</v>
       </c>
@@ -26899,7 +26903,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="998" hidden="1" spans="2:4">
+    <row r="998" ht="24" hidden="1" spans="2:4">
       <c r="B998" s="1" t="s">
         <v>2990</v>
       </c>
@@ -26910,9 +26914,9 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="999" ht="37.5" hidden="1" spans="1:4">
+    <row r="999" ht="40" hidden="1" spans="1:4">
       <c r="A999" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B999" s="1" t="s">
         <v>2993</v>
@@ -26924,7 +26928,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="1000" ht="37.5" hidden="1" spans="2:4">
+    <row r="1000" ht="40" hidden="1" spans="2:4">
       <c r="B1000" s="1" t="s">
         <v>2996</v>
       </c>
@@ -26937,7 +26941,7 @@
     </row>
     <row r="1001" hidden="1" spans="1:4">
       <c r="A1001" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1001" s="1" t="s">
         <v>2999</v>
@@ -26949,7 +26953,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="1002" hidden="1" spans="2:4">
+    <row r="1002" ht="23" hidden="1" spans="2:4">
       <c r="B1002" s="1" t="s">
         <v>3002</v>
       </c>
@@ -26960,7 +26964,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="1003" ht="37.5" hidden="1" spans="1:4">
+    <row r="1003" ht="40" hidden="1" spans="1:4">
       <c r="A1003" s="1">
         <v>0</v>
       </c>
@@ -26988,9 +26992,9 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="1005" hidden="1" spans="1:4">
+    <row r="1005" ht="23" hidden="1" spans="1:4">
       <c r="A1005" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1005" s="1" t="s">
         <v>3011</v>
@@ -27016,7 +27020,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="1007" hidden="1" spans="1:4">
+    <row r="1007" ht="24" hidden="1" spans="1:4">
       <c r="A1007" s="1">
         <v>0</v>
       </c>
@@ -27044,7 +27048,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="1009" hidden="1" spans="2:4">
+    <row r="1009" ht="24" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
         <v>3023</v>
       </c>
@@ -27108,7 +27112,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="1014" hidden="1" spans="1:4">
+    <row r="1014" ht="24" hidden="1" spans="1:4">
       <c r="A1014" s="1">
         <v>0</v>
       </c>
@@ -27126,11 +27130,10 @@
   <autoFilter ref="A1:A1014">
     <filterColumn colId="0">
       <filters>
+        <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="5"/>
-        <filter val="7"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 4.xlsx
+++ b/Level 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15080" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -12969,8 +12969,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -12995,13 +12995,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -13017,15 +13010,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13055,17 +13069,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13079,21 +13116,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -13101,38 +13123,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13206,7 +13206,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13218,25 +13260,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13248,7 +13326,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13260,31 +13356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13302,85 +13374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13397,8 +13397,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13406,8 +13406,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13436,32 +13451,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13481,161 +13477,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13703,11 +13703,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -13743,7 +13738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2814320" y="254000"/>
+          <a:off x="2713990" y="238125"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13784,7 +13779,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -14031,6 +14026,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -14039,16 +14035,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C921" sqref="C921"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A957" sqref="A957"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8285714285714" style="1"/>
-    <col min="2" max="2" width="20.8285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1111111111111" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14080,7 +14076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="80" hidden="1" spans="2:4">
+    <row r="3" ht="75" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -14197,7 +14193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="40" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -14261,7 +14257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="24" hidden="1" spans="1:4">
+    <row r="17" hidden="1" spans="1:4">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -14275,7 +14271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" ht="24" hidden="1" spans="2:4">
+    <row r="18" hidden="1" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
@@ -14297,7 +14293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" ht="23" hidden="1" spans="1:4">
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -14311,7 +14307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" ht="40" hidden="1" spans="2:4">
+    <row r="21" ht="37.5" hidden="1" spans="2:4">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -14322,7 +14318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" ht="40" hidden="1" spans="1:4">
+    <row r="22" ht="37.5" hidden="1" spans="1:4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -14336,7 +14332,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" ht="24" hidden="1" spans="1:4">
+    <row r="23" hidden="1" spans="1:4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -14350,7 +14346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="40" hidden="1" spans="1:4">
+    <row r="24" ht="37.5" hidden="1" spans="1:4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -14364,7 +14360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" ht="40" hidden="1" spans="1:4">
+    <row r="25" ht="37.5" hidden="1" spans="1:4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -14392,7 +14388,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" ht="24" hidden="1" spans="1:4">
+    <row r="27" hidden="1" spans="1:4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -14439,7 +14435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" ht="23" hidden="1" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -14467,7 +14463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" ht="24" hidden="1" spans="1:4">
+    <row r="33" hidden="1" spans="1:4">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -14481,7 +14477,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" ht="24" hidden="1" spans="2:4">
+    <row r="34" hidden="1" spans="2:4">
       <c r="B34" s="1" t="s">
         <v>100</v>
       </c>
@@ -14492,7 +14488,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" ht="24" hidden="1" spans="2:4">
+    <row r="35" hidden="1" spans="2:4">
       <c r="B35" s="1" t="s">
         <v>103</v>
       </c>
@@ -14517,7 +14513,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" ht="24" hidden="1" spans="1:4">
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -14531,7 +14527,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" ht="24" hidden="1" spans="1:4">
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -14545,7 +14541,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" ht="24" hidden="1" spans="1:4">
+    <row r="39" hidden="1" spans="1:4">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -14559,7 +14555,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" ht="24" hidden="1" spans="1:4">
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -14587,7 +14583,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" ht="40" hidden="1" spans="1:4">
+    <row r="42" ht="37.5" hidden="1" spans="1:4">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -14615,7 +14611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" ht="23" hidden="1" spans="2:4">
+    <row r="44" hidden="1" spans="2:4">
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
@@ -14626,7 +14622,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" ht="23" hidden="1" spans="1:4">
+    <row r="45" hidden="1" spans="1:4">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -14654,7 +14650,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" ht="24" hidden="1" spans="1:4">
+    <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -14679,7 +14675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" ht="23" hidden="1" spans="1:4">
+    <row r="49" hidden="1" spans="1:4">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -14693,7 +14689,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" ht="24" hidden="1" spans="1:4">
+    <row r="50" hidden="1" spans="1:4">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -14707,7 +14703,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" ht="23" hidden="1" spans="1:4">
+    <row r="51" hidden="1" spans="1:4">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -14735,7 +14731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" ht="24" hidden="1" spans="1:4">
+    <row r="53" hidden="1" spans="1:4">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -14760,7 +14756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" ht="24" hidden="1" spans="1:4">
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -14785,7 +14781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" ht="24" hidden="1" spans="1:4">
+    <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -14799,7 +14795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" ht="24" hidden="1" spans="2:4">
+    <row r="58" hidden="1" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>172</v>
       </c>
@@ -14821,7 +14817,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" ht="24" hidden="1" spans="1:4">
+    <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -14846,7 +14842,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" ht="24" hidden="1" spans="1:4">
+    <row r="62" hidden="1" spans="1:4">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -14860,7 +14856,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" ht="24" hidden="1" spans="1:4">
+    <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -14888,7 +14884,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" ht="24" hidden="1" spans="2:4">
+    <row r="65" hidden="1" spans="2:4">
       <c r="B65" s="1" t="s">
         <v>193</v>
       </c>
@@ -14899,7 +14895,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" ht="24" hidden="1" spans="1:4">
+    <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" ht="24" hidden="1" spans="1:4">
+    <row r="68" hidden="1" spans="1:4">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -14938,7 +14934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" ht="40" hidden="1" spans="1:4">
+    <row r="69" ht="37.5" hidden="1" spans="1:4">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -14966,7 +14962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" ht="24" hidden="1" spans="1:4">
+    <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -14980,7 +14976,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" ht="40" hidden="1" spans="1:4">
+    <row r="72" ht="37.5" hidden="1" spans="1:4">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -14994,7 +14990,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" ht="40" hidden="1" spans="1:4">
+    <row r="73" ht="37.5" hidden="1" spans="1:4">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -15008,7 +15004,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" ht="24" hidden="1" spans="1:4">
+    <row r="74" hidden="1" spans="1:4">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -15036,7 +15032,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" ht="24" hidden="1" spans="1:4">
+    <row r="76" hidden="1" spans="1:4">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -15050,7 +15046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" ht="40" hidden="1" spans="1:4">
+    <row r="77" ht="37.5" hidden="1" spans="1:4">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -15092,7 +15088,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" ht="24" hidden="1" spans="1:4">
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -15120,7 +15116,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" ht="24" hidden="1" spans="1:4">
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -15134,7 +15130,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" ht="24" hidden="1" spans="1:4">
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -15148,7 +15144,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" ht="40" hidden="1" spans="2:4">
+    <row r="84" ht="37.5" hidden="1" spans="2:4">
       <c r="B84" s="1" t="s">
         <v>250</v>
       </c>
@@ -15170,7 +15166,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" ht="24" hidden="1" spans="2:4">
+    <row r="86" hidden="1" spans="2:4">
       <c r="B86" s="1" t="s">
         <v>256</v>
       </c>
@@ -15181,7 +15177,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" ht="24" hidden="1" spans="1:4">
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -15234,7 +15230,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" ht="24" hidden="1" spans="1:4">
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -15262,7 +15258,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" ht="24" hidden="1" spans="2:4">
+    <row r="93" hidden="1" spans="2:4">
       <c r="B93" s="1" t="s">
         <v>277</v>
       </c>
@@ -15287,7 +15283,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" ht="24" hidden="1" spans="1:4">
+    <row r="95" hidden="1" spans="1:4">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -15301,7 +15297,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="96" ht="40" hidden="1" spans="1:4">
+    <row r="96" ht="37.5" hidden="1" spans="1:4">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -15326,7 +15322,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" ht="24" hidden="1" spans="1:4">
+    <row r="98" hidden="1" spans="1:4">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -15382,7 +15378,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" ht="24" hidden="1" spans="1:4">
+    <row r="102" hidden="1" spans="1:4">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -15396,7 +15392,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" ht="24" hidden="1" spans="1:4">
+    <row r="103" hidden="1" spans="1:4">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -15410,7 +15406,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" ht="24" hidden="1" spans="2:4">
+    <row r="104" hidden="1" spans="2:4">
       <c r="B104" s="1" t="s">
         <v>310</v>
       </c>
@@ -15421,7 +15417,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" ht="40" hidden="1" spans="1:4">
+    <row r="105" ht="37.5" hidden="1" spans="1:4">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -15449,7 +15445,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" ht="24" hidden="1" spans="1:4">
+    <row r="107" hidden="1" spans="1:4">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -15491,7 +15487,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" ht="24" hidden="1" spans="1:4">
+    <row r="110" hidden="1" spans="1:4">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -15516,7 +15512,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" ht="23" hidden="1" spans="2:4">
+    <row r="112" hidden="1" spans="2:4">
       <c r="B112" s="1" t="s">
         <v>334</v>
       </c>
@@ -15541,7 +15537,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" ht="24" hidden="1" spans="2:4">
+    <row r="114" hidden="1" spans="2:4">
       <c r="B114" s="1" t="s">
         <v>340</v>
       </c>
@@ -15574,7 +15570,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="117" ht="24" hidden="1" spans="2:4">
+    <row r="117" hidden="1" spans="2:4">
       <c r="B117" s="1" t="s">
         <v>349</v>
       </c>
@@ -15635,7 +15631,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" ht="24" hidden="1" spans="1:4">
+    <row r="122" hidden="1" spans="1:4">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -15649,7 +15645,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" ht="40" hidden="1" spans="1:4">
+    <row r="123" ht="37.5" hidden="1" spans="1:4">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -15710,7 +15706,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" ht="23" hidden="1" spans="2:4">
+    <row r="128" hidden="1" spans="2:4">
       <c r="B128" s="1" t="s">
         <v>382</v>
       </c>
@@ -15721,7 +15717,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" ht="40" hidden="1" spans="1:4">
+    <row r="129" ht="37.5" hidden="1" spans="1:4">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -15735,7 +15731,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" ht="40" hidden="1" spans="1:4">
+    <row r="130" ht="37.5" hidden="1" spans="1:4">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -15749,7 +15745,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" ht="24" hidden="1" spans="2:4">
+    <row r="131" hidden="1" spans="2:4">
       <c r="B131" s="1" t="s">
         <v>391</v>
       </c>
@@ -15771,7 +15767,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" ht="40" hidden="1" spans="1:4">
+    <row r="133" ht="37.5" hidden="1" spans="1:4">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -15785,7 +15781,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" ht="40" hidden="1" spans="1:4">
+    <row r="134" ht="37.5" hidden="1" spans="1:4">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -15813,7 +15809,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="136" ht="24" hidden="1" spans="1:4">
+    <row r="136" hidden="1" spans="1:4">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -15827,7 +15823,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" ht="23" hidden="1" spans="1:4">
+    <row r="137" hidden="1" spans="1:4">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -15855,7 +15851,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="139" ht="40" hidden="1" spans="2:4">
+    <row r="139" ht="37.5" hidden="1" spans="2:4">
       <c r="B139" s="1" t="s">
         <v>415</v>
       </c>
@@ -15866,7 +15862,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" ht="24" hidden="1" spans="1:4">
+    <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -15922,7 +15918,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" ht="24" hidden="1" spans="1:4">
+    <row r="144" hidden="1" spans="1:4">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -15936,7 +15932,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" ht="24" hidden="1" spans="1:4">
+    <row r="145" hidden="1" spans="1:4">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -15950,7 +15946,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="146" ht="24" hidden="1" spans="2:4">
+    <row r="146" hidden="1" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>436</v>
       </c>
@@ -15961,7 +15957,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" ht="24" hidden="1" spans="2:4">
+    <row r="147" hidden="1" spans="2:4">
       <c r="B147" s="1" t="s">
         <v>439</v>
       </c>
@@ -16025,7 +16021,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="152" ht="24" hidden="1" spans="2:4">
+    <row r="152" hidden="1" spans="2:4">
       <c r="B152" s="1" t="s">
         <v>454</v>
       </c>
@@ -16117,7 +16113,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" ht="23" hidden="1" spans="2:4">
+    <row r="159" hidden="1" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
@@ -16128,7 +16124,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" ht="24" hidden="1" spans="1:4">
+    <row r="160" hidden="1" spans="1:4">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -16209,7 +16205,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" ht="24" hidden="1" spans="1:4">
+    <row r="166" hidden="1" spans="1:4">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -16262,7 +16258,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="170" ht="24" hidden="1" spans="2:4">
+    <row r="170" hidden="1" spans="2:4">
       <c r="B170" s="1" t="s">
         <v>508</v>
       </c>
@@ -16273,7 +16269,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="171" ht="40" hidden="1" spans="1:4">
+    <row r="171" ht="37.5" hidden="1" spans="1:4">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -16312,7 +16308,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" ht="23" hidden="1" spans="1:4">
+    <row r="174" hidden="1" spans="1:4">
       <c r="A174" s="1">
         <v>0</v>
       </c>
@@ -16326,7 +16322,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="175" ht="40" hidden="1" spans="1:4">
+    <row r="175" ht="37.5" hidden="1" spans="1:4">
       <c r="A175" s="1">
         <v>0</v>
       </c>
@@ -16354,7 +16350,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" ht="24" hidden="1" spans="1:4">
+    <row r="177" hidden="1" spans="1:4">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -16435,7 +16431,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="183" ht="24" hidden="1" spans="1:4">
+    <row r="183" hidden="1" spans="1:4">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -16477,7 +16473,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="186" ht="23" hidden="1" spans="1:4">
+    <row r="186" hidden="1" spans="1:4">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -16505,7 +16501,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" ht="24" hidden="1" spans="2:4">
+    <row r="188" hidden="1" spans="2:4">
       <c r="B188" s="1" t="s">
         <v>562</v>
       </c>
@@ -16552,7 +16548,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="192" ht="24" hidden="1" spans="1:4">
+    <row r="192" hidden="1" spans="1:4">
       <c r="A192" s="1">
         <v>0</v>
       </c>
@@ -16566,7 +16562,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="193" ht="24" hidden="1" spans="2:4">
+    <row r="193" hidden="1" spans="2:4">
       <c r="B193" s="1" t="s">
         <v>577</v>
       </c>
@@ -16591,7 +16587,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="195" ht="24" hidden="1" spans="2:4">
+    <row r="195" hidden="1" spans="2:4">
       <c r="B195" s="1" t="s">
         <v>583</v>
       </c>
@@ -16602,7 +16598,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="196" ht="24" hidden="1" spans="1:4">
+    <row r="196" hidden="1" spans="1:4">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -16616,7 +16612,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="197" ht="40" hidden="1" spans="2:4">
+    <row r="197" ht="37.5" hidden="1" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>589</v>
       </c>
@@ -16641,7 +16637,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="199" ht="24" hidden="1" spans="1:4">
+    <row r="199" hidden="1" spans="1:4">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -16655,7 +16651,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="200" ht="40" hidden="1" spans="1:4">
+    <row r="200" ht="37.5" hidden="1" spans="1:4">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -16669,7 +16665,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="201" ht="23" hidden="1" spans="2:4">
+    <row r="201" hidden="1" spans="2:4">
       <c r="B201" s="1" t="s">
         <v>601</v>
       </c>
@@ -16680,7 +16676,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="202" ht="23" hidden="1" spans="2:4">
+    <row r="202" hidden="1" spans="2:4">
       <c r="B202" s="1" t="s">
         <v>604</v>
       </c>
@@ -16691,7 +16687,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="203" ht="24" hidden="1" spans="1:4">
+    <row r="203" hidden="1" spans="1:4">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -16758,7 +16754,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="208" ht="24" hidden="1" spans="1:4">
+    <row r="208" hidden="1" spans="1:4">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -16786,7 +16782,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="210" ht="23" hidden="1" spans="1:4">
+    <row r="210" hidden="1" spans="1:4">
       <c r="A210" s="1">
         <v>0</v>
       </c>
@@ -16800,7 +16796,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="211" ht="23" hidden="1" spans="2:4">
+    <row r="211" hidden="1" spans="2:4">
       <c r="B211" s="1" t="s">
         <v>631</v>
       </c>
@@ -16811,7 +16807,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="212" ht="23" hidden="1" spans="2:4">
+    <row r="212" hidden="1" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>634</v>
       </c>
@@ -16822,7 +16818,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="213" ht="24" hidden="1" spans="2:4">
+    <row r="213" hidden="1" spans="2:4">
       <c r="B213" s="1" t="s">
         <v>637</v>
       </c>
@@ -16847,7 +16843,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="215" ht="24" hidden="1" spans="2:4">
+    <row r="215" hidden="1" spans="2:4">
       <c r="B215" s="1" t="s">
         <v>643</v>
       </c>
@@ -16922,7 +16918,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="221" ht="24" hidden="1" spans="1:4">
+    <row r="221" hidden="1" spans="1:4">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -16950,7 +16946,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="223" ht="24" hidden="1" spans="1:4">
+    <row r="223" hidden="1" spans="1:4">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -16992,7 +16988,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="226" ht="24" hidden="1" spans="1:4">
+    <row r="226" hidden="1" spans="1:4">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -17034,7 +17030,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="229" ht="24" hidden="1" spans="1:4">
+    <row r="229" hidden="1" spans="1:4">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -17073,7 +17069,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="232" ht="24" hidden="1" spans="1:4">
+    <row r="232" hidden="1" spans="1:4">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -17101,7 +17097,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="234" ht="24" hidden="1" spans="1:4">
+    <row r="234" hidden="1" spans="1:4">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -17115,7 +17111,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="235" ht="24" hidden="1" spans="1:4">
+    <row r="235" hidden="1" spans="1:4">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -17129,7 +17125,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="236" ht="40" hidden="1" spans="1:4">
+    <row r="236" ht="37.5" hidden="1" spans="1:4">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -17246,7 +17242,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="245" ht="40" hidden="1" spans="1:4">
+    <row r="245" ht="37.5" hidden="1" spans="1:4">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -17260,7 +17256,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="246" ht="24" hidden="1" spans="1:4">
+    <row r="246" hidden="1" spans="1:4">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -17288,7 +17284,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="248" ht="40" hidden="1" spans="2:4">
+    <row r="248" ht="37.5" hidden="1" spans="2:4">
       <c r="B248" s="1" t="s">
         <v>741</v>
       </c>
@@ -17313,7 +17309,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="250" ht="24" hidden="1" spans="1:4">
+    <row r="250" hidden="1" spans="1:4">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -17363,7 +17359,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" ht="40" hidden="1" spans="2:4">
+    <row r="254" ht="37.5" hidden="1" spans="2:4">
       <c r="B254" s="1" t="s">
         <v>759</v>
       </c>
@@ -17399,7 +17395,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="257" ht="24" hidden="1" spans="2:4">
+    <row r="257" hidden="1" spans="2:4">
       <c r="B257" s="1" t="s">
         <v>768</v>
       </c>
@@ -17410,7 +17406,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" ht="40" hidden="1" spans="1:4">
+    <row r="258" ht="37.5" hidden="1" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -17424,7 +17420,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" ht="23" hidden="1" spans="1:4">
+    <row r="259" hidden="1" spans="1:4">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -17460,7 +17456,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" ht="24" hidden="1" spans="1:4">
+    <row r="262" hidden="1" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -17502,7 +17498,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="265" ht="24" hidden="1" spans="1:4">
+    <row r="265" hidden="1" spans="1:4">
       <c r="A265" s="1">
         <v>0</v>
       </c>
@@ -17530,7 +17526,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="267" ht="24" hidden="1" spans="1:4">
+    <row r="267" hidden="1" spans="1:4">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -17544,7 +17540,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" ht="23" hidden="1" spans="2:4">
+    <row r="268" hidden="1" spans="2:4">
       <c r="B268" s="1" t="s">
         <v>801</v>
       </c>
@@ -17569,7 +17565,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="270" ht="23" hidden="1" spans="2:4">
+    <row r="270" hidden="1" spans="2:4">
       <c r="B270" s="1" t="s">
         <v>807</v>
       </c>
@@ -17591,7 +17587,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" ht="24" hidden="1" spans="1:4">
+    <row r="272" hidden="1" spans="1:4">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -17605,7 +17601,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="273" ht="23" hidden="1" spans="1:4">
+    <row r="273" hidden="1" spans="1:4">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -17633,7 +17629,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="275" ht="23" hidden="1" spans="2:4">
+    <row r="275" hidden="1" spans="2:4">
       <c r="B275" s="1" t="s">
         <v>822</v>
       </c>
@@ -17644,7 +17640,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="276" ht="40" hidden="1" spans="1:4">
+    <row r="276" ht="37.5" hidden="1" spans="1:4">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -17697,7 +17693,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="280" ht="23" hidden="1" spans="1:4">
+    <row r="280" hidden="1" spans="1:4">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -17722,7 +17718,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="282" ht="24" hidden="1" spans="1:4">
+    <row r="282" hidden="1" spans="1:4">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -17736,7 +17732,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="283" ht="24" hidden="1" spans="2:4">
+    <row r="283" hidden="1" spans="2:4">
       <c r="B283" s="1" t="s">
         <v>846</v>
       </c>
@@ -17747,7 +17743,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="284" ht="40" hidden="1" spans="2:4">
+    <row r="284" ht="37.5" hidden="1" spans="2:4">
       <c r="B284" s="1" t="s">
         <v>849</v>
       </c>
@@ -17769,7 +17765,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="286" ht="24" hidden="1" spans="1:4">
+    <row r="286" hidden="1" spans="1:4">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -17783,7 +17779,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="287" ht="40" hidden="1" spans="1:4">
+    <row r="287" ht="37.5" hidden="1" spans="1:4">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -17797,7 +17793,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="288" ht="24" hidden="1" spans="2:4">
+    <row r="288" hidden="1" spans="2:4">
       <c r="B288" s="1" t="s">
         <v>861</v>
       </c>
@@ -17808,7 +17804,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="289" ht="24" hidden="1" spans="2:4">
+    <row r="289" hidden="1" spans="2:4">
       <c r="B289" s="1" t="s">
         <v>864</v>
       </c>
@@ -17819,7 +17815,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="290" ht="24" hidden="1" spans="2:4">
+    <row r="290" hidden="1" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>867</v>
       </c>
@@ -17830,7 +17826,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" ht="24" hidden="1" spans="1:4">
+    <row r="291" hidden="1" spans="1:4">
       <c r="A291" s="1">
         <v>0</v>
       </c>
@@ -17844,7 +17840,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="292" ht="24" hidden="1" spans="2:4">
+    <row r="292" hidden="1" spans="2:4">
       <c r="B292" s="1" t="s">
         <v>873</v>
       </c>
@@ -17855,7 +17851,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="293" ht="24" hidden="1" spans="2:4">
+    <row r="293" hidden="1" spans="2:4">
       <c r="B293" s="1" t="s">
         <v>876</v>
       </c>
@@ -17894,7 +17890,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="296" ht="40" hidden="1" spans="1:4">
+    <row r="296" ht="37.5" hidden="1" spans="1:4">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -17936,7 +17932,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="299" ht="40" hidden="1" spans="1:4">
+    <row r="299" ht="37.5" hidden="1" spans="1:4">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -17950,7 +17946,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="300" ht="40" hidden="1" spans="2:4">
+    <row r="300" ht="37.5" hidden="1" spans="2:4">
       <c r="B300" s="1" t="s">
         <v>897</v>
       </c>
@@ -17961,7 +17957,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="301" ht="24" hidden="1" spans="2:4">
+    <row r="301" hidden="1" spans="2:4">
       <c r="B301" s="1" t="s">
         <v>900</v>
       </c>
@@ -17972,7 +17968,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="302" ht="23" hidden="1" spans="2:4">
+    <row r="302" hidden="1" spans="2:4">
       <c r="B302" s="1" t="s">
         <v>903</v>
       </c>
@@ -17994,7 +17990,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="304" ht="23" hidden="1" spans="2:4">
+    <row r="304" hidden="1" spans="2:4">
       <c r="B304" s="1" t="s">
         <v>909</v>
       </c>
@@ -18005,7 +18001,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="305" ht="24" hidden="1" spans="2:4">
+    <row r="305" hidden="1" spans="2:4">
       <c r="B305" s="1" t="s">
         <v>912</v>
       </c>
@@ -18016,7 +18012,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="306" ht="24" hidden="1" spans="2:4">
+    <row r="306" hidden="1" spans="2:4">
       <c r="B306" s="1" t="s">
         <v>915</v>
       </c>
@@ -18038,7 +18034,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" ht="24" hidden="1" spans="2:4">
+    <row r="308" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>921</v>
       </c>
@@ -18049,7 +18045,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="309" ht="40" hidden="1" spans="1:4">
+    <row r="309" ht="37.5" hidden="1" spans="1:4">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -18063,7 +18059,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="310" ht="24" hidden="1" spans="2:4">
+    <row r="310" hidden="1" spans="2:4">
       <c r="B310" s="1" t="s">
         <v>927</v>
       </c>
@@ -18074,7 +18070,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="311" ht="40" hidden="1" spans="2:4">
+    <row r="311" ht="37.5" hidden="1" spans="2:4">
       <c r="B311" s="1" t="s">
         <v>930</v>
       </c>
@@ -18085,7 +18081,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="312" ht="24" hidden="1" spans="2:4">
+    <row r="312" hidden="1" spans="2:4">
       <c r="B312" s="1" t="s">
         <v>933</v>
       </c>
@@ -18107,7 +18103,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="314" ht="40" hidden="1" spans="1:4">
+    <row r="314" ht="37.5" hidden="1" spans="1:4">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -18121,7 +18117,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="315" ht="40" hidden="1" spans="1:4">
+    <row r="315" ht="37.5" hidden="1" spans="1:4">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -18135,7 +18131,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="316" ht="24" hidden="1" spans="2:4">
+    <row r="316" hidden="1" spans="2:4">
       <c r="B316" s="1" t="s">
         <v>945</v>
       </c>
@@ -18185,7 +18181,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="320" ht="40" hidden="1" spans="1:4">
+    <row r="320" ht="37.5" hidden="1" spans="1:4">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -18238,7 +18234,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="324" ht="24" hidden="1" spans="2:4">
+    <row r="324" hidden="1" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>969</v>
       </c>
@@ -18249,7 +18245,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="325" ht="24" hidden="1" spans="2:4">
+    <row r="325" hidden="1" spans="2:4">
       <c r="B325" s="1" t="s">
         <v>972</v>
       </c>
@@ -18271,7 +18267,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="327" ht="40" hidden="1" spans="2:4">
+    <row r="327" ht="37.5" hidden="1" spans="2:4">
       <c r="B327" s="1" t="s">
         <v>978</v>
       </c>
@@ -18293,7 +18289,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="329" ht="24" hidden="1" spans="2:4">
+    <row r="329" hidden="1" spans="2:4">
       <c r="B329" s="1" t="s">
         <v>984</v>
       </c>
@@ -18315,7 +18311,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="331" ht="24" hidden="1" spans="2:4">
+    <row r="331" hidden="1" spans="2:4">
       <c r="B331" s="1" t="s">
         <v>990</v>
       </c>
@@ -18340,7 +18336,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="333" ht="24" hidden="1" spans="1:4">
+    <row r="333" hidden="1" spans="1:4">
       <c r="A333" s="1">
         <v>0</v>
       </c>
@@ -18354,7 +18350,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="334" ht="40" hidden="1" spans="2:4">
+    <row r="334" hidden="1" spans="2:4">
       <c r="B334" s="1" t="s">
         <v>999</v>
       </c>
@@ -18365,7 +18361,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="335" ht="24" hidden="1" spans="2:4">
+    <row r="335" hidden="1" spans="2:4">
       <c r="B335" s="1" t="s">
         <v>1002</v>
       </c>
@@ -18376,7 +18372,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="336" ht="40" hidden="1" spans="1:4">
+    <row r="336" ht="37.5" hidden="1" spans="1:4">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -18390,7 +18386,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="337" ht="40" hidden="1" spans="2:4">
+    <row r="337" ht="37.5" hidden="1" spans="2:4">
       <c r="B337" s="1" t="s">
         <v>1008</v>
       </c>
@@ -18401,7 +18397,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="338" ht="24" hidden="1" spans="2:4">
+    <row r="338" hidden="1" spans="2:4">
       <c r="B338" s="1" t="s">
         <v>1011</v>
       </c>
@@ -18440,7 +18436,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" ht="24" hidden="1" spans="1:4">
+    <row r="341" hidden="1" spans="1:4">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -18454,7 +18450,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="342" ht="24" hidden="1" spans="1:4">
+    <row r="342" hidden="1" spans="1:4">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -18468,7 +18464,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="343" ht="24" hidden="1" spans="2:4">
+    <row r="343" hidden="1" spans="2:4">
       <c r="B343" s="1" t="s">
         <v>1026</v>
       </c>
@@ -18479,7 +18475,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="344" ht="23" hidden="1" spans="2:4">
+    <row r="344" hidden="1" spans="2:4">
       <c r="B344" s="1" t="s">
         <v>1029</v>
       </c>
@@ -18490,7 +18486,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="345" ht="60" hidden="1" spans="1:4">
+    <row r="345" ht="56.25" hidden="1" spans="1:4">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -18504,7 +18500,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="346" ht="23" hidden="1" spans="1:4">
+    <row r="346" hidden="1" spans="1:4">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -18532,7 +18528,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="348" ht="24" hidden="1" spans="1:4">
+    <row r="348" hidden="1" spans="1:4">
       <c r="A348" s="1">
         <v>0</v>
       </c>
@@ -18599,7 +18595,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="353" ht="40" hidden="1" spans="1:4">
+    <row r="353" ht="37.5" hidden="1" spans="1:4">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -18666,7 +18662,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="358" ht="24" hidden="1" spans="2:4">
+    <row r="358" hidden="1" spans="2:4">
       <c r="B358" s="1" t="s">
         <v>1071</v>
       </c>
@@ -18691,7 +18687,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" ht="24" hidden="1" spans="1:4">
+    <row r="360" hidden="1" spans="1:4">
       <c r="A360" s="1">
         <v>0</v>
       </c>
@@ -18705,7 +18701,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="361" ht="24" hidden="1" spans="1:4">
+    <row r="361" hidden="1" spans="1:4">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -18719,7 +18715,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="362" ht="24" hidden="1" spans="2:4">
+    <row r="362" hidden="1" spans="2:4">
       <c r="B362" s="1" t="s">
         <v>1083</v>
       </c>
@@ -18730,7 +18726,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="363" ht="23" hidden="1" spans="1:4">
+    <row r="363" hidden="1" spans="1:4">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -18758,7 +18754,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="365" ht="24" hidden="1" spans="2:4">
+    <row r="365" hidden="1" spans="2:4">
       <c r="B365" s="1" t="s">
         <v>1092</v>
       </c>
@@ -18769,7 +18765,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="366" ht="24" hidden="1" spans="1:4">
+    <row r="366" hidden="1" spans="1:4">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -18811,7 +18807,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="369" ht="40" hidden="1" spans="1:4">
+    <row r="369" ht="37.5" hidden="1" spans="1:4">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -18825,7 +18821,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="370" ht="24" hidden="1" spans="1:4">
+    <row r="370" hidden="1" spans="1:4">
       <c r="A370" s="1">
         <v>0</v>
       </c>
@@ -18839,7 +18835,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="371" ht="24" hidden="1" spans="1:4">
+    <row r="371" hidden="1" spans="1:4">
       <c r="A371" s="1">
         <v>0</v>
       </c>
@@ -18892,7 +18888,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="375" ht="40" hidden="1" spans="1:4">
+    <row r="375" ht="37.5" hidden="1" spans="1:4">
       <c r="A375" s="1">
         <v>0</v>
       </c>
@@ -18942,7 +18938,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="379" ht="23" hidden="1" spans="2:4">
+    <row r="379" hidden="1" spans="2:4">
       <c r="B379" s="1" t="s">
         <v>1134</v>
       </c>
@@ -18953,7 +18949,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="380" ht="24" hidden="1" spans="1:4">
+    <row r="380" hidden="1" spans="1:4">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -18995,7 +18991,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="383" ht="24" hidden="1" spans="1:4">
+    <row r="383" hidden="1" spans="1:4">
       <c r="A383" s="1">
         <v>0</v>
       </c>
@@ -19009,7 +19005,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="384" ht="40" hidden="1" spans="1:4">
+    <row r="384" ht="37.5" hidden="1" spans="1:4">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -19023,7 +19019,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="385" ht="40" hidden="1" spans="1:4">
+    <row r="385" ht="37.5" hidden="1" spans="1:4">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -19076,7 +19072,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="389" ht="24" hidden="1" spans="2:4">
+    <row r="389" hidden="1" spans="2:4">
       <c r="B389" s="1" t="s">
         <v>1164</v>
       </c>
@@ -19087,7 +19083,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="390" ht="24" hidden="1" spans="1:4">
+    <row r="390" hidden="1" spans="1:4">
       <c r="A390" s="1">
         <v>0</v>
       </c>
@@ -19115,7 +19111,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="392" ht="40" hidden="1" spans="1:4">
+    <row r="392" ht="37.5" hidden="1" spans="1:4">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -19143,7 +19139,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="394" ht="24" hidden="1" spans="2:4">
+    <row r="394" hidden="1" spans="2:4">
       <c r="B394" s="1" t="s">
         <v>1179</v>
       </c>
@@ -19154,7 +19150,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="395" ht="24" hidden="1" spans="2:4">
+    <row r="395" hidden="1" spans="2:4">
       <c r="B395" s="1" t="s">
         <v>1182</v>
       </c>
@@ -19176,7 +19172,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="397" ht="24" hidden="1" spans="2:4">
+    <row r="397" hidden="1" spans="2:4">
       <c r="B397" s="1" t="s">
         <v>1188</v>
       </c>
@@ -19215,7 +19211,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="400" ht="24" hidden="1" spans="1:4">
+    <row r="400" hidden="1" spans="1:4">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -19229,7 +19225,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="401" ht="40" hidden="1" spans="1:4">
+    <row r="401" ht="37.5" hidden="1" spans="1:4">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -19243,7 +19239,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="402" ht="23" hidden="1" spans="1:4">
+    <row r="402" hidden="1" spans="1:4">
       <c r="A402" s="1">
         <v>0</v>
       </c>
@@ -19257,7 +19253,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="403" ht="48" hidden="1" spans="2:4">
+    <row r="403" ht="37.5" hidden="1" spans="2:4">
       <c r="B403" s="1" t="s">
         <v>1206</v>
       </c>
@@ -19268,7 +19264,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="404" ht="23" hidden="1" spans="2:4">
+    <row r="404" hidden="1" spans="2:4">
       <c r="B404" s="1" t="s">
         <v>1209</v>
       </c>
@@ -19279,7 +19275,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="405" ht="23" hidden="1" spans="2:4">
+    <row r="405" hidden="1" spans="2:4">
       <c r="B405" s="1" t="s">
         <v>1212</v>
       </c>
@@ -19290,7 +19286,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="406" ht="24" hidden="1" spans="2:4">
+    <row r="406" hidden="1" spans="2:4">
       <c r="B406" s="1" t="s">
         <v>1215</v>
       </c>
@@ -19315,7 +19311,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="408" ht="24" hidden="1" spans="2:4">
+    <row r="408" hidden="1" spans="2:4">
       <c r="B408" s="1" t="s">
         <v>1221</v>
       </c>
@@ -19337,7 +19333,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="410" ht="24" hidden="1" spans="1:4">
+    <row r="410" hidden="1" spans="1:4">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -19362,7 +19358,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="412" ht="24" hidden="1" spans="2:4">
+    <row r="412" hidden="1" spans="2:4">
       <c r="B412" s="1" t="s">
         <v>1233</v>
       </c>
@@ -19387,7 +19383,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="414" ht="23" hidden="1" spans="2:4">
+    <row r="414" hidden="1" spans="2:4">
       <c r="B414" s="1" t="s">
         <v>1239</v>
       </c>
@@ -19409,7 +19405,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="416" ht="24" hidden="1" spans="2:4">
+    <row r="416" hidden="1" spans="2:4">
       <c r="B416" s="1" t="s">
         <v>1245</v>
       </c>
@@ -19420,7 +19416,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="417" ht="24" hidden="1" spans="1:4">
+    <row r="417" hidden="1" spans="1:4">
       <c r="A417" s="1">
         <v>0</v>
       </c>
@@ -19445,7 +19441,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="419" ht="24" hidden="1" spans="2:4">
+    <row r="419" hidden="1" spans="2:4">
       <c r="B419" s="1" t="s">
         <v>1254</v>
       </c>
@@ -19492,7 +19488,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="423" ht="23" hidden="1" spans="2:4">
+    <row r="423" hidden="1" spans="2:4">
       <c r="B423" s="1" t="s">
         <v>1266</v>
       </c>
@@ -19503,7 +19499,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="424" ht="23" hidden="1" spans="2:4">
+    <row r="424" hidden="1" spans="2:4">
       <c r="B424" s="1" t="s">
         <v>1269</v>
       </c>
@@ -19514,7 +19510,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="425" ht="23" hidden="1" spans="1:4">
+    <row r="425" hidden="1" spans="1:4">
       <c r="A425" s="1">
         <v>0</v>
       </c>
@@ -19539,7 +19535,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="427" ht="40" hidden="1" spans="2:4">
+    <row r="427" ht="37.5" hidden="1" spans="2:4">
       <c r="B427" s="1" t="s">
         <v>1278</v>
       </c>
@@ -19550,7 +19546,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="428" ht="23" hidden="1" spans="1:4">
+    <row r="428" hidden="1" spans="1:4">
       <c r="A428" s="1">
         <v>0</v>
       </c>
@@ -19564,7 +19560,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="429" ht="24" hidden="1" spans="2:4">
+    <row r="429" hidden="1" spans="2:4">
       <c r="B429" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19575,7 +19571,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="430" ht="24" hidden="1" spans="1:4">
+    <row r="430" hidden="1" spans="1:4">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -19625,7 +19621,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="434" ht="40" hidden="1" spans="2:4">
+    <row r="434" ht="37.5" hidden="1" spans="2:4">
       <c r="B434" s="1" t="s">
         <v>1299</v>
       </c>
@@ -19664,7 +19660,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="437" ht="40" hidden="1" spans="1:4">
+    <row r="437" ht="37.5" hidden="1" spans="1:4">
       <c r="A437" s="1">
         <v>0</v>
       </c>
@@ -19700,7 +19696,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="440" ht="24" hidden="1" spans="2:4">
+    <row r="440" hidden="1" spans="2:4">
       <c r="B440" s="1" t="s">
         <v>1317</v>
       </c>
@@ -19711,7 +19707,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="441" ht="24" hidden="1" spans="2:4">
+    <row r="441" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1320</v>
       </c>
@@ -19733,7 +19729,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="443" ht="24" hidden="1" spans="2:4">
+    <row r="443" hidden="1" spans="2:4">
       <c r="B443" s="1" t="s">
         <v>1326</v>
       </c>
@@ -19744,7 +19740,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="444" ht="23" hidden="1" spans="2:4">
+    <row r="444" hidden="1" spans="2:4">
       <c r="B444" s="1" t="s">
         <v>1329</v>
       </c>
@@ -19755,7 +19751,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="445" ht="24" hidden="1" spans="2:4">
+    <row r="445" hidden="1" spans="2:4">
       <c r="B445" s="1" t="s">
         <v>1332</v>
       </c>
@@ -19794,7 +19790,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="448" ht="23" hidden="1" spans="2:4">
+    <row r="448" hidden="1" spans="2:4">
       <c r="B448" s="1" t="s">
         <v>1341</v>
       </c>
@@ -19844,7 +19840,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="452" ht="24" hidden="1" spans="2:4">
+    <row r="452" hidden="1" spans="2:4">
       <c r="B452" s="1" t="s">
         <v>1353</v>
       </c>
@@ -19855,7 +19851,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="453" ht="24" hidden="1" spans="2:4">
+    <row r="453" hidden="1" spans="2:4">
       <c r="B453" s="1" t="s">
         <v>1356</v>
       </c>
@@ -19891,7 +19887,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="456" ht="40" hidden="1" spans="1:4">
+    <row r="456" ht="37.5" hidden="1" spans="1:4">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -19916,7 +19912,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="458" ht="24" hidden="1" spans="2:4">
+    <row r="458" hidden="1" spans="2:4">
       <c r="B458" s="1" t="s">
         <v>1371</v>
       </c>
@@ -19952,7 +19948,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="461" ht="24" hidden="1" spans="2:4">
+    <row r="461" hidden="1" spans="2:4">
       <c r="B461" s="1" t="s">
         <v>1380</v>
       </c>
@@ -19963,7 +19959,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="462" ht="24" hidden="1" spans="2:4">
+    <row r="462" hidden="1" spans="2:4">
       <c r="B462" s="1" t="s">
         <v>1383</v>
       </c>
@@ -19974,7 +19970,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="463" ht="24" hidden="1" spans="2:4">
+    <row r="463" hidden="1" spans="2:4">
       <c r="B463" s="1" t="s">
         <v>1386</v>
       </c>
@@ -19985,7 +19981,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="464" ht="23" hidden="1" spans="1:4">
+    <row r="464" hidden="1" spans="1:4">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -20021,7 +20017,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="467" ht="40" hidden="1" spans="2:4">
+    <row r="467" ht="37.5" hidden="1" spans="2:4">
       <c r="B467" s="1" t="s">
         <v>1398</v>
       </c>
@@ -20046,7 +20042,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="469" ht="23" hidden="1" spans="2:4">
+    <row r="469" hidden="1" spans="2:4">
       <c r="B469" s="1" t="s">
         <v>1404</v>
       </c>
@@ -20085,7 +20081,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="472" ht="24" hidden="1" spans="1:4">
+    <row r="472" hidden="1" spans="1:4">
       <c r="A472" s="1">
         <v>0</v>
       </c>
@@ -20138,7 +20134,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="476" ht="23" hidden="1" spans="1:4">
+    <row r="476" hidden="1" spans="1:4">
       <c r="A476" s="1">
         <v>0</v>
       </c>
@@ -20152,7 +20148,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="477" ht="23" hidden="1" spans="2:4">
+    <row r="477" hidden="1" spans="2:4">
       <c r="B477" s="1" t="s">
         <v>1428</v>
       </c>
@@ -20163,7 +20159,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="478" ht="24" hidden="1" spans="1:4">
+    <row r="478" hidden="1" spans="1:4">
       <c r="A478" s="1">
         <v>0</v>
       </c>
@@ -20177,7 +20173,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="479" ht="24" hidden="1" spans="1:4">
+    <row r="479" hidden="1" spans="1:4">
       <c r="A479" s="1">
         <v>0</v>
       </c>
@@ -20202,7 +20198,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="481" ht="24" hidden="1" spans="2:4">
+    <row r="481" hidden="1" spans="2:4">
       <c r="B481" s="1" t="s">
         <v>1440</v>
       </c>
@@ -20213,7 +20209,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="482" ht="24" hidden="1" spans="2:4">
+    <row r="482" hidden="1" spans="2:4">
       <c r="B482" s="1" t="s">
         <v>1443</v>
       </c>
@@ -20224,7 +20220,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="483" ht="24" hidden="1" spans="2:4">
+    <row r="483" hidden="1" spans="2:4">
       <c r="B483" s="1" t="s">
         <v>1446</v>
       </c>
@@ -20249,7 +20245,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="485" ht="40" hidden="1" spans="1:4">
+    <row r="485" ht="37.5" hidden="1" spans="1:4">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -20263,7 +20259,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="486" ht="24" hidden="1" spans="1:4">
+    <row r="486" hidden="1" spans="1:4">
       <c r="A486" s="1">
         <v>0</v>
       </c>
@@ -20288,7 +20284,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="488" ht="24" hidden="1" spans="1:4">
+    <row r="488" hidden="1" spans="1:4">
       <c r="A488" s="1">
         <v>0</v>
       </c>
@@ -20313,7 +20309,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="490" ht="24" hidden="1" spans="2:4">
+    <row r="490" hidden="1" spans="2:4">
       <c r="B490" s="1" t="s">
         <v>1467</v>
       </c>
@@ -20338,7 +20334,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="492" ht="24" hidden="1" spans="1:4">
+    <row r="492" hidden="1" spans="1:4">
       <c r="A492" s="1">
         <v>0</v>
       </c>
@@ -20366,7 +20362,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="494" ht="24" hidden="1" spans="2:4">
+    <row r="494" hidden="1" spans="2:4">
       <c r="B494" s="1" t="s">
         <v>1479</v>
       </c>
@@ -20388,7 +20384,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="496" ht="24" hidden="1" spans="1:4">
+    <row r="496" hidden="1" spans="1:4">
       <c r="A496" s="1">
         <v>0</v>
       </c>
@@ -20402,7 +20398,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="497" ht="24" hidden="1" spans="2:4">
+    <row r="497" hidden="1" spans="2:4">
       <c r="B497" s="1" t="s">
         <v>1488</v>
       </c>
@@ -20427,7 +20423,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="499" ht="24" hidden="1" spans="2:4">
+    <row r="499" hidden="1" spans="2:4">
       <c r="B499" s="1" t="s">
         <v>1494</v>
       </c>
@@ -20438,7 +20434,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="500" ht="24" hidden="1" spans="1:4">
+    <row r="500" hidden="1" spans="1:4">
       <c r="A500" s="1">
         <v>0</v>
       </c>
@@ -20463,7 +20459,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="502" ht="40" hidden="1" spans="1:4">
+    <row r="502" ht="37.5" hidden="1" spans="1:4">
       <c r="A502" s="1">
         <v>0</v>
       </c>
@@ -20477,7 +20473,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="503" ht="24" hidden="1" spans="1:4">
+    <row r="503" hidden="1" spans="1:4">
       <c r="A503" s="1">
         <v>0</v>
       </c>
@@ -20491,7 +20487,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="504" ht="24" hidden="1" spans="2:4">
+    <row r="504" hidden="1" spans="2:4">
       <c r="B504" s="1" t="s">
         <v>1509</v>
       </c>
@@ -20502,7 +20498,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="505" ht="60" hidden="1" spans="1:4">
+    <row r="505" ht="56.25" hidden="1" spans="1:4">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -20516,7 +20512,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="506" ht="24" hidden="1" spans="1:4">
+    <row r="506" hidden="1" spans="1:4">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -20558,7 +20554,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="509" ht="23" hidden="1" spans="1:4">
+    <row r="509" hidden="1" spans="1:4">
       <c r="A509" s="1">
         <v>0</v>
       </c>
@@ -20583,7 +20579,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="511" ht="24" hidden="1" spans="1:4">
+    <row r="511" hidden="1" spans="1:4">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -20611,7 +20607,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="513" ht="24" hidden="1" spans="1:4">
+    <row r="513" hidden="1" spans="1:4">
       <c r="A513" s="1">
         <v>0</v>
       </c>
@@ -20625,7 +20621,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="514" ht="24" hidden="1" spans="1:4">
+    <row r="514" hidden="1" spans="1:4">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -20667,7 +20663,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="517" ht="23" hidden="1" spans="2:4">
+    <row r="517" hidden="1" spans="2:4">
       <c r="B517" s="1" t="s">
         <v>1548</v>
       </c>
@@ -20678,7 +20674,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="518" ht="23" hidden="1" spans="1:4">
+    <row r="518" hidden="1" spans="1:4">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -20692,7 +20688,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="519" ht="40" hidden="1" spans="1:4">
+    <row r="519" ht="37.5" hidden="1" spans="1:4">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -20742,7 +20738,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="523" ht="23" hidden="1" spans="1:4">
+    <row r="523" hidden="1" spans="1:4">
       <c r="A523" s="1">
         <v>0</v>
       </c>
@@ -20756,7 +20752,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="524" ht="23" hidden="1" spans="1:4">
+    <row r="524" hidden="1" spans="1:4">
       <c r="A524" s="1">
         <v>0</v>
       </c>
@@ -20784,7 +20780,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="526" ht="24" hidden="1" spans="2:4">
+    <row r="526" hidden="1" spans="2:4">
       <c r="B526" s="1" t="s">
         <v>1574</v>
       </c>
@@ -20809,7 +20805,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="528" ht="24" hidden="1" spans="1:4">
+    <row r="528" hidden="1" spans="1:4">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -20837,7 +20833,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="530" ht="24" hidden="1" spans="1:4">
+    <row r="530" hidden="1" spans="1:4">
       <c r="A530" s="1">
         <v>0</v>
       </c>
@@ -20873,7 +20869,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="533" ht="24" hidden="1" spans="1:4">
+    <row r="533" hidden="1" spans="1:4">
       <c r="A533" s="1">
         <v>0</v>
       </c>
@@ -20901,7 +20897,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="535" ht="24" hidden="1" spans="2:4">
+    <row r="535" hidden="1" spans="2:4">
       <c r="B535" s="1" t="s">
         <v>1601</v>
       </c>
@@ -20912,7 +20908,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="536" ht="23" hidden="1" spans="1:4">
+    <row r="536" hidden="1" spans="1:4">
       <c r="A536" s="1">
         <v>0</v>
       </c>
@@ -20937,7 +20933,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="538" ht="24" hidden="1" spans="1:4">
+    <row r="538" hidden="1" spans="1:4">
       <c r="A538" s="1">
         <v>0</v>
       </c>
@@ -20965,7 +20961,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="540" ht="23" hidden="1" spans="1:4">
+    <row r="540" hidden="1" spans="1:4">
       <c r="A540" s="1">
         <v>0</v>
       </c>
@@ -20993,7 +20989,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="542" ht="24" hidden="1" spans="1:4">
+    <row r="542" hidden="1" spans="1:4">
       <c r="A542" s="1">
         <v>0</v>
       </c>
@@ -21018,7 +21014,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="544" ht="24" hidden="1" spans="2:4">
+    <row r="544" hidden="1" spans="2:4">
       <c r="B544" s="1" t="s">
         <v>1628</v>
       </c>
@@ -21054,7 +21050,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="547" ht="40" hidden="1" spans="2:4">
+    <row r="547" ht="37.5" hidden="1" spans="2:4">
       <c r="B547" s="1" t="s">
         <v>1637</v>
       </c>
@@ -21090,7 +21086,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="550" ht="24" hidden="1" spans="1:4">
+    <row r="550" hidden="1" spans="1:4">
       <c r="A550" s="1">
         <v>0</v>
       </c>
@@ -21115,7 +21111,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="552" ht="24" hidden="1" spans="1:4">
+    <row r="552" hidden="1" spans="1:4">
       <c r="A552" s="1">
         <v>0</v>
       </c>
@@ -21157,7 +21153,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="555" ht="24" hidden="1" spans="1:4">
+    <row r="555" hidden="1" spans="1:4">
       <c r="A555" s="1">
         <v>0</v>
       </c>
@@ -21182,7 +21178,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="557" ht="24" hidden="1" spans="1:4">
+    <row r="557" hidden="1" spans="1:4">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -21210,7 +21206,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="559" ht="24" hidden="1" spans="2:4">
+    <row r="559" hidden="1" spans="2:4">
       <c r="B559" s="1" t="s">
         <v>1673</v>
       </c>
@@ -21221,7 +21217,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="560" ht="40" hidden="1" spans="2:4">
+    <row r="560" ht="37.5" hidden="1" spans="2:4">
       <c r="B560" s="1" t="s">
         <v>1676</v>
       </c>
@@ -21232,7 +21228,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="561" ht="24" hidden="1" spans="2:4">
+    <row r="561" hidden="1" spans="2:4">
       <c r="B561" s="1" t="s">
         <v>1679</v>
       </c>
@@ -21257,7 +21253,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="563" ht="24" hidden="1" spans="1:4">
+    <row r="563" hidden="1" spans="1:4">
       <c r="A563" s="1">
         <v>0</v>
       </c>
@@ -21271,7 +21267,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="564" ht="24" hidden="1" spans="1:4">
+    <row r="564" hidden="1" spans="1:4">
       <c r="A564" s="1">
         <v>0</v>
       </c>
@@ -21335,7 +21331,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="569" ht="23" hidden="1" spans="2:4">
+    <row r="569" hidden="1" spans="2:4">
       <c r="B569" s="1" t="s">
         <v>1703</v>
       </c>
@@ -21360,7 +21356,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="571" ht="24" hidden="1" spans="2:4">
+    <row r="571" hidden="1" spans="2:4">
       <c r="B571" s="1" t="s">
         <v>1709</v>
       </c>
@@ -21371,7 +21367,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="572" ht="24" hidden="1" spans="2:4">
+    <row r="572" hidden="1" spans="2:4">
       <c r="B572" s="1" t="s">
         <v>1712</v>
       </c>
@@ -21393,7 +21389,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="574" ht="24" hidden="1" spans="2:4">
+    <row r="574" hidden="1" spans="2:4">
       <c r="B574" s="1" t="s">
         <v>1718</v>
       </c>
@@ -21415,7 +21411,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="576" ht="24" hidden="1" spans="2:4">
+    <row r="576" hidden="1" spans="2:4">
       <c r="B576" s="1" t="s">
         <v>1724</v>
       </c>
@@ -21454,7 +21450,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="579" ht="23" hidden="1" spans="1:4">
+    <row r="579" hidden="1" spans="1:4">
       <c r="A579" s="1">
         <v>0</v>
       </c>
@@ -21504,7 +21500,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="583" ht="23" hidden="1" spans="2:4">
+    <row r="583" hidden="1" spans="2:4">
       <c r="B583" s="1" t="s">
         <v>1745</v>
       </c>
@@ -21529,7 +21525,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="585" ht="24" hidden="1" spans="2:4">
+    <row r="585" hidden="1" spans="2:4">
       <c r="B585" s="1" t="s">
         <v>1751</v>
       </c>
@@ -21590,7 +21586,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="590" ht="24" hidden="1" spans="1:4">
+    <row r="590" hidden="1" spans="1:4">
       <c r="A590" s="1">
         <v>0</v>
       </c>
@@ -21604,7 +21600,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="591" ht="24" hidden="1" spans="1:4">
+    <row r="591" hidden="1" spans="1:4">
       <c r="A591" s="1">
         <v>0</v>
       </c>
@@ -21632,7 +21628,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="593" ht="23" hidden="1" spans="2:4">
+    <row r="593" hidden="1" spans="2:4">
       <c r="B593" s="1" t="s">
         <v>1775</v>
       </c>
@@ -21643,7 +21639,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="594" ht="24" hidden="1" spans="2:4">
+    <row r="594" hidden="1" spans="2:4">
       <c r="B594" s="1" t="s">
         <v>1778</v>
       </c>
@@ -21665,7 +21661,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="596" ht="40" hidden="1" spans="1:4">
+    <row r="596" ht="37.5" hidden="1" spans="1:4">
       <c r="A596" s="1">
         <v>0</v>
       </c>
@@ -21679,7 +21675,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="597" ht="24" hidden="1" spans="1:4">
+    <row r="597" hidden="1" spans="1:4">
       <c r="A597" s="1">
         <v>0</v>
       </c>
@@ -21707,7 +21703,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="599" ht="24" hidden="1" spans="2:4">
+    <row r="599" hidden="1" spans="2:4">
       <c r="B599" s="1" t="s">
         <v>1793</v>
       </c>
@@ -21718,7 +21714,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="600" ht="24" hidden="1" spans="1:4">
+    <row r="600" hidden="1" spans="1:4">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -21743,7 +21739,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="602" ht="24" hidden="1" spans="2:4">
+    <row r="602" hidden="1" spans="2:4">
       <c r="B602" s="1" t="s">
         <v>1802</v>
       </c>
@@ -21754,7 +21750,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="603" ht="24" hidden="1" spans="1:4">
+    <row r="603" hidden="1" spans="1:4">
       <c r="A603" s="1">
         <v>0</v>
       </c>
@@ -21779,7 +21775,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="605" ht="24" hidden="1" spans="1:4">
+    <row r="605" hidden="1" spans="1:4">
       <c r="A605" s="1">
         <v>0</v>
       </c>
@@ -21804,7 +21800,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="607" ht="24" hidden="1" spans="2:4">
+    <row r="607" hidden="1" spans="2:4">
       <c r="B607" s="1" t="s">
         <v>1817</v>
       </c>
@@ -21890,7 +21886,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="614" ht="24" hidden="1" spans="1:4">
+    <row r="614" hidden="1" spans="1:4">
       <c r="A614" s="1">
         <v>0</v>
       </c>
@@ -21904,7 +21900,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="615" ht="24" hidden="1" spans="2:4">
+    <row r="615" hidden="1" spans="2:4">
       <c r="B615" s="1" t="s">
         <v>1841</v>
       </c>
@@ -21915,7 +21911,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="616" ht="24" hidden="1" spans="2:4">
+    <row r="616" hidden="1" spans="2:4">
       <c r="B616" s="1" t="s">
         <v>1844</v>
       </c>
@@ -21926,7 +21922,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="617" ht="23" hidden="1" spans="1:4">
+    <row r="617" hidden="1" spans="1:4">
       <c r="A617" s="1">
         <v>0</v>
       </c>
@@ -21954,7 +21950,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="619" ht="24" hidden="1" spans="2:4">
+    <row r="619" hidden="1" spans="2:4">
       <c r="B619" s="1" t="s">
         <v>1853</v>
       </c>
@@ -21990,7 +21986,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="622" ht="24" hidden="1" spans="2:4">
+    <row r="622" hidden="1" spans="2:4">
       <c r="B622" s="1" t="s">
         <v>1862</v>
       </c>
@@ -22001,7 +21997,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="623" ht="24" hidden="1" spans="1:4">
+    <row r="623" hidden="1" spans="1:4">
       <c r="A623" s="1">
         <v>0</v>
       </c>
@@ -22026,7 +22022,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="625" ht="40" hidden="1" spans="1:4">
+    <row r="625" ht="37.5" hidden="1" spans="1:4">
       <c r="A625" s="1">
         <v>0</v>
       </c>
@@ -22054,7 +22050,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="627" ht="24" hidden="1" spans="1:4">
+    <row r="627" hidden="1" spans="1:4">
       <c r="A627" s="1">
         <v>0</v>
       </c>
@@ -22082,7 +22078,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="629" ht="24" hidden="1" spans="2:4">
+    <row r="629" hidden="1" spans="2:4">
       <c r="B629" s="1" t="s">
         <v>1883</v>
       </c>
@@ -22093,7 +22089,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="630" ht="24" hidden="1" spans="2:4">
+    <row r="630" hidden="1" spans="2:4">
       <c r="B630" s="1" t="s">
         <v>1886</v>
       </c>
@@ -22104,7 +22100,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="631" ht="40" hidden="1" spans="1:4">
+    <row r="631" ht="37.5" hidden="1" spans="1:4">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -22132,7 +22128,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="633" ht="24" hidden="1" spans="2:4">
+    <row r="633" hidden="1" spans="2:4">
       <c r="B633" s="1" t="s">
         <v>1895</v>
       </c>
@@ -22168,7 +22164,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="636" ht="24" hidden="1" spans="1:4">
+    <row r="636" hidden="1" spans="1:4">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -22182,7 +22178,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="637" ht="24" hidden="1" spans="1:4">
+    <row r="637" hidden="1" spans="1:4">
       <c r="A637" s="1">
         <v>0</v>
       </c>
@@ -22196,7 +22192,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="638" ht="24" hidden="1" spans="1:4">
+    <row r="638" hidden="1" spans="1:4">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -22260,7 +22256,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="643" ht="24" hidden="1" spans="1:4">
+    <row r="643" hidden="1" spans="1:4">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -22285,7 +22281,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="645" ht="24" hidden="1" spans="1:4">
+    <row r="645" hidden="1" spans="1:4">
       <c r="A645" s="1">
         <v>0</v>
       </c>
@@ -22299,7 +22295,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="646" ht="24" hidden="1" spans="2:4">
+    <row r="646" hidden="1" spans="2:4">
       <c r="B646" s="1" t="s">
         <v>1934</v>
       </c>
@@ -22321,7 +22317,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="648" ht="23" hidden="1" spans="1:4">
+    <row r="648" hidden="1" spans="1:4">
       <c r="A648" s="1">
         <v>0</v>
       </c>
@@ -22335,7 +22331,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="649" ht="40" hidden="1" spans="1:4">
+    <row r="649" ht="37.5" hidden="1" spans="1:4">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -22377,7 +22373,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="652" ht="24" hidden="1" spans="2:4">
+    <row r="652" hidden="1" spans="2:4">
       <c r="B652" s="1" t="s">
         <v>1952</v>
       </c>
@@ -22435,7 +22431,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="657" ht="24" hidden="1" spans="1:4">
+    <row r="657" hidden="1" spans="1:4">
       <c r="A657" s="1">
         <v>0</v>
       </c>
@@ -22449,7 +22445,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="658" ht="40" hidden="1" spans="1:4">
+    <row r="658" ht="37.5" hidden="1" spans="1:4">
       <c r="A658" s="1">
         <v>0</v>
       </c>
@@ -22505,7 +22501,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="662" ht="24" hidden="1" spans="1:4">
+    <row r="662" hidden="1" spans="1:4">
       <c r="A662" s="1">
         <v>0</v>
       </c>
@@ -22519,7 +22515,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="663" ht="40" hidden="1" spans="1:4">
+    <row r="663" ht="37.5" hidden="1" spans="1:4">
       <c r="A663" s="1">
         <v>0</v>
       </c>
@@ -22533,7 +22529,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="664" ht="24" hidden="1" spans="1:4">
+    <row r="664" hidden="1" spans="1:4">
       <c r="A664" s="1">
         <v>0</v>
       </c>
@@ -22561,7 +22557,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="666" ht="24" hidden="1" spans="1:4">
+    <row r="666" hidden="1" spans="1:4">
       <c r="A666" s="1">
         <v>0</v>
       </c>
@@ -22589,7 +22585,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="668" ht="24" hidden="1" spans="2:4">
+    <row r="668" hidden="1" spans="2:4">
       <c r="B668" s="1" t="s">
         <v>2000</v>
       </c>
@@ -22600,7 +22596,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="669" ht="24" hidden="1" spans="2:4">
+    <row r="669" hidden="1" spans="2:4">
       <c r="B669" s="1" t="s">
         <v>2003</v>
       </c>
@@ -22625,7 +22621,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="671" ht="23" hidden="1" spans="1:4">
+    <row r="671" hidden="1" spans="1:4">
       <c r="A671" s="1">
         <v>0</v>
       </c>
@@ -22639,7 +22635,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="672" ht="24" hidden="1" spans="2:4">
+    <row r="672" hidden="1" spans="2:4">
       <c r="B672" s="1" t="s">
         <v>2012</v>
       </c>
@@ -22675,7 +22671,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="675" ht="24" hidden="1" spans="1:4">
+    <row r="675" hidden="1" spans="1:4">
       <c r="A675" s="1">
         <v>0</v>
       </c>
@@ -22689,7 +22685,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="676" ht="24" hidden="1" spans="2:4">
+    <row r="676" hidden="1" spans="2:4">
       <c r="B676" s="1" t="s">
         <v>2024</v>
       </c>
@@ -22700,7 +22696,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="677" ht="24" hidden="1" spans="2:4">
+    <row r="677" hidden="1" spans="2:4">
       <c r="B677" s="1" t="s">
         <v>2027</v>
       </c>
@@ -22711,7 +22707,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="678" ht="24" hidden="1" spans="1:4">
+    <row r="678" hidden="1" spans="1:4">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -22753,7 +22749,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="681" ht="40" hidden="1" spans="1:4">
+    <row r="681" ht="37.5" hidden="1" spans="1:4">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -22767,7 +22763,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="682" ht="24" hidden="1" spans="1:4">
+    <row r="682" hidden="1" spans="1:4">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -22792,7 +22788,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="684" ht="24" hidden="1" spans="1:4">
+    <row r="684" hidden="1" spans="1:4">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -22820,7 +22816,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="686" ht="24" hidden="1" spans="2:4">
+    <row r="686" hidden="1" spans="2:4">
       <c r="B686" s="1" t="s">
         <v>2054</v>
       </c>
@@ -22831,7 +22827,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="687" ht="24" hidden="1" spans="1:4">
+    <row r="687" hidden="1" spans="1:4">
       <c r="A687" s="1">
         <v>0</v>
       </c>
@@ -22859,7 +22855,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="689" ht="40" hidden="1" spans="1:4">
+    <row r="689" ht="37.5" hidden="1" spans="1:4">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -22873,7 +22869,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="690" ht="24" hidden="1" spans="1:4">
+    <row r="690" hidden="1" spans="1:4">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -22887,7 +22883,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="691" ht="24" hidden="1" spans="1:4">
+    <row r="691" hidden="1" spans="1:4">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -22937,7 +22933,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="695" ht="24" hidden="1" spans="1:4">
+    <row r="695" hidden="1" spans="1:4">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -22962,7 +22958,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="697" ht="40" hidden="1" spans="1:4">
+    <row r="697" ht="37.5" hidden="1" spans="1:4">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -22990,7 +22986,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="699" ht="24" hidden="1" spans="1:4">
+    <row r="699" hidden="1" spans="1:4">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -23004,7 +23000,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="700" ht="24" hidden="1" spans="1:4">
+    <row r="700" hidden="1" spans="1:4">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -23046,7 +23042,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="703" ht="24" hidden="1" spans="1:4">
+    <row r="703" hidden="1" spans="1:4">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -23074,7 +23070,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="705" ht="24" hidden="1" spans="1:4">
+    <row r="705" hidden="1" spans="1:4">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -23088,7 +23084,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="706" ht="24" hidden="1" spans="1:4">
+    <row r="706" hidden="1" spans="1:4">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -23102,7 +23098,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="707" ht="24" hidden="1" spans="1:4">
+    <row r="707" hidden="1" spans="1:4">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -23158,7 +23154,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="711" ht="24" hidden="1" spans="2:4">
+    <row r="711" hidden="1" spans="2:4">
       <c r="B711" s="1" t="s">
         <v>2129</v>
       </c>
@@ -23211,7 +23207,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="715" ht="23" hidden="1" spans="1:4">
+    <row r="715" hidden="1" spans="1:4">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -23267,7 +23263,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="719" ht="24" hidden="1" spans="2:4">
+    <row r="719" hidden="1" spans="2:4">
       <c r="B719" s="1" t="s">
         <v>2153</v>
       </c>
@@ -23292,7 +23288,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="721" ht="24" hidden="1" spans="1:4">
+    <row r="721" hidden="1" spans="1:4">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -23334,7 +23330,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="724" ht="24" hidden="1" spans="1:4">
+    <row r="724" hidden="1" spans="1:4">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -23362,7 +23358,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="726" ht="23" hidden="1" spans="1:4">
+    <row r="726" hidden="1" spans="1:4">
       <c r="A726" s="1">
         <v>0</v>
       </c>
@@ -23390,7 +23386,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="728" ht="24" hidden="1" spans="1:4">
+    <row r="728" hidden="1" spans="1:4">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -23404,7 +23400,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="729" ht="24" hidden="1" spans="2:4">
+    <row r="729" hidden="1" spans="2:4">
       <c r="B729" s="1" t="s">
         <v>2183</v>
       </c>
@@ -23465,7 +23461,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="734" ht="24" hidden="1" spans="2:4">
+    <row r="734" hidden="1" spans="2:4">
       <c r="B734" s="1" t="s">
         <v>2198</v>
       </c>
@@ -23476,7 +23472,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="735" ht="24" hidden="1" spans="1:4">
+    <row r="735" hidden="1" spans="1:4">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -23518,7 +23514,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="738" ht="23" hidden="1" spans="1:4">
+    <row r="738" hidden="1" spans="1:4">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -23532,7 +23528,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="739" ht="24" hidden="1" spans="1:4">
+    <row r="739" hidden="1" spans="1:4">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -23560,7 +23556,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="741" ht="24" hidden="1" spans="2:4">
+    <row r="741" hidden="1" spans="2:4">
       <c r="B741" s="1" t="s">
         <v>2219</v>
       </c>
@@ -23571,7 +23567,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="742" ht="40" hidden="1" spans="1:4">
+    <row r="742" ht="37.5" hidden="1" spans="1:4">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -23596,7 +23592,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="744" ht="23" hidden="1" spans="2:4">
+    <row r="744" hidden="1" spans="2:4">
       <c r="B744" s="1" t="s">
         <v>2228</v>
       </c>
@@ -23607,7 +23603,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="745" ht="23" hidden="1" spans="1:4">
+    <row r="745" hidden="1" spans="1:4">
       <c r="A745" s="1">
         <v>0</v>
       </c>
@@ -23621,7 +23617,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="746" ht="24" hidden="1" spans="1:4">
+    <row r="746" hidden="1" spans="1:4">
       <c r="A746" s="1">
         <v>0</v>
       </c>
@@ -23635,7 +23631,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="747" ht="23" hidden="1" spans="2:4">
+    <row r="747" hidden="1" spans="2:4">
       <c r="B747" s="1" t="s">
         <v>2237</v>
       </c>
@@ -23646,7 +23642,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="748" ht="24" hidden="1" spans="2:4">
+    <row r="748" hidden="1" spans="2:4">
       <c r="B748" s="1" t="s">
         <v>2240</v>
       </c>
@@ -23657,7 +23653,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="749" ht="40" hidden="1" spans="2:4">
+    <row r="749" ht="37.5" hidden="1" spans="2:4">
       <c r="B749" s="1" t="s">
         <v>2243</v>
       </c>
@@ -23668,7 +23664,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="750" ht="24" hidden="1" spans="2:4">
+    <row r="750" hidden="1" spans="2:4">
       <c r="B750" s="1" t="s">
         <v>2246</v>
       </c>
@@ -23679,7 +23675,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="751" ht="24" hidden="1" spans="1:4">
+    <row r="751" hidden="1" spans="1:4">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -23707,7 +23703,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="753" ht="24" hidden="1" spans="1:4">
+    <row r="753" hidden="1" spans="1:4">
       <c r="A753" s="1">
         <v>0</v>
       </c>
@@ -23735,7 +23731,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="755" ht="24" hidden="1" spans="1:4">
+    <row r="755" hidden="1" spans="1:4">
       <c r="A755" s="1">
         <v>0</v>
       </c>
@@ -23774,7 +23770,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="758" ht="24" hidden="1" spans="1:4">
+    <row r="758" hidden="1" spans="1:4">
       <c r="A758" s="1">
         <v>0</v>
       </c>
@@ -23802,7 +23798,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="760" ht="40" hidden="1" spans="1:4">
+    <row r="760" ht="37.5" hidden="1" spans="1:4">
       <c r="A760" s="1">
         <v>0</v>
       </c>
@@ -23816,7 +23812,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="761" ht="40" hidden="1" spans="2:4">
+    <row r="761" ht="37.5" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2279</v>
       </c>
@@ -23852,7 +23848,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="764" ht="24" hidden="1" spans="1:4">
+    <row r="764" hidden="1" spans="1:4">
       <c r="A764" s="1">
         <v>0</v>
       </c>
@@ -23880,7 +23876,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="766" ht="24" hidden="1" spans="1:4">
+    <row r="766" hidden="1" spans="1:4">
       <c r="A766" s="1">
         <v>0</v>
       </c>
@@ -23894,7 +23890,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="767" ht="40" hidden="1" spans="1:4">
+    <row r="767" ht="37.5" hidden="1" spans="1:4">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -23964,7 +23960,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="772" ht="24" hidden="1" spans="1:4">
+    <row r="772" hidden="1" spans="1:4">
       <c r="A772" s="1">
         <v>0</v>
       </c>
@@ -23989,7 +23985,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="774" ht="40" hidden="1" spans="2:4">
+    <row r="774" ht="37.5" hidden="1" spans="2:4">
       <c r="B774" s="1" t="s">
         <v>2318</v>
       </c>
@@ -24000,7 +23996,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="775" ht="40" hidden="1" spans="1:4">
+    <row r="775" ht="37.5" hidden="1" spans="1:4">
       <c r="A775" s="1">
         <v>0</v>
       </c>
@@ -24056,7 +24052,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="779" ht="40" hidden="1" spans="1:4">
+    <row r="779" ht="37.5" hidden="1" spans="1:4">
       <c r="A779" s="1">
         <v>0</v>
       </c>
@@ -24070,7 +24066,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="780" ht="24" hidden="1" spans="2:4">
+    <row r="780" hidden="1" spans="2:4">
       <c r="B780" s="1" t="s">
         <v>2336</v>
       </c>
@@ -24081,7 +24077,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="781" ht="40" hidden="1" spans="1:4">
+    <row r="781" ht="37.5" hidden="1" spans="1:4">
       <c r="A781" s="1">
         <v>0</v>
       </c>
@@ -24095,7 +24091,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="782" ht="60" hidden="1" spans="1:4">
+    <row r="782" ht="37.5" hidden="1" spans="1:4">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -24190,7 +24186,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="789" ht="24" hidden="1" spans="1:4">
+    <row r="789" hidden="1" spans="1:4">
       <c r="A789" s="1">
         <v>0</v>
       </c>
@@ -24324,7 +24320,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="799" ht="23" hidden="1" spans="1:4">
+    <row r="799" hidden="1" spans="1:4">
       <c r="A799" s="1">
         <v>0</v>
       </c>
@@ -24391,7 +24387,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="804" ht="24" hidden="1" spans="1:4">
+    <row r="804" hidden="1" spans="1:4">
       <c r="A804" s="1">
         <v>0</v>
       </c>
@@ -24525,7 +24521,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="814" ht="60" hidden="1" spans="1:4">
+    <row r="814" ht="56.25" hidden="1" spans="1:4">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -24539,9 +24535,9 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="815" spans="1:4">
+    <row r="815" hidden="1" spans="1:4">
       <c r="A815" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>2441</v>
@@ -24725,7 +24721,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="830" ht="24" hidden="1" spans="2:4">
+    <row r="830" hidden="1" spans="2:4">
       <c r="B830" s="1" t="s">
         <v>2486</v>
       </c>
@@ -24892,7 +24888,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="843" ht="24" hidden="1" spans="1:4">
+    <row r="843" hidden="1" spans="1:4">
       <c r="A843" s="1">
         <v>0</v>
       </c>
@@ -25009,9 +25005,9 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="852" ht="23" spans="1:4">
+    <row r="852" hidden="1" spans="1:4">
       <c r="A852" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>2552</v>
@@ -25023,7 +25019,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="853" ht="24" hidden="1" spans="1:4">
+    <row r="853" hidden="1" spans="1:4">
       <c r="A853" s="1">
         <v>0</v>
       </c>
@@ -25048,9 +25044,9 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="855" spans="1:4">
+    <row r="855" hidden="1" spans="1:4">
       <c r="A855" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>2561</v>
@@ -25062,7 +25058,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="856" ht="24" hidden="1" spans="1:4">
+    <row r="856" hidden="1" spans="1:4">
       <c r="A856" s="1">
         <v>0</v>
       </c>
@@ -25076,9 +25072,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="857" spans="1:4">
+    <row r="857" hidden="1" spans="1:4">
       <c r="A857" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>2567</v>
@@ -25101,7 +25097,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="859" ht="23" hidden="1" spans="1:4">
+    <row r="859" hidden="1" spans="1:4">
       <c r="A859" s="1">
         <v>0</v>
       </c>
@@ -25143,7 +25139,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="862" ht="24" hidden="1" spans="1:4">
+    <row r="862" hidden="1" spans="1:4">
       <c r="A862" s="1">
         <v>0</v>
       </c>
@@ -25179,7 +25175,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="865" ht="40" hidden="1" spans="1:4">
+    <row r="865" ht="37.5" hidden="1" spans="1:4">
       <c r="A865" s="1">
         <v>0</v>
       </c>
@@ -25193,9 +25189,9 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="866" ht="40" spans="1:4">
+    <row r="866" ht="37.5" hidden="1" spans="1:4">
       <c r="A866" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>2594</v>
@@ -25363,7 +25359,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="879" ht="24" spans="1:4">
+    <row r="879" spans="1:4">
       <c r="A879" s="1">
         <v>2</v>
       </c>
@@ -25413,9 +25409,9 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="883" spans="1:4">
+    <row r="883" hidden="1" spans="1:4">
       <c r="A883" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>2645</v>
@@ -25488,7 +25484,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="889" ht="40" hidden="1" spans="2:4">
+    <row r="889" ht="37.5" hidden="1" spans="2:4">
       <c r="B889" s="1" t="s">
         <v>2663</v>
       </c>
@@ -25499,9 +25495,9 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" hidden="1" spans="1:4">
       <c r="A890" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>2666</v>
@@ -25527,7 +25523,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="892" ht="24" hidden="1" spans="1:4">
+    <row r="892" hidden="1" spans="1:4">
       <c r="A892" s="1">
         <v>0</v>
       </c>
@@ -25591,7 +25587,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="897" ht="24" hidden="1" spans="2:4">
+    <row r="897" hidden="1" spans="2:4">
       <c r="B897" s="1" t="s">
         <v>2687</v>
       </c>
@@ -25705,7 +25701,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="906" ht="24" hidden="1" spans="1:4">
+    <row r="906" hidden="1" spans="1:4">
       <c r="A906" s="1">
         <v>0</v>
       </c>
@@ -25719,7 +25715,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="907" ht="24" hidden="1" spans="2:4">
+    <row r="907" hidden="1" spans="2:4">
       <c r="B907" s="1" t="s">
         <v>2717</v>
       </c>
@@ -25777,7 +25773,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="912" ht="24" hidden="1" spans="2:4">
+    <row r="912" hidden="1" spans="2:4">
       <c r="B912" s="1" t="s">
         <v>2732</v>
       </c>
@@ -25788,7 +25784,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="913" ht="24" hidden="1" spans="2:4">
+    <row r="913" hidden="1" spans="2:4">
       <c r="B913" s="1" t="s">
         <v>2735</v>
       </c>
@@ -25813,7 +25809,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="915" ht="24" hidden="1" spans="2:4">
+    <row r="915" hidden="1" spans="2:4">
       <c r="B915" s="1" t="s">
         <v>2741</v>
       </c>
@@ -25849,7 +25845,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="918" ht="24" hidden="1" spans="2:4">
+    <row r="918" hidden="1" spans="2:4">
       <c r="B918" s="1" t="s">
         <v>2750</v>
       </c>
@@ -25860,7 +25856,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="919" ht="24" hidden="1" spans="2:4">
+    <row r="919" hidden="1" spans="2:4">
       <c r="B919" s="1" t="s">
         <v>2753</v>
       </c>
@@ -25899,9 +25895,9 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="922" spans="1:4">
+    <row r="922" hidden="1" spans="1:4">
       <c r="A922" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B922" s="1" t="s">
         <v>2762</v>
@@ -25938,7 +25934,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="925" ht="24" hidden="1" spans="1:4">
+    <row r="925" hidden="1" spans="1:4">
       <c r="A925" s="1">
         <v>0</v>
       </c>
@@ -26022,7 +26018,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="931" ht="23" hidden="1" spans="1:4">
+    <row r="931" hidden="1" spans="1:4">
       <c r="A931" s="1">
         <v>0</v>
       </c>
@@ -26036,9 +26032,9 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="932" spans="1:4">
+    <row r="932" hidden="1" spans="1:4">
       <c r="A932" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>2792</v>
@@ -26075,7 +26071,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="935" ht="40" hidden="1" spans="2:4">
+    <row r="935" ht="37.5" hidden="1" spans="2:4">
       <c r="B935" s="1" t="s">
         <v>2801</v>
       </c>
@@ -26111,7 +26107,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="938" ht="40" spans="1:4">
+    <row r="938" ht="37.5" spans="1:4">
       <c r="A938" s="1">
         <v>4</v>
       </c>
@@ -26153,7 +26149,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="941" ht="60" spans="1:4">
+    <row r="941" ht="56.25" spans="1:4">
       <c r="A941" s="1">
         <v>4</v>
       </c>
@@ -26181,7 +26177,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="943" ht="24" hidden="1" spans="1:4">
+    <row r="943" hidden="1" spans="1:4">
       <c r="A943" s="1">
         <v>0</v>
       </c>
@@ -26209,7 +26205,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="945" ht="40" hidden="1" spans="2:4">
+    <row r="945" ht="37.5" hidden="1" spans="2:4">
       <c r="B945" s="1" t="s">
         <v>2831</v>
       </c>
@@ -26287,7 +26283,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="951" ht="23" spans="1:4">
+    <row r="951" spans="1:4">
       <c r="A951" s="1">
         <v>4</v>
       </c>
@@ -26315,7 +26311,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="953" ht="24" hidden="1" spans="1:4">
+    <row r="953" hidden="1" spans="1:4">
       <c r="A953" s="1">
         <v>0</v>
       </c>
@@ -26343,7 +26339,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="955" ht="23" hidden="1" spans="1:4">
+    <row r="955" hidden="1" spans="1:4">
       <c r="A955" s="1">
         <v>0</v>
       </c>
@@ -26357,9 +26353,9 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="956" ht="23" spans="1:4">
+    <row r="956" hidden="1" spans="1:4">
       <c r="A956" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B956" s="1" t="s">
         <v>2864</v>
@@ -26471,7 +26467,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="965" ht="23" hidden="1" spans="2:4">
+    <row r="965" hidden="1" spans="2:4">
       <c r="B965" s="1" t="s">
         <v>2891</v>
       </c>
@@ -26482,7 +26478,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="966" ht="24" spans="1:4">
+    <row r="966" spans="1:4">
       <c r="A966" s="1">
         <v>4</v>
       </c>
@@ -26535,7 +26531,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="970" ht="24" hidden="1" spans="1:4">
+    <row r="970" hidden="1" spans="1:4">
       <c r="A970" s="1">
         <v>0</v>
       </c>
@@ -26549,7 +26545,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="971" ht="40" hidden="1" spans="2:4">
+    <row r="971" ht="37.5" hidden="1" spans="2:4">
       <c r="B971" s="1" t="s">
         <v>2909</v>
       </c>
@@ -26571,7 +26567,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="973" ht="23" hidden="1" spans="1:4">
+    <row r="973" hidden="1" spans="1:4">
       <c r="A973" s="1">
         <v>0</v>
       </c>
@@ -26585,9 +26581,9 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="974" spans="1:4">
+    <row r="974" hidden="1" spans="1:4">
       <c r="A974" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B974" s="1" t="s">
         <v>2918</v>
@@ -26677,7 +26673,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="981" ht="24" hidden="1" spans="1:4">
+    <row r="981" hidden="1" spans="1:4">
       <c r="A981" s="1">
         <v>0</v>
       </c>
@@ -26702,7 +26698,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="983" ht="23" hidden="1" spans="1:4">
+    <row r="983" hidden="1" spans="1:4">
       <c r="A983" s="1">
         <v>0</v>
       </c>
@@ -26730,7 +26726,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="985" ht="24" hidden="1" spans="2:4">
+    <row r="985" hidden="1" spans="2:4">
       <c r="B985" s="1" t="s">
         <v>2951</v>
       </c>
@@ -26741,7 +26737,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="986" ht="24" hidden="1" spans="1:4">
+    <row r="986" hidden="1" spans="1:4">
       <c r="A986" s="1">
         <v>0</v>
       </c>
@@ -26766,7 +26762,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="988" ht="23" hidden="1" spans="1:4">
+    <row r="988" hidden="1" spans="1:4">
       <c r="A988" s="1">
         <v>0</v>
       </c>
@@ -26780,7 +26776,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="989" ht="24" hidden="1" spans="1:4">
+    <row r="989" hidden="1" spans="1:4">
       <c r="A989" s="1">
         <v>0</v>
       </c>
@@ -26794,7 +26790,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="990" ht="40" hidden="1" spans="1:4">
+    <row r="990" ht="37.5" hidden="1" spans="1:4">
       <c r="A990" s="1">
         <v>0</v>
       </c>
@@ -26808,7 +26804,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="991" ht="24" hidden="1" spans="1:4">
+    <row r="991" hidden="1" spans="1:4">
       <c r="A991" s="1">
         <v>0</v>
       </c>
@@ -26822,7 +26818,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="992" ht="40" hidden="1" spans="1:4">
+    <row r="992" ht="37.5" hidden="1" spans="1:4">
       <c r="A992" s="1">
         <v>0</v>
       </c>
@@ -26836,7 +26832,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="993" ht="24" spans="1:4">
+    <row r="993" spans="1:4">
       <c r="A993" s="1">
         <v>2</v>
       </c>
@@ -26850,7 +26846,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="994" ht="24" hidden="1" spans="1:4">
+    <row r="994" hidden="1" spans="1:4">
       <c r="A994" s="1">
         <v>0</v>
       </c>
@@ -26864,7 +26860,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="995" ht="23" hidden="1" spans="2:4">
+    <row r="995" hidden="1" spans="2:4">
       <c r="B995" s="1" t="s">
         <v>2981</v>
       </c>
@@ -26889,7 +26885,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="997" ht="40" hidden="1" spans="1:4">
+    <row r="997" ht="37.5" hidden="1" spans="1:4">
       <c r="A997" s="1">
         <v>0</v>
       </c>
@@ -26903,7 +26899,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="998" ht="24" hidden="1" spans="2:4">
+    <row r="998" hidden="1" spans="2:4">
       <c r="B998" s="1" t="s">
         <v>2990</v>
       </c>
@@ -26914,7 +26910,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="999" ht="40" hidden="1" spans="1:4">
+    <row r="999" ht="37.5" hidden="1" spans="1:4">
       <c r="A999" s="1">
         <v>0</v>
       </c>
@@ -26928,7 +26924,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="1000" ht="40" hidden="1" spans="2:4">
+    <row r="1000" ht="37.5" hidden="1" spans="2:4">
       <c r="B1000" s="1" t="s">
         <v>2996</v>
       </c>
@@ -26953,7 +26949,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="1002" ht="23" hidden="1" spans="2:4">
+    <row r="1002" hidden="1" spans="2:4">
       <c r="B1002" s="1" t="s">
         <v>3002</v>
       </c>
@@ -26964,7 +26960,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="1003" ht="40" hidden="1" spans="1:4">
+    <row r="1003" ht="37.5" hidden="1" spans="1:4">
       <c r="A1003" s="1">
         <v>0</v>
       </c>
@@ -26992,7 +26988,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="1005" ht="23" hidden="1" spans="1:4">
+    <row r="1005" hidden="1" spans="1:4">
       <c r="A1005" s="1">
         <v>0</v>
       </c>
@@ -27020,7 +27016,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="1007" ht="24" hidden="1" spans="1:4">
+    <row r="1007" hidden="1" spans="1:4">
       <c r="A1007" s="1">
         <v>0</v>
       </c>
@@ -27048,7 +27044,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="1009" ht="24" hidden="1" spans="2:4">
+    <row r="1009" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
         <v>3023</v>
       </c>
@@ -27112,7 +27108,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="1014" ht="24" hidden="1" spans="1:4">
+    <row r="1014" hidden="1" spans="1:4">
       <c r="A1014" s="1">
         <v>0</v>
       </c>
@@ -27130,7 +27126,6 @@
   <autoFilter ref="A1:A1014">
     <filterColumn colId="0">
       <filters>
-        <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
